--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4547428</v>
+        <v>4547775</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,58 +28061,58 @@
         <v>44618.51736111111</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="L310">
+        <v>4.75</v>
+      </c>
+      <c r="M310">
         <v>6</v>
       </c>
-      <c r="M310">
-        <v>12</v>
-      </c>
       <c r="N310">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O310">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P310">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q310">
         <v>-1.5</v>
       </c>
       <c r="R310">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S310">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
         <v>3</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V310">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W310">
-        <v>0.2849999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC310">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>4547775</v>
+        <v>4547428</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,58 +28150,58 @@
         <v>44618.51736111111</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>54</v>
       </c>
       <c r="K311">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="L311">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M311">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N311">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="O311">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P311">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q311">
         <v>-1.5</v>
       </c>
       <c r="R311">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T311">
         <v>3</v>
       </c>
       <c r="U311">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W311">
-        <v>0.333</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28210,16 +28210,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA311">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -33300,7 +33300,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4835448</v>
+        <v>4835257</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33312,40 +33312,40 @@
         <v>44735.625</v>
       </c>
       <c r="F369" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G369" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H369">
         <v>1</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J369" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K369">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L369">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M369">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O369">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P369">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q369">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R369">
         <v>1.85</v>
@@ -33354,34 +33354,34 @@
         <v>1.95</v>
       </c>
       <c r="T369">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U369">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V369">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W369">
         <v>-1</v>
       </c>
       <c r="X369">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z369">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC369">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33389,7 +33389,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4835262</v>
+        <v>4835261</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33401,49 +33401,49 @@
         <v>44735.625</v>
       </c>
       <c r="F370" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J370" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K370">
+        <v>3.5</v>
+      </c>
+      <c r="L370">
+        <v>3.25</v>
+      </c>
+      <c r="M370">
+        <v>1.909</v>
+      </c>
+      <c r="N370">
+        <v>3.8</v>
+      </c>
+      <c r="O370">
+        <v>3.75</v>
+      </c>
+      <c r="P370">
         <v>1.85</v>
       </c>
-      <c r="L370">
-        <v>3.2</v>
-      </c>
-      <c r="M370">
-        <v>3.8</v>
-      </c>
-      <c r="N370">
-        <v>1.5</v>
-      </c>
-      <c r="O370">
-        <v>4.333</v>
-      </c>
-      <c r="P370">
-        <v>4.75</v>
-      </c>
       <c r="Q370">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R370">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S370">
-        <v>1.675</v>
+        <v>1.85</v>
       </c>
       <c r="T370">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U370">
         <v>1.9</v>
@@ -33452,25 +33452,25 @@
         <v>1.9</v>
       </c>
       <c r="W370">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z370">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.3375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB370">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC370">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33478,7 +33478,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4835261</v>
+        <v>4835448</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33490,76 +33490,76 @@
         <v>44735.625</v>
       </c>
       <c r="F371" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371" t="s">
+        <v>53</v>
+      </c>
+      <c r="K371">
+        <v>2.625</v>
+      </c>
+      <c r="L371">
         <v>3</v>
       </c>
-      <c r="J371" t="s">
-        <v>52</v>
-      </c>
-      <c r="K371">
-        <v>3.5</v>
-      </c>
-      <c r="L371">
-        <v>3.25</v>
-      </c>
       <c r="M371">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N371">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O371">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P371">
+        <v>2.2</v>
+      </c>
+      <c r="Q371">
+        <v>0.25</v>
+      </c>
+      <c r="R371">
         <v>1.85</v>
       </c>
-      <c r="Q371">
-        <v>0.5</v>
-      </c>
-      <c r="R371">
+      <c r="S371">
         <v>1.95</v>
       </c>
-      <c r="S371">
+      <c r="T371">
+        <v>2.75</v>
+      </c>
+      <c r="U371">
         <v>1.85</v>
       </c>
-      <c r="T371">
-        <v>3</v>
-      </c>
-      <c r="U371">
-        <v>1.9</v>
-      </c>
       <c r="V371">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y371">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA371">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33567,7 +33567,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4835257</v>
+        <v>4835262</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33579,76 +33579,76 @@
         <v>44735.625</v>
       </c>
       <c r="F372" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K372">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L372">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N372">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O372">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
-        <v>0.95</v>
+        <v>0.3375</v>
       </c>
       <c r="AB372">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33656,7 +33656,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4835269</v>
+        <v>4835449</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,58 +33668,58 @@
         <v>44739.625</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H373">
+        <v>2</v>
+      </c>
+      <c r="I373">
         <v>1</v>
-      </c>
-      <c r="I373">
-        <v>0</v>
       </c>
       <c r="J373" t="s">
         <v>54</v>
       </c>
       <c r="K373">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="L373">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M373">
+        <v>6</v>
+      </c>
+      <c r="N373">
+        <v>1.285</v>
+      </c>
+      <c r="O373">
         <v>5</v>
       </c>
-      <c r="N373">
-        <v>1.571</v>
-      </c>
-      <c r="O373">
-        <v>3.5</v>
-      </c>
       <c r="P373">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S373">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U373">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V373">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W373">
-        <v>0.571</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33728,16 +33728,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
+        <v>-1</v>
+      </c>
+      <c r="AA373">
+        <v>1.05</v>
+      </c>
+      <c r="AB373">
         <v>0</v>
       </c>
-      <c r="AA373">
+      <c r="AC373">
         <v>-0</v>
-      </c>
-      <c r="AB373">
-        <v>-1</v>
-      </c>
-      <c r="AC373">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33745,7 +33745,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4835268</v>
+        <v>4835269</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33757,49 +33757,49 @@
         <v>44739.625</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G374" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374">
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K374">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M374">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O374">
         <v>3.5</v>
       </c>
       <c r="P374">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R374">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
         <v>1.9</v>
@@ -33808,19 +33808,19 @@
         <v>1.9</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X374">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB374">
         <v>-1</v>
@@ -33834,7 +33834,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4835449</v>
+        <v>4835268</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33846,76 +33846,76 @@
         <v>44739.625</v>
       </c>
       <c r="F375" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G375" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J375" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K375">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L375">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M375">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N375">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="O375">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P375">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q375">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R375">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T375">
         <v>3</v>
       </c>
       <c r="U375">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V375">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W375">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA375">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -34012,7 +34012,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>4835265</v>
+        <v>4835266</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34024,76 +34024,76 @@
         <v>44739.625</v>
       </c>
       <c r="F377" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G377" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K377">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M377">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N377">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O377">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P377">
-        <v>9</v>
+        <v>1.571</v>
       </c>
       <c r="Q377">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R377">
-        <v>1.65</v>
+        <v>1.775</v>
       </c>
       <c r="S377">
-        <v>2.2</v>
+        <v>2.025</v>
       </c>
       <c r="T377">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="V377">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W377">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA377">
-        <v>1.2</v>
+        <v>-0</v>
       </c>
       <c r="AB377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34101,7 +34101,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4835267</v>
+        <v>4835265</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34113,61 +34113,61 @@
         <v>44739.625</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K378">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="L378">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M378">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N378">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O378">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P378">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q378">
         <v>-1.5</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="S378">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T378">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>1.625</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X378">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34176,13 +34176,13 @@
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC378">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34190,7 +34190,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4835266</v>
+        <v>4835264</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34202,76 +34202,76 @@
         <v>44739.625</v>
       </c>
       <c r="F379" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G379" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H379">
+        <v>3</v>
+      </c>
+      <c r="I379">
         <v>0</v>
       </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
       <c r="J379" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K379">
+        <v>1.6</v>
+      </c>
+      <c r="L379">
         <v>3.75</v>
       </c>
-      <c r="L379">
-        <v>3.3</v>
-      </c>
       <c r="M379">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N379">
-        <v>5.25</v>
+        <v>1.181</v>
       </c>
       <c r="O379">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P379">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="Q379">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R379">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S379">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T379">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U379">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V379">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC379">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34279,7 +34279,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4835264</v>
+        <v>4835267</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34291,76 +34291,76 @@
         <v>44739.625</v>
       </c>
       <c r="F380" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K380">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L380">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M380">
+        <v>7.5</v>
+      </c>
+      <c r="N380">
+        <v>1.3</v>
+      </c>
+      <c r="O380">
         <v>5</v>
       </c>
-      <c r="N380">
-        <v>1.181</v>
-      </c>
-      <c r="O380">
-        <v>6</v>
-      </c>
       <c r="P380">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q380">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T380">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V380">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W380">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X380">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB380">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34546,7 +34546,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5485071</v>
+        <v>5485072</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34558,55 +34558,55 @@
         <v>44799.53125</v>
       </c>
       <c r="F383" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G383" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J383" t="s">
         <v>52</v>
       </c>
       <c r="K383">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L383">
         <v>3.4</v>
       </c>
       <c r="M383">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N383">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O383">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P383">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q383">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R383">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T383">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W383">
         <v>-1</v>
@@ -34615,19 +34615,19 @@
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>0.6000000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB383">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC383">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34635,7 +34635,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>5485072</v>
+        <v>5485071</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34647,55 +34647,55 @@
         <v>44799.53125</v>
       </c>
       <c r="F384" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G384" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J384" t="s">
         <v>52</v>
       </c>
       <c r="K384">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="L384">
         <v>3.4</v>
       </c>
       <c r="M384">
+        <v>1.75</v>
+      </c>
+      <c r="N384">
+        <v>5.25</v>
+      </c>
+      <c r="O384">
         <v>3.6</v>
       </c>
-      <c r="N384">
-        <v>2.05</v>
-      </c>
-      <c r="O384">
-        <v>3.25</v>
-      </c>
       <c r="P384">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q384">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R384">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S384">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U384">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W384">
         <v>-1</v>
@@ -34704,19 +34704,19 @@
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>2.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z384">
         <v>-1</v>
       </c>
       <c r="AA384">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB384">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5485115</v>
+        <v>5485085</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>44819.625</v>
       </c>
       <c r="F408" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K408">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L408">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M408">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N408">
+        <v>1.2</v>
+      </c>
+      <c r="O408">
+        <v>6.5</v>
+      </c>
+      <c r="P408">
+        <v>11</v>
+      </c>
+      <c r="Q408">
+        <v>-2</v>
+      </c>
+      <c r="R408">
         <v>1.95</v>
       </c>
-      <c r="O408">
-        <v>3.5</v>
-      </c>
-      <c r="P408">
+      <c r="S408">
+        <v>1.85</v>
+      </c>
+      <c r="T408">
         <v>3.25</v>
       </c>
-      <c r="Q408">
-        <v>-0.5</v>
-      </c>
-      <c r="R408">
-        <v>1.975</v>
-      </c>
-      <c r="S408">
-        <v>1.825</v>
-      </c>
-      <c r="T408">
-        <v>2.75</v>
-      </c>
       <c r="U408">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5485085</v>
+        <v>5485115</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>44819.625</v>
       </c>
       <c r="F409" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G409" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J409" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L409">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N409">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O409">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="Q409">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R409">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S409">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V409">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W409">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC409">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37216,7 +37216,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5485087</v>
+        <v>5485088</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37228,58 +37228,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G413" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>54</v>
       </c>
       <c r="K413">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L413">
+        <v>3.2</v>
+      </c>
+      <c r="M413">
+        <v>2.9</v>
+      </c>
+      <c r="N413">
+        <v>2.15</v>
+      </c>
+      <c r="O413">
         <v>3.1</v>
       </c>
-      <c r="M413">
-        <v>3.2</v>
-      </c>
-      <c r="N413">
-        <v>1.7</v>
-      </c>
-      <c r="O413">
-        <v>3.2</v>
-      </c>
       <c r="P413">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q413">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S413">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T413">
         <v>2.25</v>
       </c>
       <c r="U413">
+        <v>1.95</v>
+      </c>
+      <c r="V413">
         <v>1.85</v>
       </c>
-      <c r="V413">
-        <v>1.95</v>
-      </c>
       <c r="W413">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37288,16 +37288,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA413">
+        <v>-1</v>
+      </c>
+      <c r="AB413">
         <v>-0.5</v>
       </c>
-      <c r="AB413">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37305,7 +37305,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>5485088</v>
+        <v>5485087</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37317,58 +37317,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F414" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G414" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H414">
         <v>2</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
         <v>54</v>
       </c>
       <c r="K414">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L414">
+        <v>3.1</v>
+      </c>
+      <c r="M414">
         <v>3.2</v>
       </c>
-      <c r="M414">
-        <v>2.9</v>
-      </c>
       <c r="N414">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O414">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P414">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R414">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S414">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T414">
         <v>2.25</v>
       </c>
       <c r="U414">
+        <v>1.85</v>
+      </c>
+      <c r="V414">
         <v>1.95</v>
       </c>
-      <c r="V414">
-        <v>1.85</v>
-      </c>
       <c r="W414">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37377,16 +37377,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AA414">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB414">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC414">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37839,7 +37839,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>5446243</v>
+        <v>5485093</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37851,13 +37851,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G420" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I420">
         <v>0</v>
@@ -37866,43 +37866,43 @@
         <v>54</v>
       </c>
       <c r="K420">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L420">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M420">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N420">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P420">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q420">
         <v>-0.25</v>
       </c>
       <c r="R420">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
         <v>2.25</v>
       </c>
       <c r="U420">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V420">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W420">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37911,16 +37911,16 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC420">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5485093</v>
+        <v>5446243</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,13 +37940,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F421" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G421" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421">
         <v>0</v>
@@ -37955,43 +37955,43 @@
         <v>54</v>
       </c>
       <c r="K421">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L421">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M421">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N421">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O421">
+        <v>3.1</v>
+      </c>
+      <c r="P421">
         <v>2.9</v>
-      </c>
-      <c r="P421">
-        <v>3.4</v>
       </c>
       <c r="Q421">
         <v>-0.25</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S421">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T421">
         <v>2.25</v>
       </c>
       <c r="U421">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W421">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -38000,16 +38000,16 @@
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA421">
         <v>-1</v>
       </c>
       <c r="AB421">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -39975,7 +39975,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5581793</v>
+        <v>5581790</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39987,40 +39987,40 @@
         <v>44910.39583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G444" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H444">
+        <v>1</v>
+      </c>
+      <c r="I444">
+        <v>2</v>
+      </c>
+      <c r="J444" t="s">
+        <v>52</v>
+      </c>
+      <c r="K444">
+        <v>2.375</v>
+      </c>
+      <c r="L444">
+        <v>3.1</v>
+      </c>
+      <c r="M444">
+        <v>2.7</v>
+      </c>
+      <c r="N444">
+        <v>2.4</v>
+      </c>
+      <c r="O444">
+        <v>3</v>
+      </c>
+      <c r="P444">
+        <v>2.75</v>
+      </c>
+      <c r="Q444">
         <v>0</v>
-      </c>
-      <c r="I444">
-        <v>0</v>
-      </c>
-      <c r="J444" t="s">
-        <v>53</v>
-      </c>
-      <c r="K444">
-        <v>2.1</v>
-      </c>
-      <c r="L444">
-        <v>3.2</v>
-      </c>
-      <c r="M444">
-        <v>3.1</v>
-      </c>
-      <c r="N444">
-        <v>2.1</v>
-      </c>
-      <c r="O444">
-        <v>2.875</v>
-      </c>
-      <c r="P444">
-        <v>3.4</v>
-      </c>
-      <c r="Q444">
-        <v>-0.25</v>
       </c>
       <c r="R444">
         <v>1.8</v>
@@ -40029,34 +40029,34 @@
         <v>2</v>
       </c>
       <c r="T444">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U444">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W444">
         <v>-1</v>
       </c>
       <c r="X444">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z444">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40064,7 +40064,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5581790</v>
+        <v>5581793</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40076,40 +40076,40 @@
         <v>44910.39583333334</v>
       </c>
       <c r="F445" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G445" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K445">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L445">
+        <v>3.2</v>
+      </c>
+      <c r="M445">
         <v>3.1</v>
       </c>
-      <c r="M445">
-        <v>2.7</v>
-      </c>
       <c r="N445">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O445">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P445">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q445">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R445">
         <v>1.8</v>
@@ -40118,34 +40118,34 @@
         <v>2</v>
       </c>
       <c r="T445">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U445">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V445">
+        <v>1.8</v>
+      </c>
+      <c r="W445">
+        <v>-1</v>
+      </c>
+      <c r="X445">
         <v>1.875</v>
       </c>
-      <c r="W445">
-        <v>-1</v>
-      </c>
-      <c r="X445">
-        <v>-1</v>
-      </c>
       <c r="Y445">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA445">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB445">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC445">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -41488,7 +41488,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>5581806</v>
+        <v>5581809</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41500,76 +41500,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F461" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G461" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K461">
+        <v>1.222</v>
+      </c>
+      <c r="L461">
         <v>5</v>
       </c>
-      <c r="L461">
-        <v>3.75</v>
-      </c>
       <c r="M461">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="N461">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="O461">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P461">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="Q461">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R461">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S461">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T461">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U461">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V461">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA461">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC461">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41577,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>5581809</v>
+        <v>5581806</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41589,76 +41589,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G462" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>52</v>
+      </c>
+      <c r="K462">
+        <v>5</v>
+      </c>
+      <c r="L462">
+        <v>3.75</v>
+      </c>
+      <c r="M462">
+        <v>1.6</v>
+      </c>
+      <c r="N462">
+        <v>5</v>
+      </c>
+      <c r="O462">
         <v>4</v>
       </c>
-      <c r="I462">
+      <c r="P462">
+        <v>1.533</v>
+      </c>
+      <c r="Q462">
+        <v>1</v>
+      </c>
+      <c r="R462">
+        <v>1.9</v>
+      </c>
+      <c r="S462">
+        <v>1.9</v>
+      </c>
+      <c r="T462">
+        <v>2.75</v>
+      </c>
+      <c r="U462">
+        <v>1.8</v>
+      </c>
+      <c r="V462">
+        <v>2</v>
+      </c>
+      <c r="W462">
+        <v>-1</v>
+      </c>
+      <c r="X462">
+        <v>-1</v>
+      </c>
+      <c r="Y462">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z462">
         <v>0</v>
       </c>
-      <c r="J462" t="s">
-        <v>54</v>
-      </c>
-      <c r="K462">
-        <v>1.222</v>
-      </c>
-      <c r="L462">
-        <v>5</v>
-      </c>
-      <c r="M462">
-        <v>11</v>
-      </c>
-      <c r="N462">
-        <v>1.2</v>
-      </c>
-      <c r="O462">
-        <v>5.25</v>
-      </c>
-      <c r="P462">
-        <v>11</v>
-      </c>
-      <c r="Q462">
-        <v>-1.75</v>
-      </c>
-      <c r="R462">
-        <v>1.8</v>
-      </c>
-      <c r="S462">
-        <v>2</v>
-      </c>
-      <c r="T462">
-        <v>3</v>
-      </c>
-      <c r="U462">
-        <v>1.975</v>
-      </c>
-      <c r="V462">
-        <v>1.825</v>
-      </c>
-      <c r="W462">
-        <v>0.2</v>
-      </c>
-      <c r="X462">
-        <v>-1</v>
-      </c>
-      <c r="Y462">
-        <v>-1</v>
-      </c>
-      <c r="Z462">
-        <v>0.8</v>
-      </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41755,7 +41755,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5581805</v>
+        <v>5581810</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41767,76 +41767,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G464" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K464">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="L464">
+        <v>4.5</v>
+      </c>
+      <c r="M464">
+        <v>7</v>
+      </c>
+      <c r="N464">
+        <v>1.25</v>
+      </c>
+      <c r="O464">
         <v>6</v>
       </c>
-      <c r="M464">
-        <v>1.181</v>
-      </c>
-      <c r="N464">
-        <v>15</v>
-      </c>
-      <c r="O464">
-        <v>6.5</v>
-      </c>
       <c r="P464">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q464">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S464">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V464">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y464">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB464">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC464">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41844,7 +41844,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>5581810</v>
+        <v>5581805</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41856,76 +41856,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F465" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G465" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K465">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="L465">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M465">
-        <v>7</v>
+        <v>1.181</v>
       </c>
       <c r="N465">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="O465">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P465">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q465">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R465">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S465">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T465">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U465">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V465">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA465">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB465">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42022,7 +42022,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5581816</v>
+        <v>5581812</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42034,76 +42034,76 @@
         <v>44931.60416666666</v>
       </c>
       <c r="F467" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G467" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467">
         <v>1</v>
       </c>
       <c r="J467" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K467">
+        <v>5.5</v>
+      </c>
+      <c r="L467">
+        <v>4.2</v>
+      </c>
+      <c r="M467">
+        <v>1.444</v>
+      </c>
+      <c r="N467">
+        <v>7.5</v>
+      </c>
+      <c r="O467">
+        <v>4.2</v>
+      </c>
+      <c r="P467">
+        <v>1.4</v>
+      </c>
+      <c r="Q467">
+        <v>1.25</v>
+      </c>
+      <c r="R467">
+        <v>1.85</v>
+      </c>
+      <c r="S467">
+        <v>1.95</v>
+      </c>
+      <c r="T467">
         <v>2.5</v>
       </c>
-      <c r="L467">
-        <v>3.4</v>
-      </c>
-      <c r="M467">
-        <v>2.45</v>
-      </c>
-      <c r="N467">
-        <v>2.4</v>
-      </c>
-      <c r="O467">
-        <v>3.5</v>
-      </c>
-      <c r="P467">
-        <v>2.4</v>
-      </c>
-      <c r="Q467">
-        <v>0</v>
-      </c>
-      <c r="R467">
-        <v>1.825</v>
-      </c>
-      <c r="S467">
-        <v>1.975</v>
-      </c>
-      <c r="T467">
-        <v>2.75</v>
-      </c>
       <c r="U467">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V467">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W467">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X467">
         <v>-1</v>
       </c>
       <c r="Y467">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z467">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA467">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB467">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC467">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -42111,7 +42111,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>5581812</v>
+        <v>5581816</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42123,76 +42123,76 @@
         <v>44931.60416666666</v>
       </c>
       <c r="F468" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G468" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468">
         <v>1</v>
       </c>
       <c r="J468" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K468">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L468">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M468">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="N468">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="O468">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P468">
+        <v>2.4</v>
+      </c>
+      <c r="Q468">
+        <v>0</v>
+      </c>
+      <c r="R468">
+        <v>1.825</v>
+      </c>
+      <c r="S468">
+        <v>1.975</v>
+      </c>
+      <c r="T468">
+        <v>2.75</v>
+      </c>
+      <c r="U468">
+        <v>2</v>
+      </c>
+      <c r="V468">
+        <v>1.8</v>
+      </c>
+      <c r="W468">
+        <v>-1</v>
+      </c>
+      <c r="X468">
+        <v>-1</v>
+      </c>
+      <c r="Y468">
         <v>1.4</v>
       </c>
-      <c r="Q468">
-        <v>1.25</v>
-      </c>
-      <c r="R468">
-        <v>1.85</v>
-      </c>
-      <c r="S468">
-        <v>1.95</v>
-      </c>
-      <c r="T468">
-        <v>2.5</v>
-      </c>
-      <c r="U468">
-        <v>1.85</v>
-      </c>
-      <c r="V468">
-        <v>1.95</v>
-      </c>
-      <c r="W468">
-        <v>6.5</v>
-      </c>
-      <c r="X468">
-        <v>-1</v>
-      </c>
-      <c r="Y468">
-        <v>-1</v>
-      </c>
       <c r="Z468">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA468">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB468">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -45404,7 +45404,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>5967535</v>
+        <v>5967536</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45416,76 +45416,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F505" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G505" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K505">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L505">
         <v>3.25</v>
       </c>
       <c r="M505">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N505">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O505">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P505">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q505">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R505">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S505">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T505">
         <v>2.5</v>
       </c>
       <c r="U505">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V505">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W505">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X505">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA505">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB505">
         <v>-1</v>
       </c>
       <c r="AC505">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45493,7 +45493,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5967536</v>
+        <v>5967535</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45505,76 +45505,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F506" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G506" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J506" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K506">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L506">
         <v>3.25</v>
       </c>
       <c r="M506">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N506">
+        <v>2.375</v>
+      </c>
+      <c r="O506">
+        <v>3.25</v>
+      </c>
+      <c r="P506">
+        <v>2.55</v>
+      </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
+      <c r="R506">
+        <v>1.85</v>
+      </c>
+      <c r="S506">
         <v>1.95</v>
-      </c>
-      <c r="O506">
-        <v>3.3</v>
-      </c>
-      <c r="P506">
-        <v>3.3</v>
-      </c>
-      <c r="Q506">
-        <v>-0.5</v>
-      </c>
-      <c r="R506">
-        <v>2</v>
-      </c>
-      <c r="S506">
-        <v>1.8</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V506">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X506">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA506">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -50210,7 +50210,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5967574</v>
+        <v>5967575</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50222,76 +50222,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F559" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G559" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J559" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K559">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L559">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M559">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N559">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O559">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P559">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q559">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R559">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S559">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T559">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U559">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V559">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y559">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z559">
         <v>-1</v>
       </c>
       <c r="AA559">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB559">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC559">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50388,7 +50388,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5967575</v>
+        <v>5967574</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50400,76 +50400,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F561" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G561" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J561" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K561">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L561">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M561">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N561">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O561">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P561">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q561">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R561">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S561">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T561">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U561">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V561">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y561">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z561">
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB561">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC561">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50566,7 +50566,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5966992</v>
+        <v>5967568</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50578,10 +50578,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G563" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -50593,44 +50593,44 @@
         <v>54</v>
       </c>
       <c r="K563">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L563">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M563">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N563">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O563">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P563">
+        <v>2.8</v>
+      </c>
+      <c r="Q563">
+        <v>0</v>
+      </c>
+      <c r="R563">
+        <v>1.8</v>
+      </c>
+      <c r="S563">
+        <v>2</v>
+      </c>
+      <c r="T563">
+        <v>2.25</v>
+      </c>
+      <c r="U563">
+        <v>1.9</v>
+      </c>
+      <c r="V563">
+        <v>1.9</v>
+      </c>
+      <c r="W563">
         <v>1.55</v>
       </c>
-      <c r="Q563">
-        <v>1</v>
-      </c>
-      <c r="R563">
-        <v>1.925</v>
-      </c>
-      <c r="S563">
-        <v>1.875</v>
-      </c>
-      <c r="T563">
-        <v>3</v>
-      </c>
-      <c r="U563">
-        <v>1.775</v>
-      </c>
-      <c r="V563">
-        <v>2.025</v>
-      </c>
-      <c r="W563">
-        <v>3.75</v>
-      </c>
       <c r="X563">
         <v>-1</v>
       </c>
@@ -50638,7 +50638,7 @@
         <v>-1</v>
       </c>
       <c r="Z563">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA563">
         <v>-1</v>
@@ -50647,7 +50647,7 @@
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50655,7 +50655,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5967568</v>
+        <v>5966992</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50667,10 +50667,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G564" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -50682,43 +50682,43 @@
         <v>54</v>
       </c>
       <c r="K564">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L564">
+        <v>4.75</v>
+      </c>
+      <c r="M564">
+        <v>1.363</v>
+      </c>
+      <c r="N564">
+        <v>4.75</v>
+      </c>
+      <c r="O564">
+        <v>4.5</v>
+      </c>
+      <c r="P564">
+        <v>1.55</v>
+      </c>
+      <c r="Q564">
+        <v>1</v>
+      </c>
+      <c r="R564">
+        <v>1.925</v>
+      </c>
+      <c r="S564">
+        <v>1.875</v>
+      </c>
+      <c r="T564">
         <v>3</v>
       </c>
-      <c r="M564">
-        <v>3</v>
-      </c>
-      <c r="N564">
-        <v>2.55</v>
-      </c>
-      <c r="O564">
-        <v>2.75</v>
-      </c>
-      <c r="P564">
-        <v>2.8</v>
-      </c>
-      <c r="Q564">
-        <v>0</v>
-      </c>
-      <c r="R564">
-        <v>1.8</v>
-      </c>
-      <c r="S564">
-        <v>2</v>
-      </c>
-      <c r="T564">
-        <v>2.25</v>
-      </c>
       <c r="U564">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V564">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W564">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="X564">
         <v>-1</v>
@@ -50727,7 +50727,7 @@
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA564">
         <v>-1</v>
@@ -50736,7 +50736,7 @@
         <v>-1</v>
       </c>
       <c r="AC564">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -50833,7 +50833,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>5967577</v>
+        <v>5966991</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -50845,58 +50845,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F566" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G566" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H566">
+        <v>2</v>
+      </c>
+      <c r="I566">
         <v>1</v>
-      </c>
-      <c r="I566">
-        <v>0</v>
       </c>
       <c r="J566" t="s">
         <v>54</v>
       </c>
       <c r="K566">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L566">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M566">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N566">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O566">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P566">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q566">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R566">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S566">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T566">
         <v>2.75</v>
       </c>
       <c r="U566">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V566">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W566">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X566">
         <v>-1</v>
@@ -50905,16 +50905,16 @@
         <v>-1</v>
       </c>
       <c r="Z566">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA566">
         <v>-1</v>
       </c>
       <c r="AB566">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC566">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="567" spans="1:29">
@@ -50922,7 +50922,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>5966991</v>
+        <v>5967577</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50934,58 +50934,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F567" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G567" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J567" t="s">
         <v>54</v>
       </c>
       <c r="K567">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L567">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M567">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N567">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O567">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P567">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q567">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R567">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S567">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T567">
         <v>2.75</v>
       </c>
       <c r="U567">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V567">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W567">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X567">
         <v>-1</v>
@@ -50994,16 +50994,16 @@
         <v>-1</v>
       </c>
       <c r="Z567">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA567">
         <v>-1</v>
       </c>
       <c r="AB567">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC567">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:29">
@@ -51278,7 +51278,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5967576</v>
+        <v>5967580</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51290,73 +51290,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F571" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G571" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H571">
+        <v>4</v>
+      </c>
+      <c r="I571">
         <v>0</v>
       </c>
-      <c r="I571">
-        <v>3</v>
-      </c>
       <c r="J571" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K571">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M571">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N571">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="O571">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P571">
+        <v>10</v>
+      </c>
+      <c r="Q571">
+        <v>-2</v>
+      </c>
+      <c r="R571">
+        <v>1.85</v>
+      </c>
+      <c r="S571">
+        <v>1.95</v>
+      </c>
+      <c r="T571">
         <v>3.5</v>
       </c>
-      <c r="Q571">
-        <v>-0.25</v>
-      </c>
-      <c r="R571">
+      <c r="U571">
+        <v>2</v>
+      </c>
+      <c r="V571">
         <v>1.8</v>
       </c>
-      <c r="S571">
-        <v>2</v>
-      </c>
-      <c r="T571">
-        <v>2.25</v>
-      </c>
-      <c r="U571">
-        <v>1.9</v>
-      </c>
-      <c r="V571">
-        <v>1.9</v>
-      </c>
       <c r="W571">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA571">
+        <v>-1</v>
+      </c>
+      <c r="AB571">
         <v>1</v>
-      </c>
-      <c r="AB571">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC571">
         <v>-1</v>
@@ -51367,7 +51367,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5967580</v>
+        <v>5967576</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51379,73 +51379,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F572" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G572" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H572">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J572" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K572">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L572">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N572">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="O572">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P572">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q572">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S572">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T572">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U572">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V572">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W572">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB572">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC572">
         <v>-1</v>
@@ -51634,7 +51634,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5967583</v>
+        <v>5967582</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51646,10 +51646,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F575" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G575" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H575">
         <v>2</v>
@@ -51661,43 +51661,43 @@
         <v>54</v>
       </c>
       <c r="K575">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L575">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M575">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N575">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O575">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P575">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q575">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R575">
+        <v>1.95</v>
+      </c>
+      <c r="S575">
         <v>1.85</v>
-      </c>
-      <c r="S575">
-        <v>1.95</v>
       </c>
       <c r="T575">
         <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V575">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W575">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51706,13 +51706,13 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC575">
         <v>-1</v>
@@ -51723,7 +51723,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5967582</v>
+        <v>5967583</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51735,10 +51735,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F576" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G576" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H576">
         <v>2</v>
@@ -51750,43 +51750,43 @@
         <v>54</v>
       </c>
       <c r="K576">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L576">
+        <v>3.5</v>
+      </c>
+      <c r="M576">
         <v>3.1</v>
       </c>
-      <c r="M576">
+      <c r="N576">
         <v>2.4</v>
       </c>
-      <c r="N576">
-        <v>2.2</v>
-      </c>
       <c r="O576">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P576">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q576">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R576">
+        <v>1.85</v>
+      </c>
+      <c r="S576">
         <v>1.95</v>
-      </c>
-      <c r="S576">
-        <v>1.85</v>
       </c>
       <c r="T576">
         <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V576">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W576">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51795,13 +51795,13 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA576">
         <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -52346,7 +52346,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>5967588</v>
+        <v>5966998</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52358,58 +52358,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F583" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G583" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H583">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J583" t="s">
         <v>54</v>
       </c>
       <c r="K583">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L583">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M583">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N583">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="O583">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P583">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q583">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R583">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S583">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T583">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U583">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V583">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W583">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X583">
         <v>-1</v>
@@ -52418,16 +52418,16 @@
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA583">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB583">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC583">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -52435,7 +52435,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5966998</v>
+        <v>5967588</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52447,58 +52447,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F584" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G584" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J584" t="s">
         <v>54</v>
       </c>
       <c r="K584">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L584">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M584">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N584">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O584">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P584">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q584">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R584">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S584">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T584">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U584">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V584">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W584">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52507,16 +52507,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA584">
+        <v>-1</v>
+      </c>
+      <c r="AB584">
+        <v>0.4875</v>
+      </c>
+      <c r="AC584">
         <v>-0.5</v>
-      </c>
-      <c r="AB584">
-        <v>0</v>
-      </c>
-      <c r="AC584">
-        <v>-0</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52702,7 +52702,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5967595</v>
+        <v>5967000</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52714,40 +52714,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F587" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G587" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H587">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K587">
         <v>2.5</v>
       </c>
       <c r="L587">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M587">
         <v>2.4</v>
       </c>
       <c r="N587">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q587">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R587">
         <v>2</v>
@@ -52759,31 +52759,31 @@
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z587">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB587">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52880,7 +52880,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5967000</v>
+        <v>5967595</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52892,40 +52892,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F589" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G589" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H589">
+        <v>5</v>
+      </c>
+      <c r="I589">
         <v>0</v>
       </c>
-      <c r="I589">
-        <v>2</v>
-      </c>
       <c r="J589" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K589">
         <v>2.5</v>
       </c>
       <c r="L589">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M589">
         <v>2.4</v>
       </c>
       <c r="N589">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O589">
         <v>3.4</v>
       </c>
       <c r="P589">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q589">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
         <v>2</v>
@@ -52937,31 +52937,31 @@
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA589">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB589">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC589">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -54037,7 +54037,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>5967599</v>
+        <v>5967004</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54049,49 +54049,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F602" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G602" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I602">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J602" t="s">
         <v>54</v>
       </c>
       <c r="K602">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L602">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M602">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N602">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O602">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P602">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q602">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R602">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S602">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T602">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U602">
         <v>1.95</v>
@@ -54100,7 +54100,7 @@
         <v>1.85</v>
       </c>
       <c r="W602">
-        <v>0.1419999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X602">
         <v>-1</v>
@@ -54109,16 +54109,16 @@
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA602">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB602">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC602">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -54126,7 +54126,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>5967004</v>
+        <v>5967599</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54138,49 +54138,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F603" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G603" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I603">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J603" t="s">
         <v>54</v>
       </c>
       <c r="K603">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="L603">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M603">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N603">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O603">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P603">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q603">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R603">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S603">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T603">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U603">
         <v>1.95</v>
@@ -54189,7 +54189,7 @@
         <v>1.85</v>
       </c>
       <c r="W603">
-        <v>0.7</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X603">
         <v>-1</v>
@@ -54198,16 +54198,16 @@
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA603">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB603">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC603">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="604" spans="1:29">
@@ -54215,7 +54215,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5967602</v>
+        <v>5967603</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54227,46 +54227,46 @@
         <v>45073.625</v>
       </c>
       <c r="F604" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G604" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J604" t="s">
         <v>52</v>
       </c>
       <c r="K604">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L604">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M604">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N604">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O604">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P604">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="Q604">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S604">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T604">
         <v>2.75</v>
@@ -54284,13 +54284,13 @@
         <v>-1</v>
       </c>
       <c r="Y604">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="Z604">
         <v>-1</v>
       </c>
       <c r="AA604">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB604">
         <v>0.45</v>
@@ -54304,7 +54304,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5967606</v>
+        <v>5967602</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54316,76 +54316,76 @@
         <v>45073.625</v>
       </c>
       <c r="F605" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G605" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H605">
         <v>0</v>
       </c>
       <c r="I605">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J605" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K605">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="L605">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M605">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N605">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O605">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P605">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R605">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S605">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T605">
         <v>2.75</v>
       </c>
       <c r="U605">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V605">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z605">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA605">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB605">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC605">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54393,7 +54393,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5967605</v>
+        <v>5967606</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54405,76 +54405,76 @@
         <v>45073.625</v>
       </c>
       <c r="F606" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
         <v>53</v>
       </c>
       <c r="K606">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L606">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M606">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N606">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O606">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P606">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q606">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R606">
+        <v>2.025</v>
+      </c>
+      <c r="S606">
         <v>1.775</v>
       </c>
-      <c r="S606">
-        <v>2.025</v>
-      </c>
       <c r="T606">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U606">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V606">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W606">
         <v>-1</v>
       </c>
       <c r="X606">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA606">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB606">
         <v>-1</v>
       </c>
       <c r="AC606">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54482,7 +54482,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5967604</v>
+        <v>5967605</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54494,10 +54494,10 @@
         <v>45073.625</v>
       </c>
       <c r="F607" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G607" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -54509,61 +54509,61 @@
         <v>53</v>
       </c>
       <c r="K607">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="L607">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M607">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N607">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="O607">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P607">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q607">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R607">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S607">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T607">
         <v>3</v>
       </c>
       <c r="U607">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V607">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y607">
         <v>-1</v>
       </c>
       <c r="Z607">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA607">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB607">
         <v>-1</v>
       </c>
       <c r="AC607">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54571,7 +54571,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5967603</v>
+        <v>5967604</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54583,76 +54583,76 @@
         <v>45073.625</v>
       </c>
       <c r="F608" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G608" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H608">
         <v>1</v>
       </c>
       <c r="I608">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J608" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K608">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="L608">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M608">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="N608">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="O608">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P608">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="Q608">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R608">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S608">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T608">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U608">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V608">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W608">
         <v>-1</v>
       </c>
       <c r="X608">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y608">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z608">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA608">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB608">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -55016,7 +55016,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5967609</v>
+        <v>5967607</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55028,40 +55028,40 @@
         <v>45077.625</v>
       </c>
       <c r="F613" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G613" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H613">
         <v>0</v>
       </c>
       <c r="I613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J613" t="s">
         <v>52</v>
       </c>
       <c r="K613">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L613">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M613">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N613">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O613">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P613">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q613">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R613">
         <v>1.8</v>
@@ -55073,10 +55073,10 @@
         <v>2.75</v>
       </c>
       <c r="U613">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V613">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W613">
         <v>-1</v>
@@ -55085,19 +55085,19 @@
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
       <c r="Z613">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA613">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB613">
         <v>-1</v>
       </c>
       <c r="AC613">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55105,7 +55105,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5967607</v>
+        <v>5967609</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55117,40 +55117,40 @@
         <v>45077.625</v>
       </c>
       <c r="F614" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G614" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H614">
         <v>0</v>
       </c>
       <c r="I614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J614" t="s">
         <v>52</v>
       </c>
       <c r="K614">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L614">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M614">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N614">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="O614">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P614">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q614">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R614">
         <v>1.8</v>
@@ -55162,10 +55162,10 @@
         <v>2.75</v>
       </c>
       <c r="U614">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V614">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55174,19 +55174,19 @@
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>3.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z614">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA614">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB614">
         <v>-1</v>
       </c>
       <c r="AC614">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55194,7 +55194,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5967009</v>
+        <v>5967010</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55206,40 +55206,40 @@
         <v>45077.625</v>
       </c>
       <c r="F615" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G615" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H615">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I615">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J615" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K615">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L615">
         <v>4.2</v>
       </c>
       <c r="M615">
+        <v>1.6</v>
+      </c>
+      <c r="N615">
         <v>4.5</v>
       </c>
-      <c r="N615">
-        <v>1.363</v>
-      </c>
       <c r="O615">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P615">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q615">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R615">
         <v>1.95</v>
@@ -55248,7 +55248,7 @@
         <v>1.85</v>
       </c>
       <c r="T615">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U615">
         <v>1.875</v>
@@ -55257,25 +55257,25 @@
         <v>1.925</v>
       </c>
       <c r="W615">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z615">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA615">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB615">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC615">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55372,7 +55372,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>5967611</v>
+        <v>5967009</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55384,40 +55384,40 @@
         <v>45077.625</v>
       </c>
       <c r="F617" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G617" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H617">
         <v>3</v>
       </c>
       <c r="I617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J617" t="s">
         <v>54</v>
       </c>
       <c r="K617">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L617">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="M617">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="N617">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O617">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P617">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q617">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R617">
         <v>1.95</v>
@@ -55426,16 +55426,16 @@
         <v>1.85</v>
       </c>
       <c r="T617">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U617">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V617">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W617">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X617">
         <v>-1</v>
@@ -55450,10 +55450,10 @@
         <v>-1</v>
       </c>
       <c r="AB617">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC617">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55461,7 +55461,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5967610</v>
+        <v>5967611</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55473,13 +55473,13 @@
         <v>45077.625</v>
       </c>
       <c r="F618" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G618" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I618">
         <v>0</v>
@@ -55491,40 +55491,40 @@
         <v>1.25</v>
       </c>
       <c r="L618">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M618">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="N618">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O618">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P618">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q618">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R618">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S618">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T618">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U618">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W618">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X618">
         <v>-1</v>
@@ -55533,7 +55533,7 @@
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA618">
         <v>-1</v>
@@ -55542,7 +55542,7 @@
         <v>-1</v>
       </c>
       <c r="AC618">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55550,7 +55550,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5967010</v>
+        <v>5967610</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55562,76 +55562,76 @@
         <v>45077.625</v>
       </c>
       <c r="F619" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G619" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J619" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K619">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="L619">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M619">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N619">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O619">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P619">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="Q619">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R619">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S619">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U619">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V619">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA619">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -60445,7 +60445,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60457,76 +60457,76 @@
         <v>45190.5</v>
       </c>
       <c r="F674" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G674" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I674">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J674" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K674">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L674">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M674">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N674">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O674">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P674">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q674">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R674">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S674">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T674">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U674">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V674">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W674">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X674">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA674">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB674">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC674">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60534,7 +60534,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60546,76 +60546,76 @@
         <v>45190.5</v>
       </c>
       <c r="F675" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G675" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H675">
+        <v>1</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675" t="s">
+        <v>53</v>
+      </c>
+      <c r="K675">
+        <v>13</v>
+      </c>
+      <c r="L675">
+        <v>7</v>
+      </c>
+      <c r="M675">
+        <v>1.142</v>
+      </c>
+      <c r="N675">
+        <v>15</v>
+      </c>
+      <c r="O675">
+        <v>9</v>
+      </c>
+      <c r="P675">
+        <v>1.111</v>
+      </c>
+      <c r="Q675">
+        <v>2.5</v>
+      </c>
+      <c r="R675">
+        <v>1.975</v>
+      </c>
+      <c r="S675">
+        <v>1.825</v>
+      </c>
+      <c r="T675">
         <v>4</v>
       </c>
-      <c r="I675">
-        <v>3</v>
-      </c>
-      <c r="J675" t="s">
-        <v>54</v>
-      </c>
-      <c r="K675">
-        <v>1.7</v>
-      </c>
-      <c r="L675">
-        <v>3.7</v>
-      </c>
-      <c r="M675">
-        <v>4.25</v>
-      </c>
-      <c r="N675">
-        <v>1.45</v>
-      </c>
-      <c r="O675">
-        <v>4.2</v>
-      </c>
-      <c r="P675">
-        <v>5.5</v>
-      </c>
-      <c r="Q675">
-        <v>-1</v>
-      </c>
-      <c r="R675">
-        <v>1.775</v>
-      </c>
-      <c r="S675">
-        <v>2.025</v>
-      </c>
-      <c r="T675">
-        <v>2.75</v>
-      </c>
       <c r="U675">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V675">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W675">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X675">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA675">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC675">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60890,7 +60890,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60902,55 +60902,55 @@
         <v>45191.5</v>
       </c>
       <c r="F679" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G679" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
         <v>1</v>
-      </c>
-      <c r="I679">
-        <v>3</v>
       </c>
       <c r="J679" t="s">
         <v>52</v>
       </c>
       <c r="K679">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L679">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M679">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N679">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O679">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P679">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q679">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S679">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T679">
         <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V679">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W679">
         <v>-1</v>
@@ -60959,19 +60959,19 @@
         <v>-1</v>
       </c>
       <c r="Y679">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z679">
         <v>-1</v>
       </c>
       <c r="AA679">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB679">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60979,7 +60979,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60991,55 +60991,55 @@
         <v>45191.5</v>
       </c>
       <c r="F680" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G680" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J680" t="s">
         <v>52</v>
       </c>
       <c r="K680">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L680">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M680">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N680">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O680">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P680">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q680">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R680">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S680">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T680">
         <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V680">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W680">
         <v>-1</v>
@@ -61048,19 +61048,19 @@
         <v>-1</v>
       </c>
       <c r="Y680">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="Z680">
         <v>-1</v>
       </c>
       <c r="AA680">
+        <v>0.875</v>
+      </c>
+      <c r="AB680">
         <v>0.825</v>
       </c>
-      <c r="AB680">
-        <v>-1</v>
-      </c>
       <c r="AC680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61246,7 +61246,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61258,49 +61258,49 @@
         <v>45198.5</v>
       </c>
       <c r="F683" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G683" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J683" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K683">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L683">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M683">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N683">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O683">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P683">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q683">
         <v>1</v>
       </c>
       <c r="R683">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S683">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T683">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U683">
         <v>1.975</v>
@@ -61312,22 +61312,22 @@
         <v>-1</v>
       </c>
       <c r="X683">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z683">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61424,7 +61424,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61436,49 +61436,49 @@
         <v>45198.5</v>
       </c>
       <c r="F685" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K685">
+        <v>8.5</v>
+      </c>
+      <c r="L685">
         <v>5</v>
       </c>
-      <c r="L685">
-        <v>4</v>
-      </c>
       <c r="M685">
+        <v>1.3</v>
+      </c>
+      <c r="N685">
+        <v>5.5</v>
+      </c>
+      <c r="O685">
+        <v>3.8</v>
+      </c>
+      <c r="P685">
         <v>1.533</v>
-      </c>
-      <c r="N685">
-        <v>5.25</v>
-      </c>
-      <c r="O685">
-        <v>4.2</v>
-      </c>
-      <c r="P685">
-        <v>1.5</v>
       </c>
       <c r="Q685">
         <v>1</v>
       </c>
       <c r="R685">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S685">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T685">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U685">
         <v>1.975</v>
@@ -61490,22 +61490,22 @@
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y685">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA685">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -62848,7 +62848,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62860,76 +62860,76 @@
         <v>45219.5</v>
       </c>
       <c r="F701" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G701" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H701">
         <v>1</v>
       </c>
       <c r="I701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J701" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K701">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L701">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M701">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N701">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O701">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P701">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q701">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R701">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S701">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T701">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U701">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V701">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W701">
         <v>-1</v>
       </c>
       <c r="X701">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y701">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA701">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB701">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62937,7 +62937,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62949,76 +62949,76 @@
         <v>45219.5</v>
       </c>
       <c r="F702" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G702" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H702">
         <v>1</v>
       </c>
       <c r="I702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J702" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K702">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L702">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M702">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N702">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O702">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P702">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q702">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R702">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S702">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T702">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U702">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V702">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W702">
         <v>-1</v>
       </c>
       <c r="X702">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y702">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z702">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB702">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC702">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63649,7 +63649,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>6941345</v>
+        <v>6941347</v>
       </c>
       <c r="C710" t="s">
         <v>28</v>
@@ -63661,40 +63661,40 @@
         <v>45225.5</v>
       </c>
       <c r="F710" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G710" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I710">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J710" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K710">
+        <v>1.95</v>
+      </c>
+      <c r="L710">
+        <v>3.5</v>
+      </c>
+      <c r="M710">
         <v>3.8</v>
       </c>
-      <c r="L710">
-        <v>3.75</v>
-      </c>
-      <c r="M710">
-        <v>1.85</v>
-      </c>
       <c r="N710">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O710">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P710">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q710">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R710">
         <v>1.8</v>
@@ -63706,16 +63706,16 @@
         <v>2.75</v>
       </c>
       <c r="U710">
+        <v>1.875</v>
+      </c>
+      <c r="V710">
         <v>1.925</v>
       </c>
-      <c r="V710">
-        <v>1.875</v>
-      </c>
       <c r="W710">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X710">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y710">
         <v>-1</v>
@@ -63730,7 +63730,7 @@
         <v>-1</v>
       </c>
       <c r="AC710">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="711" spans="1:29">
@@ -63738,7 +63738,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>6941347</v>
+        <v>6941345</v>
       </c>
       <c r="C711" t="s">
         <v>28</v>
@@ -63750,40 +63750,40 @@
         <v>45225.5</v>
       </c>
       <c r="F711" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G711" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J711" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K711">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="L711">
+        <v>3.75</v>
+      </c>
+      <c r="M711">
+        <v>1.85</v>
+      </c>
+      <c r="N711">
         <v>3.5</v>
       </c>
-      <c r="M711">
-        <v>3.8</v>
-      </c>
-      <c r="N711">
-        <v>1.8</v>
-      </c>
       <c r="O711">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P711">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q711">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R711">
         <v>1.8</v>
@@ -63795,16 +63795,16 @@
         <v>2.75</v>
       </c>
       <c r="U711">
+        <v>1.925</v>
+      </c>
+      <c r="V711">
         <v>1.875</v>
       </c>
-      <c r="V711">
-        <v>1.925</v>
-      </c>
       <c r="W711">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X711">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y711">
         <v>-1</v>
@@ -63819,7 +63819,7 @@
         <v>-1</v>
       </c>
       <c r="AC711">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="712" spans="1:29">
@@ -63916,7 +63916,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63928,76 +63928,76 @@
         <v>45226.5</v>
       </c>
       <c r="F713" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G713" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I713">
         <v>2</v>
       </c>
       <c r="J713" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K713">
+        <v>1.85</v>
+      </c>
+      <c r="L713">
+        <v>3.5</v>
+      </c>
+      <c r="M713">
+        <v>4</v>
+      </c>
+      <c r="N713">
+        <v>1.7</v>
+      </c>
+      <c r="O713">
+        <v>3.6</v>
+      </c>
+      <c r="P713">
         <v>4.75</v>
       </c>
-      <c r="L713">
-        <v>4</v>
-      </c>
-      <c r="M713">
-        <v>1.65</v>
-      </c>
-      <c r="N713">
-        <v>2.9</v>
-      </c>
-      <c r="O713">
-        <v>3.5</v>
-      </c>
-      <c r="P713">
-        <v>2.25</v>
-      </c>
       <c r="Q713">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R713">
+        <v>1.925</v>
+      </c>
+      <c r="S713">
         <v>1.875</v>
       </c>
-      <c r="S713">
+      <c r="T713">
+        <v>2.5</v>
+      </c>
+      <c r="U713">
+        <v>1.875</v>
+      </c>
+      <c r="V713">
         <v>1.925</v>
       </c>
-      <c r="T713">
-        <v>3</v>
-      </c>
-      <c r="U713">
-        <v>1.85</v>
-      </c>
-      <c r="V713">
-        <v>1.95</v>
-      </c>
       <c r="W713">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X713">
         <v>-1</v>
       </c>
       <c r="Y713">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z713">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA713">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB713">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC713">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64005,7 +64005,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64017,76 +64017,76 @@
         <v>45226.5</v>
       </c>
       <c r="F714" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G714" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714">
+        <v>2</v>
+      </c>
+      <c r="J714" t="s">
+        <v>52</v>
+      </c>
+      <c r="K714">
+        <v>4.75</v>
+      </c>
+      <c r="L714">
+        <v>4</v>
+      </c>
+      <c r="M714">
+        <v>1.65</v>
+      </c>
+      <c r="N714">
+        <v>2.9</v>
+      </c>
+      <c r="O714">
+        <v>3.5</v>
+      </c>
+      <c r="P714">
+        <v>2.25</v>
+      </c>
+      <c r="Q714">
+        <v>0.25</v>
+      </c>
+      <c r="R714">
+        <v>1.875</v>
+      </c>
+      <c r="S714">
+        <v>1.925</v>
+      </c>
+      <c r="T714">
         <v>3</v>
       </c>
-      <c r="I714">
-        <v>2</v>
-      </c>
-      <c r="J714" t="s">
-        <v>54</v>
-      </c>
-      <c r="K714">
+      <c r="U714">
         <v>1.85</v>
       </c>
-      <c r="L714">
-        <v>3.5</v>
-      </c>
-      <c r="M714">
-        <v>4</v>
-      </c>
-      <c r="N714">
-        <v>1.7</v>
-      </c>
-      <c r="O714">
-        <v>3.6</v>
-      </c>
-      <c r="P714">
-        <v>4.75</v>
-      </c>
-      <c r="Q714">
-        <v>-0.75</v>
-      </c>
-      <c r="R714">
-        <v>1.925</v>
-      </c>
-      <c r="S714">
-        <v>1.875</v>
-      </c>
-      <c r="T714">
-        <v>2.5</v>
-      </c>
-      <c r="U714">
-        <v>1.875</v>
-      </c>
       <c r="V714">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W714">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X714">
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z714">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA714">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB714">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC714">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -65251,7 +65251,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65263,13 +65263,13 @@
         <v>45239.5</v>
       </c>
       <c r="F728" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G728" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -65278,43 +65278,43 @@
         <v>54</v>
       </c>
       <c r="K728">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L728">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M728">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N728">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O728">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P728">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q728">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R728">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S728">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T728">
         <v>2.5</v>
       </c>
       <c r="U728">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V728">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W728">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X728">
         <v>-1</v>
@@ -65323,13 +65323,13 @@
         <v>-1</v>
       </c>
       <c r="Z728">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA728">
         <v>-1</v>
       </c>
       <c r="AB728">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC728">
         <v>-1</v>
@@ -65340,7 +65340,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65352,13 +65352,13 @@
         <v>45239.5</v>
       </c>
       <c r="F729" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G729" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H729">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -65367,43 +65367,43 @@
         <v>54</v>
       </c>
       <c r="K729">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L729">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M729">
+        <v>1.85</v>
+      </c>
+      <c r="N729">
+        <v>3.25</v>
+      </c>
+      <c r="O729">
         <v>3.3</v>
       </c>
-      <c r="N729">
-        <v>2</v>
-      </c>
-      <c r="O729">
-        <v>3.5</v>
-      </c>
       <c r="P729">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q729">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R729">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S729">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T729">
         <v>2.5</v>
       </c>
       <c r="U729">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V729">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W729">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X729">
         <v>-1</v>
@@ -65412,13 +65412,13 @@
         <v>-1</v>
       </c>
       <c r="Z729">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA729">
         <v>-1</v>
       </c>
       <c r="AB729">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC729">
         <v>-1</v>
@@ -65429,7 +65429,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65441,55 +65441,55 @@
         <v>45239.625</v>
       </c>
       <c r="F730" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G730" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J730" t="s">
         <v>53</v>
       </c>
       <c r="K730">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L730">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M730">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N730">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O730">
         <v>3.75</v>
       </c>
       <c r="P730">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q730">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R730">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S730">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T730">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U730">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V730">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65501,16 +65501,16 @@
         <v>-1</v>
       </c>
       <c r="Z730">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA730">
         <v>-1</v>
       </c>
       <c r="AB730">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC730">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65518,7 +65518,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65530,55 +65530,55 @@
         <v>45239.625</v>
       </c>
       <c r="F731" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G731" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J731" t="s">
         <v>53</v>
       </c>
       <c r="K731">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L731">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M731">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N731">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O731">
         <v>3.75</v>
       </c>
       <c r="P731">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q731">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R731">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S731">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T731">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U731">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V731">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W731">
         <v>-1</v>
@@ -65590,16 +65590,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -67298,7 +67298,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>6941366</v>
+        <v>6941365</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -67310,49 +67310,49 @@
         <v>45262.5</v>
       </c>
       <c r="F751" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G751" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="I751">
         <v>1</v>
       </c>
-      <c r="I751">
-        <v>0</v>
-      </c>
       <c r="J751" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K751">
+        <v>1.571</v>
+      </c>
+      <c r="L751">
+        <v>4</v>
+      </c>
+      <c r="M751">
+        <v>4.75</v>
+      </c>
+      <c r="N751">
+        <v>1.6</v>
+      </c>
+      <c r="O751">
+        <v>4</v>
+      </c>
+      <c r="P751">
+        <v>4.5</v>
+      </c>
+      <c r="Q751">
+        <v>-1</v>
+      </c>
+      <c r="R751">
+        <v>1.95</v>
+      </c>
+      <c r="S751">
+        <v>1.85</v>
+      </c>
+      <c r="T751">
         <v>3.25</v>
-      </c>
-      <c r="L751">
-        <v>3.5</v>
-      </c>
-      <c r="M751">
-        <v>2</v>
-      </c>
-      <c r="N751">
-        <v>3</v>
-      </c>
-      <c r="O751">
-        <v>3.25</v>
-      </c>
-      <c r="P751">
-        <v>2.2</v>
-      </c>
-      <c r="Q751">
-        <v>0.25</v>
-      </c>
-      <c r="R751">
-        <v>1.85</v>
-      </c>
-      <c r="S751">
-        <v>1.95</v>
-      </c>
-      <c r="T751">
-        <v>2.5</v>
       </c>
       <c r="U751">
         <v>1.975</v>
@@ -67361,19 +67361,19 @@
         <v>1.825</v>
       </c>
       <c r="W751">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X751">
         <v>-1</v>
       </c>
       <c r="Y751">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z751">
+        <v>-1</v>
+      </c>
+      <c r="AA751">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA751">
-        <v>-1</v>
       </c>
       <c r="AB751">
         <v>-1</v>
@@ -67387,7 +67387,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>6941365</v>
+        <v>6941366</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67399,49 +67399,49 @@
         <v>45262.5</v>
       </c>
       <c r="F752" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G752" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H752">
+        <v>1</v>
+      </c>
+      <c r="I752">
         <v>0</v>
       </c>
-      <c r="I752">
-        <v>1</v>
-      </c>
       <c r="J752" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K752">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L752">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M752">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N752">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O752">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P752">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q752">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R752">
+        <v>1.85</v>
+      </c>
+      <c r="S752">
         <v>1.95</v>
       </c>
-      <c r="S752">
-        <v>1.85</v>
-      </c>
       <c r="T752">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U752">
         <v>1.975</v>
@@ -67450,19 +67450,19 @@
         <v>1.825</v>
       </c>
       <c r="W752">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X752">
         <v>-1</v>
       </c>
       <c r="Y752">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z752">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA752">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB752">
         <v>-1</v>
@@ -67476,7 +67476,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>6941372</v>
+        <v>6940816</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
@@ -67488,76 +67488,76 @@
         <v>45262.625</v>
       </c>
       <c r="F753" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G753" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J753" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K753">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L753">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M753">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N753">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O753">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P753">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q753">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R753">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S753">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T753">
         <v>2.5</v>
       </c>
       <c r="U753">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V753">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W753">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X753">
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z753">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA753">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC753">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -67565,7 +67565,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>6940816</v>
+        <v>6941372</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67577,76 +67577,76 @@
         <v>45262.625</v>
       </c>
       <c r="F754" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G754" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J754" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K754">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="L754">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M754">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N754">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O754">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P754">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q754">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R754">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S754">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T754">
         <v>2.5</v>
       </c>
       <c r="U754">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V754">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W754">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X754">
         <v>-1</v>
       </c>
       <c r="Y754">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z754">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA754">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB754">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC754">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="755" spans="1:29">
@@ -67921,7 +67921,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6941379</v>
+        <v>6940759</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67933,76 +67933,76 @@
         <v>45268.5</v>
       </c>
       <c r="F758" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G758" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H758">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I758">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J758" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K758">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="L758">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M758">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="N758">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="O758">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P758">
-        <v>4</v>
+        <v>1.111</v>
       </c>
       <c r="Q758">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R758">
+        <v>1.9</v>
+      </c>
+      <c r="S758">
+        <v>1.9</v>
+      </c>
+      <c r="T758">
+        <v>3.75</v>
+      </c>
+      <c r="U758">
         <v>1.975</v>
       </c>
-      <c r="S758">
+      <c r="V758">
         <v>1.825</v>
       </c>
-      <c r="T758">
-        <v>3</v>
-      </c>
-      <c r="U758">
-        <v>2</v>
-      </c>
-      <c r="V758">
-        <v>1.8</v>
-      </c>
       <c r="W758">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X758">
         <v>-1</v>
       </c>
       <c r="Y758">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z758">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA758">
         <v>-1</v>
       </c>
       <c r="AB758">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC758">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="759" spans="1:29">
@@ -68099,7 +68099,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>6940759</v>
+        <v>6941379</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
@@ -68111,76 +68111,76 @@
         <v>45268.5</v>
       </c>
       <c r="F760" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G760" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H760">
+        <v>3</v>
+      </c>
+      <c r="I760">
         <v>1</v>
       </c>
-      <c r="I760">
-        <v>2</v>
-      </c>
       <c r="J760" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K760">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="L760">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M760">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="N760">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="O760">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P760">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="Q760">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R760">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S760">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T760">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U760">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V760">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W760">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X760">
         <v>-1</v>
       </c>
       <c r="Y760">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z760">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA760">
         <v>-1</v>
       </c>
       <c r="AB760">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC760">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761" spans="1:29">
@@ -68455,7 +68455,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68467,76 +68467,76 @@
         <v>45274.5</v>
       </c>
       <c r="F764" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G764" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H764">
         <v>1</v>
       </c>
       <c r="I764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K764">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L764">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M764">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N764">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O764">
         <v>3.4</v>
       </c>
       <c r="P764">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q764">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R764">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S764">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T764">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U764">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V764">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W764">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X764">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y764">
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA764">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB764">
         <v>-1</v>
       </c>
       <c r="AC764">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68544,7 +68544,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68556,76 +68556,76 @@
         <v>45274.5</v>
       </c>
       <c r="F765" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G765" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H765">
         <v>1</v>
       </c>
       <c r="I765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K765">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N765">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O765">
         <v>3.4</v>
       </c>
       <c r="P765">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q765">
+        <v>-0.25</v>
+      </c>
+      <c r="R765">
+        <v>1.975</v>
+      </c>
+      <c r="S765">
+        <v>1.825</v>
+      </c>
+      <c r="T765">
+        <v>2.75</v>
+      </c>
+      <c r="U765">
+        <v>2</v>
+      </c>
+      <c r="V765">
+        <v>1.8</v>
+      </c>
+      <c r="W765">
+        <v>-1</v>
+      </c>
+      <c r="X765">
+        <v>2.4</v>
+      </c>
+      <c r="Y765">
+        <v>-1</v>
+      </c>
+      <c r="Z765">
         <v>-0.5</v>
       </c>
-      <c r="R765">
-        <v>1.9</v>
-      </c>
-      <c r="S765">
-        <v>1.9</v>
-      </c>
-      <c r="T765">
-        <v>2.5</v>
-      </c>
-      <c r="U765">
-        <v>1.9</v>
-      </c>
-      <c r="V765">
-        <v>1.9</v>
-      </c>
-      <c r="W765">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X765">
-        <v>-1</v>
-      </c>
-      <c r="Y765">
-        <v>-1</v>
-      </c>
-      <c r="Z765">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB765">
         <v>-1</v>
       </c>
       <c r="AC765">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68811,7 +68811,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6941381</v>
+        <v>6940763</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68823,76 +68823,76 @@
         <v>45275.5</v>
       </c>
       <c r="F768" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G768" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H768">
+        <v>2</v>
+      </c>
+      <c r="I768">
         <v>0</v>
       </c>
-      <c r="I768">
-        <v>1</v>
-      </c>
       <c r="J768" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K768">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L768">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M768">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="N768">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O768">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P768">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q768">
+        <v>-2</v>
+      </c>
+      <c r="R768">
+        <v>1.85</v>
+      </c>
+      <c r="S768">
+        <v>1.95</v>
+      </c>
+      <c r="T768">
+        <v>3.75</v>
+      </c>
+      <c r="U768">
+        <v>1.9</v>
+      </c>
+      <c r="V768">
+        <v>1.9</v>
+      </c>
+      <c r="W768">
+        <v>0.222</v>
+      </c>
+      <c r="X768">
+        <v>-1</v>
+      </c>
+      <c r="Y768">
+        <v>-1</v>
+      </c>
+      <c r="Z768">
         <v>0</v>
       </c>
-      <c r="R768">
-        <v>2.025</v>
-      </c>
-      <c r="S768">
-        <v>1.775</v>
-      </c>
-      <c r="T768">
-        <v>2.5</v>
-      </c>
-      <c r="U768">
-        <v>1.95</v>
-      </c>
-      <c r="V768">
-        <v>1.85</v>
-      </c>
-      <c r="W768">
-        <v>-1</v>
-      </c>
-      <c r="X768">
-        <v>-1</v>
-      </c>
-      <c r="Y768">
-        <v>1.375</v>
-      </c>
-      <c r="Z768">
-        <v>-1</v>
-      </c>
       <c r="AA768">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB768">
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68900,7 +68900,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6940763</v>
+        <v>6941381</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68912,76 +68912,76 @@
         <v>45275.5</v>
       </c>
       <c r="F769" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G769" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769">
+        <v>1</v>
+      </c>
+      <c r="J769" t="s">
+        <v>52</v>
+      </c>
+      <c r="K769">
+        <v>2.6</v>
+      </c>
+      <c r="L769">
+        <v>3.4</v>
+      </c>
+      <c r="M769">
+        <v>2.4</v>
+      </c>
+      <c r="N769">
+        <v>2.75</v>
+      </c>
+      <c r="O769">
+        <v>3.25</v>
+      </c>
+      <c r="P769">
+        <v>2.375</v>
+      </c>
+      <c r="Q769">
         <v>0</v>
       </c>
-      <c r="J769" t="s">
-        <v>54</v>
-      </c>
-      <c r="K769">
-        <v>1.2</v>
-      </c>
-      <c r="L769">
-        <v>7</v>
-      </c>
-      <c r="M769">
-        <v>9.5</v>
-      </c>
-      <c r="N769">
-        <v>1.222</v>
-      </c>
-      <c r="O769">
-        <v>7</v>
-      </c>
-      <c r="P769">
-        <v>8.5</v>
-      </c>
-      <c r="Q769">
-        <v>-2</v>
-      </c>
       <c r="R769">
+        <v>2.025</v>
+      </c>
+      <c r="S769">
+        <v>1.775</v>
+      </c>
+      <c r="T769">
+        <v>2.5</v>
+      </c>
+      <c r="U769">
+        <v>1.95</v>
+      </c>
+      <c r="V769">
         <v>1.85</v>
       </c>
-      <c r="S769">
-        <v>1.95</v>
-      </c>
-      <c r="T769">
-        <v>3.75</v>
-      </c>
-      <c r="U769">
-        <v>1.9</v>
-      </c>
-      <c r="V769">
-        <v>1.9</v>
-      </c>
       <c r="W769">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z769">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69167,7 +69167,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69179,10 +69179,10 @@
         <v>45281.5</v>
       </c>
       <c r="F772" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G772" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -69194,43 +69194,43 @@
         <v>54</v>
       </c>
       <c r="K772">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L772">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M772">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N772">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O772">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P772">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q772">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R772">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S772">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T772">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U772">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V772">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W772">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X772">
         <v>-1</v>
@@ -69239,16 +69239,16 @@
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA772">
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69256,7 +69256,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69268,10 +69268,10 @@
         <v>45281.5</v>
       </c>
       <c r="F773" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G773" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H773">
         <v>3</v>
@@ -69283,61 +69283,61 @@
         <v>54</v>
       </c>
       <c r="K773">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L773">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M773">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N773">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O773">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P773">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q773">
+        <v>-0.75</v>
+      </c>
+      <c r="R773">
+        <v>1.85</v>
+      </c>
+      <c r="S773">
+        <v>1.95</v>
+      </c>
+      <c r="T773">
+        <v>2.75</v>
+      </c>
+      <c r="U773">
+        <v>1.975</v>
+      </c>
+      <c r="V773">
+        <v>1.825</v>
+      </c>
+      <c r="W773">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X773">
+        <v>-1</v>
+      </c>
+      <c r="Y773">
+        <v>-1</v>
+      </c>
+      <c r="Z773">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA773">
+        <v>-1</v>
+      </c>
+      <c r="AB773">
+        <v>0.4875</v>
+      </c>
+      <c r="AC773">
         <v>-0.5</v>
-      </c>
-      <c r="R773">
-        <v>2.025</v>
-      </c>
-      <c r="S773">
-        <v>1.775</v>
-      </c>
-      <c r="T773">
-        <v>2.25</v>
-      </c>
-      <c r="U773">
-        <v>1.775</v>
-      </c>
-      <c r="V773">
-        <v>2.025</v>
-      </c>
-      <c r="W773">
-        <v>1</v>
-      </c>
-      <c r="X773">
-        <v>-1</v>
-      </c>
-      <c r="Y773">
-        <v>-1</v>
-      </c>
-      <c r="Z773">
-        <v>1.025</v>
-      </c>
-      <c r="AA773">
-        <v>-1</v>
-      </c>
-      <c r="AB773">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC773">
-        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69434,7 +69434,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69446,76 +69446,76 @@
         <v>45282.5</v>
       </c>
       <c r="F775" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H775">
+        <v>1</v>
+      </c>
+      <c r="I775">
         <v>0</v>
       </c>
-      <c r="I775">
-        <v>4</v>
-      </c>
       <c r="J775" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K775">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L775">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M775">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N775">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O775">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P775">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q775">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R775">
+        <v>1.95</v>
+      </c>
+      <c r="S775">
+        <v>1.85</v>
+      </c>
+      <c r="T775">
+        <v>2.5</v>
+      </c>
+      <c r="U775">
+        <v>2</v>
+      </c>
+      <c r="V775">
         <v>1.8</v>
       </c>
-      <c r="S775">
-        <v>2</v>
-      </c>
-      <c r="T775">
-        <v>3.25</v>
-      </c>
-      <c r="U775">
-        <v>2.025</v>
-      </c>
-      <c r="V775">
-        <v>1.775</v>
-      </c>
       <c r="W775">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA775">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69523,7 +69523,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69535,58 +69535,58 @@
         <v>45282.5</v>
       </c>
       <c r="F776" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G776" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H776">
+        <v>3</v>
+      </c>
+      <c r="I776">
         <v>1</v>
-      </c>
-      <c r="I776">
-        <v>0</v>
       </c>
       <c r="J776" t="s">
         <v>54</v>
       </c>
       <c r="K776">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L776">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M776">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N776">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O776">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P776">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q776">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R776">
+        <v>1.925</v>
+      </c>
+      <c r="S776">
+        <v>1.875</v>
+      </c>
+      <c r="T776">
+        <v>3</v>
+      </c>
+      <c r="U776">
+        <v>1.85</v>
+      </c>
+      <c r="V776">
         <v>1.95</v>
       </c>
-      <c r="S776">
-        <v>1.85</v>
-      </c>
-      <c r="T776">
-        <v>2.5</v>
-      </c>
-      <c r="U776">
-        <v>2</v>
-      </c>
-      <c r="V776">
-        <v>1.8</v>
-      </c>
       <c r="W776">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X776">
         <v>-1</v>
@@ -69595,16 +69595,16 @@
         <v>-1</v>
       </c>
       <c r="Z776">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA776">
         <v>-1</v>
       </c>
       <c r="AB776">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC776">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69612,7 +69612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69624,73 +69624,73 @@
         <v>45282.5</v>
       </c>
       <c r="F777" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G777" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H777">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J777" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K777">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L777">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M777">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N777">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O777">
         <v>5</v>
       </c>
       <c r="P777">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q777">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R777">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S777">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T777">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U777">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W777">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z777">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB777">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC777">
         <v>-1</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5485085</v>
+        <v>5485115</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>44819.625</v>
       </c>
       <c r="F408" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G408" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L408">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N408">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O408">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="Q408">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R408">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S408">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T408">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W408">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC408">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5485115</v>
+        <v>5485085</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>44819.625</v>
       </c>
       <c r="F409" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G409" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K409">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L409">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M409">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N409">
+        <v>1.2</v>
+      </c>
+      <c r="O409">
+        <v>6.5</v>
+      </c>
+      <c r="P409">
+        <v>11</v>
+      </c>
+      <c r="Q409">
+        <v>-2</v>
+      </c>
+      <c r="R409">
         <v>1.95</v>
       </c>
-      <c r="O409">
-        <v>3.5</v>
-      </c>
-      <c r="P409">
+      <c r="S409">
+        <v>1.85</v>
+      </c>
+      <c r="T409">
         <v>3.25</v>
       </c>
-      <c r="Q409">
-        <v>-0.5</v>
-      </c>
-      <c r="R409">
-        <v>1.975</v>
-      </c>
-      <c r="S409">
-        <v>1.825</v>
-      </c>
-      <c r="T409">
-        <v>2.75</v>
-      </c>
       <c r="U409">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W409">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -39352,7 +39352,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>5485117</v>
+        <v>5446249</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39364,13 +39364,13 @@
         <v>44849.61458333334</v>
       </c>
       <c r="F437" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G437" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I437">
         <v>0</v>
@@ -39379,43 +39379,43 @@
         <v>54</v>
       </c>
       <c r="K437">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L437">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M437">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="N437">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="O437">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P437">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q437">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R437">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S437">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T437">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U437">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V437">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W437">
-        <v>0.6499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X437">
         <v>-1</v>
@@ -39424,16 +39424,16 @@
         <v>-1</v>
       </c>
       <c r="Z437">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA437">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC437">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39441,7 +39441,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5446249</v>
+        <v>5485117</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39453,13 +39453,13 @@
         <v>44849.61458333334</v>
       </c>
       <c r="F438" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G438" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H438">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I438">
         <v>0</v>
@@ -39468,43 +39468,43 @@
         <v>54</v>
       </c>
       <c r="K438">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L438">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M438">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="N438">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="O438">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P438">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q438">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R438">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S438">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T438">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U438">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V438">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W438">
-        <v>0.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X438">
         <v>-1</v>
@@ -39513,16 +39513,16 @@
         <v>-1</v>
       </c>
       <c r="Z438">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA438">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB438">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC438">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39530,7 +39530,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5485104</v>
+        <v>5485103</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39542,73 +39542,73 @@
         <v>44850.48958333334</v>
       </c>
       <c r="F439" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G439" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H439">
+        <v>1</v>
+      </c>
+      <c r="I439">
+        <v>3</v>
+      </c>
+      <c r="J439" t="s">
+        <v>52</v>
+      </c>
+      <c r="K439">
+        <v>6.5</v>
+      </c>
+      <c r="L439">
+        <v>3.75</v>
+      </c>
+      <c r="M439">
+        <v>1.444</v>
+      </c>
+      <c r="N439">
+        <v>7.5</v>
+      </c>
+      <c r="O439">
         <v>4</v>
       </c>
-      <c r="I439">
-        <v>0</v>
-      </c>
-      <c r="J439" t="s">
-        <v>54</v>
-      </c>
-      <c r="K439">
-        <v>1.333</v>
-      </c>
-      <c r="L439">
-        <v>4.333</v>
-      </c>
-      <c r="M439">
-        <v>7.5</v>
-      </c>
-      <c r="N439">
+      <c r="P439">
+        <v>1.4</v>
+      </c>
+      <c r="Q439">
         <v>1.25</v>
       </c>
-      <c r="O439">
-        <v>5</v>
-      </c>
-      <c r="P439">
-        <v>8.5</v>
-      </c>
-      <c r="Q439">
-        <v>-1.5</v>
-      </c>
       <c r="R439">
+        <v>1.825</v>
+      </c>
+      <c r="S439">
+        <v>1.975</v>
+      </c>
+      <c r="T439">
+        <v>2.5</v>
+      </c>
+      <c r="U439">
+        <v>1.925</v>
+      </c>
+      <c r="V439">
         <v>1.875</v>
       </c>
-      <c r="S439">
-        <v>1.925</v>
-      </c>
-      <c r="T439">
-        <v>2.75</v>
-      </c>
-      <c r="U439">
-        <v>2</v>
-      </c>
-      <c r="V439">
-        <v>1.8</v>
-      </c>
       <c r="W439">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z439">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB439">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC439">
         <v>-1</v>
@@ -39619,7 +39619,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5485103</v>
+        <v>5485104</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39631,73 +39631,73 @@
         <v>44850.48958333334</v>
       </c>
       <c r="F440" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G440" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H440">
+        <v>4</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440" t="s">
+        <v>54</v>
+      </c>
+      <c r="K440">
+        <v>1.333</v>
+      </c>
+      <c r="L440">
+        <v>4.333</v>
+      </c>
+      <c r="M440">
+        <v>7.5</v>
+      </c>
+      <c r="N440">
+        <v>1.25</v>
+      </c>
+      <c r="O440">
+        <v>5</v>
+      </c>
+      <c r="P440">
+        <v>8.5</v>
+      </c>
+      <c r="Q440">
+        <v>-1.5</v>
+      </c>
+      <c r="R440">
+        <v>1.875</v>
+      </c>
+      <c r="S440">
+        <v>1.925</v>
+      </c>
+      <c r="T440">
+        <v>2.75</v>
+      </c>
+      <c r="U440">
+        <v>2</v>
+      </c>
+      <c r="V440">
+        <v>1.8</v>
+      </c>
+      <c r="W440">
+        <v>0.25</v>
+      </c>
+      <c r="X440">
+        <v>-1</v>
+      </c>
+      <c r="Y440">
+        <v>-1</v>
+      </c>
+      <c r="Z440">
+        <v>0.875</v>
+      </c>
+      <c r="AA440">
+        <v>-1</v>
+      </c>
+      <c r="AB440">
         <v>1</v>
-      </c>
-      <c r="I440">
-        <v>3</v>
-      </c>
-      <c r="J440" t="s">
-        <v>52</v>
-      </c>
-      <c r="K440">
-        <v>6.5</v>
-      </c>
-      <c r="L440">
-        <v>3.75</v>
-      </c>
-      <c r="M440">
-        <v>1.444</v>
-      </c>
-      <c r="N440">
-        <v>7.5</v>
-      </c>
-      <c r="O440">
-        <v>4</v>
-      </c>
-      <c r="P440">
-        <v>1.4</v>
-      </c>
-      <c r="Q440">
-        <v>1.25</v>
-      </c>
-      <c r="R440">
-        <v>1.825</v>
-      </c>
-      <c r="S440">
-        <v>1.975</v>
-      </c>
-      <c r="T440">
-        <v>2.5</v>
-      </c>
-      <c r="U440">
-        <v>1.925</v>
-      </c>
-      <c r="V440">
-        <v>1.875</v>
-      </c>
-      <c r="W440">
-        <v>-1</v>
-      </c>
-      <c r="X440">
-        <v>-1</v>
-      </c>
-      <c r="Y440">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z440">
-        <v>-1</v>
-      </c>
-      <c r="AA440">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB440">
-        <v>0.925</v>
       </c>
       <c r="AC440">
         <v>-1</v>
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5485106</v>
+        <v>5446250</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,40 +39809,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F442" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G442" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
         <v>1</v>
       </c>
-      <c r="I442">
-        <v>0</v>
-      </c>
       <c r="J442" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K442">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L442">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="M442">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N442">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O442">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q442">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R442">
         <v>1.8</v>
@@ -39851,34 +39851,34 @@
         <v>2</v>
       </c>
       <c r="T442">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U442">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V442">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W442">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z442">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA442">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB442">
         <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5446250</v>
+        <v>5485106</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,40 +39898,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F443" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G443" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
         <v>0</v>
       </c>
-      <c r="I443">
-        <v>1</v>
-      </c>
       <c r="J443" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K443">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L443">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="M443">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N443">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O443">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P443">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q443">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R443">
         <v>1.8</v>
@@ -39940,34 +39940,34 @@
         <v>2</v>
       </c>
       <c r="T443">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V443">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W443">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA443">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39975,7 +39975,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>5581790</v>
+        <v>5581793</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39987,40 +39987,40 @@
         <v>44910.39583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G444" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K444">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L444">
+        <v>3.2</v>
+      </c>
+      <c r="M444">
         <v>3.1</v>
       </c>
-      <c r="M444">
-        <v>2.7</v>
-      </c>
       <c r="N444">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O444">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P444">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q444">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R444">
         <v>1.8</v>
@@ -40029,34 +40029,34 @@
         <v>2</v>
       </c>
       <c r="T444">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V444">
+        <v>1.8</v>
+      </c>
+      <c r="W444">
+        <v>-1</v>
+      </c>
+      <c r="X444">
         <v>1.875</v>
       </c>
-      <c r="W444">
-        <v>-1</v>
-      </c>
-      <c r="X444">
-        <v>-1</v>
-      </c>
       <c r="Y444">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA444">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40064,7 +40064,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5581793</v>
+        <v>5581790</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40076,40 +40076,40 @@
         <v>44910.39583333334</v>
       </c>
       <c r="F445" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G445" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>2</v>
+      </c>
+      <c r="J445" t="s">
+        <v>52</v>
+      </c>
+      <c r="K445">
+        <v>2.375</v>
+      </c>
+      <c r="L445">
+        <v>3.1</v>
+      </c>
+      <c r="M445">
+        <v>2.7</v>
+      </c>
+      <c r="N445">
+        <v>2.4</v>
+      </c>
+      <c r="O445">
+        <v>3</v>
+      </c>
+      <c r="P445">
+        <v>2.75</v>
+      </c>
+      <c r="Q445">
         <v>0</v>
-      </c>
-      <c r="I445">
-        <v>0</v>
-      </c>
-      <c r="J445" t="s">
-        <v>53</v>
-      </c>
-      <c r="K445">
-        <v>2.1</v>
-      </c>
-      <c r="L445">
-        <v>3.2</v>
-      </c>
-      <c r="M445">
-        <v>3.1</v>
-      </c>
-      <c r="N445">
-        <v>2.1</v>
-      </c>
-      <c r="O445">
-        <v>2.875</v>
-      </c>
-      <c r="P445">
-        <v>3.4</v>
-      </c>
-      <c r="Q445">
-        <v>-0.25</v>
       </c>
       <c r="R445">
         <v>1.8</v>
@@ -40118,34 +40118,34 @@
         <v>2</v>
       </c>
       <c r="T445">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U445">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V445">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W445">
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC445">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40776,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5581797</v>
+        <v>5581799</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40788,73 +40788,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G453" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H453">
+        <v>4</v>
+      </c>
+      <c r="I453">
         <v>1</v>
       </c>
-      <c r="I453">
-        <v>2</v>
-      </c>
       <c r="J453" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K453">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L453">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M453">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N453">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O453">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P453">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q453">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
+        <v>1.9</v>
+      </c>
+      <c r="S453">
+        <v>1.9</v>
+      </c>
+      <c r="T453">
+        <v>2.75</v>
+      </c>
+      <c r="U453">
         <v>1.875</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.925</v>
       </c>
-      <c r="T453">
-        <v>2.5</v>
-      </c>
-      <c r="U453">
-        <v>1.8</v>
-      </c>
-      <c r="V453">
-        <v>2</v>
-      </c>
       <c r="W453">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA453">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB453">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC453">
         <v>-1</v>
@@ -40865,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5581799</v>
+        <v>5581797</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40877,73 +40877,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G454" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K454">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="L454">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M454">
+        <v>1.3</v>
+      </c>
+      <c r="N454">
+        <v>6.5</v>
+      </c>
+      <c r="O454">
+        <v>4.2</v>
+      </c>
+      <c r="P454">
+        <v>1.4</v>
+      </c>
+      <c r="Q454">
+        <v>1.25</v>
+      </c>
+      <c r="R454">
+        <v>1.875</v>
+      </c>
+      <c r="S454">
+        <v>1.925</v>
+      </c>
+      <c r="T454">
+        <v>2.5</v>
+      </c>
+      <c r="U454">
         <v>1.8</v>
       </c>
-      <c r="N454">
-        <v>3.4</v>
-      </c>
-      <c r="O454">
-        <v>3.5</v>
-      </c>
-      <c r="P454">
-        <v>1.85</v>
-      </c>
-      <c r="Q454">
-        <v>0.5</v>
-      </c>
-      <c r="R454">
-        <v>1.9</v>
-      </c>
-      <c r="S454">
-        <v>1.9</v>
-      </c>
-      <c r="T454">
-        <v>2.75</v>
-      </c>
-      <c r="U454">
-        <v>1.875</v>
-      </c>
       <c r="V454">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W454">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z454">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA454">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB454">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -42022,7 +42022,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5581812</v>
+        <v>5581816</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42034,76 +42034,76 @@
         <v>44931.60416666666</v>
       </c>
       <c r="F467" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G467" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467">
         <v>1</v>
       </c>
       <c r="J467" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K467">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L467">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M467">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="N467">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="O467">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P467">
+        <v>2.4</v>
+      </c>
+      <c r="Q467">
+        <v>0</v>
+      </c>
+      <c r="R467">
+        <v>1.825</v>
+      </c>
+      <c r="S467">
+        <v>1.975</v>
+      </c>
+      <c r="T467">
+        <v>2.75</v>
+      </c>
+      <c r="U467">
+        <v>2</v>
+      </c>
+      <c r="V467">
+        <v>1.8</v>
+      </c>
+      <c r="W467">
+        <v>-1</v>
+      </c>
+      <c r="X467">
+        <v>-1</v>
+      </c>
+      <c r="Y467">
         <v>1.4</v>
       </c>
-      <c r="Q467">
-        <v>1.25</v>
-      </c>
-      <c r="R467">
-        <v>1.85</v>
-      </c>
-      <c r="S467">
-        <v>1.95</v>
-      </c>
-      <c r="T467">
-        <v>2.5</v>
-      </c>
-      <c r="U467">
-        <v>1.85</v>
-      </c>
-      <c r="V467">
-        <v>1.95</v>
-      </c>
-      <c r="W467">
-        <v>6.5</v>
-      </c>
-      <c r="X467">
-        <v>-1</v>
-      </c>
-      <c r="Y467">
-        <v>-1</v>
-      </c>
       <c r="Z467">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB467">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC467">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -42111,7 +42111,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>5581816</v>
+        <v>5581812</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42123,76 +42123,76 @@
         <v>44931.60416666666</v>
       </c>
       <c r="F468" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G468" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468">
         <v>1</v>
       </c>
       <c r="J468" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K468">
+        <v>5.5</v>
+      </c>
+      <c r="L468">
+        <v>4.2</v>
+      </c>
+      <c r="M468">
+        <v>1.444</v>
+      </c>
+      <c r="N468">
+        <v>7.5</v>
+      </c>
+      <c r="O468">
+        <v>4.2</v>
+      </c>
+      <c r="P468">
+        <v>1.4</v>
+      </c>
+      <c r="Q468">
+        <v>1.25</v>
+      </c>
+      <c r="R468">
+        <v>1.85</v>
+      </c>
+      <c r="S468">
+        <v>1.95</v>
+      </c>
+      <c r="T468">
         <v>2.5</v>
       </c>
-      <c r="L468">
-        <v>3.4</v>
-      </c>
-      <c r="M468">
-        <v>2.45</v>
-      </c>
-      <c r="N468">
-        <v>2.4</v>
-      </c>
-      <c r="O468">
-        <v>3.5</v>
-      </c>
-      <c r="P468">
-        <v>2.4</v>
-      </c>
-      <c r="Q468">
-        <v>0</v>
-      </c>
-      <c r="R468">
-        <v>1.825</v>
-      </c>
-      <c r="S468">
-        <v>1.975</v>
-      </c>
-      <c r="T468">
-        <v>2.75</v>
-      </c>
       <c r="U468">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V468">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W468">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X468">
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z468">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA468">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB468">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC468">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -46828,7 +46828,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5967549</v>
+        <v>5967551</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46840,76 +46840,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F521" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G521" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J521" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K521">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L521">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M521">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N521">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O521">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P521">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R521">
+        <v>2</v>
+      </c>
+      <c r="S521">
         <v>1.8</v>
       </c>
-      <c r="S521">
-        <v>2</v>
-      </c>
       <c r="T521">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U521">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V521">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W521">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z521">
+        <v>-1</v>
+      </c>
+      <c r="AA521">
         <v>0.8</v>
       </c>
-      <c r="AA521">
-        <v>-1</v>
-      </c>
       <c r="AB521">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC521">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46917,7 +46917,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>5967551</v>
+        <v>5967549</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46929,76 +46929,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F522" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G522" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K522">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L522">
+        <v>3.3</v>
+      </c>
+      <c r="M522">
+        <v>3.2</v>
+      </c>
+      <c r="N522">
+        <v>2</v>
+      </c>
+      <c r="O522">
+        <v>3.1</v>
+      </c>
+      <c r="P522">
         <v>3.4</v>
       </c>
-      <c r="M522">
-        <v>3.6</v>
-      </c>
-      <c r="N522">
-        <v>1.727</v>
-      </c>
-      <c r="O522">
-        <v>3.5</v>
-      </c>
-      <c r="P522">
-        <v>4</v>
-      </c>
       <c r="Q522">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R522">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S522">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T522">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U522">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V522">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W522">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA522">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB522">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC522">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -51634,7 +51634,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5967582</v>
+        <v>5967583</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51646,10 +51646,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F575" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G575" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H575">
         <v>2</v>
@@ -51661,43 +51661,43 @@
         <v>54</v>
       </c>
       <c r="K575">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L575">
+        <v>3.5</v>
+      </c>
+      <c r="M575">
         <v>3.1</v>
       </c>
-      <c r="M575">
+      <c r="N575">
         <v>2.4</v>
       </c>
-      <c r="N575">
-        <v>2.2</v>
-      </c>
       <c r="O575">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P575">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q575">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R575">
+        <v>1.85</v>
+      </c>
+      <c r="S575">
         <v>1.95</v>
-      </c>
-      <c r="S575">
-        <v>1.85</v>
       </c>
       <c r="T575">
         <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V575">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W575">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51706,13 +51706,13 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC575">
         <v>-1</v>
@@ -51723,7 +51723,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5967583</v>
+        <v>5967582</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51735,10 +51735,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F576" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G576" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H576">
         <v>2</v>
@@ -51750,43 +51750,43 @@
         <v>54</v>
       </c>
       <c r="K576">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L576">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M576">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N576">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O576">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P576">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q576">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R576">
+        <v>1.95</v>
+      </c>
+      <c r="S576">
         <v>1.85</v>
-      </c>
-      <c r="S576">
-        <v>1.95</v>
       </c>
       <c r="T576">
         <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V576">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W576">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51795,13 +51795,13 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA576">
         <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -52702,7 +52702,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5967000</v>
+        <v>5967592</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52714,76 +52714,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F587" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G587" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H587">
         <v>0</v>
       </c>
       <c r="I587">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K587">
+        <v>2.55</v>
+      </c>
+      <c r="L587">
+        <v>3.25</v>
+      </c>
+      <c r="M587">
         <v>2.5</v>
       </c>
-      <c r="L587">
-        <v>3.4</v>
-      </c>
-      <c r="M587">
-        <v>2.4</v>
-      </c>
       <c r="N587">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S587">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y587">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA587">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB587">
         <v>-1</v>
       </c>
       <c r="AC587">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52791,7 +52791,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5967592</v>
+        <v>5967000</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52803,76 +52803,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F588" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G588" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H588">
         <v>0</v>
       </c>
       <c r="I588">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K588">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L588">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M588">
+        <v>2.4</v>
+      </c>
+      <c r="N588">
         <v>2.5</v>
-      </c>
-      <c r="N588">
-        <v>2.1</v>
       </c>
       <c r="O588">
         <v>3.4</v>
       </c>
       <c r="P588">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q588">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R588">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
         <v>-1</v>
       </c>
       <c r="X588">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB588">
         <v>-1</v>
       </c>
       <c r="AC588">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -60445,7 +60445,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60457,76 +60457,76 @@
         <v>45190.5</v>
       </c>
       <c r="F674" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G674" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674">
+        <v>1</v>
+      </c>
+      <c r="J674" t="s">
+        <v>53</v>
+      </c>
+      <c r="K674">
+        <v>13</v>
+      </c>
+      <c r="L674">
+        <v>7</v>
+      </c>
+      <c r="M674">
+        <v>1.142</v>
+      </c>
+      <c r="N674">
+        <v>15</v>
+      </c>
+      <c r="O674">
+        <v>9</v>
+      </c>
+      <c r="P674">
+        <v>1.111</v>
+      </c>
+      <c r="Q674">
+        <v>2.5</v>
+      </c>
+      <c r="R674">
+        <v>1.975</v>
+      </c>
+      <c r="S674">
+        <v>1.825</v>
+      </c>
+      <c r="T674">
         <v>4</v>
       </c>
-      <c r="I674">
-        <v>3</v>
-      </c>
-      <c r="J674" t="s">
-        <v>54</v>
-      </c>
-      <c r="K674">
-        <v>1.7</v>
-      </c>
-      <c r="L674">
-        <v>3.7</v>
-      </c>
-      <c r="M674">
-        <v>4.25</v>
-      </c>
-      <c r="N674">
-        <v>1.45</v>
-      </c>
-      <c r="O674">
-        <v>4.2</v>
-      </c>
-      <c r="P674">
-        <v>5.5</v>
-      </c>
-      <c r="Q674">
-        <v>-1</v>
-      </c>
-      <c r="R674">
-        <v>1.775</v>
-      </c>
-      <c r="S674">
-        <v>2.025</v>
-      </c>
-      <c r="T674">
-        <v>2.75</v>
-      </c>
       <c r="U674">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V674">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W674">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X674">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA674">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB674">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC674">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60534,7 +60534,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60546,76 +60546,76 @@
         <v>45190.5</v>
       </c>
       <c r="F675" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G675" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I675">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J675" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K675">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L675">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M675">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N675">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O675">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P675">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q675">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R675">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S675">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T675">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U675">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V675">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X675">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA675">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB675">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC675">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -61068,7 +61068,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61080,34 +61080,34 @@
         <v>45191.625</v>
       </c>
       <c r="F681" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G681" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H681">
         <v>4</v>
       </c>
       <c r="I681">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
         <v>54</v>
       </c>
       <c r="K681">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L681">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M681">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N681">
         <v>1.65</v>
       </c>
       <c r="O681">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P681">
         <v>4.333</v>
@@ -61116,19 +61116,19 @@
         <v>-0.75</v>
       </c>
       <c r="R681">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S681">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T681">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U681">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V681">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W681">
         <v>0.6499999999999999</v>
@@ -61140,13 +61140,13 @@
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA681">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB681">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC681">
         <v>-1</v>
@@ -61157,7 +61157,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61169,34 +61169,34 @@
         <v>45191.625</v>
       </c>
       <c r="F682" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G682" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H682">
         <v>4</v>
       </c>
       <c r="I682">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
         <v>54</v>
       </c>
       <c r="K682">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L682">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M682">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N682">
         <v>1.65</v>
       </c>
       <c r="O682">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P682">
         <v>4.333</v>
@@ -61205,19 +61205,19 @@
         <v>-0.75</v>
       </c>
       <c r="R682">
+        <v>1.825</v>
+      </c>
+      <c r="S682">
+        <v>1.975</v>
+      </c>
+      <c r="T682">
+        <v>3.25</v>
+      </c>
+      <c r="U682">
+        <v>1.925</v>
+      </c>
+      <c r="V682">
         <v>1.875</v>
-      </c>
-      <c r="S682">
-        <v>1.925</v>
-      </c>
-      <c r="T682">
-        <v>2.75</v>
-      </c>
-      <c r="U682">
-        <v>1.775</v>
-      </c>
-      <c r="V682">
-        <v>2.025</v>
       </c>
       <c r="W682">
         <v>0.6499999999999999</v>
@@ -61229,13 +61229,13 @@
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA682">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB682">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -61246,7 +61246,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61258,49 +61258,49 @@
         <v>45198.5</v>
       </c>
       <c r="F683" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G683" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K683">
+        <v>8.5</v>
+      </c>
+      <c r="L683">
         <v>5</v>
       </c>
-      <c r="L683">
-        <v>4</v>
-      </c>
       <c r="M683">
+        <v>1.3</v>
+      </c>
+      <c r="N683">
+        <v>5.5</v>
+      </c>
+      <c r="O683">
+        <v>3.8</v>
+      </c>
+      <c r="P683">
         <v>1.533</v>
-      </c>
-      <c r="N683">
-        <v>5.25</v>
-      </c>
-      <c r="O683">
-        <v>4.2</v>
-      </c>
-      <c r="P683">
-        <v>1.5</v>
       </c>
       <c r="Q683">
         <v>1</v>
       </c>
       <c r="R683">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S683">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T683">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U683">
         <v>1.975</v>
@@ -61312,22 +61312,22 @@
         <v>-1</v>
       </c>
       <c r="X683">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y683">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z683">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA683">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB683">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC683">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61424,7 +61424,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61436,49 +61436,49 @@
         <v>45198.5</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G685" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K685">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L685">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M685">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N685">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O685">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P685">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q685">
         <v>1</v>
       </c>
       <c r="R685">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S685">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T685">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U685">
         <v>1.975</v>
@@ -61490,22 +61490,22 @@
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z685">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC685">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -63916,7 +63916,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63928,76 +63928,76 @@
         <v>45226.5</v>
       </c>
       <c r="F713" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G713" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H713">
+        <v>1</v>
+      </c>
+      <c r="I713">
+        <v>2</v>
+      </c>
+      <c r="J713" t="s">
+        <v>52</v>
+      </c>
+      <c r="K713">
+        <v>4.75</v>
+      </c>
+      <c r="L713">
+        <v>4</v>
+      </c>
+      <c r="M713">
+        <v>1.65</v>
+      </c>
+      <c r="N713">
+        <v>2.9</v>
+      </c>
+      <c r="O713">
+        <v>3.5</v>
+      </c>
+      <c r="P713">
+        <v>2.25</v>
+      </c>
+      <c r="Q713">
+        <v>0.25</v>
+      </c>
+      <c r="R713">
+        <v>1.875</v>
+      </c>
+      <c r="S713">
+        <v>1.925</v>
+      </c>
+      <c r="T713">
         <v>3</v>
       </c>
-      <c r="I713">
-        <v>2</v>
-      </c>
-      <c r="J713" t="s">
-        <v>54</v>
-      </c>
-      <c r="K713">
+      <c r="U713">
         <v>1.85</v>
       </c>
-      <c r="L713">
-        <v>3.5</v>
-      </c>
-      <c r="M713">
-        <v>4</v>
-      </c>
-      <c r="N713">
-        <v>1.7</v>
-      </c>
-      <c r="O713">
-        <v>3.6</v>
-      </c>
-      <c r="P713">
-        <v>4.75</v>
-      </c>
-      <c r="Q713">
-        <v>-0.75</v>
-      </c>
-      <c r="R713">
-        <v>1.925</v>
-      </c>
-      <c r="S713">
-        <v>1.875</v>
-      </c>
-      <c r="T713">
-        <v>2.5</v>
-      </c>
-      <c r="U713">
-        <v>1.875</v>
-      </c>
       <c r="V713">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W713">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X713">
         <v>-1</v>
       </c>
       <c r="Y713">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z713">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA713">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB713">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC713">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64005,7 +64005,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64017,76 +64017,76 @@
         <v>45226.5</v>
       </c>
       <c r="F714" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G714" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I714">
         <v>2</v>
       </c>
       <c r="J714" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K714">
+        <v>1.85</v>
+      </c>
+      <c r="L714">
+        <v>3.5</v>
+      </c>
+      <c r="M714">
+        <v>4</v>
+      </c>
+      <c r="N714">
+        <v>1.7</v>
+      </c>
+      <c r="O714">
+        <v>3.6</v>
+      </c>
+      <c r="P714">
         <v>4.75</v>
       </c>
-      <c r="L714">
-        <v>4</v>
-      </c>
-      <c r="M714">
-        <v>1.65</v>
-      </c>
-      <c r="N714">
-        <v>2.9</v>
-      </c>
-      <c r="O714">
-        <v>3.5</v>
-      </c>
-      <c r="P714">
-        <v>2.25</v>
-      </c>
       <c r="Q714">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R714">
+        <v>1.925</v>
+      </c>
+      <c r="S714">
         <v>1.875</v>
       </c>
-      <c r="S714">
+      <c r="T714">
+        <v>2.5</v>
+      </c>
+      <c r="U714">
+        <v>1.875</v>
+      </c>
+      <c r="V714">
         <v>1.925</v>
       </c>
-      <c r="T714">
-        <v>3</v>
-      </c>
-      <c r="U714">
-        <v>1.85</v>
-      </c>
-      <c r="V714">
-        <v>1.95</v>
-      </c>
       <c r="W714">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X714">
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z714">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA714">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB714">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC714">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -65251,7 +65251,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65263,13 +65263,13 @@
         <v>45239.5</v>
       </c>
       <c r="F728" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G728" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H728">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -65278,43 +65278,43 @@
         <v>54</v>
       </c>
       <c r="K728">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L728">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M728">
+        <v>1.85</v>
+      </c>
+      <c r="N728">
+        <v>3.25</v>
+      </c>
+      <c r="O728">
         <v>3.3</v>
       </c>
-      <c r="N728">
-        <v>2</v>
-      </c>
-      <c r="O728">
-        <v>3.5</v>
-      </c>
       <c r="P728">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q728">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R728">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S728">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T728">
         <v>2.5</v>
       </c>
       <c r="U728">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V728">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W728">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X728">
         <v>-1</v>
@@ -65323,13 +65323,13 @@
         <v>-1</v>
       </c>
       <c r="Z728">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA728">
         <v>-1</v>
       </c>
       <c r="AB728">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC728">
         <v>-1</v>
@@ -65340,7 +65340,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65352,13 +65352,13 @@
         <v>45239.5</v>
       </c>
       <c r="F729" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G729" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -65367,43 +65367,43 @@
         <v>54</v>
       </c>
       <c r="K729">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L729">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M729">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N729">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O729">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P729">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q729">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R729">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S729">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T729">
         <v>2.5</v>
       </c>
       <c r="U729">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V729">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W729">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X729">
         <v>-1</v>
@@ -65412,13 +65412,13 @@
         <v>-1</v>
       </c>
       <c r="Z729">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA729">
         <v>-1</v>
       </c>
       <c r="AB729">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC729">
         <v>-1</v>
@@ -65429,7 +65429,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65441,55 +65441,55 @@
         <v>45239.625</v>
       </c>
       <c r="F730" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G730" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J730" t="s">
         <v>53</v>
       </c>
       <c r="K730">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L730">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M730">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N730">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O730">
         <v>3.75</v>
       </c>
       <c r="P730">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q730">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R730">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S730">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T730">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U730">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V730">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65501,16 +65501,16 @@
         <v>-1</v>
       </c>
       <c r="Z730">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA730">
         <v>-1</v>
       </c>
       <c r="AB730">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC730">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65518,7 +65518,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65530,55 +65530,55 @@
         <v>45239.625</v>
       </c>
       <c r="F731" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G731" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J731" t="s">
         <v>53</v>
       </c>
       <c r="K731">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L731">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M731">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N731">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O731">
         <v>3.75</v>
       </c>
       <c r="P731">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q731">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R731">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S731">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T731">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U731">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V731">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W731">
         <v>-1</v>
@@ -65590,16 +65590,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC731">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -67654,7 +67654,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67666,31 +67666,31 @@
         <v>45267.5</v>
       </c>
       <c r="F755" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G755" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H755">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="s">
         <v>54</v>
       </c>
       <c r="K755">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L755">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M755">
         <v>1.6</v>
       </c>
       <c r="N755">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O755">
         <v>3.5</v>
@@ -67702,22 +67702,22 @@
         <v>0.25</v>
       </c>
       <c r="R755">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S755">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T755">
         <v>2.75</v>
       </c>
       <c r="U755">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V755">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W755">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67726,16 +67726,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67743,7 +67743,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67755,31 +67755,31 @@
         <v>45267.5</v>
       </c>
       <c r="F756" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G756" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J756" t="s">
         <v>54</v>
       </c>
       <c r="K756">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L756">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M756">
         <v>1.6</v>
       </c>
       <c r="N756">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O756">
         <v>3.5</v>
@@ -67791,22 +67791,22 @@
         <v>0.25</v>
       </c>
       <c r="R756">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S756">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T756">
         <v>2.75</v>
       </c>
       <c r="U756">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V756">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W756">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67815,16 +67815,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC756">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -67921,7 +67921,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>6940759</v>
+        <v>6941379</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67933,76 +67933,76 @@
         <v>45268.5</v>
       </c>
       <c r="F758" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G758" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H758">
+        <v>3</v>
+      </c>
+      <c r="I758">
         <v>1</v>
       </c>
-      <c r="I758">
-        <v>2</v>
-      </c>
       <c r="J758" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K758">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="L758">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M758">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="N758">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="O758">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P758">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="Q758">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R758">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S758">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T758">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U758">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V758">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W758">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X758">
         <v>-1</v>
       </c>
       <c r="Y758">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z758">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA758">
         <v>-1</v>
       </c>
       <c r="AB758">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC758">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759" spans="1:29">
@@ -68099,7 +68099,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>6941379</v>
+        <v>6940759</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
@@ -68111,76 +68111,76 @@
         <v>45268.5</v>
       </c>
       <c r="F760" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G760" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H760">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I760">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J760" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K760">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="L760">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M760">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="N760">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="O760">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P760">
-        <v>4</v>
+        <v>1.111</v>
       </c>
       <c r="Q760">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R760">
+        <v>1.9</v>
+      </c>
+      <c r="S760">
+        <v>1.9</v>
+      </c>
+      <c r="T760">
+        <v>3.75</v>
+      </c>
+      <c r="U760">
         <v>1.975</v>
       </c>
-      <c r="S760">
+      <c r="V760">
         <v>1.825</v>
       </c>
-      <c r="T760">
-        <v>3</v>
-      </c>
-      <c r="U760">
-        <v>2</v>
-      </c>
-      <c r="V760">
-        <v>1.8</v>
-      </c>
       <c r="W760">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X760">
         <v>-1</v>
       </c>
       <c r="Y760">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z760">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA760">
         <v>-1</v>
       </c>
       <c r="AB760">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC760">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="761" spans="1:29">

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -33656,7 +33656,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4835449</v>
+        <v>4835269</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,58 +33668,58 @@
         <v>44739.625</v>
       </c>
       <c r="F373" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G373" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
         <v>54</v>
       </c>
       <c r="K373">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="L373">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M373">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N373">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="O373">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P373">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q373">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R373">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T373">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W373">
-        <v>0.2849999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33728,16 +33728,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA373">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB373">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33745,7 +33745,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4835269</v>
+        <v>4835268</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33757,49 +33757,49 @@
         <v>44739.625</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374">
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K374">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="L374">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N374">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O374">
         <v>3.5</v>
       </c>
       <c r="P374">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q374">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S374">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U374">
         <v>1.9</v>
@@ -33808,19 +33808,19 @@
         <v>1.9</v>
       </c>
       <c r="W374">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA374">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
         <v>-1</v>
@@ -33834,7 +33834,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4835268</v>
+        <v>4835449</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33846,76 +33846,76 @@
         <v>44739.625</v>
       </c>
       <c r="F375" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G375" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K375">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L375">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M375">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N375">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="O375">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P375">
+        <v>9.5</v>
+      </c>
+      <c r="Q375">
+        <v>-1.5</v>
+      </c>
+      <c r="R375">
+        <v>1.75</v>
+      </c>
+      <c r="S375">
         <v>2.05</v>
-      </c>
-      <c r="Q375">
-        <v>0.25</v>
-      </c>
-      <c r="R375">
-        <v>1.95</v>
-      </c>
-      <c r="S375">
-        <v>1.85</v>
       </c>
       <c r="T375">
         <v>3</v>
       </c>
       <c r="U375">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V375">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X375">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC375">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -34012,7 +34012,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>4835266</v>
+        <v>4835265</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34024,76 +34024,76 @@
         <v>44739.625</v>
       </c>
       <c r="F377" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G377" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K377">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M377">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N377">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="O377">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P377">
-        <v>1.571</v>
+        <v>9</v>
       </c>
       <c r="Q377">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R377">
-        <v>1.775</v>
+        <v>1.65</v>
       </c>
       <c r="S377">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U377">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="V377">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
+        <v>-1</v>
+      </c>
+      <c r="AA377">
+        <v>1.2</v>
+      </c>
+      <c r="AB377">
         <v>0</v>
       </c>
-      <c r="AA377">
+      <c r="AC377">
         <v>-0</v>
-      </c>
-      <c r="AB377">
-        <v>-1</v>
-      </c>
-      <c r="AC377">
-        <v>0.8</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34101,7 +34101,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4835265</v>
+        <v>4835267</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34113,61 +34113,61 @@
         <v>44739.625</v>
       </c>
       <c r="F378" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K378">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M378">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N378">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="O378">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P378">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q378">
         <v>-1.5</v>
       </c>
       <c r="R378">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S378">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T378">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U378">
-        <v>1.625</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y378">
         <v>-1</v>
@@ -34176,13 +34176,13 @@
         <v>-1</v>
       </c>
       <c r="AA378">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AB378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC378">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34190,7 +34190,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4835264</v>
+        <v>4835266</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34202,76 +34202,76 @@
         <v>44739.625</v>
       </c>
       <c r="F379" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G379" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379" t="s">
+        <v>52</v>
+      </c>
+      <c r="K379">
+        <v>3.75</v>
+      </c>
+      <c r="L379">
+        <v>3.3</v>
+      </c>
+      <c r="M379">
+        <v>1.909</v>
+      </c>
+      <c r="N379">
+        <v>5.25</v>
+      </c>
+      <c r="O379">
+        <v>3.6</v>
+      </c>
+      <c r="P379">
+        <v>1.571</v>
+      </c>
+      <c r="Q379">
+        <v>1</v>
+      </c>
+      <c r="R379">
+        <v>1.775</v>
+      </c>
+      <c r="S379">
+        <v>2.025</v>
+      </c>
+      <c r="T379">
+        <v>2.5</v>
+      </c>
+      <c r="U379">
+        <v>2</v>
+      </c>
+      <c r="V379">
+        <v>1.8</v>
+      </c>
+      <c r="W379">
+        <v>-1</v>
+      </c>
+      <c r="X379">
+        <v>-1</v>
+      </c>
+      <c r="Y379">
+        <v>0.571</v>
+      </c>
+      <c r="Z379">
         <v>0</v>
       </c>
-      <c r="J379" t="s">
-        <v>54</v>
-      </c>
-      <c r="K379">
-        <v>1.6</v>
-      </c>
-      <c r="L379">
-        <v>3.75</v>
-      </c>
-      <c r="M379">
-        <v>5</v>
-      </c>
-      <c r="N379">
-        <v>1.181</v>
-      </c>
-      <c r="O379">
-        <v>6</v>
-      </c>
-      <c r="P379">
-        <v>12</v>
-      </c>
-      <c r="Q379">
-        <v>-1.75</v>
-      </c>
-      <c r="R379">
-        <v>1.825</v>
-      </c>
-      <c r="S379">
-        <v>1.975</v>
-      </c>
-      <c r="T379">
-        <v>2.75</v>
-      </c>
-      <c r="U379">
-        <v>1.975</v>
-      </c>
-      <c r="V379">
-        <v>1.825</v>
-      </c>
-      <c r="W379">
-        <v>0.181</v>
-      </c>
-      <c r="X379">
-        <v>-1</v>
-      </c>
-      <c r="Y379">
-        <v>-1</v>
-      </c>
-      <c r="Z379">
-        <v>0.825</v>
-      </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB379">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC379">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34279,7 +34279,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4835267</v>
+        <v>4835264</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34291,76 +34291,76 @@
         <v>44739.625</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G380" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K380">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L380">
+        <v>3.75</v>
+      </c>
+      <c r="M380">
         <v>5</v>
       </c>
-      <c r="M380">
-        <v>7.5</v>
-      </c>
       <c r="N380">
-        <v>1.3</v>
+        <v>1.181</v>
       </c>
       <c r="O380">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P380">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q380">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R380">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S380">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T380">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U380">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V380">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X380">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC380">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5485115</v>
+        <v>5485085</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>44819.625</v>
       </c>
       <c r="F408" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K408">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L408">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M408">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N408">
+        <v>1.2</v>
+      </c>
+      <c r="O408">
+        <v>6.5</v>
+      </c>
+      <c r="P408">
+        <v>11</v>
+      </c>
+      <c r="Q408">
+        <v>-2</v>
+      </c>
+      <c r="R408">
         <v>1.95</v>
       </c>
-      <c r="O408">
-        <v>3.5</v>
-      </c>
-      <c r="P408">
+      <c r="S408">
+        <v>1.85</v>
+      </c>
+      <c r="T408">
         <v>3.25</v>
       </c>
-      <c r="Q408">
-        <v>-0.5</v>
-      </c>
-      <c r="R408">
-        <v>1.975</v>
-      </c>
-      <c r="S408">
-        <v>1.825</v>
-      </c>
-      <c r="T408">
-        <v>2.75</v>
-      </c>
       <c r="U408">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC408">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5485085</v>
+        <v>5485115</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>44819.625</v>
       </c>
       <c r="F409" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G409" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J409" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L409">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N409">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O409">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="Q409">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R409">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S409">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V409">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W409">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC409">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37839,7 +37839,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>5485093</v>
+        <v>5446243</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37851,13 +37851,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F420" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G420" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H420">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420">
         <v>0</v>
@@ -37866,43 +37866,43 @@
         <v>54</v>
       </c>
       <c r="K420">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L420">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M420">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N420">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O420">
+        <v>3.1</v>
+      </c>
+      <c r="P420">
         <v>2.9</v>
-      </c>
-      <c r="P420">
-        <v>3.4</v>
       </c>
       <c r="Q420">
         <v>-0.25</v>
       </c>
       <c r="R420">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S420">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T420">
         <v>2.25</v>
       </c>
       <c r="U420">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V420">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W420">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37911,16 +37911,16 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC420">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5446243</v>
+        <v>5485093</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,13 +37940,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F421" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G421" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I421">
         <v>0</v>
@@ -37955,43 +37955,43 @@
         <v>54</v>
       </c>
       <c r="K421">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L421">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M421">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N421">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O421">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P421">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q421">
         <v>-0.25</v>
       </c>
       <c r="R421">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S421">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T421">
         <v>2.25</v>
       </c>
       <c r="U421">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V421">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W421">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -38000,16 +38000,16 @@
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA421">
         <v>-1</v>
       </c>
       <c r="AB421">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC421">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -39352,7 +39352,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>5446249</v>
+        <v>5485117</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39364,13 +39364,13 @@
         <v>44849.61458333334</v>
       </c>
       <c r="F437" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G437" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H437">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I437">
         <v>0</v>
@@ -39379,43 +39379,43 @@
         <v>54</v>
       </c>
       <c r="K437">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L437">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M437">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="N437">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="O437">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P437">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q437">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R437">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S437">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T437">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U437">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V437">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W437">
-        <v>0.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X437">
         <v>-1</v>
@@ -39424,16 +39424,16 @@
         <v>-1</v>
       </c>
       <c r="Z437">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA437">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB437">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39441,7 +39441,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>5485117</v>
+        <v>5446249</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39453,13 +39453,13 @@
         <v>44849.61458333334</v>
       </c>
       <c r="F438" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G438" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I438">
         <v>0</v>
@@ -39468,43 +39468,43 @@
         <v>54</v>
       </c>
       <c r="K438">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L438">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M438">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="N438">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="O438">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P438">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q438">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R438">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S438">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T438">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U438">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V438">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W438">
-        <v>0.6499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X438">
         <v>-1</v>
@@ -39513,16 +39513,16 @@
         <v>-1</v>
       </c>
       <c r="Z438">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB438">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC438">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39530,7 +39530,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>5485103</v>
+        <v>5485104</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39542,73 +39542,73 @@
         <v>44850.48958333334</v>
       </c>
       <c r="F439" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G439" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H439">
+        <v>4</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439" t="s">
+        <v>54</v>
+      </c>
+      <c r="K439">
+        <v>1.333</v>
+      </c>
+      <c r="L439">
+        <v>4.333</v>
+      </c>
+      <c r="M439">
+        <v>7.5</v>
+      </c>
+      <c r="N439">
+        <v>1.25</v>
+      </c>
+      <c r="O439">
+        <v>5</v>
+      </c>
+      <c r="P439">
+        <v>8.5</v>
+      </c>
+      <c r="Q439">
+        <v>-1.5</v>
+      </c>
+      <c r="R439">
+        <v>1.875</v>
+      </c>
+      <c r="S439">
+        <v>1.925</v>
+      </c>
+      <c r="T439">
+        <v>2.75</v>
+      </c>
+      <c r="U439">
+        <v>2</v>
+      </c>
+      <c r="V439">
+        <v>1.8</v>
+      </c>
+      <c r="W439">
+        <v>0.25</v>
+      </c>
+      <c r="X439">
+        <v>-1</v>
+      </c>
+      <c r="Y439">
+        <v>-1</v>
+      </c>
+      <c r="Z439">
+        <v>0.875</v>
+      </c>
+      <c r="AA439">
+        <v>-1</v>
+      </c>
+      <c r="AB439">
         <v>1</v>
-      </c>
-      <c r="I439">
-        <v>3</v>
-      </c>
-      <c r="J439" t="s">
-        <v>52</v>
-      </c>
-      <c r="K439">
-        <v>6.5</v>
-      </c>
-      <c r="L439">
-        <v>3.75</v>
-      </c>
-      <c r="M439">
-        <v>1.444</v>
-      </c>
-      <c r="N439">
-        <v>7.5</v>
-      </c>
-      <c r="O439">
-        <v>4</v>
-      </c>
-      <c r="P439">
-        <v>1.4</v>
-      </c>
-      <c r="Q439">
-        <v>1.25</v>
-      </c>
-      <c r="R439">
-        <v>1.825</v>
-      </c>
-      <c r="S439">
-        <v>1.975</v>
-      </c>
-      <c r="T439">
-        <v>2.5</v>
-      </c>
-      <c r="U439">
-        <v>1.925</v>
-      </c>
-      <c r="V439">
-        <v>1.875</v>
-      </c>
-      <c r="W439">
-        <v>-1</v>
-      </c>
-      <c r="X439">
-        <v>-1</v>
-      </c>
-      <c r="Y439">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z439">
-        <v>-1</v>
-      </c>
-      <c r="AA439">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB439">
-        <v>0.925</v>
       </c>
       <c r="AC439">
         <v>-1</v>
@@ -39619,7 +39619,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>5485104</v>
+        <v>5485103</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39631,73 +39631,73 @@
         <v>44850.48958333334</v>
       </c>
       <c r="F440" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G440" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H440">
+        <v>1</v>
+      </c>
+      <c r="I440">
+        <v>3</v>
+      </c>
+      <c r="J440" t="s">
+        <v>52</v>
+      </c>
+      <c r="K440">
+        <v>6.5</v>
+      </c>
+      <c r="L440">
+        <v>3.75</v>
+      </c>
+      <c r="M440">
+        <v>1.444</v>
+      </c>
+      <c r="N440">
+        <v>7.5</v>
+      </c>
+      <c r="O440">
         <v>4</v>
       </c>
-      <c r="I440">
-        <v>0</v>
-      </c>
-      <c r="J440" t="s">
-        <v>54</v>
-      </c>
-      <c r="K440">
-        <v>1.333</v>
-      </c>
-      <c r="L440">
-        <v>4.333</v>
-      </c>
-      <c r="M440">
-        <v>7.5</v>
-      </c>
-      <c r="N440">
+      <c r="P440">
+        <v>1.4</v>
+      </c>
+      <c r="Q440">
         <v>1.25</v>
       </c>
-      <c r="O440">
-        <v>5</v>
-      </c>
-      <c r="P440">
-        <v>8.5</v>
-      </c>
-      <c r="Q440">
-        <v>-1.5</v>
-      </c>
       <c r="R440">
+        <v>1.825</v>
+      </c>
+      <c r="S440">
+        <v>1.975</v>
+      </c>
+      <c r="T440">
+        <v>2.5</v>
+      </c>
+      <c r="U440">
+        <v>1.925</v>
+      </c>
+      <c r="V440">
         <v>1.875</v>
       </c>
-      <c r="S440">
-        <v>1.925</v>
-      </c>
-      <c r="T440">
-        <v>2.75</v>
-      </c>
-      <c r="U440">
-        <v>2</v>
-      </c>
-      <c r="V440">
-        <v>1.8</v>
-      </c>
       <c r="W440">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z440">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB440">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC440">
         <v>-1</v>
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5446250</v>
+        <v>5485106</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,40 +39809,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F442" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G442" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H442">
+        <v>1</v>
+      </c>
+      <c r="I442">
         <v>0</v>
       </c>
-      <c r="I442">
-        <v>1</v>
-      </c>
       <c r="J442" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K442">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L442">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="M442">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P442">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q442">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R442">
         <v>1.8</v>
@@ -39851,34 +39851,34 @@
         <v>2</v>
       </c>
       <c r="T442">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U442">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V442">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA442">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB442">
         <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5485106</v>
+        <v>5446250</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,40 +39898,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F443" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G443" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
         <v>1</v>
       </c>
-      <c r="I443">
-        <v>0</v>
-      </c>
       <c r="J443" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K443">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L443">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="M443">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N443">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O443">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P443">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q443">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R443">
         <v>1.8</v>
@@ -39940,34 +39940,34 @@
         <v>2</v>
       </c>
       <c r="T443">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V443">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W443">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z443">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40776,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5581799</v>
+        <v>5581797</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40788,73 +40788,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G453" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H453">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J453" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K453">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="L453">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M453">
+        <v>1.3</v>
+      </c>
+      <c r="N453">
+        <v>6.5</v>
+      </c>
+      <c r="O453">
+        <v>4.2</v>
+      </c>
+      <c r="P453">
+        <v>1.4</v>
+      </c>
+      <c r="Q453">
+        <v>1.25</v>
+      </c>
+      <c r="R453">
+        <v>1.875</v>
+      </c>
+      <c r="S453">
+        <v>1.925</v>
+      </c>
+      <c r="T453">
+        <v>2.5</v>
+      </c>
+      <c r="U453">
         <v>1.8</v>
       </c>
-      <c r="N453">
-        <v>3.4</v>
-      </c>
-      <c r="O453">
-        <v>3.5</v>
-      </c>
-      <c r="P453">
-        <v>1.85</v>
-      </c>
-      <c r="Q453">
-        <v>0.5</v>
-      </c>
-      <c r="R453">
-        <v>1.9</v>
-      </c>
-      <c r="S453">
-        <v>1.9</v>
-      </c>
-      <c r="T453">
-        <v>2.75</v>
-      </c>
-      <c r="U453">
-        <v>1.875</v>
-      </c>
       <c r="V453">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W453">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z453">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA453">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB453">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC453">
         <v>-1</v>
@@ -40865,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5581797</v>
+        <v>5581799</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40877,73 +40877,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G454" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H454">
+        <v>4</v>
+      </c>
+      <c r="I454">
         <v>1</v>
       </c>
-      <c r="I454">
-        <v>2</v>
-      </c>
       <c r="J454" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K454">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L454">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M454">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N454">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O454">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P454">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q454">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R454">
+        <v>1.9</v>
+      </c>
+      <c r="S454">
+        <v>1.9</v>
+      </c>
+      <c r="T454">
+        <v>2.75</v>
+      </c>
+      <c r="U454">
         <v>1.875</v>
       </c>
-      <c r="S454">
+      <c r="V454">
         <v>1.925</v>
       </c>
-      <c r="T454">
-        <v>2.5</v>
-      </c>
-      <c r="U454">
-        <v>1.8</v>
-      </c>
-      <c r="V454">
-        <v>2</v>
-      </c>
       <c r="W454">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA454">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -42200,7 +42200,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5581818</v>
+        <v>5581813</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42212,40 +42212,40 @@
         <v>44932.5</v>
       </c>
       <c r="F469" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G469" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H469">
         <v>2</v>
       </c>
       <c r="I469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469" t="s">
         <v>54</v>
       </c>
       <c r="K469">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L469">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M469">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="N469">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O469">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P469">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q469">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R469">
         <v>1.85</v>
@@ -42254,16 +42254,16 @@
         <v>1.95</v>
       </c>
       <c r="T469">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U469">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V469">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W469">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="X469">
         <v>-1</v>
@@ -42272,16 +42272,16 @@
         <v>-1</v>
       </c>
       <c r="Z469">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA469">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC469">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42289,7 +42289,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>5581813</v>
+        <v>5581818</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42301,40 +42301,40 @@
         <v>44932.5</v>
       </c>
       <c r="F470" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G470" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H470">
         <v>2</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J470" t="s">
         <v>54</v>
       </c>
       <c r="K470">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="L470">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M470">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="N470">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O470">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P470">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="Q470">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R470">
         <v>1.85</v>
@@ -42343,16 +42343,16 @@
         <v>1.95</v>
       </c>
       <c r="T470">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U470">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V470">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W470">
-        <v>2.6</v>
+        <v>0.25</v>
       </c>
       <c r="X470">
         <v>-1</v>
@@ -42361,16 +42361,16 @@
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA470">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB470">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC470">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42823,7 +42823,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>5581824</v>
+        <v>5581822</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42835,76 +42835,76 @@
         <v>44938.39583333334</v>
       </c>
       <c r="F476" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G476" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476" t="s">
+        <v>54</v>
+      </c>
+      <c r="K476">
+        <v>2.25</v>
+      </c>
+      <c r="L476">
         <v>3</v>
       </c>
-      <c r="J476" t="s">
-        <v>52</v>
-      </c>
-      <c r="K476">
+      <c r="M476">
+        <v>3</v>
+      </c>
+      <c r="N476">
+        <v>2.2</v>
+      </c>
+      <c r="O476">
         <v>2.9</v>
       </c>
-      <c r="L476">
-        <v>3.1</v>
-      </c>
-      <c r="M476">
-        <v>2.25</v>
-      </c>
-      <c r="N476">
-        <v>2.45</v>
-      </c>
-      <c r="O476">
-        <v>3</v>
-      </c>
       <c r="P476">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q476">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R476">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S476">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T476">
         <v>2.5</v>
       </c>
       <c r="U476">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V476">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W476">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z476">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA476">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB476">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC476">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42912,7 +42912,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>5581822</v>
+        <v>5581824</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42924,76 +42924,76 @@
         <v>44938.39583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G477" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477">
+        <v>3</v>
+      </c>
+      <c r="J477" t="s">
+        <v>52</v>
+      </c>
+      <c r="K477">
+        <v>2.9</v>
+      </c>
+      <c r="L477">
+        <v>3.1</v>
+      </c>
+      <c r="M477">
+        <v>2.25</v>
+      </c>
+      <c r="N477">
+        <v>2.45</v>
+      </c>
+      <c r="O477">
+        <v>3</v>
+      </c>
+      <c r="P477">
+        <v>2.8</v>
+      </c>
+      <c r="Q477">
         <v>0</v>
       </c>
-      <c r="J477" t="s">
-        <v>54</v>
-      </c>
-      <c r="K477">
-        <v>2.25</v>
-      </c>
-      <c r="L477">
-        <v>3</v>
-      </c>
-      <c r="M477">
-        <v>3</v>
-      </c>
-      <c r="N477">
-        <v>2.2</v>
-      </c>
-      <c r="O477">
-        <v>2.9</v>
-      </c>
-      <c r="P477">
-        <v>3.4</v>
-      </c>
-      <c r="Q477">
-        <v>-0.25</v>
-      </c>
       <c r="R477">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S477">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T477">
         <v>2.5</v>
       </c>
       <c r="U477">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V477">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W477">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X477">
         <v>-1</v>
       </c>
       <c r="Y477">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z477">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA477">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB477">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC477">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -46828,7 +46828,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5967551</v>
+        <v>5967549</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46840,76 +46840,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F521" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G521" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J521" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K521">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L521">
+        <v>3.3</v>
+      </c>
+      <c r="M521">
+        <v>3.2</v>
+      </c>
+      <c r="N521">
+        <v>2</v>
+      </c>
+      <c r="O521">
+        <v>3.1</v>
+      </c>
+      <c r="P521">
         <v>3.4</v>
       </c>
-      <c r="M521">
-        <v>3.6</v>
-      </c>
-      <c r="N521">
-        <v>1.727</v>
-      </c>
-      <c r="O521">
-        <v>3.5</v>
-      </c>
-      <c r="P521">
-        <v>4</v>
-      </c>
       <c r="Q521">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R521">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S521">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T521">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U521">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V521">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W521">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z521">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA521">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC521">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46917,7 +46917,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>5967549</v>
+        <v>5967551</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46929,76 +46929,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F522" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G522" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J522" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K522">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L522">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M522">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N522">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O522">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P522">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q522">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R522">
+        <v>2</v>
+      </c>
+      <c r="S522">
         <v>1.8</v>
       </c>
-      <c r="S522">
-        <v>2</v>
-      </c>
       <c r="T522">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U522">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V522">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W522">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z522">
+        <v>-1</v>
+      </c>
+      <c r="AA522">
         <v>0.8</v>
       </c>
-      <c r="AA522">
-        <v>-1</v>
-      </c>
       <c r="AB522">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC522">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -50210,7 +50210,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5967575</v>
+        <v>5967574</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50222,76 +50222,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F559" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G559" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J559" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K559">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L559">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M559">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N559">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O559">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P559">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q559">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R559">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S559">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T559">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U559">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V559">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y559">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z559">
         <v>-1</v>
       </c>
       <c r="AA559">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB559">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC559">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50299,7 +50299,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5966989</v>
+        <v>5967575</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50311,10 +50311,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F560" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G560" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H560">
         <v>2</v>
@@ -50326,46 +50326,46 @@
         <v>53</v>
       </c>
       <c r="K560">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L560">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M560">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N560">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O560">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P560">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q560">
         <v>-0.75</v>
       </c>
       <c r="R560">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S560">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T560">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U560">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V560">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Y560">
         <v>-1</v>
@@ -50374,10 +50374,10 @@
         <v>-1</v>
       </c>
       <c r="AA560">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB560">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC560">
         <v>-1</v>
@@ -50388,7 +50388,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5967574</v>
+        <v>5966989</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50400,40 +50400,40 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F561" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G561" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J561" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K561">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L561">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M561">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="N561">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O561">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P561">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q561">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R561">
         <v>1.8</v>
@@ -50442,22 +50442,22 @@
         <v>2</v>
       </c>
       <c r="T561">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U561">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V561">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y561">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z561">
         <v>-1</v>
@@ -50466,10 +50466,10 @@
         <v>1</v>
       </c>
       <c r="AB561">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC561">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -51634,7 +51634,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5967583</v>
+        <v>5967582</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51646,10 +51646,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F575" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G575" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H575">
         <v>2</v>
@@ -51661,43 +51661,43 @@
         <v>54</v>
       </c>
       <c r="K575">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L575">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M575">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N575">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O575">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P575">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q575">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R575">
+        <v>1.95</v>
+      </c>
+      <c r="S575">
         <v>1.85</v>
-      </c>
-      <c r="S575">
-        <v>1.95</v>
       </c>
       <c r="T575">
         <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V575">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W575">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51706,13 +51706,13 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC575">
         <v>-1</v>
@@ -51723,7 +51723,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5967582</v>
+        <v>5967583</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51735,10 +51735,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F576" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G576" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H576">
         <v>2</v>
@@ -51750,43 +51750,43 @@
         <v>54</v>
       </c>
       <c r="K576">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L576">
+        <v>3.5</v>
+      </c>
+      <c r="M576">
         <v>3.1</v>
       </c>
-      <c r="M576">
+      <c r="N576">
         <v>2.4</v>
       </c>
-      <c r="N576">
-        <v>2.2</v>
-      </c>
       <c r="O576">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P576">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q576">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R576">
+        <v>1.85</v>
+      </c>
+      <c r="S576">
         <v>1.95</v>
-      </c>
-      <c r="S576">
-        <v>1.85</v>
       </c>
       <c r="T576">
         <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V576">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W576">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51795,13 +51795,13 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA576">
         <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -52702,7 +52702,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5967592</v>
+        <v>5967000</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52714,76 +52714,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F587" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G587" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H587">
         <v>0</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K587">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L587">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M587">
+        <v>2.4</v>
+      </c>
+      <c r="N587">
         <v>2.5</v>
-      </c>
-      <c r="N587">
-        <v>2.1</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q587">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R587">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S587">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA587">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB587">
         <v>-1</v>
       </c>
       <c r="AC587">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52791,7 +52791,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5967000</v>
+        <v>5967592</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52803,76 +52803,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F588" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G588" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H588">
         <v>0</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K588">
+        <v>2.55</v>
+      </c>
+      <c r="L588">
+        <v>3.25</v>
+      </c>
+      <c r="M588">
         <v>2.5</v>
       </c>
-      <c r="L588">
-        <v>3.4</v>
-      </c>
-      <c r="M588">
-        <v>2.4</v>
-      </c>
       <c r="N588">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O588">
         <v>3.4</v>
       </c>
       <c r="P588">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q588">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R588">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S588">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V588">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W588">
         <v>-1</v>
       </c>
       <c r="X588">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y588">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA588">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB588">
         <v>-1</v>
       </c>
       <c r="AC588">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -60445,7 +60445,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60457,76 +60457,76 @@
         <v>45190.5</v>
       </c>
       <c r="F674" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G674" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I674">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J674" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K674">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L674">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M674">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N674">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O674">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P674">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q674">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R674">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S674">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T674">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U674">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V674">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W674">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X674">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA674">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB674">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC674">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60534,7 +60534,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60546,76 +60546,76 @@
         <v>45190.5</v>
       </c>
       <c r="F675" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G675" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H675">
+        <v>1</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675" t="s">
+        <v>53</v>
+      </c>
+      <c r="K675">
+        <v>13</v>
+      </c>
+      <c r="L675">
+        <v>7</v>
+      </c>
+      <c r="M675">
+        <v>1.142</v>
+      </c>
+      <c r="N675">
+        <v>15</v>
+      </c>
+      <c r="O675">
+        <v>9</v>
+      </c>
+      <c r="P675">
+        <v>1.111</v>
+      </c>
+      <c r="Q675">
+        <v>2.5</v>
+      </c>
+      <c r="R675">
+        <v>1.975</v>
+      </c>
+      <c r="S675">
+        <v>1.825</v>
+      </c>
+      <c r="T675">
         <v>4</v>
       </c>
-      <c r="I675">
-        <v>3</v>
-      </c>
-      <c r="J675" t="s">
-        <v>54</v>
-      </c>
-      <c r="K675">
-        <v>1.7</v>
-      </c>
-      <c r="L675">
-        <v>3.7</v>
-      </c>
-      <c r="M675">
-        <v>4.25</v>
-      </c>
-      <c r="N675">
-        <v>1.45</v>
-      </c>
-      <c r="O675">
-        <v>4.2</v>
-      </c>
-      <c r="P675">
-        <v>5.5</v>
-      </c>
-      <c r="Q675">
-        <v>-1</v>
-      </c>
-      <c r="R675">
-        <v>1.775</v>
-      </c>
-      <c r="S675">
-        <v>2.025</v>
-      </c>
-      <c r="T675">
-        <v>2.75</v>
-      </c>
       <c r="U675">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V675">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W675">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X675">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA675">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC675">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -61068,7 +61068,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61080,34 +61080,34 @@
         <v>45191.625</v>
       </c>
       <c r="F681" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G681" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H681">
         <v>4</v>
       </c>
       <c r="I681">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J681" t="s">
         <v>54</v>
       </c>
       <c r="K681">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L681">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M681">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N681">
         <v>1.65</v>
       </c>
       <c r="O681">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P681">
         <v>4.333</v>
@@ -61116,19 +61116,19 @@
         <v>-0.75</v>
       </c>
       <c r="R681">
+        <v>1.825</v>
+      </c>
+      <c r="S681">
+        <v>1.975</v>
+      </c>
+      <c r="T681">
+        <v>3.25</v>
+      </c>
+      <c r="U681">
+        <v>1.925</v>
+      </c>
+      <c r="V681">
         <v>1.875</v>
-      </c>
-      <c r="S681">
-        <v>1.925</v>
-      </c>
-      <c r="T681">
-        <v>2.75</v>
-      </c>
-      <c r="U681">
-        <v>1.775</v>
-      </c>
-      <c r="V681">
-        <v>2.025</v>
       </c>
       <c r="W681">
         <v>0.6499999999999999</v>
@@ -61140,13 +61140,13 @@
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA681">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB681">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC681">
         <v>-1</v>
@@ -61157,7 +61157,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61169,34 +61169,34 @@
         <v>45191.625</v>
       </c>
       <c r="F682" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G682" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H682">
         <v>4</v>
       </c>
       <c r="I682">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J682" t="s">
         <v>54</v>
       </c>
       <c r="K682">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L682">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M682">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N682">
         <v>1.65</v>
       </c>
       <c r="O682">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P682">
         <v>4.333</v>
@@ -61205,19 +61205,19 @@
         <v>-0.75</v>
       </c>
       <c r="R682">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S682">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T682">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U682">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V682">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W682">
         <v>0.6499999999999999</v>
@@ -61229,13 +61229,13 @@
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA682">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB682">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -61246,7 +61246,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61258,49 +61258,49 @@
         <v>45198.5</v>
       </c>
       <c r="F683" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G683" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J683" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K683">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L683">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M683">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N683">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O683">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P683">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q683">
         <v>1</v>
       </c>
       <c r="R683">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S683">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T683">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U683">
         <v>1.975</v>
@@ -61312,22 +61312,22 @@
         <v>-1</v>
       </c>
       <c r="X683">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z683">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61424,7 +61424,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61436,49 +61436,49 @@
         <v>45198.5</v>
       </c>
       <c r="F685" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K685">
+        <v>8.5</v>
+      </c>
+      <c r="L685">
         <v>5</v>
       </c>
-      <c r="L685">
-        <v>4</v>
-      </c>
       <c r="M685">
+        <v>1.3</v>
+      </c>
+      <c r="N685">
+        <v>5.5</v>
+      </c>
+      <c r="O685">
+        <v>3.8</v>
+      </c>
+      <c r="P685">
         <v>1.533</v>
-      </c>
-      <c r="N685">
-        <v>5.25</v>
-      </c>
-      <c r="O685">
-        <v>4.2</v>
-      </c>
-      <c r="P685">
-        <v>1.5</v>
       </c>
       <c r="Q685">
         <v>1</v>
       </c>
       <c r="R685">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S685">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T685">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U685">
         <v>1.975</v>
@@ -61490,22 +61490,22 @@
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y685">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA685">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -66230,7 +66230,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>6940756</v>
+        <v>6941361</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66242,58 +66242,58 @@
         <v>45254.625</v>
       </c>
       <c r="F739" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G739" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H739">
+        <v>4</v>
+      </c>
+      <c r="I739">
         <v>3</v>
-      </c>
-      <c r="I739">
-        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>54</v>
       </c>
       <c r="K739">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L739">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M739">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="N739">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="O739">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P739">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q739">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R739">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S739">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T739">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U739">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V739">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W739">
-        <v>0.2849999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66302,16 +66302,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC739">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66319,7 +66319,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>6941361</v>
+        <v>6940756</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66331,58 +66331,58 @@
         <v>45254.625</v>
       </c>
       <c r="F740" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G740" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H740">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I740">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J740" t="s">
         <v>54</v>
       </c>
       <c r="K740">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L740">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M740">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="N740">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="O740">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P740">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="Q740">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R740">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S740">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T740">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U740">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V740">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W740">
-        <v>2.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X740">
         <v>-1</v>
@@ -66391,16 +66391,16 @@
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA740">
         <v>-1</v>
       </c>
       <c r="AB740">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC740">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -68455,7 +68455,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68467,76 +68467,76 @@
         <v>45274.5</v>
       </c>
       <c r="F764" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G764" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H764">
         <v>1</v>
       </c>
       <c r="I764">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K764">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L764">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M764">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N764">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O764">
         <v>3.4</v>
       </c>
       <c r="P764">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q764">
+        <v>-0.25</v>
+      </c>
+      <c r="R764">
+        <v>1.975</v>
+      </c>
+      <c r="S764">
+        <v>1.825</v>
+      </c>
+      <c r="T764">
+        <v>2.75</v>
+      </c>
+      <c r="U764">
+        <v>2</v>
+      </c>
+      <c r="V764">
+        <v>1.8</v>
+      </c>
+      <c r="W764">
+        <v>-1</v>
+      </c>
+      <c r="X764">
+        <v>2.4</v>
+      </c>
+      <c r="Y764">
+        <v>-1</v>
+      </c>
+      <c r="Z764">
         <v>-0.5</v>
       </c>
-      <c r="R764">
-        <v>1.9</v>
-      </c>
-      <c r="S764">
-        <v>1.9</v>
-      </c>
-      <c r="T764">
-        <v>2.5</v>
-      </c>
-      <c r="U764">
-        <v>1.9</v>
-      </c>
-      <c r="V764">
-        <v>1.9</v>
-      </c>
-      <c r="W764">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X764">
-        <v>-1</v>
-      </c>
-      <c r="Y764">
-        <v>-1</v>
-      </c>
-      <c r="Z764">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA764">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB764">
         <v>-1</v>
       </c>
       <c r="AC764">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68544,7 +68544,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68556,76 +68556,76 @@
         <v>45274.5</v>
       </c>
       <c r="F765" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G765" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H765">
         <v>1</v>
       </c>
       <c r="I765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J765" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K765">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L765">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M765">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N765">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O765">
         <v>3.4</v>
       </c>
       <c r="P765">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q765">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R765">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S765">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T765">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U765">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V765">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W765">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X765">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA765">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
         <v>-1</v>
       </c>
       <c r="AC765">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -69167,7 +69167,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69179,10 +69179,10 @@
         <v>45281.5</v>
       </c>
       <c r="F772" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G772" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -69194,61 +69194,61 @@
         <v>54</v>
       </c>
       <c r="K772">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L772">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M772">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N772">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O772">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P772">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q772">
+        <v>-0.75</v>
+      </c>
+      <c r="R772">
+        <v>1.85</v>
+      </c>
+      <c r="S772">
+        <v>1.95</v>
+      </c>
+      <c r="T772">
+        <v>2.75</v>
+      </c>
+      <c r="U772">
+        <v>1.975</v>
+      </c>
+      <c r="V772">
+        <v>1.825</v>
+      </c>
+      <c r="W772">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X772">
+        <v>-1</v>
+      </c>
+      <c r="Y772">
+        <v>-1</v>
+      </c>
+      <c r="Z772">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA772">
+        <v>-1</v>
+      </c>
+      <c r="AB772">
+        <v>0.4875</v>
+      </c>
+      <c r="AC772">
         <v>-0.5</v>
-      </c>
-      <c r="R772">
-        <v>2.025</v>
-      </c>
-      <c r="S772">
-        <v>1.775</v>
-      </c>
-      <c r="T772">
-        <v>2.25</v>
-      </c>
-      <c r="U772">
-        <v>1.775</v>
-      </c>
-      <c r="V772">
-        <v>2.025</v>
-      </c>
-      <c r="W772">
-        <v>1</v>
-      </c>
-      <c r="X772">
-        <v>-1</v>
-      </c>
-      <c r="Y772">
-        <v>-1</v>
-      </c>
-      <c r="Z772">
-        <v>1.025</v>
-      </c>
-      <c r="AA772">
-        <v>-1</v>
-      </c>
-      <c r="AB772">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC772">
-        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69256,7 +69256,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69268,10 +69268,10 @@
         <v>45281.5</v>
       </c>
       <c r="F773" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G773" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H773">
         <v>3</v>
@@ -69283,43 +69283,43 @@
         <v>54</v>
       </c>
       <c r="K773">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L773">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M773">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N773">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O773">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P773">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q773">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R773">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S773">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T773">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U773">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V773">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W773">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X773">
         <v>-1</v>
@@ -69328,16 +69328,16 @@
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA773">
         <v>-1</v>
       </c>
       <c r="AB773">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC773">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69434,7 +69434,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>6940819</v>
+        <v>6941388</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69446,76 +69446,76 @@
         <v>45282.5</v>
       </c>
       <c r="F775" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G775" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H775">
+        <v>0</v>
+      </c>
+      <c r="I775">
+        <v>4</v>
+      </c>
+      <c r="J775" t="s">
+        <v>52</v>
+      </c>
+      <c r="K775">
+        <v>5</v>
+      </c>
+      <c r="L775">
+        <v>4.75</v>
+      </c>
+      <c r="M775">
+        <v>1.444</v>
+      </c>
+      <c r="N775">
+        <v>5.5</v>
+      </c>
+      <c r="O775">
+        <v>5</v>
+      </c>
+      <c r="P775">
+        <v>1.363</v>
+      </c>
+      <c r="Q775">
+        <v>1.5</v>
+      </c>
+      <c r="R775">
+        <v>1.8</v>
+      </c>
+      <c r="S775">
+        <v>2</v>
+      </c>
+      <c r="T775">
+        <v>3.25</v>
+      </c>
+      <c r="U775">
+        <v>2.025</v>
+      </c>
+      <c r="V775">
+        <v>1.775</v>
+      </c>
+      <c r="W775">
+        <v>-1</v>
+      </c>
+      <c r="X775">
+        <v>-1</v>
+      </c>
+      <c r="Y775">
+        <v>0.363</v>
+      </c>
+      <c r="Z775">
+        <v>-1</v>
+      </c>
+      <c r="AA775">
         <v>1</v>
       </c>
-      <c r="I775">
-        <v>0</v>
-      </c>
-      <c r="J775" t="s">
-        <v>54</v>
-      </c>
-      <c r="K775">
-        <v>2.5</v>
-      </c>
-      <c r="L775">
-        <v>3.4</v>
-      </c>
-      <c r="M775">
-        <v>2.6</v>
-      </c>
-      <c r="N775">
-        <v>2.7</v>
-      </c>
-      <c r="O775">
-        <v>3.25</v>
-      </c>
-      <c r="P775">
-        <v>2.5</v>
-      </c>
-      <c r="Q775">
-        <v>0</v>
-      </c>
-      <c r="R775">
-        <v>1.95</v>
-      </c>
-      <c r="S775">
-        <v>1.85</v>
-      </c>
-      <c r="T775">
-        <v>2.5</v>
-      </c>
-      <c r="U775">
-        <v>2</v>
-      </c>
-      <c r="V775">
-        <v>1.8</v>
-      </c>
-      <c r="W775">
-        <v>1.7</v>
-      </c>
-      <c r="X775">
-        <v>-1</v>
-      </c>
-      <c r="Y775">
-        <v>-1</v>
-      </c>
-      <c r="Z775">
-        <v>0.95</v>
-      </c>
-      <c r="AA775">
-        <v>-1</v>
-      </c>
       <c r="AB775">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC775">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69523,7 +69523,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>7605556</v>
+        <v>6940819</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69535,58 +69535,58 @@
         <v>45282.5</v>
       </c>
       <c r="F776" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G776" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H776">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J776" t="s">
         <v>54</v>
       </c>
       <c r="K776">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L776">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M776">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N776">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O776">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P776">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q776">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R776">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S776">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T776">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U776">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V776">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W776">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X776">
         <v>-1</v>
@@ -69595,16 +69595,16 @@
         <v>-1</v>
       </c>
       <c r="Z776">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA776">
         <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC776">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69612,7 +69612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>6941388</v>
+        <v>7605556</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69624,73 +69624,73 @@
         <v>45282.5</v>
       </c>
       <c r="F777" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G777" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J777" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K777">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L777">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M777">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N777">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="O777">
         <v>5</v>
       </c>
       <c r="P777">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q777">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R777">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S777">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T777">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U777">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V777">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA777">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -70057,7 +70057,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70069,76 +70069,76 @@
         <v>45288.5</v>
       </c>
       <c r="F782" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G782" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K782">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L782">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M782">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N782">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P782">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q782">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R782">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S782">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T782">
         <v>2.5</v>
       </c>
       <c r="U782">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V782">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W782">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
+        <v>-1</v>
+      </c>
+      <c r="AA782">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB782">
+        <v>-1</v>
+      </c>
+      <c r="AC782">
         <v>1</v>
-      </c>
-      <c r="AA782">
-        <v>-1</v>
-      </c>
-      <c r="AB782">
-        <v>-1</v>
-      </c>
-      <c r="AC782">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70146,7 +70146,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70158,76 +70158,76 @@
         <v>45288.5</v>
       </c>
       <c r="F783" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G783" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K783">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L783">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M783">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N783">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P783">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q783">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R783">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S783">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T783">
         <v>2.5</v>
       </c>
       <c r="U783">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V783">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W783">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X783">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA783">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="784" spans="1:29">

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -34546,7 +34546,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5485072</v>
+        <v>5485071</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34558,55 +34558,55 @@
         <v>44799.53125</v>
       </c>
       <c r="F383" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G383" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J383" t="s">
         <v>52</v>
       </c>
       <c r="K383">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="L383">
         <v>3.4</v>
       </c>
       <c r="M383">
+        <v>1.75</v>
+      </c>
+      <c r="N383">
+        <v>5.25</v>
+      </c>
+      <c r="O383">
         <v>3.6</v>
       </c>
-      <c r="N383">
-        <v>2.05</v>
-      </c>
-      <c r="O383">
-        <v>3.25</v>
-      </c>
       <c r="P383">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q383">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R383">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S383">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U383">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V383">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W383">
         <v>-1</v>
@@ -34615,19 +34615,19 @@
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>2.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB383">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34635,7 +34635,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>5485071</v>
+        <v>5485072</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34647,55 +34647,55 @@
         <v>44799.53125</v>
       </c>
       <c r="F384" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G384" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J384" t="s">
         <v>52</v>
       </c>
       <c r="K384">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L384">
         <v>3.4</v>
       </c>
       <c r="M384">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N384">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O384">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P384">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q384">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S384">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T384">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V384">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W384">
         <v>-1</v>
@@ -34704,19 +34704,19 @@
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>0.6000000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z384">
         <v>-1</v>
       </c>
       <c r="AA384">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB384">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC384">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5485085</v>
+        <v>5485115</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>44819.625</v>
       </c>
       <c r="F408" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G408" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L408">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N408">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="O408">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="Q408">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R408">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S408">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T408">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W408">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC408">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5485115</v>
+        <v>5485085</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>44819.625</v>
       </c>
       <c r="F409" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G409" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K409">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L409">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M409">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N409">
+        <v>1.2</v>
+      </c>
+      <c r="O409">
+        <v>6.5</v>
+      </c>
+      <c r="P409">
+        <v>11</v>
+      </c>
+      <c r="Q409">
+        <v>-2</v>
+      </c>
+      <c r="R409">
         <v>1.95</v>
       </c>
-      <c r="O409">
-        <v>3.5</v>
-      </c>
-      <c r="P409">
+      <c r="S409">
+        <v>1.85</v>
+      </c>
+      <c r="T409">
         <v>3.25</v>
       </c>
-      <c r="Q409">
-        <v>-0.5</v>
-      </c>
-      <c r="R409">
-        <v>1.975</v>
-      </c>
-      <c r="S409">
-        <v>1.825</v>
-      </c>
-      <c r="T409">
-        <v>2.75</v>
-      </c>
       <c r="U409">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W409">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36949,7 +36949,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5485086</v>
+        <v>5446239</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36961,10 +36961,10 @@
         <v>44820.53472222222</v>
       </c>
       <c r="F410" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -36976,61 +36976,61 @@
         <v>53</v>
       </c>
       <c r="K410">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L410">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M410">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N410">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O410">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P410">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q410">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R410">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S410">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T410">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U410">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V410">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W410">
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC410">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37038,7 +37038,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>5446239</v>
+        <v>5485086</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37050,10 +37050,10 @@
         <v>44820.53472222222</v>
       </c>
       <c r="F411" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G411" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -37065,61 +37065,61 @@
         <v>53</v>
       </c>
       <c r="K411">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L411">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M411">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N411">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O411">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P411">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q411">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S411">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T411">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U411">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V411">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA411">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC411">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37839,7 +37839,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>5446243</v>
+        <v>5485093</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37851,13 +37851,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F420" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G420" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I420">
         <v>0</v>
@@ -37866,43 +37866,43 @@
         <v>54</v>
       </c>
       <c r="K420">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L420">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M420">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N420">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O420">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P420">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q420">
         <v>-0.25</v>
       </c>
       <c r="R420">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S420">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
         <v>2.25</v>
       </c>
       <c r="U420">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V420">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W420">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37911,16 +37911,16 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA420">
         <v>-1</v>
       </c>
       <c r="AB420">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC420">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>5485093</v>
+        <v>5446243</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,13 +37940,13 @@
         <v>44840.52083333334</v>
       </c>
       <c r="F421" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G421" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421">
         <v>0</v>
@@ -37955,43 +37955,43 @@
         <v>54</v>
       </c>
       <c r="K421">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L421">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M421">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N421">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O421">
+        <v>3.1</v>
+      </c>
+      <c r="P421">
         <v>2.9</v>
-      </c>
-      <c r="P421">
-        <v>3.4</v>
       </c>
       <c r="Q421">
         <v>-0.25</v>
       </c>
       <c r="R421">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S421">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T421">
         <v>2.25</v>
       </c>
       <c r="U421">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W421">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -38000,16 +38000,16 @@
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA421">
         <v>-1</v>
       </c>
       <c r="AB421">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC421">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -39708,7 +39708,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>5485105</v>
+        <v>5446250</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39720,56 +39720,56 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F441" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G441" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H441">
         <v>0</v>
       </c>
       <c r="I441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J441" t="s">
         <v>52</v>
       </c>
       <c r="K441">
+        <v>2.375</v>
+      </c>
+      <c r="L441">
+        <v>3.1</v>
+      </c>
+      <c r="M441">
         <v>2.75</v>
       </c>
-      <c r="L441">
-        <v>3.4</v>
-      </c>
-      <c r="M441">
-        <v>2.2</v>
-      </c>
       <c r="N441">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O441">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P441">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q441">
         <v>0.25</v>
       </c>
       <c r="R441">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S441">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T441">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U441">
+        <v>1.825</v>
+      </c>
+      <c r="V441">
         <v>1.975</v>
       </c>
-      <c r="V441">
-        <v>1.825</v>
-      </c>
       <c r="W441">
         <v>-1</v>
       </c>
@@ -39777,19 +39777,19 @@
         <v>-1</v>
       </c>
       <c r="Y441">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z441">
         <v>-1</v>
       </c>
       <c r="AA441">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB441">
         <v>-1</v>
       </c>
       <c r="AC441">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5446250</v>
+        <v>5485105</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,56 +39898,56 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F443" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G443" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H443">
         <v>0</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
         <v>52</v>
       </c>
       <c r="K443">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L443">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M443">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N443">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O443">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P443">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q443">
         <v>0.25</v>
       </c>
       <c r="R443">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S443">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T443">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U443">
+        <v>1.975</v>
+      </c>
+      <c r="V443">
         <v>1.825</v>
       </c>
-      <c r="V443">
-        <v>1.975</v>
-      </c>
       <c r="W443">
         <v>-1</v>
       </c>
@@ -39955,19 +39955,19 @@
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40776,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5581797</v>
+        <v>5581799</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40788,73 +40788,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G453" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H453">
+        <v>4</v>
+      </c>
+      <c r="I453">
         <v>1</v>
       </c>
-      <c r="I453">
-        <v>2</v>
-      </c>
       <c r="J453" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K453">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L453">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M453">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N453">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O453">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P453">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q453">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
+        <v>1.9</v>
+      </c>
+      <c r="S453">
+        <v>1.9</v>
+      </c>
+      <c r="T453">
+        <v>2.75</v>
+      </c>
+      <c r="U453">
         <v>1.875</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.925</v>
       </c>
-      <c r="T453">
-        <v>2.5</v>
-      </c>
-      <c r="U453">
-        <v>1.8</v>
-      </c>
-      <c r="V453">
-        <v>2</v>
-      </c>
       <c r="W453">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA453">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB453">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC453">
         <v>-1</v>
@@ -40865,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5581799</v>
+        <v>5581797</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40877,73 +40877,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G454" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K454">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="L454">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M454">
+        <v>1.3</v>
+      </c>
+      <c r="N454">
+        <v>6.5</v>
+      </c>
+      <c r="O454">
+        <v>4.2</v>
+      </c>
+      <c r="P454">
+        <v>1.4</v>
+      </c>
+      <c r="Q454">
+        <v>1.25</v>
+      </c>
+      <c r="R454">
+        <v>1.875</v>
+      </c>
+      <c r="S454">
+        <v>1.925</v>
+      </c>
+      <c r="T454">
+        <v>2.5</v>
+      </c>
+      <c r="U454">
         <v>1.8</v>
       </c>
-      <c r="N454">
-        <v>3.4</v>
-      </c>
-      <c r="O454">
-        <v>3.5</v>
-      </c>
-      <c r="P454">
-        <v>1.85</v>
-      </c>
-      <c r="Q454">
-        <v>0.5</v>
-      </c>
-      <c r="R454">
-        <v>1.9</v>
-      </c>
-      <c r="S454">
-        <v>1.9</v>
-      </c>
-      <c r="T454">
-        <v>2.75</v>
-      </c>
-      <c r="U454">
-        <v>1.875</v>
-      </c>
       <c r="V454">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W454">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z454">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA454">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB454">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -41755,7 +41755,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5581810</v>
+        <v>5581805</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41767,76 +41767,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G464" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K464">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="L464">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M464">
-        <v>7</v>
+        <v>1.181</v>
       </c>
       <c r="N464">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="O464">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P464">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q464">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R464">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S464">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T464">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U464">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V464">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA464">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41844,7 +41844,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>5581805</v>
+        <v>5581810</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41856,76 +41856,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F465" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G465" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J465" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K465">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="L465">
+        <v>4.5</v>
+      </c>
+      <c r="M465">
+        <v>7</v>
+      </c>
+      <c r="N465">
+        <v>1.25</v>
+      </c>
+      <c r="O465">
         <v>6</v>
       </c>
-      <c r="M465">
-        <v>1.181</v>
-      </c>
-      <c r="N465">
-        <v>15</v>
-      </c>
-      <c r="O465">
-        <v>6.5</v>
-      </c>
       <c r="P465">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q465">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R465">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S465">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T465">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U465">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V465">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y465">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA465">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC465">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42200,7 +42200,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5581813</v>
+        <v>5581818</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42212,40 +42212,40 @@
         <v>44932.5</v>
       </c>
       <c r="F469" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G469" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H469">
         <v>2</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J469" t="s">
         <v>54</v>
       </c>
       <c r="K469">
-        <v>4.5</v>
+        <v>1.333</v>
       </c>
       <c r="L469">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M469">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="N469">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O469">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P469">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="Q469">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R469">
         <v>1.85</v>
@@ -42254,16 +42254,16 @@
         <v>1.95</v>
       </c>
       <c r="T469">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U469">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V469">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W469">
-        <v>2.6</v>
+        <v>0.25</v>
       </c>
       <c r="X469">
         <v>-1</v>
@@ -42272,16 +42272,16 @@
         <v>-1</v>
       </c>
       <c r="Z469">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA469">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB469">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42289,7 +42289,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>5581818</v>
+        <v>5581813</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42301,40 +42301,40 @@
         <v>44932.5</v>
       </c>
       <c r="F470" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G470" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H470">
         <v>2</v>
       </c>
       <c r="I470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J470" t="s">
         <v>54</v>
       </c>
       <c r="K470">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L470">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M470">
-        <v>7</v>
+        <v>1.666</v>
       </c>
       <c r="N470">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O470">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P470">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q470">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R470">
         <v>1.85</v>
@@ -42343,16 +42343,16 @@
         <v>1.95</v>
       </c>
       <c r="T470">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U470">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V470">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W470">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="X470">
         <v>-1</v>
@@ -42361,16 +42361,16 @@
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA470">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB470">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC470">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42823,7 +42823,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>5581822</v>
+        <v>5581824</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42835,76 +42835,76 @@
         <v>44938.39583333334</v>
       </c>
       <c r="F476" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G476" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476">
+        <v>3</v>
+      </c>
+      <c r="J476" t="s">
+        <v>52</v>
+      </c>
+      <c r="K476">
+        <v>2.9</v>
+      </c>
+      <c r="L476">
+        <v>3.1</v>
+      </c>
+      <c r="M476">
+        <v>2.25</v>
+      </c>
+      <c r="N476">
+        <v>2.45</v>
+      </c>
+      <c r="O476">
+        <v>3</v>
+      </c>
+      <c r="P476">
+        <v>2.8</v>
+      </c>
+      <c r="Q476">
         <v>0</v>
       </c>
-      <c r="J476" t="s">
-        <v>54</v>
-      </c>
-      <c r="K476">
-        <v>2.25</v>
-      </c>
-      <c r="L476">
-        <v>3</v>
-      </c>
-      <c r="M476">
-        <v>3</v>
-      </c>
-      <c r="N476">
-        <v>2.2</v>
-      </c>
-      <c r="O476">
-        <v>2.9</v>
-      </c>
-      <c r="P476">
-        <v>3.4</v>
-      </c>
-      <c r="Q476">
-        <v>-0.25</v>
-      </c>
       <c r="R476">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S476">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T476">
         <v>2.5</v>
       </c>
       <c r="U476">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V476">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W476">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z476">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA476">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB476">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC476">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42912,7 +42912,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>5581824</v>
+        <v>5581822</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42924,76 +42924,76 @@
         <v>44938.39583333334</v>
       </c>
       <c r="F477" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G477" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477" t="s">
+        <v>54</v>
+      </c>
+      <c r="K477">
+        <v>2.25</v>
+      </c>
+      <c r="L477">
         <v>3</v>
       </c>
-      <c r="J477" t="s">
-        <v>52</v>
-      </c>
-      <c r="K477">
+      <c r="M477">
+        <v>3</v>
+      </c>
+      <c r="N477">
+        <v>2.2</v>
+      </c>
+      <c r="O477">
         <v>2.9</v>
       </c>
-      <c r="L477">
-        <v>3.1</v>
-      </c>
-      <c r="M477">
-        <v>2.25</v>
-      </c>
-      <c r="N477">
-        <v>2.45</v>
-      </c>
-      <c r="O477">
-        <v>3</v>
-      </c>
       <c r="P477">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q477">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R477">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S477">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T477">
         <v>2.5</v>
       </c>
       <c r="U477">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V477">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W477">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X477">
         <v>-1</v>
       </c>
       <c r="Y477">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z477">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA477">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -45404,7 +45404,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>5967536</v>
+        <v>5967535</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45416,76 +45416,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F505" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G505" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J505" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K505">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L505">
         <v>3.25</v>
       </c>
       <c r="M505">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N505">
+        <v>2.375</v>
+      </c>
+      <c r="O505">
+        <v>3.25</v>
+      </c>
+      <c r="P505">
+        <v>2.55</v>
+      </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
+      <c r="R505">
+        <v>1.85</v>
+      </c>
+      <c r="S505">
         <v>1.95</v>
-      </c>
-      <c r="O505">
-        <v>3.3</v>
-      </c>
-      <c r="P505">
-        <v>3.3</v>
-      </c>
-      <c r="Q505">
-        <v>-0.5</v>
-      </c>
-      <c r="R505">
-        <v>2</v>
-      </c>
-      <c r="S505">
-        <v>1.8</v>
       </c>
       <c r="T505">
         <v>2.5</v>
       </c>
       <c r="U505">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V505">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W505">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X505">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA505">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB505">
         <v>-1</v>
       </c>
       <c r="AC505">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45493,7 +45493,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5967535</v>
+        <v>5967536</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45505,76 +45505,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F506" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G506" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K506">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L506">
         <v>3.25</v>
       </c>
       <c r="M506">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N506">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O506">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P506">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q506">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R506">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S506">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V506">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W506">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X506">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -51278,7 +51278,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5967580</v>
+        <v>5967576</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51290,73 +51290,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F571" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G571" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H571">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J571" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K571">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L571">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M571">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N571">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="O571">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P571">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q571">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R571">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S571">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T571">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U571">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V571">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W571">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z571">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB571">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC571">
         <v>-1</v>
@@ -51367,7 +51367,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5967576</v>
+        <v>5967580</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51379,73 +51379,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F572" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G572" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H572">
+        <v>4</v>
+      </c>
+      <c r="I572">
         <v>0</v>
       </c>
-      <c r="I572">
-        <v>3</v>
-      </c>
       <c r="J572" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K572">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="L572">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M572">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N572">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="O572">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P572">
+        <v>10</v>
+      </c>
+      <c r="Q572">
+        <v>-2</v>
+      </c>
+      <c r="R572">
+        <v>1.85</v>
+      </c>
+      <c r="S572">
+        <v>1.95</v>
+      </c>
+      <c r="T572">
         <v>3.5</v>
       </c>
-      <c r="Q572">
-        <v>-0.25</v>
-      </c>
-      <c r="R572">
+      <c r="U572">
+        <v>2</v>
+      </c>
+      <c r="V572">
         <v>1.8</v>
       </c>
-      <c r="S572">
-        <v>2</v>
-      </c>
-      <c r="T572">
-        <v>2.25</v>
-      </c>
-      <c r="U572">
-        <v>1.9</v>
-      </c>
-      <c r="V572">
-        <v>1.9</v>
-      </c>
       <c r="W572">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA572">
+        <v>-1</v>
+      </c>
+      <c r="AB572">
         <v>1</v>
-      </c>
-      <c r="AB572">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC572">
         <v>-1</v>
@@ -51634,7 +51634,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>5967582</v>
+        <v>5967583</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51646,10 +51646,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F575" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G575" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H575">
         <v>2</v>
@@ -51661,43 +51661,43 @@
         <v>54</v>
       </c>
       <c r="K575">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L575">
+        <v>3.5</v>
+      </c>
+      <c r="M575">
         <v>3.1</v>
       </c>
-      <c r="M575">
+      <c r="N575">
         <v>2.4</v>
       </c>
-      <c r="N575">
-        <v>2.2</v>
-      </c>
       <c r="O575">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P575">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q575">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R575">
+        <v>1.85</v>
+      </c>
+      <c r="S575">
         <v>1.95</v>
-      </c>
-      <c r="S575">
-        <v>1.85</v>
       </c>
       <c r="T575">
         <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V575">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W575">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X575">
         <v>-1</v>
@@ -51706,13 +51706,13 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA575">
         <v>-1</v>
       </c>
       <c r="AB575">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC575">
         <v>-1</v>
@@ -51723,7 +51723,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>5967583</v>
+        <v>5967582</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51735,10 +51735,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F576" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G576" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H576">
         <v>2</v>
@@ -51750,43 +51750,43 @@
         <v>54</v>
       </c>
       <c r="K576">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L576">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M576">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N576">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O576">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P576">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q576">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R576">
+        <v>1.95</v>
+      </c>
+      <c r="S576">
         <v>1.85</v>
-      </c>
-      <c r="S576">
-        <v>1.95</v>
       </c>
       <c r="T576">
         <v>2.5</v>
       </c>
       <c r="U576">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V576">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W576">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X576">
         <v>-1</v>
@@ -51795,13 +51795,13 @@
         <v>-1</v>
       </c>
       <c r="Z576">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA576">
         <v>-1</v>
       </c>
       <c r="AB576">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC576">
         <v>-1</v>
@@ -66230,7 +66230,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>6941361</v>
+        <v>6940756</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66242,58 +66242,58 @@
         <v>45254.625</v>
       </c>
       <c r="F739" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G739" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H739">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I739">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>54</v>
       </c>
       <c r="K739">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L739">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M739">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="N739">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="O739">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P739">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="Q739">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R739">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S739">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T739">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U739">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V739">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W739">
-        <v>2.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66302,16 +66302,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC739">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66319,7 +66319,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>6940756</v>
+        <v>6941361</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66331,58 +66331,58 @@
         <v>45254.625</v>
       </c>
       <c r="F740" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G740" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H740">
+        <v>4</v>
+      </c>
+      <c r="I740">
         <v>3</v>
-      </c>
-      <c r="I740">
-        <v>0</v>
       </c>
       <c r="J740" t="s">
         <v>54</v>
       </c>
       <c r="K740">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L740">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M740">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="N740">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="O740">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P740">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q740">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R740">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S740">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T740">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U740">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V740">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W740">
-        <v>0.2849999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X740">
         <v>-1</v>
@@ -66391,16 +66391,16 @@
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA740">
         <v>-1</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC740">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">
@@ -66497,7 +66497,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>6940815</v>
+        <v>6941360</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66509,76 +66509,76 @@
         <v>45255.625</v>
       </c>
       <c r="F742" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G742" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I742">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J742" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K742">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L742">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M742">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N742">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O742">
         <v>3.4</v>
       </c>
       <c r="P742">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q742">
         <v>-0.5</v>
       </c>
       <c r="R742">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S742">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T742">
         <v>2.75</v>
       </c>
       <c r="U742">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V742">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W742">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X742">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y742">
         <v>-1</v>
       </c>
       <c r="Z742">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA742">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB742">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC742">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -66586,7 +66586,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>6941360</v>
+        <v>6940815</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66598,76 +66598,76 @@
         <v>45255.625</v>
       </c>
       <c r="F743" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G743" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H743">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J743" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K743">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L743">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M743">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N743">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O743">
         <v>3.4</v>
       </c>
       <c r="P743">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q743">
         <v>-0.5</v>
       </c>
       <c r="R743">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S743">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T743">
         <v>2.75</v>
       </c>
       <c r="U743">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V743">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W743">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X743">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y743">
         <v>-1</v>
       </c>
       <c r="Z743">
+        <v>-1</v>
+      </c>
+      <c r="AA743">
+        <v>0.825</v>
+      </c>
+      <c r="AB743">
+        <v>-1</v>
+      </c>
+      <c r="AC743">
         <v>1.025</v>
-      </c>
-      <c r="AA743">
-        <v>-1</v>
-      </c>
-      <c r="AB743">
-        <v>1</v>
-      </c>
-      <c r="AC743">
-        <v>-1</v>
       </c>
     </row>
     <row r="744" spans="1:29">
@@ -69167,7 +69167,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69179,10 +69179,10 @@
         <v>45281.5</v>
       </c>
       <c r="F772" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G772" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -69194,43 +69194,43 @@
         <v>54</v>
       </c>
       <c r="K772">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L772">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M772">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N772">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O772">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P772">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q772">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R772">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S772">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T772">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U772">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V772">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W772">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X772">
         <v>-1</v>
@@ -69239,16 +69239,16 @@
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA772">
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69256,7 +69256,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69268,10 +69268,10 @@
         <v>45281.5</v>
       </c>
       <c r="F773" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G773" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H773">
         <v>3</v>
@@ -69283,61 +69283,61 @@
         <v>54</v>
       </c>
       <c r="K773">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L773">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M773">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N773">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O773">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P773">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q773">
+        <v>-0.75</v>
+      </c>
+      <c r="R773">
+        <v>1.85</v>
+      </c>
+      <c r="S773">
+        <v>1.95</v>
+      </c>
+      <c r="T773">
+        <v>2.75</v>
+      </c>
+      <c r="U773">
+        <v>1.975</v>
+      </c>
+      <c r="V773">
+        <v>1.825</v>
+      </c>
+      <c r="W773">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X773">
+        <v>-1</v>
+      </c>
+      <c r="Y773">
+        <v>-1</v>
+      </c>
+      <c r="Z773">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA773">
+        <v>-1</v>
+      </c>
+      <c r="AB773">
+        <v>0.4875</v>
+      </c>
+      <c r="AC773">
         <v>-0.5</v>
-      </c>
-      <c r="R773">
-        <v>2.025</v>
-      </c>
-      <c r="S773">
-        <v>1.775</v>
-      </c>
-      <c r="T773">
-        <v>2.25</v>
-      </c>
-      <c r="U773">
-        <v>1.775</v>
-      </c>
-      <c r="V773">
-        <v>2.025</v>
-      </c>
-      <c r="W773">
-        <v>1</v>
-      </c>
-      <c r="X773">
-        <v>-1</v>
-      </c>
-      <c r="Y773">
-        <v>-1</v>
-      </c>
-      <c r="Z773">
-        <v>1.025</v>
-      </c>
-      <c r="AA773">
-        <v>-1</v>
-      </c>
-      <c r="AB773">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC773">
-        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69434,7 +69434,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>6941388</v>
+        <v>7605556</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69446,73 +69446,73 @@
         <v>45282.5</v>
       </c>
       <c r="F775" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I775">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J775" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K775">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L775">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M775">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N775">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="O775">
         <v>5</v>
       </c>
       <c r="P775">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q775">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R775">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S775">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T775">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U775">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V775">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W775">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA775">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC775">
         <v>-1</v>
@@ -69612,7 +69612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69624,73 +69624,73 @@
         <v>45282.5</v>
       </c>
       <c r="F777" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G777" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H777">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J777" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K777">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L777">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M777">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N777">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O777">
         <v>5</v>
       </c>
       <c r="P777">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q777">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R777">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S777">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T777">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U777">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W777">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z777">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB777">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC777">
         <v>-1</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -36949,7 +36949,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>5446239</v>
+        <v>5485086</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36961,10 +36961,10 @@
         <v>44820.53472222222</v>
       </c>
       <c r="F410" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G410" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -36976,61 +36976,61 @@
         <v>53</v>
       </c>
       <c r="K410">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L410">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M410">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N410">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O410">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P410">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q410">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S410">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T410">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V410">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W410">
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA410">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC410">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37038,7 +37038,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>5485086</v>
+        <v>5446239</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37050,10 +37050,10 @@
         <v>44820.53472222222</v>
       </c>
       <c r="F411" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G411" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -37065,61 +37065,61 @@
         <v>53</v>
       </c>
       <c r="K411">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L411">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M411">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N411">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O411">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P411">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R411">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S411">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T411">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U411">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V411">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37216,7 +37216,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5485088</v>
+        <v>5485087</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37228,58 +37228,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G413" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>54</v>
       </c>
       <c r="K413">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L413">
+        <v>3.1</v>
+      </c>
+      <c r="M413">
         <v>3.2</v>
       </c>
-      <c r="M413">
-        <v>2.9</v>
-      </c>
       <c r="N413">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O413">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P413">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R413">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S413">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T413">
         <v>2.25</v>
       </c>
       <c r="U413">
+        <v>1.85</v>
+      </c>
+      <c r="V413">
         <v>1.95</v>
       </c>
-      <c r="V413">
-        <v>1.85</v>
-      </c>
       <c r="W413">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37288,16 +37288,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB413">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC413">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37305,7 +37305,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>5485087</v>
+        <v>5485088</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37317,58 +37317,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F414" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G414" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H414">
         <v>2</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="s">
         <v>54</v>
       </c>
       <c r="K414">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L414">
+        <v>3.2</v>
+      </c>
+      <c r="M414">
+        <v>2.9</v>
+      </c>
+      <c r="N414">
+        <v>2.15</v>
+      </c>
+      <c r="O414">
         <v>3.1</v>
       </c>
-      <c r="M414">
-        <v>3.2</v>
-      </c>
-      <c r="N414">
-        <v>1.7</v>
-      </c>
-      <c r="O414">
-        <v>3.2</v>
-      </c>
       <c r="P414">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q414">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S414">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T414">
         <v>2.25</v>
       </c>
       <c r="U414">
+        <v>1.95</v>
+      </c>
+      <c r="V414">
         <v>1.85</v>
       </c>
-      <c r="V414">
-        <v>1.95</v>
-      </c>
       <c r="W414">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37377,16 +37377,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA414">
+        <v>-1</v>
+      </c>
+      <c r="AB414">
         <v>-0.5</v>
       </c>
-      <c r="AB414">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -40776,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5581799</v>
+        <v>5581797</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40788,73 +40788,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G453" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H453">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J453" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K453">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="L453">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M453">
+        <v>1.3</v>
+      </c>
+      <c r="N453">
+        <v>6.5</v>
+      </c>
+      <c r="O453">
+        <v>4.2</v>
+      </c>
+      <c r="P453">
+        <v>1.4</v>
+      </c>
+      <c r="Q453">
+        <v>1.25</v>
+      </c>
+      <c r="R453">
+        <v>1.875</v>
+      </c>
+      <c r="S453">
+        <v>1.925</v>
+      </c>
+      <c r="T453">
+        <v>2.5</v>
+      </c>
+      <c r="U453">
         <v>1.8</v>
       </c>
-      <c r="N453">
-        <v>3.4</v>
-      </c>
-      <c r="O453">
-        <v>3.5</v>
-      </c>
-      <c r="P453">
-        <v>1.85</v>
-      </c>
-      <c r="Q453">
-        <v>0.5</v>
-      </c>
-      <c r="R453">
-        <v>1.9</v>
-      </c>
-      <c r="S453">
-        <v>1.9</v>
-      </c>
-      <c r="T453">
-        <v>2.75</v>
-      </c>
-      <c r="U453">
-        <v>1.875</v>
-      </c>
       <c r="V453">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W453">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z453">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA453">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB453">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC453">
         <v>-1</v>
@@ -40865,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5581797</v>
+        <v>5581799</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40877,73 +40877,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G454" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H454">
+        <v>4</v>
+      </c>
+      <c r="I454">
         <v>1</v>
       </c>
-      <c r="I454">
-        <v>2</v>
-      </c>
       <c r="J454" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K454">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L454">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M454">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N454">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O454">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P454">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q454">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R454">
+        <v>1.9</v>
+      </c>
+      <c r="S454">
+        <v>1.9</v>
+      </c>
+      <c r="T454">
+        <v>2.75</v>
+      </c>
+      <c r="U454">
         <v>1.875</v>
       </c>
-      <c r="S454">
+      <c r="V454">
         <v>1.925</v>
       </c>
-      <c r="T454">
-        <v>2.5</v>
-      </c>
-      <c r="U454">
-        <v>1.8</v>
-      </c>
-      <c r="V454">
-        <v>2</v>
-      </c>
       <c r="W454">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA454">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -40954,7 +40954,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5581802</v>
+        <v>5581801</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40966,58 +40966,58 @@
         <v>44921.5</v>
       </c>
       <c r="F455" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G455" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>54</v>
       </c>
       <c r="K455">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L455">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N455">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O455">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P455">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q455">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S455">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T455">
         <v>2.25</v>
       </c>
       <c r="U455">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V455">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W455">
-        <v>1.8</v>
+        <v>0.833</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41026,13 +41026,13 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41043,7 +41043,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5581801</v>
+        <v>5581802</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41055,59 +41055,59 @@
         <v>44921.5</v>
       </c>
       <c r="F456" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G456" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="s">
         <v>54</v>
       </c>
       <c r="K456">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L456">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M456">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N456">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O456">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P456">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q456">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R456">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S456">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T456">
         <v>2.25</v>
       </c>
       <c r="U456">
+        <v>1.925</v>
+      </c>
+      <c r="V456">
+        <v>1.875</v>
+      </c>
+      <c r="W456">
         <v>1.8</v>
       </c>
-      <c r="V456">
-        <v>2</v>
-      </c>
-      <c r="W456">
-        <v>0.833</v>
-      </c>
       <c r="X456">
         <v>-1</v>
       </c>
@@ -41115,13 +41115,13 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA456">
         <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41488,7 +41488,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>5581809</v>
+        <v>5581806</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41500,76 +41500,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F461" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G461" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H461">
+        <v>1</v>
+      </c>
+      <c r="I461">
+        <v>2</v>
+      </c>
+      <c r="J461" t="s">
+        <v>52</v>
+      </c>
+      <c r="K461">
+        <v>5</v>
+      </c>
+      <c r="L461">
+        <v>3.75</v>
+      </c>
+      <c r="M461">
+        <v>1.6</v>
+      </c>
+      <c r="N461">
+        <v>5</v>
+      </c>
+      <c r="O461">
         <v>4</v>
       </c>
-      <c r="I461">
+      <c r="P461">
+        <v>1.533</v>
+      </c>
+      <c r="Q461">
+        <v>1</v>
+      </c>
+      <c r="R461">
+        <v>1.9</v>
+      </c>
+      <c r="S461">
+        <v>1.9</v>
+      </c>
+      <c r="T461">
+        <v>2.75</v>
+      </c>
+      <c r="U461">
+        <v>1.8</v>
+      </c>
+      <c r="V461">
+        <v>2</v>
+      </c>
+      <c r="W461">
+        <v>-1</v>
+      </c>
+      <c r="X461">
+        <v>-1</v>
+      </c>
+      <c r="Y461">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z461">
         <v>0</v>
       </c>
-      <c r="J461" t="s">
-        <v>54</v>
-      </c>
-      <c r="K461">
-        <v>1.222</v>
-      </c>
-      <c r="L461">
-        <v>5</v>
-      </c>
-      <c r="M461">
-        <v>11</v>
-      </c>
-      <c r="N461">
-        <v>1.2</v>
-      </c>
-      <c r="O461">
-        <v>5.25</v>
-      </c>
-      <c r="P461">
-        <v>11</v>
-      </c>
-      <c r="Q461">
-        <v>-1.75</v>
-      </c>
-      <c r="R461">
-        <v>1.8</v>
-      </c>
-      <c r="S461">
-        <v>2</v>
-      </c>
-      <c r="T461">
-        <v>3</v>
-      </c>
-      <c r="U461">
-        <v>1.975</v>
-      </c>
-      <c r="V461">
-        <v>1.825</v>
-      </c>
-      <c r="W461">
-        <v>0.2</v>
-      </c>
-      <c r="X461">
-        <v>-1</v>
-      </c>
-      <c r="Y461">
-        <v>-1</v>
-      </c>
-      <c r="Z461">
-        <v>0.8</v>
-      </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB461">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC461">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41577,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>5581806</v>
+        <v>5581809</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41589,76 +41589,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G462" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I462">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K462">
+        <v>1.222</v>
+      </c>
+      <c r="L462">
         <v>5</v>
       </c>
-      <c r="L462">
-        <v>3.75</v>
-      </c>
       <c r="M462">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="N462">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="O462">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P462">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="Q462">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R462">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S462">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T462">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U462">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V462">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X462">
         <v>-1</v>
       </c>
       <c r="Y462">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA462">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB462">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC462">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -50299,7 +50299,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5967575</v>
+        <v>5966989</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50311,10 +50311,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F560" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G560" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H560">
         <v>2</v>
@@ -50326,46 +50326,46 @@
         <v>53</v>
       </c>
       <c r="K560">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L560">
+        <v>5</v>
+      </c>
+      <c r="M560">
+        <v>7.5</v>
+      </c>
+      <c r="N560">
+        <v>1.615</v>
+      </c>
+      <c r="O560">
+        <v>4.333</v>
+      </c>
+      <c r="P560">
         <v>4</v>
-      </c>
-      <c r="M560">
-        <v>4.333</v>
-      </c>
-      <c r="N560">
-        <v>1.666</v>
-      </c>
-      <c r="O560">
-        <v>3.8</v>
-      </c>
-      <c r="P560">
-        <v>3.8</v>
       </c>
       <c r="Q560">
         <v>-0.75</v>
       </c>
       <c r="R560">
+        <v>1.8</v>
+      </c>
+      <c r="S560">
+        <v>2</v>
+      </c>
+      <c r="T560">
+        <v>3</v>
+      </c>
+      <c r="U560">
+        <v>1.85</v>
+      </c>
+      <c r="V560">
         <v>1.95</v>
       </c>
-      <c r="S560">
-        <v>1.85</v>
-      </c>
-      <c r="T560">
-        <v>2.5</v>
-      </c>
-      <c r="U560">
-        <v>1.975</v>
-      </c>
-      <c r="V560">
-        <v>1.825</v>
-      </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y560">
         <v>-1</v>
@@ -50374,10 +50374,10 @@
         <v>-1</v>
       </c>
       <c r="AA560">
+        <v>1</v>
+      </c>
+      <c r="AB560">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB560">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC560">
         <v>-1</v>
@@ -50388,7 +50388,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5966989</v>
+        <v>5967575</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50400,10 +50400,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F561" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G561" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H561">
         <v>2</v>
@@ -50415,46 +50415,46 @@
         <v>53</v>
       </c>
       <c r="K561">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L561">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M561">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N561">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O561">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P561">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q561">
         <v>-0.75</v>
       </c>
       <c r="R561">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S561">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T561">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U561">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V561">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Y561">
         <v>-1</v>
@@ -50463,10 +50463,10 @@
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB561">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC561">
         <v>-1</v>
@@ -50566,7 +50566,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5967568</v>
+        <v>5966992</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50578,10 +50578,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G563" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -50593,43 +50593,43 @@
         <v>54</v>
       </c>
       <c r="K563">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L563">
+        <v>4.75</v>
+      </c>
+      <c r="M563">
+        <v>1.363</v>
+      </c>
+      <c r="N563">
+        <v>4.75</v>
+      </c>
+      <c r="O563">
+        <v>4.5</v>
+      </c>
+      <c r="P563">
+        <v>1.55</v>
+      </c>
+      <c r="Q563">
+        <v>1</v>
+      </c>
+      <c r="R563">
+        <v>1.925</v>
+      </c>
+      <c r="S563">
+        <v>1.875</v>
+      </c>
+      <c r="T563">
         <v>3</v>
       </c>
-      <c r="M563">
-        <v>3</v>
-      </c>
-      <c r="N563">
-        <v>2.55</v>
-      </c>
-      <c r="O563">
-        <v>2.75</v>
-      </c>
-      <c r="P563">
-        <v>2.8</v>
-      </c>
-      <c r="Q563">
-        <v>0</v>
-      </c>
-      <c r="R563">
-        <v>1.8</v>
-      </c>
-      <c r="S563">
-        <v>2</v>
-      </c>
-      <c r="T563">
-        <v>2.25</v>
-      </c>
       <c r="U563">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V563">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W563">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="X563">
         <v>-1</v>
@@ -50638,7 +50638,7 @@
         <v>-1</v>
       </c>
       <c r="Z563">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA563">
         <v>-1</v>
@@ -50647,7 +50647,7 @@
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50655,7 +50655,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5966992</v>
+        <v>5967568</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50667,10 +50667,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G564" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -50682,44 +50682,44 @@
         <v>54</v>
       </c>
       <c r="K564">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L564">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M564">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N564">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O564">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P564">
+        <v>2.8</v>
+      </c>
+      <c r="Q564">
+        <v>0</v>
+      </c>
+      <c r="R564">
+        <v>1.8</v>
+      </c>
+      <c r="S564">
+        <v>2</v>
+      </c>
+      <c r="T564">
+        <v>2.25</v>
+      </c>
+      <c r="U564">
+        <v>1.9</v>
+      </c>
+      <c r="V564">
+        <v>1.9</v>
+      </c>
+      <c r="W564">
         <v>1.55</v>
       </c>
-      <c r="Q564">
-        <v>1</v>
-      </c>
-      <c r="R564">
-        <v>1.925</v>
-      </c>
-      <c r="S564">
-        <v>1.875</v>
-      </c>
-      <c r="T564">
-        <v>3</v>
-      </c>
-      <c r="U564">
-        <v>1.775</v>
-      </c>
-      <c r="V564">
-        <v>2.025</v>
-      </c>
-      <c r="W564">
-        <v>3.75</v>
-      </c>
       <c r="X564">
         <v>-1</v>
       </c>
@@ -50727,7 +50727,7 @@
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA564">
         <v>-1</v>
@@ -50736,7 +50736,7 @@
         <v>-1</v>
       </c>
       <c r="AC564">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -52346,7 +52346,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>5966998</v>
+        <v>5967588</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52358,58 +52358,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F583" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G583" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J583" t="s">
         <v>54</v>
       </c>
       <c r="K583">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L583">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M583">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N583">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O583">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P583">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q583">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R583">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S583">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T583">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U583">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V583">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W583">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X583">
         <v>-1</v>
@@ -52418,16 +52418,16 @@
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA583">
+        <v>-1</v>
+      </c>
+      <c r="AB583">
+        <v>0.4875</v>
+      </c>
+      <c r="AC583">
         <v>-0.5</v>
-      </c>
-      <c r="AB583">
-        <v>0</v>
-      </c>
-      <c r="AC583">
-        <v>-0</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -52435,7 +52435,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5967588</v>
+        <v>5966998</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52447,58 +52447,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F584" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G584" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H584">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J584" t="s">
         <v>54</v>
       </c>
       <c r="K584">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L584">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M584">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N584">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="O584">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P584">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q584">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R584">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S584">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T584">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U584">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V584">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W584">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52507,16 +52507,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA584">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB584">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC584">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52702,7 +52702,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5967000</v>
+        <v>5967595</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52714,40 +52714,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F587" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G587" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H587">
+        <v>5</v>
+      </c>
+      <c r="I587">
         <v>0</v>
       </c>
-      <c r="I587">
-        <v>2</v>
-      </c>
       <c r="J587" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K587">
         <v>2.5</v>
       </c>
       <c r="L587">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M587">
         <v>2.4</v>
       </c>
       <c r="N587">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q587">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R587">
         <v>2</v>
@@ -52759,31 +52759,31 @@
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V587">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X587">
         <v>-1</v>
       </c>
       <c r="Y587">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA587">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB587">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC587">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52880,7 +52880,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5967595</v>
+        <v>5967000</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52892,40 +52892,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F589" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G589" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H589">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I589">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K589">
         <v>2.5</v>
       </c>
       <c r="L589">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M589">
         <v>2.4</v>
       </c>
       <c r="N589">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O589">
         <v>3.4</v>
       </c>
       <c r="P589">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q589">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R589">
         <v>2</v>
@@ -52937,31 +52937,31 @@
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V589">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z589">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA589">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB589">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -54037,7 +54037,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>5967004</v>
+        <v>5967599</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54049,49 +54049,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F602" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G602" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J602" t="s">
         <v>54</v>
       </c>
       <c r="K602">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="L602">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M602">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N602">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O602">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P602">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q602">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R602">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S602">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T602">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U602">
         <v>1.95</v>
@@ -54100,7 +54100,7 @@
         <v>1.85</v>
       </c>
       <c r="W602">
-        <v>0.7</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X602">
         <v>-1</v>
@@ -54109,16 +54109,16 @@
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA602">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB602">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC602">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -54126,7 +54126,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>5967599</v>
+        <v>5967004</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54138,49 +54138,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F603" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G603" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I603">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J603" t="s">
         <v>54</v>
       </c>
       <c r="K603">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L603">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M603">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N603">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O603">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P603">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q603">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R603">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S603">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T603">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U603">
         <v>1.95</v>
@@ -54189,7 +54189,7 @@
         <v>1.85</v>
       </c>
       <c r="W603">
-        <v>0.1419999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X603">
         <v>-1</v>
@@ -54198,16 +54198,16 @@
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA603">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB603">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC603">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604" spans="1:29">
@@ -54215,7 +54215,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5967603</v>
+        <v>5967602</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54227,46 +54227,46 @@
         <v>45073.625</v>
       </c>
       <c r="F604" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G604" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J604" t="s">
         <v>52</v>
       </c>
       <c r="K604">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L604">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M604">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N604">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O604">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P604">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="Q604">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R604">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S604">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T604">
         <v>2.75</v>
@@ -54284,13 +54284,13 @@
         <v>-1</v>
       </c>
       <c r="Y604">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="Z604">
         <v>-1</v>
       </c>
       <c r="AA604">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB604">
         <v>0.45</v>
@@ -54304,7 +54304,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5967602</v>
+        <v>5967606</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54316,76 +54316,76 @@
         <v>45073.625</v>
       </c>
       <c r="F605" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G605" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H605">
         <v>0</v>
       </c>
       <c r="I605">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J605" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K605">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="L605">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M605">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N605">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O605">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P605">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="Q605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R605">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S605">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T605">
         <v>2.75</v>
       </c>
       <c r="U605">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V605">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y605">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z605">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA605">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB605">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC605">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54393,7 +54393,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5967606</v>
+        <v>5967605</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54405,76 +54405,76 @@
         <v>45073.625</v>
       </c>
       <c r="F606" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G606" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J606" t="s">
         <v>53</v>
       </c>
       <c r="K606">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L606">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M606">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N606">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O606">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P606">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q606">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R606">
+        <v>1.775</v>
+      </c>
+      <c r="S606">
         <v>2.025</v>
       </c>
-      <c r="S606">
-        <v>1.775</v>
-      </c>
       <c r="T606">
+        <v>3</v>
+      </c>
+      <c r="U606">
+        <v>1.9</v>
+      </c>
+      <c r="V606">
+        <v>1.9</v>
+      </c>
+      <c r="W606">
+        <v>-1</v>
+      </c>
+      <c r="X606">
         <v>2.75</v>
       </c>
-      <c r="U606">
-        <v>1.85</v>
-      </c>
-      <c r="V606">
-        <v>1.95</v>
-      </c>
-      <c r="W606">
-        <v>-1</v>
-      </c>
-      <c r="X606">
-        <v>2.5</v>
-      </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA606">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB606">
         <v>-1</v>
       </c>
       <c r="AC606">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54482,7 +54482,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5967605</v>
+        <v>5967604</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54494,10 +54494,10 @@
         <v>45073.625</v>
       </c>
       <c r="F607" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G607" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -54509,61 +54509,61 @@
         <v>53</v>
       </c>
       <c r="K607">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="L607">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M607">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="N607">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="O607">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P607">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q607">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R607">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S607">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T607">
         <v>3</v>
       </c>
       <c r="U607">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V607">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y607">
         <v>-1</v>
       </c>
       <c r="Z607">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA607">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB607">
         <v>-1</v>
       </c>
       <c r="AC607">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54571,7 +54571,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5967604</v>
+        <v>5967603</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54583,76 +54583,76 @@
         <v>45073.625</v>
       </c>
       <c r="F608" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G608" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H608">
         <v>1</v>
       </c>
       <c r="I608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J608" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K608">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="L608">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M608">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="N608">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="O608">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P608">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="Q608">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R608">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S608">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T608">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U608">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V608">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W608">
         <v>-1</v>
       </c>
       <c r="X608">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y608">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z608">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA608">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC608">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -55016,7 +55016,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5967607</v>
+        <v>5967609</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55028,40 +55028,40 @@
         <v>45077.625</v>
       </c>
       <c r="F613" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G613" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H613">
         <v>0</v>
       </c>
       <c r="I613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J613" t="s">
         <v>52</v>
       </c>
       <c r="K613">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L613">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M613">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N613">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="O613">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P613">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q613">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R613">
         <v>1.8</v>
@@ -55073,10 +55073,10 @@
         <v>2.75</v>
       </c>
       <c r="U613">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V613">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W613">
         <v>-1</v>
@@ -55085,19 +55085,19 @@
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>3.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z613">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA613">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB613">
         <v>-1</v>
       </c>
       <c r="AC613">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55105,7 +55105,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5967609</v>
+        <v>5967607</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55117,40 +55117,40 @@
         <v>45077.625</v>
       </c>
       <c r="F614" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G614" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H614">
         <v>0</v>
       </c>
       <c r="I614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J614" t="s">
         <v>52</v>
       </c>
       <c r="K614">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L614">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M614">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N614">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O614">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P614">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q614">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R614">
         <v>1.8</v>
@@ -55162,10 +55162,10 @@
         <v>2.75</v>
       </c>
       <c r="U614">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V614">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55174,19 +55174,19 @@
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
       <c r="Z614">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA614">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB614">
         <v>-1</v>
       </c>
       <c r="AC614">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55194,7 +55194,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5967010</v>
+        <v>5967009</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55206,40 +55206,40 @@
         <v>45077.625</v>
       </c>
       <c r="F615" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G615" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H615">
+        <v>3</v>
+      </c>
+      <c r="I615">
         <v>1</v>
       </c>
-      <c r="I615">
-        <v>4</v>
-      </c>
       <c r="J615" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K615">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L615">
         <v>4.2</v>
       </c>
       <c r="M615">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N615">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O615">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P615">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="Q615">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R615">
         <v>1.95</v>
@@ -55248,7 +55248,7 @@
         <v>1.85</v>
       </c>
       <c r="T615">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U615">
         <v>1.875</v>
@@ -55257,25 +55257,25 @@
         <v>1.925</v>
       </c>
       <c r="W615">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z615">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA615">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB615">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC615">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55372,7 +55372,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>5967009</v>
+        <v>5967611</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55384,40 +55384,40 @@
         <v>45077.625</v>
       </c>
       <c r="F617" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G617" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H617">
         <v>3</v>
       </c>
       <c r="I617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J617" t="s">
         <v>54</v>
       </c>
       <c r="K617">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L617">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="M617">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="N617">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O617">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P617">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q617">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R617">
         <v>1.95</v>
@@ -55426,16 +55426,16 @@
         <v>1.85</v>
       </c>
       <c r="T617">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U617">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V617">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W617">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X617">
         <v>-1</v>
@@ -55450,10 +55450,10 @@
         <v>-1</v>
       </c>
       <c r="AB617">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC617">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55461,7 +55461,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5967611</v>
+        <v>5967610</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55473,13 +55473,13 @@
         <v>45077.625</v>
       </c>
       <c r="F618" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G618" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618">
         <v>0</v>
@@ -55491,40 +55491,40 @@
         <v>1.25</v>
       </c>
       <c r="L618">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="M618">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="N618">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O618">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P618">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q618">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R618">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S618">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T618">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U618">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V618">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W618">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X618">
         <v>-1</v>
@@ -55533,7 +55533,7 @@
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA618">
         <v>-1</v>
@@ -55542,7 +55542,7 @@
         <v>-1</v>
       </c>
       <c r="AC618">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55550,7 +55550,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5967610</v>
+        <v>5967010</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55562,76 +55562,76 @@
         <v>45077.625</v>
       </c>
       <c r="F619" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G619" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J619" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K619">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="L619">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M619">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="N619">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O619">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P619">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="Q619">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R619">
+        <v>1.95</v>
+      </c>
+      <c r="S619">
+        <v>1.85</v>
+      </c>
+      <c r="T619">
+        <v>3.25</v>
+      </c>
+      <c r="U619">
+        <v>1.875</v>
+      </c>
+      <c r="V619">
         <v>1.925</v>
       </c>
-      <c r="S619">
-        <v>1.875</v>
-      </c>
-      <c r="T619">
-        <v>3.5</v>
-      </c>
-      <c r="U619">
-        <v>1.9</v>
-      </c>
-      <c r="V619">
-        <v>1.9</v>
-      </c>
       <c r="W619">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z619">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB619">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC619">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -60445,7 +60445,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60457,76 +60457,76 @@
         <v>45190.5</v>
       </c>
       <c r="F674" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G674" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674">
+        <v>1</v>
+      </c>
+      <c r="J674" t="s">
+        <v>53</v>
+      </c>
+      <c r="K674">
+        <v>13</v>
+      </c>
+      <c r="L674">
+        <v>7</v>
+      </c>
+      <c r="M674">
+        <v>1.142</v>
+      </c>
+      <c r="N674">
+        <v>15</v>
+      </c>
+      <c r="O674">
+        <v>9</v>
+      </c>
+      <c r="P674">
+        <v>1.111</v>
+      </c>
+      <c r="Q674">
+        <v>2.5</v>
+      </c>
+      <c r="R674">
+        <v>1.975</v>
+      </c>
+      <c r="S674">
+        <v>1.825</v>
+      </c>
+      <c r="T674">
         <v>4</v>
       </c>
-      <c r="I674">
-        <v>3</v>
-      </c>
-      <c r="J674" t="s">
-        <v>54</v>
-      </c>
-      <c r="K674">
-        <v>1.7</v>
-      </c>
-      <c r="L674">
-        <v>3.7</v>
-      </c>
-      <c r="M674">
-        <v>4.25</v>
-      </c>
-      <c r="N674">
-        <v>1.45</v>
-      </c>
-      <c r="O674">
-        <v>4.2</v>
-      </c>
-      <c r="P674">
-        <v>5.5</v>
-      </c>
-      <c r="Q674">
-        <v>-1</v>
-      </c>
-      <c r="R674">
-        <v>1.775</v>
-      </c>
-      <c r="S674">
-        <v>2.025</v>
-      </c>
-      <c r="T674">
-        <v>2.75</v>
-      </c>
       <c r="U674">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V674">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W674">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X674">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA674">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB674">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC674">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60534,7 +60534,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60546,76 +60546,76 @@
         <v>45190.5</v>
       </c>
       <c r="F675" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G675" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I675">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J675" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K675">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L675">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M675">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N675">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O675">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P675">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q675">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R675">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S675">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T675">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U675">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V675">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X675">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA675">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB675">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC675">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60890,7 +60890,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60902,55 +60902,55 @@
         <v>45191.5</v>
       </c>
       <c r="F679" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G679" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J679" t="s">
         <v>52</v>
       </c>
       <c r="K679">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L679">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M679">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N679">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O679">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P679">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R679">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S679">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T679">
         <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V679">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W679">
         <v>-1</v>
@@ -60959,19 +60959,19 @@
         <v>-1</v>
       </c>
       <c r="Y679">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="Z679">
         <v>-1</v>
       </c>
       <c r="AA679">
+        <v>0.875</v>
+      </c>
+      <c r="AB679">
         <v>0.825</v>
       </c>
-      <c r="AB679">
-        <v>-1</v>
-      </c>
       <c r="AC679">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60979,7 +60979,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60991,55 +60991,55 @@
         <v>45191.5</v>
       </c>
       <c r="F680" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G680" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
         <v>1</v>
-      </c>
-      <c r="I680">
-        <v>3</v>
       </c>
       <c r="J680" t="s">
         <v>52</v>
       </c>
       <c r="K680">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L680">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M680">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N680">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O680">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P680">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q680">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R680">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S680">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T680">
         <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V680">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W680">
         <v>-1</v>
@@ -61048,19 +61048,19 @@
         <v>-1</v>
       </c>
       <c r="Y680">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z680">
         <v>-1</v>
       </c>
       <c r="AA680">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB680">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61246,7 +61246,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61258,49 +61258,49 @@
         <v>45198.5</v>
       </c>
       <c r="F683" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G683" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K683">
+        <v>8.5</v>
+      </c>
+      <c r="L683">
         <v>5</v>
       </c>
-      <c r="L683">
-        <v>4</v>
-      </c>
       <c r="M683">
+        <v>1.3</v>
+      </c>
+      <c r="N683">
+        <v>5.5</v>
+      </c>
+      <c r="O683">
+        <v>3.8</v>
+      </c>
+      <c r="P683">
         <v>1.533</v>
-      </c>
-      <c r="N683">
-        <v>5.25</v>
-      </c>
-      <c r="O683">
-        <v>4.2</v>
-      </c>
-      <c r="P683">
-        <v>1.5</v>
       </c>
       <c r="Q683">
         <v>1</v>
       </c>
       <c r="R683">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S683">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T683">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U683">
         <v>1.975</v>
@@ -61312,22 +61312,22 @@
         <v>-1</v>
       </c>
       <c r="X683">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y683">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z683">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA683">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB683">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC683">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61424,7 +61424,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61436,49 +61436,49 @@
         <v>45198.5</v>
       </c>
       <c r="F685" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G685" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J685" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K685">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L685">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M685">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N685">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O685">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P685">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q685">
         <v>1</v>
       </c>
       <c r="R685">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S685">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T685">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U685">
         <v>1.975</v>
@@ -61490,22 +61490,22 @@
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z685">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC685">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -62848,7 +62848,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62860,76 +62860,76 @@
         <v>45219.5</v>
       </c>
       <c r="F701" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G701" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H701">
         <v>1</v>
       </c>
       <c r="I701">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J701" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K701">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L701">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M701">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N701">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O701">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P701">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q701">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R701">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S701">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T701">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U701">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V701">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W701">
         <v>-1</v>
       </c>
       <c r="X701">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y701">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z701">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA701">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB701">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC701">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62937,7 +62937,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62949,76 +62949,76 @@
         <v>45219.5</v>
       </c>
       <c r="F702" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G702" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H702">
         <v>1</v>
       </c>
       <c r="I702">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J702" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K702">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L702">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M702">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N702">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O702">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P702">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q702">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R702">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S702">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T702">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U702">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V702">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W702">
         <v>-1</v>
       </c>
       <c r="X702">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y702">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z702">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA702">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB702">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC702">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -68455,7 +68455,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68467,76 +68467,76 @@
         <v>45274.5</v>
       </c>
       <c r="F764" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G764" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H764">
         <v>1</v>
       </c>
       <c r="I764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K764">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L764">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M764">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N764">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O764">
         <v>3.4</v>
       </c>
       <c r="P764">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q764">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R764">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S764">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T764">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U764">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V764">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W764">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X764">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y764">
         <v>-1</v>
       </c>
       <c r="Z764">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA764">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB764">
         <v>-1</v>
       </c>
       <c r="AC764">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68544,7 +68544,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68556,76 +68556,76 @@
         <v>45274.5</v>
       </c>
       <c r="F765" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G765" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H765">
         <v>1</v>
       </c>
       <c r="I765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J765" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K765">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L765">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N765">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O765">
         <v>3.4</v>
       </c>
       <c r="P765">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q765">
+        <v>-0.25</v>
+      </c>
+      <c r="R765">
+        <v>1.975</v>
+      </c>
+      <c r="S765">
+        <v>1.825</v>
+      </c>
+      <c r="T765">
+        <v>2.75</v>
+      </c>
+      <c r="U765">
+        <v>2</v>
+      </c>
+      <c r="V765">
+        <v>1.8</v>
+      </c>
+      <c r="W765">
+        <v>-1</v>
+      </c>
+      <c r="X765">
+        <v>2.4</v>
+      </c>
+      <c r="Y765">
+        <v>-1</v>
+      </c>
+      <c r="Z765">
         <v>-0.5</v>
       </c>
-      <c r="R765">
-        <v>1.9</v>
-      </c>
-      <c r="S765">
-        <v>1.9</v>
-      </c>
-      <c r="T765">
-        <v>2.5</v>
-      </c>
-      <c r="U765">
-        <v>1.9</v>
-      </c>
-      <c r="V765">
-        <v>1.9</v>
-      </c>
-      <c r="W765">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X765">
-        <v>-1</v>
-      </c>
-      <c r="Y765">
-        <v>-1</v>
-      </c>
-      <c r="Z765">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA765">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB765">
         <v>-1</v>
       </c>
       <c r="AC765">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68722,7 +68722,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6940818</v>
+        <v>6941381</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68734,76 +68734,76 @@
         <v>45275.5</v>
       </c>
       <c r="F767" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G767" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767">
         <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K767">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L767">
         <v>3.4</v>
       </c>
       <c r="M767">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N767">
+        <v>2.75</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
         <v>2.375</v>
-      </c>
-      <c r="O767">
-        <v>3.5</v>
-      </c>
-      <c r="P767">
-        <v>2.625</v>
       </c>
       <c r="Q767">
         <v>0</v>
       </c>
       <c r="R767">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S767">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T767">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U767">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V767">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W767">
         <v>-1</v>
       </c>
       <c r="X767">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y767">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z767">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA767">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB767">
         <v>-1</v>
       </c>
       <c r="AC767">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68811,7 +68811,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6940763</v>
+        <v>6940818</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68823,61 +68823,61 @@
         <v>45275.5</v>
       </c>
       <c r="F768" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G768" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768">
+        <v>1</v>
+      </c>
+      <c r="J768" t="s">
+        <v>53</v>
+      </c>
+      <c r="K768">
+        <v>2.55</v>
+      </c>
+      <c r="L768">
+        <v>3.4</v>
+      </c>
+      <c r="M768">
+        <v>2.45</v>
+      </c>
+      <c r="N768">
+        <v>2.375</v>
+      </c>
+      <c r="O768">
+        <v>3.5</v>
+      </c>
+      <c r="P768">
+        <v>2.625</v>
+      </c>
+      <c r="Q768">
         <v>0</v>
       </c>
-      <c r="J768" t="s">
-        <v>54</v>
-      </c>
-      <c r="K768">
-        <v>1.2</v>
-      </c>
-      <c r="L768">
-        <v>7</v>
-      </c>
-      <c r="M768">
-        <v>9.5</v>
-      </c>
-      <c r="N768">
-        <v>1.222</v>
-      </c>
-      <c r="O768">
-        <v>7</v>
-      </c>
-      <c r="P768">
-        <v>8.5</v>
-      </c>
-      <c r="Q768">
-        <v>-2</v>
-      </c>
       <c r="R768">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S768">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T768">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U768">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V768">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W768">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y768">
         <v>-1</v>
@@ -68892,7 +68892,7 @@
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68900,7 +68900,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6941381</v>
+        <v>6940763</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68912,76 +68912,76 @@
         <v>45275.5</v>
       </c>
       <c r="F769" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G769" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H769">
+        <v>2</v>
+      </c>
+      <c r="I769">
         <v>0</v>
       </c>
-      <c r="I769">
-        <v>1</v>
-      </c>
       <c r="J769" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K769">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L769">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M769">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="N769">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O769">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P769">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q769">
+        <v>-2</v>
+      </c>
+      <c r="R769">
+        <v>1.85</v>
+      </c>
+      <c r="S769">
+        <v>1.95</v>
+      </c>
+      <c r="T769">
+        <v>3.75</v>
+      </c>
+      <c r="U769">
+        <v>1.9</v>
+      </c>
+      <c r="V769">
+        <v>1.9</v>
+      </c>
+      <c r="W769">
+        <v>0.222</v>
+      </c>
+      <c r="X769">
+        <v>-1</v>
+      </c>
+      <c r="Y769">
+        <v>-1</v>
+      </c>
+      <c r="Z769">
         <v>0</v>
       </c>
-      <c r="R769">
-        <v>2.025</v>
-      </c>
-      <c r="S769">
-        <v>1.775</v>
-      </c>
-      <c r="T769">
-        <v>2.5</v>
-      </c>
-      <c r="U769">
-        <v>1.95</v>
-      </c>
-      <c r="V769">
-        <v>1.85</v>
-      </c>
-      <c r="W769">
-        <v>-1</v>
-      </c>
-      <c r="X769">
-        <v>-1</v>
-      </c>
-      <c r="Y769">
-        <v>1.375</v>
-      </c>
-      <c r="Z769">
-        <v>-1</v>
-      </c>
       <c r="AA769">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69167,7 +69167,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69179,10 +69179,10 @@
         <v>45281.5</v>
       </c>
       <c r="F772" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G772" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -69194,61 +69194,61 @@
         <v>54</v>
       </c>
       <c r="K772">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L772">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M772">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N772">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O772">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P772">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q772">
+        <v>-0.75</v>
+      </c>
+      <c r="R772">
+        <v>1.85</v>
+      </c>
+      <c r="S772">
+        <v>1.95</v>
+      </c>
+      <c r="T772">
+        <v>2.75</v>
+      </c>
+      <c r="U772">
+        <v>1.975</v>
+      </c>
+      <c r="V772">
+        <v>1.825</v>
+      </c>
+      <c r="W772">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X772">
+        <v>-1</v>
+      </c>
+      <c r="Y772">
+        <v>-1</v>
+      </c>
+      <c r="Z772">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA772">
+        <v>-1</v>
+      </c>
+      <c r="AB772">
+        <v>0.4875</v>
+      </c>
+      <c r="AC772">
         <v>-0.5</v>
-      </c>
-      <c r="R772">
-        <v>2.025</v>
-      </c>
-      <c r="S772">
-        <v>1.775</v>
-      </c>
-      <c r="T772">
-        <v>2.25</v>
-      </c>
-      <c r="U772">
-        <v>1.775</v>
-      </c>
-      <c r="V772">
-        <v>2.025</v>
-      </c>
-      <c r="W772">
-        <v>1</v>
-      </c>
-      <c r="X772">
-        <v>-1</v>
-      </c>
-      <c r="Y772">
-        <v>-1</v>
-      </c>
-      <c r="Z772">
-        <v>1.025</v>
-      </c>
-      <c r="AA772">
-        <v>-1</v>
-      </c>
-      <c r="AB772">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC772">
-        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69256,7 +69256,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69268,10 +69268,10 @@
         <v>45281.5</v>
       </c>
       <c r="F773" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G773" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H773">
         <v>3</v>
@@ -69283,43 +69283,43 @@
         <v>54</v>
       </c>
       <c r="K773">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L773">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M773">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N773">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O773">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P773">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q773">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R773">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S773">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T773">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U773">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V773">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W773">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X773">
         <v>-1</v>
@@ -69328,16 +69328,16 @@
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA773">
         <v>-1</v>
       </c>
       <c r="AB773">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC773">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69434,7 +69434,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69446,73 +69446,73 @@
         <v>45282.5</v>
       </c>
       <c r="F775" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G775" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H775">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J775" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K775">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L775">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M775">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N775">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O775">
         <v>5</v>
       </c>
       <c r="P775">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q775">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R775">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S775">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T775">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U775">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V775">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W775">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z775">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA775">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB775">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC775">
         <v>-1</v>
@@ -69612,7 +69612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>6941388</v>
+        <v>7605556</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69624,73 +69624,73 @@
         <v>45282.5</v>
       </c>
       <c r="F777" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G777" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J777" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K777">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L777">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M777">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N777">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="O777">
         <v>5</v>
       </c>
       <c r="P777">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q777">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R777">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S777">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T777">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U777">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V777">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA777">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC777">
         <v>-1</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -25023,7 +25023,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>4471333</v>
+        <v>4471929</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25035,58 +25035,58 @@
         <v>44576.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G276" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>54</v>
       </c>
       <c r="K276">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="L276">
         <v>3.75</v>
       </c>
       <c r="M276">
+        <v>5</v>
+      </c>
+      <c r="N276">
+        <v>1.5</v>
+      </c>
+      <c r="O276">
         <v>4.333</v>
-      </c>
-      <c r="N276">
-        <v>1.55</v>
-      </c>
-      <c r="O276">
-        <v>4</v>
       </c>
       <c r="P276">
         <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R276">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U276">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V276">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W276">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25095,16 +25095,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.3625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC276">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25112,7 +25112,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>4471929</v>
+        <v>4471333</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25124,58 +25124,58 @@
         <v>44576.58333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
         <v>54</v>
       </c>
       <c r="K277">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="L277">
         <v>3.75</v>
       </c>
       <c r="M277">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O277">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P277">
         <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S277">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="T277">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V277">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W277">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25184,16 +25184,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
+        <v>0.3625</v>
+      </c>
+      <c r="AA277">
         <v>-0.5</v>
       </c>
-      <c r="AA277">
-        <v>0.375</v>
-      </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4547775</v>
+        <v>4547428</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,58 +28061,58 @@
         <v>44618.51736111111</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H310">
         <v>2</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310">
-        <v>1.363</v>
+        <v>1.181</v>
       </c>
       <c r="L310">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M310">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N310">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="O310">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P310">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q310">
         <v>-1.5</v>
       </c>
       <c r="R310">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T310">
         <v>3</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W310">
-        <v>0.333</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA310">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>4547428</v>
+        <v>4547775</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,58 +28150,58 @@
         <v>44618.51736111111</v>
       </c>
       <c r="F311" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H311">
         <v>2</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
         <v>54</v>
       </c>
       <c r="K311">
-        <v>1.181</v>
+        <v>1.363</v>
       </c>
       <c r="L311">
+        <v>4.75</v>
+      </c>
+      <c r="M311">
         <v>6</v>
       </c>
-      <c r="M311">
-        <v>12</v>
-      </c>
       <c r="N311">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O311">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P311">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q311">
         <v>-1.5</v>
       </c>
       <c r="R311">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
         <v>3</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V311">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W311">
-        <v>0.2849999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28210,16 +28210,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC311">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -33656,7 +33656,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4835269</v>
+        <v>4835268</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,49 +33668,49 @@
         <v>44739.625</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373">
         <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K373">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="L373">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N373">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O373">
         <v>3.5</v>
       </c>
       <c r="P373">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U373">
         <v>1.9</v>
@@ -33719,19 +33719,19 @@
         <v>1.9</v>
       </c>
       <c r="W373">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA373">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -33745,7 +33745,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4835268</v>
+        <v>4835269</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33757,49 +33757,49 @@
         <v>44739.625</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G374" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374">
         <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K374">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M374">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O374">
         <v>3.5</v>
       </c>
       <c r="P374">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R374">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T374">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
         <v>1.9</v>
@@ -33808,19 +33808,19 @@
         <v>1.9</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X374">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB374">
         <v>-1</v>
@@ -34101,7 +34101,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4835267</v>
+        <v>4835266</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34113,76 +34113,76 @@
         <v>44739.625</v>
       </c>
       <c r="F378" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H378">
         <v>0</v>
       </c>
       <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378" t="s">
+        <v>52</v>
+      </c>
+      <c r="K378">
+        <v>3.75</v>
+      </c>
+      <c r="L378">
+        <v>3.3</v>
+      </c>
+      <c r="M378">
+        <v>1.909</v>
+      </c>
+      <c r="N378">
+        <v>5.25</v>
+      </c>
+      <c r="O378">
+        <v>3.6</v>
+      </c>
+      <c r="P378">
+        <v>1.571</v>
+      </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
+      <c r="R378">
+        <v>1.775</v>
+      </c>
+      <c r="S378">
+        <v>2.025</v>
+      </c>
+      <c r="T378">
+        <v>2.5</v>
+      </c>
+      <c r="U378">
+        <v>2</v>
+      </c>
+      <c r="V378">
+        <v>1.8</v>
+      </c>
+      <c r="W378">
+        <v>-1</v>
+      </c>
+      <c r="X378">
+        <v>-1</v>
+      </c>
+      <c r="Y378">
+        <v>0.571</v>
+      </c>
+      <c r="Z378">
         <v>0</v>
       </c>
-      <c r="J378" t="s">
-        <v>53</v>
-      </c>
-      <c r="K378">
-        <v>1.333</v>
-      </c>
-      <c r="L378">
-        <v>5</v>
-      </c>
-      <c r="M378">
-        <v>7.5</v>
-      </c>
-      <c r="N378">
-        <v>1.3</v>
-      </c>
-      <c r="O378">
-        <v>5</v>
-      </c>
-      <c r="P378">
-        <v>8.5</v>
-      </c>
-      <c r="Q378">
-        <v>-1.5</v>
-      </c>
-      <c r="R378">
-        <v>1.85</v>
-      </c>
-      <c r="S378">
-        <v>1.95</v>
-      </c>
-      <c r="T378">
-        <v>3.25</v>
-      </c>
-      <c r="U378">
-        <v>1.925</v>
-      </c>
-      <c r="V378">
-        <v>1.875</v>
-      </c>
-      <c r="W378">
-        <v>-1</v>
-      </c>
-      <c r="X378">
-        <v>4</v>
-      </c>
-      <c r="Y378">
-        <v>-1</v>
-      </c>
-      <c r="Z378">
-        <v>-1</v>
-      </c>
       <c r="AA378">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB378">
         <v>-1</v>
       </c>
       <c r="AC378">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34190,7 +34190,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4835266</v>
+        <v>4835264</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34202,76 +34202,76 @@
         <v>44739.625</v>
       </c>
       <c r="F379" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G379" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H379">
+        <v>3</v>
+      </c>
+      <c r="I379">
         <v>0</v>
       </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
       <c r="J379" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K379">
+        <v>1.6</v>
+      </c>
+      <c r="L379">
         <v>3.75</v>
       </c>
-      <c r="L379">
-        <v>3.3</v>
-      </c>
       <c r="M379">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N379">
-        <v>5.25</v>
+        <v>1.181</v>
       </c>
       <c r="O379">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P379">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="Q379">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R379">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S379">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T379">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U379">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V379">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA379">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC379">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34279,7 +34279,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4835264</v>
+        <v>4835267</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34291,76 +34291,76 @@
         <v>44739.625</v>
       </c>
       <c r="F380" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K380">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L380">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M380">
+        <v>7.5</v>
+      </c>
+      <c r="N380">
+        <v>1.3</v>
+      </c>
+      <c r="O380">
         <v>5</v>
       </c>
-      <c r="N380">
-        <v>1.181</v>
-      </c>
-      <c r="O380">
-        <v>6</v>
-      </c>
       <c r="P380">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q380">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T380">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V380">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W380">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X380">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB380">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -37216,7 +37216,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5485087</v>
+        <v>5485088</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37228,58 +37228,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G413" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H413">
         <v>2</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>54</v>
       </c>
       <c r="K413">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L413">
+        <v>3.2</v>
+      </c>
+      <c r="M413">
+        <v>2.9</v>
+      </c>
+      <c r="N413">
+        <v>2.15</v>
+      </c>
+      <c r="O413">
         <v>3.1</v>
       </c>
-      <c r="M413">
-        <v>3.2</v>
-      </c>
-      <c r="N413">
-        <v>1.7</v>
-      </c>
-      <c r="O413">
-        <v>3.2</v>
-      </c>
       <c r="P413">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q413">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S413">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T413">
         <v>2.25</v>
       </c>
       <c r="U413">
+        <v>1.95</v>
+      </c>
+      <c r="V413">
         <v>1.85</v>
       </c>
-      <c r="V413">
-        <v>1.95</v>
-      </c>
       <c r="W413">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37288,16 +37288,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA413">
+        <v>-1</v>
+      </c>
+      <c r="AB413">
         <v>-0.5</v>
       </c>
-      <c r="AB413">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37305,7 +37305,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>5485088</v>
+        <v>5485087</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37317,58 +37317,58 @@
         <v>44835.52083333334</v>
       </c>
       <c r="F414" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G414" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H414">
         <v>2</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
         <v>54</v>
       </c>
       <c r="K414">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L414">
+        <v>3.1</v>
+      </c>
+      <c r="M414">
         <v>3.2</v>
       </c>
-      <c r="M414">
-        <v>2.9</v>
-      </c>
       <c r="N414">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O414">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P414">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R414">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S414">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T414">
         <v>2.25</v>
       </c>
       <c r="U414">
+        <v>1.85</v>
+      </c>
+      <c r="V414">
         <v>1.95</v>
       </c>
-      <c r="V414">
-        <v>1.85</v>
-      </c>
       <c r="W414">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37377,16 +37377,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AA414">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB414">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC414">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -38017,7 +38017,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>5446245</v>
+        <v>5446244</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38029,76 +38029,76 @@
         <v>44840.625</v>
       </c>
       <c r="F422" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G422" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422">
         <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K422">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L422">
+        <v>3.9</v>
+      </c>
+      <c r="M422">
+        <v>1.5</v>
+      </c>
+      <c r="N422">
         <v>4.2</v>
       </c>
-      <c r="M422">
-        <v>7</v>
-      </c>
-      <c r="N422">
-        <v>1.533</v>
-      </c>
       <c r="O422">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P422">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q422">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R422">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S422">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T422">
         <v>2.75</v>
       </c>
       <c r="U422">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V422">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W422">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA422">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
         <v>-1</v>
       </c>
       <c r="AC422">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38195,7 +38195,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5446244</v>
+        <v>5446245</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38207,76 +38207,76 @@
         <v>44840.625</v>
       </c>
       <c r="F424" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G424" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424">
         <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K424">
+        <v>1.363</v>
+      </c>
+      <c r="L424">
+        <v>4.2</v>
+      </c>
+      <c r="M424">
+        <v>7</v>
+      </c>
+      <c r="N424">
+        <v>1.533</v>
+      </c>
+      <c r="O424">
+        <v>3.75</v>
+      </c>
+      <c r="P424">
         <v>5.25</v>
       </c>
-      <c r="L424">
-        <v>3.9</v>
-      </c>
-      <c r="M424">
-        <v>1.5</v>
-      </c>
-      <c r="N424">
-        <v>4.2</v>
-      </c>
-      <c r="O424">
-        <v>3.6</v>
-      </c>
-      <c r="P424">
-        <v>1.7</v>
-      </c>
       <c r="Q424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R424">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S424">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T424">
         <v>2.75</v>
       </c>
       <c r="U424">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V424">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X424">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -39708,7 +39708,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>5446250</v>
+        <v>5485105</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39720,56 +39720,56 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F441" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G441" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H441">
         <v>0</v>
       </c>
       <c r="I441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J441" t="s">
         <v>52</v>
       </c>
       <c r="K441">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L441">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M441">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N441">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O441">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P441">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q441">
         <v>0.25</v>
       </c>
       <c r="R441">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S441">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T441">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U441">
+        <v>1.975</v>
+      </c>
+      <c r="V441">
         <v>1.825</v>
       </c>
-      <c r="V441">
-        <v>1.975</v>
-      </c>
       <c r="W441">
         <v>-1</v>
       </c>
@@ -39777,19 +39777,19 @@
         <v>-1</v>
       </c>
       <c r="Y441">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z441">
         <v>-1</v>
       </c>
       <c r="AA441">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB441">
         <v>-1</v>
       </c>
       <c r="AC441">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5485106</v>
+        <v>5446250</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,40 +39809,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F442" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G442" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
         <v>1</v>
       </c>
-      <c r="I442">
-        <v>0</v>
-      </c>
       <c r="J442" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K442">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L442">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="M442">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N442">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O442">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P442">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q442">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R442">
         <v>1.8</v>
@@ -39851,34 +39851,34 @@
         <v>2</v>
       </c>
       <c r="T442">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U442">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V442">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W442">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z442">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA442">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB442">
         <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5485105</v>
+        <v>5485106</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,76 +39898,76 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F443" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G443" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
         <v>0</v>
       </c>
-      <c r="I443">
-        <v>2</v>
-      </c>
       <c r="J443" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K443">
+        <v>1.3</v>
+      </c>
+      <c r="L443">
+        <v>4.6</v>
+      </c>
+      <c r="M443">
+        <v>8</v>
+      </c>
+      <c r="N443">
+        <v>1.6</v>
+      </c>
+      <c r="O443">
+        <v>3.8</v>
+      </c>
+      <c r="P443">
+        <v>4.333</v>
+      </c>
+      <c r="Q443">
+        <v>-0.75</v>
+      </c>
+      <c r="R443">
+        <v>1.8</v>
+      </c>
+      <c r="S443">
+        <v>2</v>
+      </c>
+      <c r="T443">
         <v>2.75</v>
       </c>
-      <c r="L443">
-        <v>3.4</v>
-      </c>
-      <c r="M443">
-        <v>2.2</v>
-      </c>
-      <c r="N443">
-        <v>2.8</v>
-      </c>
-      <c r="O443">
-        <v>3.6</v>
-      </c>
-      <c r="P443">
-        <v>2.1</v>
-      </c>
-      <c r="Q443">
-        <v>0.25</v>
-      </c>
-      <c r="R443">
+      <c r="U443">
+        <v>1.925</v>
+      </c>
+      <c r="V443">
         <v>1.875</v>
       </c>
-      <c r="S443">
-        <v>1.925</v>
-      </c>
-      <c r="T443">
-        <v>2.5</v>
-      </c>
-      <c r="U443">
-        <v>1.975</v>
-      </c>
-      <c r="V443">
-        <v>1.825</v>
-      </c>
       <c r="W443">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA443">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40776,7 +40776,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5581797</v>
+        <v>5581799</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40788,73 +40788,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G453" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H453">
+        <v>4</v>
+      </c>
+      <c r="I453">
         <v>1</v>
       </c>
-      <c r="I453">
-        <v>2</v>
-      </c>
       <c r="J453" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K453">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L453">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M453">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N453">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O453">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P453">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q453">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R453">
+        <v>1.9</v>
+      </c>
+      <c r="S453">
+        <v>1.9</v>
+      </c>
+      <c r="T453">
+        <v>2.75</v>
+      </c>
+      <c r="U453">
         <v>1.875</v>
       </c>
-      <c r="S453">
+      <c r="V453">
         <v>1.925</v>
       </c>
-      <c r="T453">
-        <v>2.5</v>
-      </c>
-      <c r="U453">
-        <v>1.8</v>
-      </c>
-      <c r="V453">
-        <v>2</v>
-      </c>
       <c r="W453">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X453">
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA453">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB453">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC453">
         <v>-1</v>
@@ -40865,7 +40865,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5581799</v>
+        <v>5581797</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40877,73 +40877,73 @@
         <v>44921.39583333334</v>
       </c>
       <c r="F454" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G454" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K454">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="L454">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M454">
+        <v>1.3</v>
+      </c>
+      <c r="N454">
+        <v>6.5</v>
+      </c>
+      <c r="O454">
+        <v>4.2</v>
+      </c>
+      <c r="P454">
+        <v>1.4</v>
+      </c>
+      <c r="Q454">
+        <v>1.25</v>
+      </c>
+      <c r="R454">
+        <v>1.875</v>
+      </c>
+      <c r="S454">
+        <v>1.925</v>
+      </c>
+      <c r="T454">
+        <v>2.5</v>
+      </c>
+      <c r="U454">
         <v>1.8</v>
       </c>
-      <c r="N454">
-        <v>3.4</v>
-      </c>
-      <c r="O454">
-        <v>3.5</v>
-      </c>
-      <c r="P454">
-        <v>1.85</v>
-      </c>
-      <c r="Q454">
-        <v>0.5</v>
-      </c>
-      <c r="R454">
-        <v>1.9</v>
-      </c>
-      <c r="S454">
-        <v>1.9</v>
-      </c>
-      <c r="T454">
-        <v>2.75</v>
-      </c>
-      <c r="U454">
-        <v>1.875</v>
-      </c>
       <c r="V454">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W454">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X454">
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z454">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA454">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB454">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -40954,7 +40954,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5581801</v>
+        <v>5581802</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40966,59 +40966,59 @@
         <v>44921.5</v>
       </c>
       <c r="F455" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G455" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="s">
         <v>54</v>
       </c>
       <c r="K455">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L455">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M455">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N455">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O455">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P455">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q455">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R455">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T455">
         <v>2.25</v>
       </c>
       <c r="U455">
+        <v>1.925</v>
+      </c>
+      <c r="V455">
+        <v>1.875</v>
+      </c>
+      <c r="W455">
         <v>1.8</v>
       </c>
-      <c r="V455">
-        <v>2</v>
-      </c>
-      <c r="W455">
-        <v>0.833</v>
-      </c>
       <c r="X455">
         <v>-1</v>
       </c>
@@ -41026,13 +41026,13 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41043,7 +41043,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5581802</v>
+        <v>5581801</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41055,58 +41055,58 @@
         <v>44921.5</v>
       </c>
       <c r="F456" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G456" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" t="s">
         <v>54</v>
       </c>
       <c r="K456">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L456">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M456">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N456">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O456">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P456">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q456">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R456">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S456">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T456">
         <v>2.25</v>
       </c>
       <c r="U456">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V456">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W456">
-        <v>1.8</v>
+        <v>0.833</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41115,13 +41115,13 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA456">
         <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41488,7 +41488,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>5581806</v>
+        <v>5581809</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41500,76 +41500,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F461" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G461" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K461">
+        <v>1.222</v>
+      </c>
+      <c r="L461">
         <v>5</v>
       </c>
-      <c r="L461">
-        <v>3.75</v>
-      </c>
       <c r="M461">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="N461">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="O461">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P461">
-        <v>1.533</v>
+        <v>11</v>
       </c>
       <c r="Q461">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R461">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S461">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T461">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U461">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V461">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X461">
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA461">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB461">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC461">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41577,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>5581809</v>
+        <v>5581806</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41589,76 +41589,76 @@
         <v>44926.39583333334</v>
       </c>
       <c r="F462" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G462" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H462">
+        <v>1</v>
+      </c>
+      <c r="I462">
+        <v>2</v>
+      </c>
+      <c r="J462" t="s">
+        <v>52</v>
+      </c>
+      <c r="K462">
+        <v>5</v>
+      </c>
+      <c r="L462">
+        <v>3.75</v>
+      </c>
+      <c r="M462">
+        <v>1.6</v>
+      </c>
+      <c r="N462">
+        <v>5</v>
+      </c>
+      <c r="O462">
         <v>4</v>
       </c>
-      <c r="I462">
+      <c r="P462">
+        <v>1.533</v>
+      </c>
+      <c r="Q462">
+        <v>1</v>
+      </c>
+      <c r="R462">
+        <v>1.9</v>
+      </c>
+      <c r="S462">
+        <v>1.9</v>
+      </c>
+      <c r="T462">
+        <v>2.75</v>
+      </c>
+      <c r="U462">
+        <v>1.8</v>
+      </c>
+      <c r="V462">
+        <v>2</v>
+      </c>
+      <c r="W462">
+        <v>-1</v>
+      </c>
+      <c r="X462">
+        <v>-1</v>
+      </c>
+      <c r="Y462">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z462">
         <v>0</v>
       </c>
-      <c r="J462" t="s">
-        <v>54</v>
-      </c>
-      <c r="K462">
-        <v>1.222</v>
-      </c>
-      <c r="L462">
-        <v>5</v>
-      </c>
-      <c r="M462">
-        <v>11</v>
-      </c>
-      <c r="N462">
-        <v>1.2</v>
-      </c>
-      <c r="O462">
-        <v>5.25</v>
-      </c>
-      <c r="P462">
-        <v>11</v>
-      </c>
-      <c r="Q462">
-        <v>-1.75</v>
-      </c>
-      <c r="R462">
-        <v>1.8</v>
-      </c>
-      <c r="S462">
-        <v>2</v>
-      </c>
-      <c r="T462">
-        <v>3</v>
-      </c>
-      <c r="U462">
-        <v>1.975</v>
-      </c>
-      <c r="V462">
-        <v>1.825</v>
-      </c>
-      <c r="W462">
-        <v>0.2</v>
-      </c>
-      <c r="X462">
-        <v>-1</v>
-      </c>
-      <c r="Y462">
-        <v>-1</v>
-      </c>
-      <c r="Z462">
-        <v>0.8</v>
-      </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB462">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41755,7 +41755,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5581805</v>
+        <v>5581810</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41767,76 +41767,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F464" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G464" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K464">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="L464">
+        <v>4.5</v>
+      </c>
+      <c r="M464">
+        <v>7</v>
+      </c>
+      <c r="N464">
+        <v>1.25</v>
+      </c>
+      <c r="O464">
         <v>6</v>
       </c>
-      <c r="M464">
-        <v>1.181</v>
-      </c>
-      <c r="N464">
-        <v>15</v>
-      </c>
-      <c r="O464">
-        <v>6.5</v>
-      </c>
       <c r="P464">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="Q464">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S464">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V464">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y464">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB464">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC464">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41844,7 +41844,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>5581810</v>
+        <v>5581805</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41856,76 +41856,76 @@
         <v>44926.60416666666</v>
       </c>
       <c r="F465" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G465" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K465">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="L465">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M465">
-        <v>7</v>
+        <v>1.181</v>
       </c>
       <c r="N465">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="O465">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P465">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="Q465">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R465">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S465">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T465">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U465">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V465">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA465">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB465">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -45404,7 +45404,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>5967535</v>
+        <v>5967536</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45416,76 +45416,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F505" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G505" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K505">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L505">
         <v>3.25</v>
       </c>
       <c r="M505">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N505">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O505">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P505">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q505">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R505">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S505">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T505">
         <v>2.5</v>
       </c>
       <c r="U505">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V505">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W505">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X505">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA505">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB505">
         <v>-1</v>
       </c>
       <c r="AC505">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45493,7 +45493,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5967536</v>
+        <v>5967535</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45505,76 +45505,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F506" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G506" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J506" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K506">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L506">
         <v>3.25</v>
       </c>
       <c r="M506">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N506">
+        <v>2.375</v>
+      </c>
+      <c r="O506">
+        <v>3.25</v>
+      </c>
+      <c r="P506">
+        <v>2.55</v>
+      </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
+      <c r="R506">
+        <v>1.85</v>
+      </c>
+      <c r="S506">
         <v>1.95</v>
-      </c>
-      <c r="O506">
-        <v>3.3</v>
-      </c>
-      <c r="P506">
-        <v>3.3</v>
-      </c>
-      <c r="Q506">
-        <v>-0.5</v>
-      </c>
-      <c r="R506">
-        <v>2</v>
-      </c>
-      <c r="S506">
-        <v>1.8</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V506">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X506">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA506">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -46828,7 +46828,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>5967549</v>
+        <v>5967551</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46840,76 +46840,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F521" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G521" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J521" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K521">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L521">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M521">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N521">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O521">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P521">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q521">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R521">
+        <v>2</v>
+      </c>
+      <c r="S521">
         <v>1.8</v>
       </c>
-      <c r="S521">
-        <v>2</v>
-      </c>
       <c r="T521">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U521">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V521">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W521">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z521">
+        <v>-1</v>
+      </c>
+      <c r="AA521">
         <v>0.8</v>
       </c>
-      <c r="AA521">
-        <v>-1</v>
-      </c>
       <c r="AB521">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC521">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46917,7 +46917,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>5967551</v>
+        <v>5967549</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46929,76 +46929,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F522" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G522" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K522">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L522">
+        <v>3.3</v>
+      </c>
+      <c r="M522">
+        <v>3.2</v>
+      </c>
+      <c r="N522">
+        <v>2</v>
+      </c>
+      <c r="O522">
+        <v>3.1</v>
+      </c>
+      <c r="P522">
         <v>3.4</v>
       </c>
-      <c r="M522">
-        <v>3.6</v>
-      </c>
-      <c r="N522">
-        <v>1.727</v>
-      </c>
-      <c r="O522">
-        <v>3.5</v>
-      </c>
-      <c r="P522">
-        <v>4</v>
-      </c>
       <c r="Q522">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R522">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S522">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T522">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U522">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V522">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W522">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA522">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB522">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC522">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -50210,7 +50210,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>5967574</v>
+        <v>5967575</v>
       </c>
       <c r="C559" t="s">
         <v>28</v>
@@ -50222,76 +50222,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F559" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G559" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J559" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K559">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L559">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M559">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N559">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O559">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P559">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q559">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R559">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S559">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T559">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U559">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V559">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W559">
         <v>-1</v>
       </c>
       <c r="X559">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y559">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z559">
         <v>-1</v>
       </c>
       <c r="AA559">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB559">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC559">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560" spans="1:29">
@@ -50388,7 +50388,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5967575</v>
+        <v>5967574</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50400,76 +50400,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F561" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G561" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J561" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K561">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L561">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M561">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N561">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O561">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P561">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q561">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R561">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S561">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T561">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U561">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V561">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y561">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z561">
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB561">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC561">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50566,7 +50566,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5966992</v>
+        <v>5967568</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50578,10 +50578,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G563" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -50593,44 +50593,44 @@
         <v>54</v>
       </c>
       <c r="K563">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L563">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M563">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="N563">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O563">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P563">
+        <v>2.8</v>
+      </c>
+      <c r="Q563">
+        <v>0</v>
+      </c>
+      <c r="R563">
+        <v>1.8</v>
+      </c>
+      <c r="S563">
+        <v>2</v>
+      </c>
+      <c r="T563">
+        <v>2.25</v>
+      </c>
+      <c r="U563">
+        <v>1.9</v>
+      </c>
+      <c r="V563">
+        <v>1.9</v>
+      </c>
+      <c r="W563">
         <v>1.55</v>
       </c>
-      <c r="Q563">
-        <v>1</v>
-      </c>
-      <c r="R563">
-        <v>1.925</v>
-      </c>
-      <c r="S563">
-        <v>1.875</v>
-      </c>
-      <c r="T563">
-        <v>3</v>
-      </c>
-      <c r="U563">
-        <v>1.775</v>
-      </c>
-      <c r="V563">
-        <v>2.025</v>
-      </c>
-      <c r="W563">
-        <v>3.75</v>
-      </c>
       <c r="X563">
         <v>-1</v>
       </c>
@@ -50638,7 +50638,7 @@
         <v>-1</v>
       </c>
       <c r="Z563">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA563">
         <v>-1</v>
@@ -50647,7 +50647,7 @@
         <v>-1</v>
       </c>
       <c r="AC563">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50655,7 +50655,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5967568</v>
+        <v>5966992</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50667,10 +50667,10 @@
         <v>45030.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G564" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -50682,43 +50682,43 @@
         <v>54</v>
       </c>
       <c r="K564">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L564">
+        <v>4.75</v>
+      </c>
+      <c r="M564">
+        <v>1.363</v>
+      </c>
+      <c r="N564">
+        <v>4.75</v>
+      </c>
+      <c r="O564">
+        <v>4.5</v>
+      </c>
+      <c r="P564">
+        <v>1.55</v>
+      </c>
+      <c r="Q564">
+        <v>1</v>
+      </c>
+      <c r="R564">
+        <v>1.925</v>
+      </c>
+      <c r="S564">
+        <v>1.875</v>
+      </c>
+      <c r="T564">
         <v>3</v>
       </c>
-      <c r="M564">
-        <v>3</v>
-      </c>
-      <c r="N564">
-        <v>2.55</v>
-      </c>
-      <c r="O564">
-        <v>2.75</v>
-      </c>
-      <c r="P564">
-        <v>2.8</v>
-      </c>
-      <c r="Q564">
-        <v>0</v>
-      </c>
-      <c r="R564">
-        <v>1.8</v>
-      </c>
-      <c r="S564">
-        <v>2</v>
-      </c>
-      <c r="T564">
-        <v>2.25</v>
-      </c>
       <c r="U564">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V564">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W564">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="X564">
         <v>-1</v>
@@ -50727,7 +50727,7 @@
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA564">
         <v>-1</v>
@@ -50736,7 +50736,7 @@
         <v>-1</v>
       </c>
       <c r="AC564">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -50833,7 +50833,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>5966991</v>
+        <v>5967577</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -50845,58 +50845,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F566" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G566" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J566" t="s">
         <v>54</v>
       </c>
       <c r="K566">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L566">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M566">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N566">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O566">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P566">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q566">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R566">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S566">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T566">
         <v>2.75</v>
       </c>
       <c r="U566">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V566">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W566">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X566">
         <v>-1</v>
@@ -50905,16 +50905,16 @@
         <v>-1</v>
       </c>
       <c r="Z566">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA566">
         <v>-1</v>
       </c>
       <c r="AB566">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC566">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:29">
@@ -50922,7 +50922,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>5967577</v>
+        <v>5966991</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50934,58 +50934,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F567" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G567" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H567">
+        <v>2</v>
+      </c>
+      <c r="I567">
         <v>1</v>
-      </c>
-      <c r="I567">
-        <v>0</v>
       </c>
       <c r="J567" t="s">
         <v>54</v>
       </c>
       <c r="K567">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L567">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M567">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N567">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O567">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P567">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q567">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R567">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S567">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T567">
         <v>2.75</v>
       </c>
       <c r="U567">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V567">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W567">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X567">
         <v>-1</v>
@@ -50994,16 +50994,16 @@
         <v>-1</v>
       </c>
       <c r="Z567">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA567">
         <v>-1</v>
       </c>
       <c r="AB567">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC567">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="568" spans="1:29">
@@ -51278,7 +51278,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5967576</v>
+        <v>5967580</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51290,73 +51290,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F571" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G571" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H571">
+        <v>4</v>
+      </c>
+      <c r="I571">
         <v>0</v>
       </c>
-      <c r="I571">
-        <v>3</v>
-      </c>
       <c r="J571" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K571">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M571">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N571">
-        <v>2</v>
+        <v>1.181</v>
       </c>
       <c r="O571">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P571">
+        <v>10</v>
+      </c>
+      <c r="Q571">
+        <v>-2</v>
+      </c>
+      <c r="R571">
+        <v>1.85</v>
+      </c>
+      <c r="S571">
+        <v>1.95</v>
+      </c>
+      <c r="T571">
         <v>3.5</v>
       </c>
-      <c r="Q571">
-        <v>-0.25</v>
-      </c>
-      <c r="R571">
+      <c r="U571">
+        <v>2</v>
+      </c>
+      <c r="V571">
         <v>1.8</v>
       </c>
-      <c r="S571">
-        <v>2</v>
-      </c>
-      <c r="T571">
-        <v>2.25</v>
-      </c>
-      <c r="U571">
-        <v>1.9</v>
-      </c>
-      <c r="V571">
-        <v>1.9</v>
-      </c>
       <c r="W571">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA571">
+        <v>-1</v>
+      </c>
+      <c r="AB571">
         <v>1</v>
-      </c>
-      <c r="AB571">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC571">
         <v>-1</v>
@@ -51367,7 +51367,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5967580</v>
+        <v>5967576</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51379,73 +51379,73 @@
         <v>45044.64583333334</v>
       </c>
       <c r="F572" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G572" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H572">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J572" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K572">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L572">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N572">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="O572">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P572">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q572">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S572">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T572">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U572">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V572">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W572">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB572">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC572">
         <v>-1</v>
@@ -52346,7 +52346,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>5967588</v>
+        <v>5966998</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -52358,58 +52358,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F583" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G583" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H583">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J583" t="s">
         <v>54</v>
       </c>
       <c r="K583">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L583">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M583">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N583">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="O583">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P583">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q583">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R583">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S583">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T583">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U583">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V583">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W583">
-        <v>1.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X583">
         <v>-1</v>
@@ -52418,16 +52418,16 @@
         <v>-1</v>
       </c>
       <c r="Z583">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA583">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB583">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC583">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="584" spans="1:29">
@@ -52435,7 +52435,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5966998</v>
+        <v>5967588</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52447,58 +52447,58 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F584" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G584" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J584" t="s">
         <v>54</v>
       </c>
       <c r="K584">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L584">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M584">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N584">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="O584">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P584">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q584">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R584">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S584">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T584">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U584">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V584">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W584">
-        <v>0.6000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X584">
         <v>-1</v>
@@ -52507,16 +52507,16 @@
         <v>-1</v>
       </c>
       <c r="Z584">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA584">
+        <v>-1</v>
+      </c>
+      <c r="AB584">
+        <v>0.4875</v>
+      </c>
+      <c r="AC584">
         <v>-0.5</v>
-      </c>
-      <c r="AB584">
-        <v>0</v>
-      </c>
-      <c r="AC584">
-        <v>-0</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52702,7 +52702,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5967595</v>
+        <v>5967592</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52714,76 +52714,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F587" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G587" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H587">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I587">
         <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K587">
+        <v>2.55</v>
+      </c>
+      <c r="L587">
+        <v>3.25</v>
+      </c>
+      <c r="M587">
         <v>2.5</v>
       </c>
-      <c r="L587">
-        <v>3.3</v>
-      </c>
-      <c r="M587">
-        <v>2.4</v>
-      </c>
       <c r="N587">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q587">
         <v>-0.25</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S587">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB587">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52791,7 +52791,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5967592</v>
+        <v>5967000</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52803,76 +52803,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F588" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G588" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H588">
         <v>0</v>
       </c>
       <c r="I588">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K588">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L588">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M588">
+        <v>2.4</v>
+      </c>
+      <c r="N588">
         <v>2.5</v>
-      </c>
-      <c r="N588">
-        <v>2.1</v>
       </c>
       <c r="O588">
         <v>3.4</v>
       </c>
       <c r="P588">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q588">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R588">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
         <v>-1</v>
       </c>
       <c r="X588">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB588">
         <v>-1</v>
       </c>
       <c r="AC588">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52880,7 +52880,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5967000</v>
+        <v>5967595</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52892,40 +52892,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F589" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G589" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H589">
+        <v>5</v>
+      </c>
+      <c r="I589">
         <v>0</v>
       </c>
-      <c r="I589">
-        <v>2</v>
-      </c>
       <c r="J589" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K589">
         <v>2.5</v>
       </c>
       <c r="L589">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M589">
         <v>2.4</v>
       </c>
       <c r="N589">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O589">
         <v>3.4</v>
       </c>
       <c r="P589">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q589">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
         <v>2</v>
@@ -52937,31 +52937,31 @@
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA589">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB589">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC589">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -54037,7 +54037,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>5967599</v>
+        <v>5967004</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54049,49 +54049,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F602" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G602" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I602">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J602" t="s">
         <v>54</v>
       </c>
       <c r="K602">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="L602">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M602">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N602">
-        <v>1.142</v>
+        <v>1.7</v>
       </c>
       <c r="O602">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P602">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q602">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R602">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S602">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T602">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U602">
         <v>1.95</v>
@@ -54100,7 +54100,7 @@
         <v>1.85</v>
       </c>
       <c r="W602">
-        <v>0.1419999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X602">
         <v>-1</v>
@@ -54109,16 +54109,16 @@
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA602">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB602">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC602">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603" spans="1:29">
@@ -54126,7 +54126,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>5967004</v>
+        <v>5967599</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54138,49 +54138,49 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F603" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G603" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I603">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J603" t="s">
         <v>54</v>
       </c>
       <c r="K603">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="L603">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M603">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N603">
-        <v>1.7</v>
+        <v>1.142</v>
       </c>
       <c r="O603">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P603">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q603">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R603">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S603">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T603">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U603">
         <v>1.95</v>
@@ -54189,7 +54189,7 @@
         <v>1.85</v>
       </c>
       <c r="W603">
-        <v>0.7</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X603">
         <v>-1</v>
@@ -54198,16 +54198,16 @@
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA603">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB603">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC603">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="604" spans="1:29">
@@ -54215,7 +54215,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5967602</v>
+        <v>5967603</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54227,46 +54227,46 @@
         <v>45073.625</v>
       </c>
       <c r="F604" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G604" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J604" t="s">
         <v>52</v>
       </c>
       <c r="K604">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L604">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M604">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N604">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O604">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P604">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="Q604">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S604">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T604">
         <v>2.75</v>
@@ -54284,13 +54284,13 @@
         <v>-1</v>
       </c>
       <c r="Y604">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="Z604">
         <v>-1</v>
       </c>
       <c r="AA604">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB604">
         <v>0.45</v>
@@ -54304,7 +54304,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5967606</v>
+        <v>5967602</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54316,76 +54316,76 @@
         <v>45073.625</v>
       </c>
       <c r="F605" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G605" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H605">
         <v>0</v>
       </c>
       <c r="I605">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J605" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K605">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="L605">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M605">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N605">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O605">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P605">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R605">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S605">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T605">
         <v>2.75</v>
       </c>
       <c r="U605">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V605">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z605">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA605">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB605">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC605">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54393,7 +54393,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5967605</v>
+        <v>5967606</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54405,76 +54405,76 @@
         <v>45073.625</v>
       </c>
       <c r="F606" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G606" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
         <v>53</v>
       </c>
       <c r="K606">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="L606">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M606">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N606">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O606">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P606">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q606">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R606">
+        <v>2.025</v>
+      </c>
+      <c r="S606">
         <v>1.775</v>
       </c>
-      <c r="S606">
-        <v>2.025</v>
-      </c>
       <c r="T606">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U606">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V606">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W606">
         <v>-1</v>
       </c>
       <c r="X606">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA606">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB606">
         <v>-1</v>
       </c>
       <c r="AC606">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54482,7 +54482,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5967604</v>
+        <v>5967605</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54494,10 +54494,10 @@
         <v>45073.625</v>
       </c>
       <c r="F607" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G607" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -54509,61 +54509,61 @@
         <v>53</v>
       </c>
       <c r="K607">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="L607">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M607">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N607">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="O607">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P607">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="Q607">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R607">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S607">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T607">
         <v>3</v>
       </c>
       <c r="U607">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V607">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y607">
         <v>-1</v>
       </c>
       <c r="Z607">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA607">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB607">
         <v>-1</v>
       </c>
       <c r="AC607">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54571,7 +54571,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5967603</v>
+        <v>5967604</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54583,76 +54583,76 @@
         <v>45073.625</v>
       </c>
       <c r="F608" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G608" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H608">
         <v>1</v>
       </c>
       <c r="I608">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J608" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K608">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="L608">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M608">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="N608">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="O608">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P608">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="Q608">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R608">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S608">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T608">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U608">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V608">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W608">
         <v>-1</v>
       </c>
       <c r="X608">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y608">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z608">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA608">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB608">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -55016,7 +55016,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5967609</v>
+        <v>5967607</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55028,40 +55028,40 @@
         <v>45077.625</v>
       </c>
       <c r="F613" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G613" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H613">
         <v>0</v>
       </c>
       <c r="I613">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J613" t="s">
         <v>52</v>
       </c>
       <c r="K613">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L613">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M613">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N613">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O613">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P613">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q613">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R613">
         <v>1.8</v>
@@ -55073,10 +55073,10 @@
         <v>2.75</v>
       </c>
       <c r="U613">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V613">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W613">
         <v>-1</v>
@@ -55085,19 +55085,19 @@
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
       <c r="Z613">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA613">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB613">
         <v>-1</v>
       </c>
       <c r="AC613">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55105,7 +55105,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5967607</v>
+        <v>5967609</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55117,40 +55117,40 @@
         <v>45077.625</v>
       </c>
       <c r="F614" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G614" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H614">
         <v>0</v>
       </c>
       <c r="I614">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J614" t="s">
         <v>52</v>
       </c>
       <c r="K614">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L614">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M614">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N614">
-        <v>1.615</v>
+        <v>6</v>
       </c>
       <c r="O614">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P614">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q614">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R614">
         <v>1.8</v>
@@ -55162,10 +55162,10 @@
         <v>2.75</v>
       </c>
       <c r="U614">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V614">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W614">
         <v>-1</v>
@@ -55174,19 +55174,19 @@
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>3.5</v>
+        <v>0.45</v>
       </c>
       <c r="Z614">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA614">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB614">
         <v>-1</v>
       </c>
       <c r="AC614">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55194,7 +55194,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5967009</v>
+        <v>5967010</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55206,40 +55206,40 @@
         <v>45077.625</v>
       </c>
       <c r="F615" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G615" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H615">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I615">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J615" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K615">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L615">
         <v>4.2</v>
       </c>
       <c r="M615">
+        <v>1.6</v>
+      </c>
+      <c r="N615">
         <v>4.5</v>
       </c>
-      <c r="N615">
-        <v>1.363</v>
-      </c>
       <c r="O615">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P615">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q615">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R615">
         <v>1.95</v>
@@ -55248,7 +55248,7 @@
         <v>1.85</v>
       </c>
       <c r="T615">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U615">
         <v>1.875</v>
@@ -55257,25 +55257,25 @@
         <v>1.925</v>
       </c>
       <c r="W615">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z615">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA615">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB615">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC615">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55372,7 +55372,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>5967611</v>
+        <v>5967009</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55384,40 +55384,40 @@
         <v>45077.625</v>
       </c>
       <c r="F617" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G617" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H617">
         <v>3</v>
       </c>
       <c r="I617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J617" t="s">
         <v>54</v>
       </c>
       <c r="K617">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L617">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="M617">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="N617">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O617">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P617">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q617">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R617">
         <v>1.95</v>
@@ -55426,16 +55426,16 @@
         <v>1.85</v>
       </c>
       <c r="T617">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U617">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V617">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W617">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X617">
         <v>-1</v>
@@ -55450,10 +55450,10 @@
         <v>-1</v>
       </c>
       <c r="AB617">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC617">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55461,7 +55461,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5967610</v>
+        <v>5967611</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55473,13 +55473,13 @@
         <v>45077.625</v>
       </c>
       <c r="F618" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G618" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I618">
         <v>0</v>
@@ -55491,40 +55491,40 @@
         <v>1.25</v>
       </c>
       <c r="L618">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="M618">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="N618">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O618">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P618">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q618">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R618">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S618">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T618">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U618">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W618">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X618">
         <v>-1</v>
@@ -55533,7 +55533,7 @@
         <v>-1</v>
       </c>
       <c r="Z618">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA618">
         <v>-1</v>
@@ -55542,7 +55542,7 @@
         <v>-1</v>
       </c>
       <c r="AC618">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55550,7 +55550,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5967010</v>
+        <v>5967610</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55562,76 +55562,76 @@
         <v>45077.625</v>
       </c>
       <c r="F619" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G619" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J619" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K619">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="L619">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M619">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="N619">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O619">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P619">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="Q619">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R619">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S619">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U619">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V619">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA619">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB619">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -60890,7 +60890,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60902,55 +60902,55 @@
         <v>45191.5</v>
       </c>
       <c r="F679" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G679" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
         <v>1</v>
-      </c>
-      <c r="I679">
-        <v>3</v>
       </c>
       <c r="J679" t="s">
         <v>52</v>
       </c>
       <c r="K679">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L679">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M679">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N679">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O679">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P679">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q679">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S679">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T679">
         <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V679">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W679">
         <v>-1</v>
@@ -60959,19 +60959,19 @@
         <v>-1</v>
       </c>
       <c r="Y679">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z679">
         <v>-1</v>
       </c>
       <c r="AA679">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB679">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60979,7 +60979,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60991,55 +60991,55 @@
         <v>45191.5</v>
       </c>
       <c r="F680" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G680" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J680" t="s">
         <v>52</v>
       </c>
       <c r="K680">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L680">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M680">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N680">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O680">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P680">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q680">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R680">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S680">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T680">
         <v>2.5</v>
       </c>
       <c r="U680">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V680">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W680">
         <v>-1</v>
@@ -61048,19 +61048,19 @@
         <v>-1</v>
       </c>
       <c r="Y680">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="Z680">
         <v>-1</v>
       </c>
       <c r="AA680">
+        <v>0.875</v>
+      </c>
+      <c r="AB680">
         <v>0.825</v>
       </c>
-      <c r="AB680">
-        <v>-1</v>
-      </c>
       <c r="AC680">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61068,7 +61068,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61080,34 +61080,34 @@
         <v>45191.625</v>
       </c>
       <c r="F681" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G681" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H681">
         <v>4</v>
       </c>
       <c r="I681">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
         <v>54</v>
       </c>
       <c r="K681">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L681">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M681">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N681">
         <v>1.65</v>
       </c>
       <c r="O681">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P681">
         <v>4.333</v>
@@ -61116,19 +61116,19 @@
         <v>-0.75</v>
       </c>
       <c r="R681">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S681">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T681">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U681">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V681">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W681">
         <v>0.6499999999999999</v>
@@ -61140,13 +61140,13 @@
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA681">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB681">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC681">
         <v>-1</v>
@@ -61157,7 +61157,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61169,34 +61169,34 @@
         <v>45191.625</v>
       </c>
       <c r="F682" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G682" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H682">
         <v>4</v>
       </c>
       <c r="I682">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J682" t="s">
         <v>54</v>
       </c>
       <c r="K682">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L682">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M682">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N682">
         <v>1.65</v>
       </c>
       <c r="O682">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P682">
         <v>4.333</v>
@@ -61205,19 +61205,19 @@
         <v>-0.75</v>
       </c>
       <c r="R682">
+        <v>1.825</v>
+      </c>
+      <c r="S682">
+        <v>1.975</v>
+      </c>
+      <c r="T682">
+        <v>3.25</v>
+      </c>
+      <c r="U682">
+        <v>1.925</v>
+      </c>
+      <c r="V682">
         <v>1.875</v>
-      </c>
-      <c r="S682">
-        <v>1.925</v>
-      </c>
-      <c r="T682">
-        <v>2.75</v>
-      </c>
-      <c r="U682">
-        <v>1.775</v>
-      </c>
-      <c r="V682">
-        <v>2.025</v>
       </c>
       <c r="W682">
         <v>0.6499999999999999</v>
@@ -61229,13 +61229,13 @@
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA682">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB682">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC682">
         <v>-1</v>
@@ -62848,7 +62848,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62860,76 +62860,76 @@
         <v>45219.5</v>
       </c>
       <c r="F701" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G701" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H701">
         <v>1</v>
       </c>
       <c r="I701">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J701" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K701">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L701">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M701">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N701">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O701">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P701">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q701">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R701">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S701">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T701">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U701">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V701">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W701">
         <v>-1</v>
       </c>
       <c r="X701">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y701">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z701">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA701">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB701">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC701">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62937,7 +62937,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62949,76 +62949,76 @@
         <v>45219.5</v>
       </c>
       <c r="F702" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G702" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H702">
         <v>1</v>
       </c>
       <c r="I702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J702" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K702">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L702">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M702">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N702">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O702">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P702">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q702">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R702">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S702">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T702">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U702">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V702">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W702">
         <v>-1</v>
       </c>
       <c r="X702">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y702">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z702">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB702">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC702">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63026,7 +63026,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>6940744</v>
+        <v>6941340</v>
       </c>
       <c r="C703" t="s">
         <v>28</v>
@@ -63038,58 +63038,58 @@
         <v>45219.625</v>
       </c>
       <c r="F703" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G703" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H703">
+        <v>4</v>
+      </c>
+      <c r="I703">
         <v>1</v>
-      </c>
-      <c r="I703">
-        <v>0</v>
       </c>
       <c r="J703" t="s">
         <v>54</v>
       </c>
       <c r="K703">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="L703">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M703">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="N703">
-        <v>1.111</v>
+        <v>1.4</v>
       </c>
       <c r="O703">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P703">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="Q703">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R703">
+        <v>1.85</v>
+      </c>
+      <c r="S703">
+        <v>1.95</v>
+      </c>
+      <c r="T703">
+        <v>3.25</v>
+      </c>
+      <c r="U703">
         <v>1.9</v>
       </c>
-      <c r="S703">
+      <c r="V703">
         <v>1.9</v>
       </c>
-      <c r="T703">
-        <v>3.75</v>
-      </c>
-      <c r="U703">
-        <v>1.875</v>
-      </c>
-      <c r="V703">
-        <v>1.925</v>
-      </c>
       <c r="W703">
-        <v>0.111</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X703">
         <v>-1</v>
@@ -63098,16 +63098,16 @@
         <v>-1</v>
       </c>
       <c r="Z703">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA703">
+        <v>-1</v>
+      </c>
+      <c r="AB703">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB703">
-        <v>-1</v>
-      </c>
       <c r="AC703">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704" spans="1:29">
@@ -63115,7 +63115,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>6941340</v>
+        <v>6940744</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
@@ -63127,58 +63127,58 @@
         <v>45219.625</v>
       </c>
       <c r="F704" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G704" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H704">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J704" t="s">
         <v>54</v>
       </c>
       <c r="K704">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L704">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M704">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="N704">
-        <v>1.4</v>
+        <v>1.111</v>
       </c>
       <c r="O704">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P704">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Q704">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R704">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S704">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T704">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U704">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V704">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W704">
-        <v>0.3999999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X704">
         <v>-1</v>
@@ -63187,16 +63187,16 @@
         <v>-1</v>
       </c>
       <c r="Z704">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA704">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB704">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC704">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="705" spans="1:29">
@@ -63916,7 +63916,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63928,76 +63928,76 @@
         <v>45226.5</v>
       </c>
       <c r="F713" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G713" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I713">
         <v>2</v>
       </c>
       <c r="J713" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K713">
+        <v>1.85</v>
+      </c>
+      <c r="L713">
+        <v>3.5</v>
+      </c>
+      <c r="M713">
+        <v>4</v>
+      </c>
+      <c r="N713">
+        <v>1.7</v>
+      </c>
+      <c r="O713">
+        <v>3.6</v>
+      </c>
+      <c r="P713">
         <v>4.75</v>
       </c>
-      <c r="L713">
-        <v>4</v>
-      </c>
-      <c r="M713">
-        <v>1.65</v>
-      </c>
-      <c r="N713">
-        <v>2.9</v>
-      </c>
-      <c r="O713">
-        <v>3.5</v>
-      </c>
-      <c r="P713">
-        <v>2.25</v>
-      </c>
       <c r="Q713">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R713">
+        <v>1.925</v>
+      </c>
+      <c r="S713">
         <v>1.875</v>
       </c>
-      <c r="S713">
+      <c r="T713">
+        <v>2.5</v>
+      </c>
+      <c r="U713">
+        <v>1.875</v>
+      </c>
+      <c r="V713">
         <v>1.925</v>
       </c>
-      <c r="T713">
-        <v>3</v>
-      </c>
-      <c r="U713">
-        <v>1.85</v>
-      </c>
-      <c r="V713">
-        <v>1.95</v>
-      </c>
       <c r="W713">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X713">
         <v>-1</v>
       </c>
       <c r="Y713">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z713">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA713">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB713">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC713">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64005,7 +64005,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64017,76 +64017,76 @@
         <v>45226.5</v>
       </c>
       <c r="F714" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G714" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714">
+        <v>2</v>
+      </c>
+      <c r="J714" t="s">
+        <v>52</v>
+      </c>
+      <c r="K714">
+        <v>4.75</v>
+      </c>
+      <c r="L714">
+        <v>4</v>
+      </c>
+      <c r="M714">
+        <v>1.65</v>
+      </c>
+      <c r="N714">
+        <v>2.9</v>
+      </c>
+      <c r="O714">
+        <v>3.5</v>
+      </c>
+      <c r="P714">
+        <v>2.25</v>
+      </c>
+      <c r="Q714">
+        <v>0.25</v>
+      </c>
+      <c r="R714">
+        <v>1.875</v>
+      </c>
+      <c r="S714">
+        <v>1.925</v>
+      </c>
+      <c r="T714">
         <v>3</v>
       </c>
-      <c r="I714">
-        <v>2</v>
-      </c>
-      <c r="J714" t="s">
-        <v>54</v>
-      </c>
-      <c r="K714">
+      <c r="U714">
         <v>1.85</v>
       </c>
-      <c r="L714">
-        <v>3.5</v>
-      </c>
-      <c r="M714">
-        <v>4</v>
-      </c>
-      <c r="N714">
-        <v>1.7</v>
-      </c>
-      <c r="O714">
-        <v>3.6</v>
-      </c>
-      <c r="P714">
-        <v>4.75</v>
-      </c>
-      <c r="Q714">
-        <v>-0.75</v>
-      </c>
-      <c r="R714">
-        <v>1.925</v>
-      </c>
-      <c r="S714">
-        <v>1.875</v>
-      </c>
-      <c r="T714">
-        <v>2.5</v>
-      </c>
-      <c r="U714">
-        <v>1.875</v>
-      </c>
       <c r="V714">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W714">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X714">
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z714">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA714">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB714">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC714">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -65429,7 +65429,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65441,55 +65441,55 @@
         <v>45239.625</v>
       </c>
       <c r="F730" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G730" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J730" t="s">
         <v>53</v>
       </c>
       <c r="K730">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L730">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M730">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N730">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O730">
         <v>3.75</v>
       </c>
       <c r="P730">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q730">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R730">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S730">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T730">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U730">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V730">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65501,16 +65501,16 @@
         <v>-1</v>
       </c>
       <c r="Z730">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA730">
         <v>-1</v>
       </c>
       <c r="AB730">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC730">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65518,7 +65518,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65530,55 +65530,55 @@
         <v>45239.625</v>
       </c>
       <c r="F731" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G731" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J731" t="s">
         <v>53</v>
       </c>
       <c r="K731">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L731">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M731">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N731">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O731">
         <v>3.75</v>
       </c>
       <c r="P731">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q731">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R731">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S731">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T731">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U731">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V731">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W731">
         <v>-1</v>
@@ -65590,16 +65590,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -66052,7 +66052,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>6941363</v>
+        <v>6940754</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66064,76 +66064,76 @@
         <v>45254.5</v>
       </c>
       <c r="F737" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G737" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H737">
         <v>1</v>
       </c>
       <c r="I737">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J737" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K737">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L737">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M737">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N737">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O737">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P737">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q737">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R737">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S737">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T737">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U737">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V737">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W737">
         <v>-1</v>
       </c>
       <c r="X737">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y737">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA737">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB737">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC737">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66141,7 +66141,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>6940754</v>
+        <v>6941363</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66153,76 +66153,76 @@
         <v>45254.5</v>
       </c>
       <c r="F738" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G738" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H738">
         <v>1</v>
       </c>
       <c r="I738">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J738" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K738">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L738">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M738">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N738">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O738">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P738">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q738">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R738">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S738">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U738">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V738">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W738">
         <v>-1</v>
       </c>
       <c r="X738">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z738">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB738">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC738">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66497,7 +66497,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>6941360</v>
+        <v>6940815</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66509,76 +66509,76 @@
         <v>45255.625</v>
       </c>
       <c r="F742" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G742" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H742">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J742" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K742">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L742">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M742">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N742">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O742">
         <v>3.4</v>
       </c>
       <c r="P742">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q742">
         <v>-0.5</v>
       </c>
       <c r="R742">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S742">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T742">
         <v>2.75</v>
       </c>
       <c r="U742">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V742">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W742">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X742">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y742">
         <v>-1</v>
       </c>
       <c r="Z742">
+        <v>-1</v>
+      </c>
+      <c r="AA742">
+        <v>0.825</v>
+      </c>
+      <c r="AB742">
+        <v>-1</v>
+      </c>
+      <c r="AC742">
         <v>1.025</v>
-      </c>
-      <c r="AA742">
-        <v>-1</v>
-      </c>
-      <c r="AB742">
-        <v>1</v>
-      </c>
-      <c r="AC742">
-        <v>-1</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -66586,7 +66586,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>6940815</v>
+        <v>6941360</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66598,76 +66598,76 @@
         <v>45255.625</v>
       </c>
       <c r="F743" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G743" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I743">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J743" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K743">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L743">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M743">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N743">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O743">
         <v>3.4</v>
       </c>
       <c r="P743">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q743">
         <v>-0.5</v>
       </c>
       <c r="R743">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S743">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T743">
         <v>2.75</v>
       </c>
       <c r="U743">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V743">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W743">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X743">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y743">
         <v>-1</v>
       </c>
       <c r="Z743">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA743">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB743">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC743">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744" spans="1:29">
@@ -67654,7 +67654,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67666,31 +67666,31 @@
         <v>45267.5</v>
       </c>
       <c r="F755" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G755" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J755" t="s">
         <v>54</v>
       </c>
       <c r="K755">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L755">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M755">
         <v>1.6</v>
       </c>
       <c r="N755">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O755">
         <v>3.5</v>
@@ -67702,22 +67702,22 @@
         <v>0.25</v>
       </c>
       <c r="R755">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S755">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T755">
         <v>2.75</v>
       </c>
       <c r="U755">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V755">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W755">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67726,16 +67726,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC755">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67743,7 +67743,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67755,31 +67755,31 @@
         <v>45267.5</v>
       </c>
       <c r="F756" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G756" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H756">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756" t="s">
         <v>54</v>
       </c>
       <c r="K756">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L756">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M756">
         <v>1.6</v>
       </c>
       <c r="N756">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O756">
         <v>3.5</v>
@@ -67791,22 +67791,22 @@
         <v>0.25</v>
       </c>
       <c r="R756">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S756">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T756">
         <v>2.75</v>
       </c>
       <c r="U756">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V756">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W756">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67815,16 +67815,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC756">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -68722,7 +68722,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6941381</v>
+        <v>6940818</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68734,76 +68734,76 @@
         <v>45275.5</v>
       </c>
       <c r="F767" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G767" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I767">
         <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K767">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L767">
         <v>3.4</v>
       </c>
       <c r="M767">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N767">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O767">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P767">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q767">
         <v>0</v>
       </c>
       <c r="R767">
+        <v>1.8</v>
+      </c>
+      <c r="S767">
+        <v>2</v>
+      </c>
+      <c r="T767">
+        <v>2.75</v>
+      </c>
+      <c r="U767">
+        <v>1.775</v>
+      </c>
+      <c r="V767">
         <v>2.025</v>
       </c>
-      <c r="S767">
-        <v>1.775</v>
-      </c>
-      <c r="T767">
+      <c r="W767">
+        <v>-1</v>
+      </c>
+      <c r="X767">
         <v>2.5</v>
       </c>
-      <c r="U767">
-        <v>1.95</v>
-      </c>
-      <c r="V767">
-        <v>1.85</v>
-      </c>
-      <c r="W767">
-        <v>-1</v>
-      </c>
-      <c r="X767">
-        <v>-1</v>
-      </c>
       <c r="Y767">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA767">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB767">
         <v>-1</v>
       </c>
       <c r="AC767">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68811,7 +68811,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6940818</v>
+        <v>6940763</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68823,61 +68823,61 @@
         <v>45275.5</v>
       </c>
       <c r="F768" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G768" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J768" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K768">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L768">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M768">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N768">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O768">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P768">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q768">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R768">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S768">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T768">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U768">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V768">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W768">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X768">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
         <v>-1</v>
@@ -68892,7 +68892,7 @@
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68900,7 +68900,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6940763</v>
+        <v>6941381</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68912,76 +68912,76 @@
         <v>45275.5</v>
       </c>
       <c r="F769" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G769" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769">
+        <v>1</v>
+      </c>
+      <c r="J769" t="s">
+        <v>52</v>
+      </c>
+      <c r="K769">
+        <v>2.6</v>
+      </c>
+      <c r="L769">
+        <v>3.4</v>
+      </c>
+      <c r="M769">
+        <v>2.4</v>
+      </c>
+      <c r="N769">
+        <v>2.75</v>
+      </c>
+      <c r="O769">
+        <v>3.25</v>
+      </c>
+      <c r="P769">
+        <v>2.375</v>
+      </c>
+      <c r="Q769">
         <v>0</v>
       </c>
-      <c r="J769" t="s">
-        <v>54</v>
-      </c>
-      <c r="K769">
-        <v>1.2</v>
-      </c>
-      <c r="L769">
-        <v>7</v>
-      </c>
-      <c r="M769">
-        <v>9.5</v>
-      </c>
-      <c r="N769">
-        <v>1.222</v>
-      </c>
-      <c r="O769">
-        <v>7</v>
-      </c>
-      <c r="P769">
-        <v>8.5</v>
-      </c>
-      <c r="Q769">
-        <v>-2</v>
-      </c>
       <c r="R769">
+        <v>2.025</v>
+      </c>
+      <c r="S769">
+        <v>1.775</v>
+      </c>
+      <c r="T769">
+        <v>2.5</v>
+      </c>
+      <c r="U769">
+        <v>1.95</v>
+      </c>
+      <c r="V769">
         <v>1.85</v>
       </c>
-      <c r="S769">
-        <v>1.95</v>
-      </c>
-      <c r="T769">
-        <v>3.75</v>
-      </c>
-      <c r="U769">
-        <v>1.9</v>
-      </c>
-      <c r="V769">
-        <v>1.9</v>
-      </c>
       <c r="W769">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X769">
         <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z769">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69167,7 +69167,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69179,10 +69179,10 @@
         <v>45281.5</v>
       </c>
       <c r="F772" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G772" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -69194,43 +69194,43 @@
         <v>54</v>
       </c>
       <c r="K772">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L772">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M772">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N772">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O772">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P772">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q772">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R772">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S772">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T772">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U772">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V772">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W772">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X772">
         <v>-1</v>
@@ -69239,16 +69239,16 @@
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA772">
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC772">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69256,7 +69256,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69268,10 +69268,10 @@
         <v>45281.5</v>
       </c>
       <c r="F773" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G773" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H773">
         <v>3</v>
@@ -69283,61 +69283,61 @@
         <v>54</v>
       </c>
       <c r="K773">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L773">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M773">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N773">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O773">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P773">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q773">
+        <v>-0.75</v>
+      </c>
+      <c r="R773">
+        <v>1.85</v>
+      </c>
+      <c r="S773">
+        <v>1.95</v>
+      </c>
+      <c r="T773">
+        <v>2.75</v>
+      </c>
+      <c r="U773">
+        <v>1.975</v>
+      </c>
+      <c r="V773">
+        <v>1.825</v>
+      </c>
+      <c r="W773">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X773">
+        <v>-1</v>
+      </c>
+      <c r="Y773">
+        <v>-1</v>
+      </c>
+      <c r="Z773">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA773">
+        <v>-1</v>
+      </c>
+      <c r="AB773">
+        <v>0.4875</v>
+      </c>
+      <c r="AC773">
         <v>-0.5</v>
-      </c>
-      <c r="R773">
-        <v>2.025</v>
-      </c>
-      <c r="S773">
-        <v>1.775</v>
-      </c>
-      <c r="T773">
-        <v>2.25</v>
-      </c>
-      <c r="U773">
-        <v>1.775</v>
-      </c>
-      <c r="V773">
-        <v>2.025</v>
-      </c>
-      <c r="W773">
-        <v>1</v>
-      </c>
-      <c r="X773">
-        <v>-1</v>
-      </c>
-      <c r="Y773">
-        <v>-1</v>
-      </c>
-      <c r="Z773">
-        <v>1.025</v>
-      </c>
-      <c r="AA773">
-        <v>-1</v>
-      </c>
-      <c r="AB773">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC773">
-        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69434,7 +69434,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69446,76 +69446,76 @@
         <v>45282.5</v>
       </c>
       <c r="F775" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H775">
+        <v>1</v>
+      </c>
+      <c r="I775">
         <v>0</v>
       </c>
-      <c r="I775">
-        <v>4</v>
-      </c>
       <c r="J775" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K775">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L775">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M775">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N775">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O775">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P775">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q775">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R775">
+        <v>1.95</v>
+      </c>
+      <c r="S775">
+        <v>1.85</v>
+      </c>
+      <c r="T775">
+        <v>2.5</v>
+      </c>
+      <c r="U775">
+        <v>2</v>
+      </c>
+      <c r="V775">
         <v>1.8</v>
       </c>
-      <c r="S775">
-        <v>2</v>
-      </c>
-      <c r="T775">
-        <v>3.25</v>
-      </c>
-      <c r="U775">
-        <v>2.025</v>
-      </c>
-      <c r="V775">
-        <v>1.775</v>
-      </c>
       <c r="W775">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA775">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69523,7 +69523,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69535,58 +69535,58 @@
         <v>45282.5</v>
       </c>
       <c r="F776" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G776" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H776">
+        <v>3</v>
+      </c>
+      <c r="I776">
         <v>1</v>
-      </c>
-      <c r="I776">
-        <v>0</v>
       </c>
       <c r="J776" t="s">
         <v>54</v>
       </c>
       <c r="K776">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L776">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M776">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N776">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O776">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P776">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q776">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R776">
+        <v>1.925</v>
+      </c>
+      <c r="S776">
+        <v>1.875</v>
+      </c>
+      <c r="T776">
+        <v>3</v>
+      </c>
+      <c r="U776">
+        <v>1.85</v>
+      </c>
+      <c r="V776">
         <v>1.95</v>
       </c>
-      <c r="S776">
-        <v>1.85</v>
-      </c>
-      <c r="T776">
-        <v>2.5</v>
-      </c>
-      <c r="U776">
-        <v>2</v>
-      </c>
-      <c r="V776">
-        <v>1.8</v>
-      </c>
       <c r="W776">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X776">
         <v>-1</v>
@@ -69595,16 +69595,16 @@
         <v>-1</v>
       </c>
       <c r="Z776">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA776">
         <v>-1</v>
       </c>
       <c r="AB776">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC776">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69612,7 +69612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69624,73 +69624,73 @@
         <v>45282.5</v>
       </c>
       <c r="F777" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G777" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H777">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J777" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K777">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L777">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M777">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N777">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O777">
         <v>5</v>
       </c>
       <c r="P777">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q777">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R777">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S777">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T777">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U777">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V777">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W777">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X777">
         <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z777">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB777">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -70057,7 +70057,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70069,76 +70069,76 @@
         <v>45288.5</v>
       </c>
       <c r="F782" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G782" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K782">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L782">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M782">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N782">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O782">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P782">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q782">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R782">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S782">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T782">
         <v>2.5</v>
       </c>
       <c r="U782">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V782">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W782">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X782">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA782">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70146,7 +70146,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70158,76 +70158,76 @@
         <v>45288.5</v>
       </c>
       <c r="F783" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G783" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K783">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L783">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M783">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N783">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O783">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P783">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q783">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R783">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S783">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T783">
         <v>2.5</v>
       </c>
       <c r="U783">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V783">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W783">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X783">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
+        <v>-1</v>
+      </c>
+      <c r="AA783">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB783">
+        <v>-1</v>
+      </c>
+      <c r="AC783">
         <v>1</v>
-      </c>
-      <c r="AA783">
-        <v>-1</v>
-      </c>
-      <c r="AB783">
-        <v>-1</v>
-      </c>
-      <c r="AC783">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="784" spans="1:29">

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -33300,7 +33300,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4835257</v>
+        <v>4835448</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33312,40 +33312,40 @@
         <v>44735.625</v>
       </c>
       <c r="F369" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G369" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H369">
         <v>1</v>
       </c>
       <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369" t="s">
+        <v>53</v>
+      </c>
+      <c r="K369">
+        <v>2.625</v>
+      </c>
+      <c r="L369">
         <v>3</v>
       </c>
-      <c r="J369" t="s">
-        <v>52</v>
-      </c>
-      <c r="K369">
-        <v>2</v>
-      </c>
-      <c r="L369">
-        <v>2.9</v>
-      </c>
       <c r="M369">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N369">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O369">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P369">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q369">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R369">
         <v>1.85</v>
@@ -33354,34 +33354,34 @@
         <v>1.95</v>
       </c>
       <c r="T369">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U369">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V369">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W369">
         <v>-1</v>
       </c>
       <c r="X369">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y369">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA369">
+        <v>-0.5</v>
+      </c>
+      <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.95</v>
-      </c>
-      <c r="AB369">
-        <v>0.825</v>
-      </c>
-      <c r="AC369">
-        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33389,7 +33389,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4835261</v>
+        <v>4835262</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33401,49 +33401,49 @@
         <v>44735.625</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G370" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K370">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L370">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M370">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N370">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="O370">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P370">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q370">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R370">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S370">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="T370">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U370">
         <v>1.9</v>
@@ -33452,25 +33452,25 @@
         <v>1.9</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA370">
-        <v>0.8500000000000001</v>
+        <v>0.3375</v>
       </c>
       <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC370">
-        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33478,7 +33478,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4835448</v>
+        <v>4835261</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33490,76 +33490,76 @@
         <v>44735.625</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G371" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H371">
         <v>1</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J371" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K371">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L371">
+        <v>3.25</v>
+      </c>
+      <c r="M371">
+        <v>1.909</v>
+      </c>
+      <c r="N371">
+        <v>3.8</v>
+      </c>
+      <c r="O371">
+        <v>3.75</v>
+      </c>
+      <c r="P371">
+        <v>1.85</v>
+      </c>
+      <c r="Q371">
+        <v>0.5</v>
+      </c>
+      <c r="R371">
+        <v>1.95</v>
+      </c>
+      <c r="S371">
+        <v>1.85</v>
+      </c>
+      <c r="T371">
         <v>3</v>
       </c>
-      <c r="M371">
-        <v>2.5</v>
-      </c>
-      <c r="N371">
-        <v>3</v>
-      </c>
-      <c r="O371">
-        <v>3.1</v>
-      </c>
-      <c r="P371">
-        <v>2.2</v>
-      </c>
-      <c r="Q371">
-        <v>0.25</v>
-      </c>
-      <c r="R371">
-        <v>1.85</v>
-      </c>
-      <c r="S371">
-        <v>1.95</v>
-      </c>
-      <c r="T371">
-        <v>2.75</v>
-      </c>
       <c r="U371">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z371">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC371">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33567,7 +33567,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4835262</v>
+        <v>4835257</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33579,76 +33579,76 @@
         <v>44735.625</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G372" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J372" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K372">
+        <v>2</v>
+      </c>
+      <c r="L372">
+        <v>2.9</v>
+      </c>
+      <c r="M372">
+        <v>3.75</v>
+      </c>
+      <c r="N372">
+        <v>1.571</v>
+      </c>
+      <c r="O372">
+        <v>3.25</v>
+      </c>
+      <c r="P372">
+        <v>6</v>
+      </c>
+      <c r="Q372">
+        <v>-0.75</v>
+      </c>
+      <c r="R372">
         <v>1.85</v>
       </c>
-      <c r="L372">
-        <v>3.2</v>
-      </c>
-      <c r="M372">
-        <v>3.8</v>
-      </c>
-      <c r="N372">
-        <v>1.5</v>
-      </c>
-      <c r="O372">
-        <v>4.333</v>
-      </c>
-      <c r="P372">
-        <v>4.75</v>
-      </c>
-      <c r="Q372">
-        <v>-1.25</v>
-      </c>
-      <c r="R372">
-        <v>2.15</v>
-      </c>
       <c r="S372">
-        <v>1.675</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z372">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.3375</v>
+        <v>0.95</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC372">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33656,7 +33656,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4835268</v>
+        <v>4835449</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33668,76 +33668,76 @@
         <v>44739.625</v>
       </c>
       <c r="F373" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K373">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M373">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N373">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="O373">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P373">
+        <v>9.5</v>
+      </c>
+      <c r="Q373">
+        <v>-1.5</v>
+      </c>
+      <c r="R373">
+        <v>1.75</v>
+      </c>
+      <c r="S373">
         <v>2.05</v>
-      </c>
-      <c r="Q373">
-        <v>0.25</v>
-      </c>
-      <c r="R373">
-        <v>1.95</v>
-      </c>
-      <c r="S373">
-        <v>1.85</v>
       </c>
       <c r="T373">
         <v>3</v>
       </c>
       <c r="U373">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V373">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X373">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC373">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33745,7 +33745,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4835269</v>
+        <v>4835270</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33757,76 +33757,76 @@
         <v>44739.625</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K374">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="L374">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N374">
-        <v>1.571</v>
+        <v>7.5</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P374">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q374">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S374">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U374">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W374">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA374">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
         <v>-1</v>
       </c>
       <c r="AC374">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33834,7 +33834,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4835449</v>
+        <v>4835266</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33846,76 +33846,76 @@
         <v>44739.625</v>
       </c>
       <c r="F375" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G375" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K375">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="L375">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M375">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N375">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="O375">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P375">
-        <v>9.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q375">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R375">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T375">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA375">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33923,7 +33923,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4835270</v>
+        <v>4835265</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33935,76 +33935,76 @@
         <v>44739.625</v>
       </c>
       <c r="F376" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376">
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K376">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="L376">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M376">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N376">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="O376">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P376">
-        <v>1.363</v>
+        <v>9</v>
       </c>
       <c r="Q376">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="T376">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.625</v>
       </c>
       <c r="V376">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W376">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X376">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC376">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34012,7 +34012,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>4835265</v>
+        <v>4835267</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34024,61 +34024,61 @@
         <v>44739.625</v>
       </c>
       <c r="F377" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K377">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M377">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N377">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="O377">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P377">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q377">
         <v>-1.5</v>
       </c>
       <c r="R377">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S377">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T377">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U377">
-        <v>1.625</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="W377">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y377">
         <v>-1</v>
@@ -34087,13 +34087,13 @@
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="AB377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34101,7 +34101,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4835266</v>
+        <v>4835269</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34113,64 +34113,64 @@
         <v>44739.625</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G378" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
         <v>0</v>
       </c>
-      <c r="I378">
-        <v>1</v>
-      </c>
       <c r="J378" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K378">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="L378">
         <v>3.3</v>
       </c>
       <c r="M378">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N378">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="O378">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P378">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="Q378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R378">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S378">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V378">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
         <v>0</v>
@@ -34182,7 +34182,7 @@
         <v>-1</v>
       </c>
       <c r="AC378">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34279,7 +34279,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4835267</v>
+        <v>4835268</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34291,10 +34291,10 @@
         <v>44739.625</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -34306,61 +34306,61 @@
         <v>53</v>
       </c>
       <c r="K380">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="L380">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M380">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="N380">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="O380">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P380">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q380">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R380">
+        <v>1.95</v>
+      </c>
+      <c r="S380">
         <v>1.85</v>
       </c>
-      <c r="S380">
-        <v>1.95</v>
-      </c>
       <c r="T380">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U380">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
         <v>-1</v>
       </c>
       <c r="X380">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA380">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB380">
         <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -35970,7 +35970,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>5446236</v>
+        <v>5485080</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35982,13 +35982,13 @@
         <v>44812.625</v>
       </c>
       <c r="F399" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G399" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H399">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I399">
         <v>0</v>
@@ -35997,43 +35997,43 @@
         <v>54</v>
       </c>
       <c r="K399">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L399">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M399">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N399">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O399">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P399">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q399">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R399">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S399">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T399">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V399">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W399">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="X399">
         <v>-1</v>
@@ -36042,16 +36042,16 @@
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36059,7 +36059,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>5485080</v>
+        <v>5446236</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36071,13 +36071,13 @@
         <v>44812.625</v>
       </c>
       <c r="F400" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G400" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I400">
         <v>0</v>
@@ -36086,61 +36086,61 @@
         <v>54</v>
       </c>
       <c r="K400">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L400">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M400">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N400">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="O400">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P400">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q400">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R400">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S400">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U400">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W400">
+        <v>0.363</v>
+      </c>
+      <c r="X400">
+        <v>-1</v>
+      </c>
+      <c r="Y400">
+        <v>-1</v>
+      </c>
+      <c r="Z400">
         <v>1</v>
       </c>
-      <c r="X400">
-        <v>-1</v>
-      </c>
-      <c r="Y400">
-        <v>-1</v>
-      </c>
-      <c r="Z400">
-        <v>1.025</v>
-      </c>
       <c r="AA400">
         <v>-1</v>
       </c>
       <c r="AB400">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC400">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -39085,7 +39085,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>5485101</v>
+        <v>5485102</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39097,73 +39097,73 @@
         <v>44845.60416666666</v>
       </c>
       <c r="F434" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G434" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K434">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="L434">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M434">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N434">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O434">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P434">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q434">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R434">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S434">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T434">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U434">
+        <v>1.875</v>
+      </c>
+      <c r="V434">
         <v>1.925</v>
       </c>
-      <c r="V434">
-        <v>1.875</v>
-      </c>
       <c r="W434">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X434">
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA434">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC434">
         <v>-1</v>
@@ -39174,7 +39174,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>5485102</v>
+        <v>5485101</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39186,73 +39186,73 @@
         <v>44845.60416666666</v>
       </c>
       <c r="F435" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G435" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H435">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J435" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K435">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L435">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M435">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N435">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O435">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P435">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q435">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R435">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S435">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T435">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U435">
+        <v>1.925</v>
+      </c>
+      <c r="V435">
         <v>1.875</v>
       </c>
-      <c r="V435">
-        <v>1.925</v>
-      </c>
       <c r="W435">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X435">
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z435">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA435">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB435">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC435">
         <v>-1</v>
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5446250</v>
+        <v>5485106</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,40 +39809,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F442" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G442" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H442">
+        <v>1</v>
+      </c>
+      <c r="I442">
         <v>0</v>
       </c>
-      <c r="I442">
-        <v>1</v>
-      </c>
       <c r="J442" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K442">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="L442">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="M442">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N442">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P442">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q442">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R442">
         <v>1.8</v>
@@ -39851,34 +39851,34 @@
         <v>2</v>
       </c>
       <c r="T442">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U442">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V442">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA442">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB442">
         <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5485106</v>
+        <v>5446250</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,40 +39898,40 @@
         <v>44850.60416666666</v>
       </c>
       <c r="F443" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G443" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
         <v>1</v>
       </c>
-      <c r="I443">
-        <v>0</v>
-      </c>
       <c r="J443" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K443">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="L443">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="M443">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N443">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O443">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P443">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q443">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R443">
         <v>1.8</v>
@@ -39940,34 +39940,34 @@
         <v>2</v>
       </c>
       <c r="T443">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V443">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W443">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z443">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -45404,7 +45404,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>5967536</v>
+        <v>5967535</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45416,76 +45416,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F505" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G505" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J505" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K505">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L505">
         <v>3.25</v>
       </c>
       <c r="M505">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N505">
+        <v>2.375</v>
+      </c>
+      <c r="O505">
+        <v>3.25</v>
+      </c>
+      <c r="P505">
+        <v>2.55</v>
+      </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
+      <c r="R505">
+        <v>1.85</v>
+      </c>
+      <c r="S505">
         <v>1.95</v>
-      </c>
-      <c r="O505">
-        <v>3.3</v>
-      </c>
-      <c r="P505">
-        <v>3.3</v>
-      </c>
-      <c r="Q505">
-        <v>-0.5</v>
-      </c>
-      <c r="R505">
-        <v>2</v>
-      </c>
-      <c r="S505">
-        <v>1.8</v>
       </c>
       <c r="T505">
         <v>2.5</v>
       </c>
       <c r="U505">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V505">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W505">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X505">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA505">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB505">
         <v>-1</v>
       </c>
       <c r="AC505">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45493,7 +45493,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5967535</v>
+        <v>5967536</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45505,76 +45505,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F506" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G506" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K506">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L506">
         <v>3.25</v>
       </c>
       <c r="M506">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N506">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O506">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P506">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q506">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R506">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S506">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V506">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W506">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X506">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -50833,7 +50833,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>5967577</v>
+        <v>5966991</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -50845,58 +50845,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F566" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G566" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H566">
+        <v>2</v>
+      </c>
+      <c r="I566">
         <v>1</v>
-      </c>
-      <c r="I566">
-        <v>0</v>
       </c>
       <c r="J566" t="s">
         <v>54</v>
       </c>
       <c r="K566">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L566">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M566">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N566">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O566">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P566">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q566">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R566">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S566">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T566">
         <v>2.75</v>
       </c>
       <c r="U566">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V566">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W566">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X566">
         <v>-1</v>
@@ -50905,16 +50905,16 @@
         <v>-1</v>
       </c>
       <c r="Z566">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA566">
         <v>-1</v>
       </c>
       <c r="AB566">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC566">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="567" spans="1:29">
@@ -50922,7 +50922,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>5966991</v>
+        <v>5967577</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50934,58 +50934,58 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F567" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G567" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J567" t="s">
         <v>54</v>
       </c>
       <c r="K567">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L567">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M567">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N567">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O567">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P567">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q567">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R567">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S567">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T567">
         <v>2.75</v>
       </c>
       <c r="U567">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V567">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W567">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X567">
         <v>-1</v>
@@ -50994,16 +50994,16 @@
         <v>-1</v>
       </c>
       <c r="Z567">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA567">
         <v>-1</v>
       </c>
       <c r="AB567">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC567">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:29">
@@ -61246,7 +61246,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6940737</v>
+        <v>6940736</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61258,49 +61258,49 @@
         <v>45198.5</v>
       </c>
       <c r="F683" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G683" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J683" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K683">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="L683">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M683">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="N683">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="O683">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P683">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="Q683">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R683">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S683">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T683">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U683">
         <v>1.975</v>
@@ -61312,13 +61312,13 @@
         <v>-1</v>
       </c>
       <c r="X683">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z683">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA683">
         <v>-1</v>
@@ -61335,7 +61335,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>6940736</v>
+        <v>6941329</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61347,49 +61347,49 @@
         <v>45198.5</v>
       </c>
       <c r="F684" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G684" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H684">
         <v>1</v>
       </c>
       <c r="I684">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J684" t="s">
         <v>52</v>
       </c>
       <c r="K684">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L684">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M684">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="N684">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="O684">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P684">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="Q684">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R684">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S684">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T684">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U684">
         <v>1.975</v>
@@ -61404,19 +61404,19 @@
         <v>-1</v>
       </c>
       <c r="Y684">
-        <v>0.1419999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z684">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA684">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB684">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC684">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685" spans="1:29">
@@ -61424,7 +61424,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61436,49 +61436,49 @@
         <v>45198.5</v>
       </c>
       <c r="F685" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G685" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K685">
+        <v>8.5</v>
+      </c>
+      <c r="L685">
         <v>5</v>
       </c>
-      <c r="L685">
-        <v>4</v>
-      </c>
       <c r="M685">
+        <v>1.3</v>
+      </c>
+      <c r="N685">
+        <v>5.5</v>
+      </c>
+      <c r="O685">
+        <v>3.8</v>
+      </c>
+      <c r="P685">
         <v>1.533</v>
-      </c>
-      <c r="N685">
-        <v>5.25</v>
-      </c>
-      <c r="O685">
-        <v>4.2</v>
-      </c>
-      <c r="P685">
-        <v>1.5</v>
       </c>
       <c r="Q685">
         <v>1</v>
       </c>
       <c r="R685">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S685">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T685">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U685">
         <v>1.975</v>
@@ -61490,22 +61490,22 @@
         <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y685">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA685">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -63649,7 +63649,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>6941347</v>
+        <v>6941345</v>
       </c>
       <c r="C710" t="s">
         <v>28</v>
@@ -63661,40 +63661,40 @@
         <v>45225.5</v>
       </c>
       <c r="F710" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G710" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J710" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K710">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="L710">
+        <v>3.75</v>
+      </c>
+      <c r="M710">
+        <v>1.85</v>
+      </c>
+      <c r="N710">
         <v>3.5</v>
       </c>
-      <c r="M710">
-        <v>3.8</v>
-      </c>
-      <c r="N710">
-        <v>1.8</v>
-      </c>
       <c r="O710">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P710">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q710">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R710">
         <v>1.8</v>
@@ -63706,16 +63706,16 @@
         <v>2.75</v>
       </c>
       <c r="U710">
+        <v>1.925</v>
+      </c>
+      <c r="V710">
         <v>1.875</v>
       </c>
-      <c r="V710">
-        <v>1.925</v>
-      </c>
       <c r="W710">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X710">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y710">
         <v>-1</v>
@@ -63730,7 +63730,7 @@
         <v>-1</v>
       </c>
       <c r="AC710">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="711" spans="1:29">
@@ -63738,7 +63738,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>6941345</v>
+        <v>6941347</v>
       </c>
       <c r="C711" t="s">
         <v>28</v>
@@ -63750,40 +63750,40 @@
         <v>45225.5</v>
       </c>
       <c r="F711" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G711" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K711">
+        <v>1.95</v>
+      </c>
+      <c r="L711">
+        <v>3.5</v>
+      </c>
+      <c r="M711">
         <v>3.8</v>
       </c>
-      <c r="L711">
-        <v>3.75</v>
-      </c>
-      <c r="M711">
-        <v>1.85</v>
-      </c>
       <c r="N711">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O711">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P711">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q711">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R711">
         <v>1.8</v>
@@ -63795,16 +63795,16 @@
         <v>2.75</v>
       </c>
       <c r="U711">
+        <v>1.875</v>
+      </c>
+      <c r="V711">
         <v>1.925</v>
       </c>
-      <c r="V711">
-        <v>1.875</v>
-      </c>
       <c r="W711">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X711">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y711">
         <v>-1</v>
@@ -63819,7 +63819,7 @@
         <v>-1</v>
       </c>
       <c r="AC711">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="712" spans="1:29">
@@ -64984,7 +64984,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>7316919</v>
+        <v>7316920</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -64996,76 +64996,76 @@
         <v>45235.5</v>
       </c>
       <c r="F725" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G725" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J725" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K725">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L725">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M725">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N725">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O725">
+        <v>3.8</v>
+      </c>
+      <c r="P725">
         <v>3.75</v>
       </c>
-      <c r="P725">
-        <v>1.85</v>
-      </c>
       <c r="Q725">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R725">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S725">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T725">
         <v>2.75</v>
       </c>
       <c r="U725">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V725">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W725">
         <v>-1</v>
       </c>
       <c r="X725">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y725">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z725">
         <v>-1</v>
       </c>
       <c r="AA725">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB725">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC725">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="726" spans="1:29">
@@ -65073,7 +65073,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>7316920</v>
+        <v>7316919</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65085,76 +65085,76 @@
         <v>45235.5</v>
       </c>
       <c r="F726" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G726" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J726" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K726">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L726">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M726">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N726">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O726">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P726">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q726">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R726">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S726">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T726">
         <v>2.75</v>
       </c>
       <c r="U726">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V726">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y726">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z726">
         <v>-1</v>
       </c>
       <c r="AA726">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB726">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC726">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65429,7 +65429,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65441,55 +65441,55 @@
         <v>45239.625</v>
       </c>
       <c r="F730" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G730" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J730" t="s">
         <v>53</v>
       </c>
       <c r="K730">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L730">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M730">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N730">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O730">
         <v>3.75</v>
       </c>
       <c r="P730">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q730">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R730">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S730">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T730">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U730">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V730">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W730">
         <v>-1</v>
@@ -65501,16 +65501,16 @@
         <v>-1</v>
       </c>
       <c r="Z730">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA730">
         <v>-1</v>
       </c>
       <c r="AB730">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC730">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65518,7 +65518,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65530,55 +65530,55 @@
         <v>45239.625</v>
       </c>
       <c r="F731" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G731" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J731" t="s">
         <v>53</v>
       </c>
       <c r="K731">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L731">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M731">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N731">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O731">
         <v>3.75</v>
       </c>
       <c r="P731">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q731">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R731">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S731">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T731">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U731">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V731">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W731">
         <v>-1</v>
@@ -65590,16 +65590,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC731">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -66052,7 +66052,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>6940754</v>
+        <v>6941363</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66064,76 +66064,76 @@
         <v>45254.5</v>
       </c>
       <c r="F737" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G737" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H737">
         <v>1</v>
       </c>
       <c r="I737">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J737" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K737">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L737">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M737">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N737">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O737">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P737">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q737">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R737">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S737">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T737">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U737">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V737">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W737">
         <v>-1</v>
       </c>
       <c r="X737">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y737">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z737">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA737">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB737">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC737">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66141,7 +66141,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>6941363</v>
+        <v>6940754</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66153,76 +66153,76 @@
         <v>45254.5</v>
       </c>
       <c r="F738" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G738" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H738">
         <v>1</v>
       </c>
       <c r="I738">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K738">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L738">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M738">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N738">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O738">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P738">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q738">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R738">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S738">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T738">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U738">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V738">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W738">
         <v>-1</v>
       </c>
       <c r="X738">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y738">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA738">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB738">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC738">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -67298,7 +67298,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>6941365</v>
+        <v>6941366</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -67310,49 +67310,49 @@
         <v>45262.5</v>
       </c>
       <c r="F751" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G751" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H751">
+        <v>1</v>
+      </c>
+      <c r="I751">
         <v>0</v>
       </c>
-      <c r="I751">
-        <v>1</v>
-      </c>
       <c r="J751" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K751">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L751">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M751">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N751">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O751">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P751">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q751">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R751">
+        <v>1.85</v>
+      </c>
+      <c r="S751">
         <v>1.95</v>
       </c>
-      <c r="S751">
-        <v>1.85</v>
-      </c>
       <c r="T751">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U751">
         <v>1.975</v>
@@ -67361,19 +67361,19 @@
         <v>1.825</v>
       </c>
       <c r="W751">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X751">
         <v>-1</v>
       </c>
       <c r="Y751">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z751">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA751">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB751">
         <v>-1</v>
@@ -67387,7 +67387,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>6941366</v>
+        <v>6941365</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
@@ -67399,49 +67399,49 @@
         <v>45262.5</v>
       </c>
       <c r="F752" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G752" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H752">
+        <v>0</v>
+      </c>
+      <c r="I752">
         <v>1</v>
       </c>
-      <c r="I752">
-        <v>0</v>
-      </c>
       <c r="J752" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K752">
+        <v>1.571</v>
+      </c>
+      <c r="L752">
+        <v>4</v>
+      </c>
+      <c r="M752">
+        <v>4.75</v>
+      </c>
+      <c r="N752">
+        <v>1.6</v>
+      </c>
+      <c r="O752">
+        <v>4</v>
+      </c>
+      <c r="P752">
+        <v>4.5</v>
+      </c>
+      <c r="Q752">
+        <v>-1</v>
+      </c>
+      <c r="R752">
+        <v>1.95</v>
+      </c>
+      <c r="S752">
+        <v>1.85</v>
+      </c>
+      <c r="T752">
         <v>3.25</v>
-      </c>
-      <c r="L752">
-        <v>3.5</v>
-      </c>
-      <c r="M752">
-        <v>2</v>
-      </c>
-      <c r="N752">
-        <v>3</v>
-      </c>
-      <c r="O752">
-        <v>3.25</v>
-      </c>
-      <c r="P752">
-        <v>2.2</v>
-      </c>
-      <c r="Q752">
-        <v>0.25</v>
-      </c>
-      <c r="R752">
-        <v>1.85</v>
-      </c>
-      <c r="S752">
-        <v>1.95</v>
-      </c>
-      <c r="T752">
-        <v>2.5</v>
       </c>
       <c r="U752">
         <v>1.975</v>
@@ -67450,19 +67450,19 @@
         <v>1.825</v>
       </c>
       <c r="W752">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X752">
         <v>-1</v>
       </c>
       <c r="Y752">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z752">
+        <v>-1</v>
+      </c>
+      <c r="AA752">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA752">
-        <v>-1</v>
       </c>
       <c r="AB752">
         <v>-1</v>
@@ -67654,7 +67654,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67666,31 +67666,31 @@
         <v>45267.5</v>
       </c>
       <c r="F755" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G755" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H755">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="s">
         <v>54</v>
       </c>
       <c r="K755">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L755">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M755">
         <v>1.6</v>
       </c>
       <c r="N755">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O755">
         <v>3.5</v>
@@ -67702,22 +67702,22 @@
         <v>0.25</v>
       </c>
       <c r="R755">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S755">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T755">
         <v>2.75</v>
       </c>
       <c r="U755">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V755">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W755">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67726,16 +67726,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67743,7 +67743,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67755,31 +67755,31 @@
         <v>45267.5</v>
       </c>
       <c r="F756" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G756" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J756" t="s">
         <v>54</v>
       </c>
       <c r="K756">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L756">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M756">
         <v>1.6</v>
       </c>
       <c r="N756">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O756">
         <v>3.5</v>
@@ -67791,22 +67791,22 @@
         <v>0.25</v>
       </c>
       <c r="R756">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S756">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T756">
         <v>2.75</v>
       </c>
       <c r="U756">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V756">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W756">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X756">
         <v>-1</v>
@@ -67815,16 +67815,16 @@
         <v>-1</v>
       </c>
       <c r="Z756">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA756">
         <v>-1</v>
       </c>
       <c r="AB756">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC756">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -68455,7 +68455,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68467,76 +68467,76 @@
         <v>45274.5</v>
       </c>
       <c r="F764" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G764" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H764">
         <v>1</v>
       </c>
       <c r="I764">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J764" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K764">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L764">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M764">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N764">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O764">
         <v>3.4</v>
       </c>
       <c r="P764">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q764">
+        <v>-0.25</v>
+      </c>
+      <c r="R764">
+        <v>1.975</v>
+      </c>
+      <c r="S764">
+        <v>1.825</v>
+      </c>
+      <c r="T764">
+        <v>2.75</v>
+      </c>
+      <c r="U764">
+        <v>2</v>
+      </c>
+      <c r="V764">
+        <v>1.8</v>
+      </c>
+      <c r="W764">
+        <v>-1</v>
+      </c>
+      <c r="X764">
+        <v>2.4</v>
+      </c>
+      <c r="Y764">
+        <v>-1</v>
+      </c>
+      <c r="Z764">
         <v>-0.5</v>
       </c>
-      <c r="R764">
-        <v>1.9</v>
-      </c>
-      <c r="S764">
-        <v>1.9</v>
-      </c>
-      <c r="T764">
-        <v>2.5</v>
-      </c>
-      <c r="U764">
-        <v>1.9</v>
-      </c>
-      <c r="V764">
-        <v>1.9</v>
-      </c>
-      <c r="W764">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X764">
-        <v>-1</v>
-      </c>
-      <c r="Y764">
-        <v>-1</v>
-      </c>
-      <c r="Z764">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA764">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB764">
         <v>-1</v>
       </c>
       <c r="AC764">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68544,7 +68544,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68556,76 +68556,76 @@
         <v>45274.5</v>
       </c>
       <c r="F765" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G765" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H765">
         <v>1</v>
       </c>
       <c r="I765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J765" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K765">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L765">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M765">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N765">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O765">
         <v>3.4</v>
       </c>
       <c r="P765">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q765">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R765">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S765">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T765">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U765">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V765">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W765">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X765">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA765">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
         <v>-1</v>
       </c>
       <c r="AC765">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68722,7 +68722,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>6940818</v>
+        <v>6941381</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68734,76 +68734,76 @@
         <v>45275.5</v>
       </c>
       <c r="F767" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G767" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767">
         <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K767">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L767">
         <v>3.4</v>
       </c>
       <c r="M767">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N767">
+        <v>2.75</v>
+      </c>
+      <c r="O767">
+        <v>3.25</v>
+      </c>
+      <c r="P767">
         <v>2.375</v>
-      </c>
-      <c r="O767">
-        <v>3.5</v>
-      </c>
-      <c r="P767">
-        <v>2.625</v>
       </c>
       <c r="Q767">
         <v>0</v>
       </c>
       <c r="R767">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S767">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T767">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U767">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V767">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W767">
         <v>-1</v>
       </c>
       <c r="X767">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y767">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z767">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA767">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB767">
         <v>-1</v>
       </c>
       <c r="AC767">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -68811,7 +68811,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6940763</v>
+        <v>6940818</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68823,61 +68823,61 @@
         <v>45275.5</v>
       </c>
       <c r="F768" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G768" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768">
+        <v>1</v>
+      </c>
+      <c r="J768" t="s">
+        <v>53</v>
+      </c>
+      <c r="K768">
+        <v>2.55</v>
+      </c>
+      <c r="L768">
+        <v>3.4</v>
+      </c>
+      <c r="M768">
+        <v>2.45</v>
+      </c>
+      <c r="N768">
+        <v>2.375</v>
+      </c>
+      <c r="O768">
+        <v>3.5</v>
+      </c>
+      <c r="P768">
+        <v>2.625</v>
+      </c>
+      <c r="Q768">
         <v>0</v>
       </c>
-      <c r="J768" t="s">
-        <v>54</v>
-      </c>
-      <c r="K768">
-        <v>1.2</v>
-      </c>
-      <c r="L768">
-        <v>7</v>
-      </c>
-      <c r="M768">
-        <v>9.5</v>
-      </c>
-      <c r="N768">
-        <v>1.222</v>
-      </c>
-      <c r="O768">
-        <v>7</v>
-      </c>
-      <c r="P768">
-        <v>8.5</v>
-      </c>
-      <c r="Q768">
-        <v>-2</v>
-      </c>
       <c r="R768">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S768">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T768">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U768">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V768">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W768">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y768">
         <v>-1</v>
@@ -68892,7 +68892,7 @@
         <v>-1</v>
       </c>
       <c r="AC768">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68900,7 +68900,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6941381</v>
+        <v>6940763</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68912,76 +68912,76 @@
         <v>45275.5</v>
       </c>
       <c r="F769" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G769" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H769">
+        <v>2</v>
+      </c>
+      <c r="I769">
         <v>0</v>
       </c>
-      <c r="I769">
-        <v>1</v>
-      </c>
       <c r="J769" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K769">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L769">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M769">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="N769">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O769">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P769">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q769">
+        <v>-2</v>
+      </c>
+      <c r="R769">
+        <v>1.85</v>
+      </c>
+      <c r="S769">
+        <v>1.95</v>
+      </c>
+      <c r="T769">
+        <v>3.75</v>
+      </c>
+      <c r="U769">
+        <v>1.9</v>
+      </c>
+      <c r="V769">
+        <v>1.9</v>
+      </c>
+      <c r="W769">
+        <v>0.222</v>
+      </c>
+      <c r="X769">
+        <v>-1</v>
+      </c>
+      <c r="Y769">
+        <v>-1</v>
+      </c>
+      <c r="Z769">
         <v>0</v>
       </c>
-      <c r="R769">
-        <v>2.025</v>
-      </c>
-      <c r="S769">
-        <v>1.775</v>
-      </c>
-      <c r="T769">
-        <v>2.5</v>
-      </c>
-      <c r="U769">
-        <v>1.95</v>
-      </c>
-      <c r="V769">
-        <v>1.85</v>
-      </c>
-      <c r="W769">
-        <v>-1</v>
-      </c>
-      <c r="X769">
-        <v>-1</v>
-      </c>
-      <c r="Y769">
-        <v>1.375</v>
-      </c>
-      <c r="Z769">
-        <v>-1</v>
-      </c>
       <c r="AA769">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB769">
         <v>-1</v>
       </c>
       <c r="AC769">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="770" spans="1:29">

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5967536</v>
+        <v>5967535</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
         <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
+        <v>2.375</v>
+      </c>
+      <c r="O40">
+        <v>3.25</v>
+      </c>
+      <c r="P40">
+        <v>2.55</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1.85</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="O40">
-        <v>3.3</v>
-      </c>
-      <c r="P40">
-        <v>3.3</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>1.8</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5967535</v>
+        <v>5967536</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
         <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5967565</v>
+        <v>6359253</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,55 +7849,55 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>49</v>
       </c>
       <c r="K83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L83">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M83">
-        <v>1.2</v>
+        <v>1.333</v>
       </c>
       <c r="N83">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7906,19 +7906,19 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.181</v>
+        <v>0.3</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5967570</v>
+        <v>5967565</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="Q84">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6359253</v>
+        <v>5967570</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45020.66666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85">
+        <v>1.3</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85">
         <v>7</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
-      <c r="M85">
-        <v>1.333</v>
-      </c>
       <c r="N85">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="O85">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P85">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="Q85">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5967602</v>
+        <v>5967603</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,46 +13100,46 @@
         <v>45073.625</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>49</v>
       </c>
       <c r="K142">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
         <v>2.75</v>
@@ -13157,13 +13157,13 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.571</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
         <v>0.45</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5967603</v>
+        <v>5967602</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,46 +13189,46 @@
         <v>45073.625</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N143">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
         <v>2.75</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>0.571</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>0.45</v>
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5967008</v>
+        <v>5967609</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45077.625</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
         <v>6</v>
       </c>
-      <c r="M149">
-        <v>8.5</v>
-      </c>
-      <c r="N149">
-        <v>1.222</v>
-      </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="Q149">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5967010</v>
+        <v>5967608</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,73 +13812,73 @@
         <v>45077.625</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>4</v>
-      </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L150">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="N150">
+        <v>1.333</v>
+      </c>
+      <c r="O150">
         <v>4.5</v>
       </c>
-      <c r="O150">
-        <v>4.333</v>
-      </c>
       <c r="P150">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>1.825</v>
+      </c>
+      <c r="T150">
+        <v>3</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="S150">
-        <v>1.85</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB150">
-        <v>0.875</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5967607</v>
+        <v>5967611</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45077.625</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N151">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P151">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>4</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
         <v>1.8</v>
       </c>
-      <c r="S151">
-        <v>2</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5967609</v>
+        <v>5967607</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,40 +13990,40 @@
         <v>45077.625</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>49</v>
       </c>
       <c r="K152">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N152">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q152">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
         <v>1.8</v>
@@ -14035,10 +14035,10 @@
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14047,19 +14047,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
       <c r="Z152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5967009</v>
+        <v>5967010</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45077.625</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L153">
         <v>4.2</v>
       </c>
       <c r="M153">
+        <v>1.6</v>
+      </c>
+      <c r="N153">
         <v>4.5</v>
       </c>
-      <c r="N153">
-        <v>1.363</v>
-      </c>
       <c r="O153">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R153">
         <v>1.95</v>
@@ -14121,7 +14121,7 @@
         <v>1.85</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
         <v>1.875</v>
@@ -14130,25 +14130,25 @@
         <v>1.925</v>
       </c>
       <c r="W153">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5967611</v>
+        <v>5967008</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45077.625</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L154">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="M154">
         <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O154">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>4</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5967608</v>
+        <v>5967009</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,10 +14257,10 @@
         <v>45077.625</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14275,40 +14275,40 @@
         <v>1.571</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
+        <v>4.5</v>
+      </c>
+      <c r="N155">
+        <v>1.363</v>
+      </c>
+      <c r="O155">
+        <v>5.5</v>
+      </c>
+      <c r="P155">
         <v>5</v>
-      </c>
-      <c r="N155">
-        <v>1.333</v>
-      </c>
-      <c r="O155">
-        <v>4.5</v>
-      </c>
-      <c r="P155">
-        <v>6.5</v>
       </c>
       <c r="Q155">
         <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14601,7 +14601,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6941294</v>
+        <v>6941295</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14613,76 +14613,76 @@
         <v>45151.625</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N159">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
         <v>3.4</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
-        <v>1.925</v>
-      </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6941295</v>
+        <v>6941294</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14702,76 +14702,76 @@
         <v>45151.625</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N160">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O160">
         <v>3.4</v>
       </c>
       <c r="P160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
+        <v>1.925</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
+        <v>1.95</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>2.4</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
         <v>-0.5</v>
       </c>
-      <c r="R160">
-        <v>1.925</v>
-      </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
-      <c r="T160">
-        <v>2.25</v>
-      </c>
-      <c r="U160">
-        <v>1.825</v>
-      </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
-      <c r="W160">
-        <v>0.909</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.925</v>
-      </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,13 +14791,13 @@
         <v>45152.5</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>3</v>
@@ -14806,7 +14806,7 @@
         <v>49</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L161">
         <v>3.75</v>
@@ -14815,31 +14815,31 @@
         <v>1.615</v>
       </c>
       <c r="N161">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P161">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14848,19 +14848,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,13 +14880,13 @@
         <v>45152.5</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14895,7 +14895,7 @@
         <v>49</v>
       </c>
       <c r="K162">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L162">
         <v>3.75</v>
@@ -14904,31 +14904,31 @@
         <v>1.615</v>
       </c>
       <c r="N162">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O162">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q162">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14937,19 +14937,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6932261</v>
+        <v>6941303</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45162.625</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>4</v>
-      </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K175">
-        <v>10</v>
+        <v>1.181</v>
       </c>
       <c r="L175">
         <v>7</v>
       </c>
       <c r="M175">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="N175">
-        <v>11</v>
+        <v>1.111</v>
       </c>
       <c r="O175">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P175">
-        <v>1.142</v>
+        <v>15</v>
       </c>
       <c r="Q175">
-        <v>2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941303</v>
+        <v>6933358</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45162.625</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>1.181</v>
+        <v>11</v>
       </c>
       <c r="L176">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M176">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="N176">
-        <v>1.111</v>
+        <v>8.5</v>
       </c>
       <c r="O176">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="P176">
-        <v>15</v>
+        <v>1.222</v>
       </c>
       <c r="Q176">
-        <v>-2.5</v>
+        <v>1.75</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6933358</v>
+        <v>6941302</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45162.625</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>51</v>
+      </c>
+      <c r="K177">
+        <v>1.571</v>
+      </c>
+      <c r="L177">
+        <v>3.8</v>
+      </c>
+      <c r="M177">
+        <v>4.75</v>
+      </c>
+      <c r="N177">
+        <v>1.8</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
         <v>4</v>
       </c>
-      <c r="J177" t="s">
-        <v>49</v>
-      </c>
-      <c r="K177">
-        <v>11</v>
-      </c>
-      <c r="L177">
-        <v>6.5</v>
-      </c>
-      <c r="M177">
-        <v>1.2</v>
-      </c>
-      <c r="N177">
-        <v>8.5</v>
-      </c>
-      <c r="O177">
-        <v>6</v>
-      </c>
-      <c r="P177">
-        <v>1.222</v>
-      </c>
       <c r="Q177">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
         <v>1.875</v>
@@ -16269,22 +16269,22 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6941302</v>
+        <v>6932261</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45162.625</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N178">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6932264</v>
+        <v>6941307</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45166.625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,43 +16853,43 @@
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="L184">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N184">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,16 +16898,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6932265</v>
+        <v>6932264</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45166.625</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>3</v>
-      </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="L185">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="M185">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="N185">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P185">
-        <v>1.222</v>
+        <v>8</v>
       </c>
       <c r="Q185">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,49 +17016,49 @@
         <v>45166.625</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>3</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M186">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N186">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R186">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U186">
         <v>1.9</v>
@@ -17067,25 +17067,25 @@
         <v>1.9</v>
       </c>
       <c r="W186">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB186">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6941312</v>
+        <v>6941313</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,34 +17550,34 @@
         <v>45170.5</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
         <v>3.4</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P192">
         <v>3</v>
@@ -17586,40 +17586,40 @@
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X192">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA192">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6941313</v>
+        <v>6941312</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,34 +17639,34 @@
         <v>45170.5</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L193">
         <v>3.4</v>
       </c>
       <c r="M193">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P193">
         <v>3</v>
@@ -17675,40 +17675,40 @@
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6941321</v>
+        <v>6940732</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,73 +18618,73 @@
         <v>45184.625</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H204">
+        <v>6</v>
+      </c>
+      <c r="I204">
         <v>1</v>
       </c>
-      <c r="I204">
-        <v>3</v>
-      </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K204">
-        <v>3.75</v>
+        <v>1.125</v>
       </c>
       <c r="L204">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M204">
+        <v>17</v>
+      </c>
+      <c r="N204">
+        <v>1.035</v>
+      </c>
+      <c r="O204">
+        <v>15</v>
+      </c>
+      <c r="P204">
+        <v>41</v>
+      </c>
+      <c r="Q204">
+        <v>-3.25</v>
+      </c>
+      <c r="R204">
         <v>1.8</v>
       </c>
-      <c r="N204">
-        <v>2.8</v>
-      </c>
-      <c r="O204">
-        <v>3.6</v>
-      </c>
-      <c r="P204">
-        <v>2.2</v>
-      </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
-        <v>1.875</v>
-      </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6940732</v>
+        <v>6941321</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,73 +18707,73 @@
         <v>45184.625</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>1.125</v>
+        <v>3.75</v>
       </c>
       <c r="L205">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="N205">
-        <v>1.035</v>
+        <v>2.8</v>
       </c>
       <c r="O205">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>41</v>
+        <v>2.2</v>
       </c>
       <c r="Q205">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,55 +19597,55 @@
         <v>45191.5</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
         <v>1</v>
-      </c>
-      <c r="I215">
-        <v>3</v>
       </c>
       <c r="J215" t="s">
         <v>49</v>
       </c>
       <c r="K215">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N215">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q215">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19654,19 +19654,19 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,55 +19686,55 @@
         <v>45191.5</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
         <v>49</v>
       </c>
       <c r="K216">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L216">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N216">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O216">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19743,19 +19743,19 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
+        <v>0.875</v>
+      </c>
+      <c r="AB216">
         <v>0.825</v>
       </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6940736</v>
+        <v>6940737</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,49 +19953,49 @@
         <v>45198.5</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>51</v>
+      </c>
+      <c r="K219">
+        <v>8.5</v>
+      </c>
+      <c r="L219">
+        <v>5</v>
+      </c>
+      <c r="M219">
+        <v>1.3</v>
+      </c>
+      <c r="N219">
+        <v>5.5</v>
+      </c>
+      <c r="O219">
+        <v>3.8</v>
+      </c>
+      <c r="P219">
+        <v>1.533</v>
+      </c>
+      <c r="Q219">
         <v>1</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
-      <c r="J219" t="s">
-        <v>49</v>
-      </c>
-      <c r="K219">
-        <v>13</v>
-      </c>
-      <c r="L219">
-        <v>7</v>
-      </c>
-      <c r="M219">
-        <v>1.142</v>
-      </c>
-      <c r="N219">
-        <v>11</v>
-      </c>
-      <c r="O219">
-        <v>7.5</v>
-      </c>
-      <c r="P219">
-        <v>1.142</v>
-      </c>
-      <c r="Q219">
-        <v>2.25</v>
-      </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T219">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
         <v>1.975</v>
@@ -20007,13 +20007,13 @@
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y219">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6941329</v>
+        <v>6940736</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,49 +20042,49 @@
         <v>45198.5</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>49</v>
       </c>
       <c r="K220">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M220">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="N220">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="O220">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P220">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="Q220">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U220">
         <v>1.975</v>
@@ -20099,19 +20099,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.5</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,49 +20131,49 @@
         <v>45198.5</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N221">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P221">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q221">
         <v>1</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U221">
         <v>1.975</v>
@@ -20185,22 +20185,22 @@
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6940744</v>
+        <v>6941340</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,58 +21733,58 @@
         <v>45219.625</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239">
         <v>1</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
       </c>
       <c r="J239" t="s">
         <v>50</v>
       </c>
       <c r="K239">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="L239">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M239">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="N239">
-        <v>1.111</v>
+        <v>1.4</v>
       </c>
       <c r="O239">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P239">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="Q239">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
+        <v>1.85</v>
+      </c>
+      <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
+        <v>3.25</v>
+      </c>
+      <c r="U239">
         <v>1.9</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.9</v>
       </c>
-      <c r="T239">
-        <v>3.75</v>
-      </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
-      <c r="V239">
-        <v>1.925</v>
-      </c>
       <c r="W239">
-        <v>0.111</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21793,16 +21793,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21810,7 +21810,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6941340</v>
+        <v>6940744</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21822,58 +21822,58 @@
         <v>45219.625</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>50</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M240">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.111</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P240">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
-        <v>0.3999999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21882,16 +21882,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6941341</v>
+        <v>6940812</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,58 +22089,58 @@
         <v>45220.625</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>50</v>
       </c>
       <c r="K243">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L243">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M243">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N243">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O243">
         <v>4.2</v>
       </c>
       <c r="P243">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q243">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>3</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W243">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22149,16 +22149,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA243">
         <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6940812</v>
+        <v>6941341</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,58 +22178,58 @@
         <v>45220.625</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G244" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
         <v>50</v>
       </c>
       <c r="K244">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L244">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M244">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N244">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O244">
         <v>4.2</v>
       </c>
       <c r="P244">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
         <v>3</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22238,16 +22238,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22611,7 +22611,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22623,76 +22623,76 @@
         <v>45226.5</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
+      </c>
+      <c r="K249">
+        <v>4.75</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
+      <c r="M249">
+        <v>1.65</v>
+      </c>
+      <c r="N249">
+        <v>2.9</v>
+      </c>
+      <c r="O249">
+        <v>3.5</v>
+      </c>
+      <c r="P249">
+        <v>2.25</v>
+      </c>
+      <c r="Q249">
+        <v>0.25</v>
+      </c>
+      <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
         <v>3</v>
       </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-      <c r="J249" t="s">
-        <v>50</v>
-      </c>
-      <c r="K249">
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="L249">
-        <v>3.5</v>
-      </c>
-      <c r="M249">
-        <v>4</v>
-      </c>
-      <c r="N249">
-        <v>1.7</v>
-      </c>
-      <c r="O249">
-        <v>3.6</v>
-      </c>
-      <c r="P249">
-        <v>4.75</v>
-      </c>
-      <c r="Q249">
-        <v>-0.75</v>
-      </c>
-      <c r="R249">
-        <v>1.925</v>
-      </c>
-      <c r="S249">
-        <v>1.875</v>
-      </c>
-      <c r="T249">
-        <v>2.5</v>
-      </c>
-      <c r="U249">
-        <v>1.875</v>
-      </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z249">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22700,7 +22700,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22712,76 +22712,76 @@
         <v>45226.5</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K250">
+        <v>1.85</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>4</v>
+      </c>
+      <c r="N250">
+        <v>1.7</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
         <v>4.75</v>
       </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>1.65</v>
-      </c>
-      <c r="N250">
-        <v>2.9</v>
-      </c>
-      <c r="O250">
-        <v>3.5</v>
-      </c>
-      <c r="P250">
-        <v>2.25</v>
-      </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
         <v>1.875</v>
       </c>
-      <c r="S250">
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>1.875</v>
+      </c>
+      <c r="V250">
         <v>1.925</v>
       </c>
-      <c r="T250">
-        <v>3</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
-      </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6941351</v>
+        <v>6940749</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,76 +23157,76 @@
         <v>45233.5</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M255">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="N255">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P255">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q255">
+        <v>2</v>
+      </c>
+      <c r="R255">
+        <v>1.825</v>
+      </c>
+      <c r="S255">
+        <v>1.975</v>
+      </c>
+      <c r="T255">
+        <v>3.75</v>
+      </c>
+      <c r="U255">
+        <v>1.9</v>
+      </c>
+      <c r="V255">
+        <v>1.9</v>
+      </c>
+      <c r="W255">
+        <v>-1</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
         <v>0.25</v>
       </c>
-      <c r="R255">
-        <v>1.8</v>
-      </c>
-      <c r="S255">
-        <v>2</v>
-      </c>
-      <c r="T255">
-        <v>2.5</v>
-      </c>
-      <c r="U255">
-        <v>1.925</v>
-      </c>
-      <c r="V255">
-        <v>1.875</v>
-      </c>
-      <c r="W255">
-        <v>-1</v>
-      </c>
-      <c r="X255">
-        <v>2.3</v>
-      </c>
-      <c r="Y255">
-        <v>-1</v>
-      </c>
       <c r="Z255">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6940749</v>
+        <v>6941351</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,76 +23246,76 @@
         <v>45233.5</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J256" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L256">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="N256">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O256">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P256">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q256">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T256">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA256">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23501,7 +23501,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7316934</v>
+        <v>7316918</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23513,40 +23513,40 @@
         <v>45234.625</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G259" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K259">
-        <v>1.125</v>
+        <v>1.65</v>
       </c>
       <c r="L259">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M259">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N259">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O259">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q259">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R259">
         <v>2</v>
@@ -23555,34 +23555,34 @@
         <v>1.8</v>
       </c>
       <c r="T259">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W259">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23590,7 +23590,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7316918</v>
+        <v>7316934</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23602,40 +23602,40 @@
         <v>45234.625</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K260">
-        <v>1.65</v>
+        <v>1.125</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M260">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N260">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P260">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q260">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R260">
         <v>2</v>
@@ -23644,34 +23644,34 @@
         <v>1.8</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U260">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA260">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,13 +23958,13 @@
         <v>45239.5</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -23973,43 +23973,43 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
+        <v>1.85</v>
+      </c>
+      <c r="N264">
+        <v>3.25</v>
+      </c>
+      <c r="O264">
         <v>3.3</v>
       </c>
-      <c r="N264">
-        <v>2</v>
-      </c>
-      <c r="O264">
-        <v>3.5</v>
-      </c>
       <c r="P264">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24018,13 +24018,13 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,13 +24047,13 @@
         <v>45239.5</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -24062,43 +24062,43 @@
         <v>50</v>
       </c>
       <c r="K265">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L265">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N265">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O265">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24107,13 +24107,13 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24124,7 +24124,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24136,55 +24136,55 @@
         <v>45239.625</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>51</v>
       </c>
       <c r="K266">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L266">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M266">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N266">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O266">
         <v>3.75</v>
       </c>
       <c r="P266">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q266">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R266">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S266">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V266">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,16 +24196,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24213,7 +24213,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24225,55 +24225,55 @@
         <v>45239.625</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
         <v>51</v>
       </c>
       <c r="K267">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L267">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M267">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N267">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O267">
         <v>3.75</v>
       </c>
       <c r="P267">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q267">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,16 +24285,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC267">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6941364</v>
+        <v>6940815</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,46 +25204,46 @@
         <v>45255.625</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H278">
         <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N278">
         <v>1.909</v>
       </c>
       <c r="O278">
+        <v>3.4</v>
+      </c>
+      <c r="P278">
         <v>3.5</v>
-      </c>
-      <c r="P278">
-        <v>3.6</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S278">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
         <v>2.75</v>
@@ -25258,16 +25258,16 @@
         <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y278">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB278">
         <v>-1</v>
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6941362</v>
+        <v>6941360</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,58 +25293,58 @@
         <v>45255.625</v>
       </c>
       <c r="F279" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G279" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
         <v>50</v>
       </c>
       <c r="K279">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M279">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N279">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O279">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P279">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
         <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
         <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W279">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X279">
         <v>-1</v>
@@ -25353,13 +25353,13 @@
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25370,7 +25370,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6941360</v>
+        <v>6941364</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25382,19 +25382,19 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G280" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K280">
         <v>1.8</v>
@@ -25403,55 +25403,55 @@
         <v>3.6</v>
       </c>
       <c r="M280">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N280">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O280">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P280">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q280">
         <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S280">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V280">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z280">
+        <v>-1</v>
+      </c>
+      <c r="AA280">
+        <v>0.875</v>
+      </c>
+      <c r="AB280">
+        <v>-1</v>
+      </c>
+      <c r="AC280">
         <v>1.025</v>
-      </c>
-      <c r="AA280">
-        <v>-1</v>
-      </c>
-      <c r="AB280">
-        <v>1</v>
-      </c>
-      <c r="AC280">
-        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25459,7 +25459,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6940815</v>
+        <v>6941362</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25471,76 +25471,76 @@
         <v>45255.625</v>
       </c>
       <c r="F281" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L281">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M281">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N281">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q281">
         <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T281">
         <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X281">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA281">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC281">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,10 +27874,10 @@
         <v>45281.5</v>
       </c>
       <c r="F308" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -27889,43 +27889,43 @@
         <v>50</v>
       </c>
       <c r="K308">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M308">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N308">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P308">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W308">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27934,16 +27934,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27951,7 +27951,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27963,10 +27963,10 @@
         <v>45281.5</v>
       </c>
       <c r="F309" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G309" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -27978,61 +27978,61 @@
         <v>50</v>
       </c>
       <c r="K309">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N309">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P309">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q309">
+        <v>-0.75</v>
+      </c>
+      <c r="R309">
+        <v>1.85</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2.75</v>
+      </c>
+      <c r="U309">
+        <v>1.975</v>
+      </c>
+      <c r="V309">
+        <v>1.825</v>
+      </c>
+      <c r="W309">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA309">
+        <v>-1</v>
+      </c>
+      <c r="AB309">
+        <v>0.4875</v>
+      </c>
+      <c r="AC309">
         <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
-      <c r="U309">
-        <v>1.775</v>
-      </c>
-      <c r="V309">
-        <v>2.025</v>
-      </c>
-      <c r="W309">
-        <v>1</v>
-      </c>
-      <c r="X309">
-        <v>-1</v>
-      </c>
-      <c r="Y309">
-        <v>-1</v>
-      </c>
-      <c r="Z309">
-        <v>1.025</v>
-      </c>
-      <c r="AA309">
-        <v>-1</v>
-      </c>
-      <c r="AB309">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC309">
-        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28218,7 +28218,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28230,73 +28230,73 @@
         <v>45282.5</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G312" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J312" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K312">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L312">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M312">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N312">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O312">
         <v>5</v>
       </c>
       <c r="P312">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q312">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R312">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S312">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U312">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V312">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W312">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z312">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB312">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6941388</v>
+        <v>7605556</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,73 +28319,73 @@
         <v>45282.5</v>
       </c>
       <c r="F313" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I313">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K313">
-        <v>5</v>
+        <v>1.285</v>
       </c>
       <c r="L313">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M313">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="N313">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="O313">
         <v>5</v>
       </c>
       <c r="P313">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q313">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R313">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S313">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V313">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W313">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA313">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB313">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45288.5</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K318">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M318">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N318">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O318">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P318">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q318">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V318">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X318">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45288.5</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H319">
         <v>1</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K319">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L319">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N319">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O319">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P319">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q319">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
+        <v>-1</v>
+      </c>
+      <c r="AA319">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB319">
+        <v>-1</v>
+      </c>
+      <c r="AC319">
         <v>1</v>
-      </c>
-      <c r="AA319">
-        <v>-1</v>
-      </c>
-      <c r="AB319">
-        <v>-1</v>
-      </c>
-      <c r="AC319">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28930,7 +28930,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6941392</v>
+        <v>6940767</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28942,76 +28942,76 @@
         <v>45289.5</v>
       </c>
       <c r="F320" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G320" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H320">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K320">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M320">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="N320">
-        <v>1.533</v>
+        <v>17</v>
       </c>
       <c r="O320">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P320">
-        <v>5.25</v>
+        <v>1.111</v>
       </c>
       <c r="Q320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T320">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U320">
+        <v>1.85</v>
+      </c>
+      <c r="V320">
         <v>1.95</v>
       </c>
-      <c r="V320">
-        <v>1.85</v>
-      </c>
       <c r="W320">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
+        <v>-1</v>
+      </c>
+      <c r="AC320">
         <v>0.95</v>
-      </c>
-      <c r="AC320">
-        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6940767</v>
+        <v>6941392</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,76 +29031,76 @@
         <v>45289.5</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H321">
+        <v>4</v>
+      </c>
+      <c r="I321">
+        <v>3</v>
+      </c>
+      <c r="J321" t="s">
+        <v>50</v>
+      </c>
+      <c r="K321">
+        <v>1.666</v>
+      </c>
+      <c r="L321">
+        <v>4</v>
+      </c>
+      <c r="M321">
+        <v>4.333</v>
+      </c>
+      <c r="N321">
+        <v>1.533</v>
+      </c>
+      <c r="O321">
+        <v>4.2</v>
+      </c>
+      <c r="P321">
+        <v>5.25</v>
+      </c>
+      <c r="Q321">
+        <v>-1</v>
+      </c>
+      <c r="R321">
+        <v>1.9</v>
+      </c>
+      <c r="S321">
+        <v>1.9</v>
+      </c>
+      <c r="T321">
+        <v>3</v>
+      </c>
+      <c r="U321">
+        <v>1.95</v>
+      </c>
+      <c r="V321">
+        <v>1.85</v>
+      </c>
+      <c r="W321">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
+        <v>-1</v>
+      </c>
+      <c r="Z321">
         <v>0</v>
       </c>
-      <c r="I321">
-        <v>2</v>
-      </c>
-      <c r="J321" t="s">
-        <v>49</v>
-      </c>
-      <c r="K321">
-        <v>10</v>
-      </c>
-      <c r="L321">
-        <v>6</v>
-      </c>
-      <c r="M321">
-        <v>1.222</v>
-      </c>
-      <c r="N321">
-        <v>17</v>
-      </c>
-      <c r="O321">
-        <v>8</v>
-      </c>
-      <c r="P321">
-        <v>1.111</v>
-      </c>
-      <c r="Q321">
-        <v>2.5</v>
-      </c>
-      <c r="R321">
-        <v>1.8</v>
-      </c>
-      <c r="S321">
-        <v>2</v>
-      </c>
-      <c r="T321">
-        <v>3.5</v>
-      </c>
-      <c r="U321">
-        <v>1.85</v>
-      </c>
-      <c r="V321">
-        <v>1.95</v>
-      </c>
-      <c r="W321">
-        <v>-1</v>
-      </c>
-      <c r="X321">
-        <v>-1</v>
-      </c>
-      <c r="Y321">
-        <v>0.111</v>
-      </c>
-      <c r="Z321">
-        <v>0.8</v>
-      </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC321">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29286,7 +29286,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6940820</v>
+        <v>6940769</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29298,49 +29298,49 @@
         <v>45290.625</v>
       </c>
       <c r="F324" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G324" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K324">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L324">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M324">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N324">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O324">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P324">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R324">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S324">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T324">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U324">
         <v>1.85</v>
@@ -29349,25 +29349,25 @@
         <v>1.95</v>
       </c>
       <c r="W324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z324">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC324">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6940769</v>
+        <v>6940820</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,49 +29387,49 @@
         <v>45290.625</v>
       </c>
       <c r="F325" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K325">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L325">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M325">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N325">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O325">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P325">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q325">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S325">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T325">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U325">
         <v>1.85</v>
@@ -29438,25 +29438,25 @@
         <v>1.95</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA325">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -133,10 +133,10 @@
     <t>Al Raed</t>
   </si>
   <si>
-    <t>Al Fateh SC</t>
+    <t>Al Taee</t>
   </si>
   <si>
-    <t>Al Taee</t>
+    <t>Al Fateh SC</t>
   </si>
   <si>
     <t>Abha</t>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5581822</v>
+        <v>5581824</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,73 +1533,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <v>2.9</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>2.25</v>
+      </c>
+      <c r="N12">
+        <v>2.45</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>2.8</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>2.25</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>2.9</v>
-      </c>
-      <c r="P12">
-        <v>3.4</v>
-      </c>
-      <c r="Q12">
-        <v>-0.25</v>
-      </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5581824</v>
+        <v>5581822</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>2.25</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
         <v>2.9</v>
       </c>
-      <c r="L13">
-        <v>3.1</v>
-      </c>
-      <c r="M13">
-        <v>2.25</v>
-      </c>
-      <c r="N13">
-        <v>2.45</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
       <c r="P13">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>44953.5</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3046,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5581840</v>
+        <v>5581834</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>44959.5</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="N31">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P31">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5581834</v>
+        <v>5581840</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>44959.5</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M32">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P32">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>44960.5</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4470,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5967549</v>
+        <v>5967551</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>1.8</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>0.8</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5967551</v>
+        <v>5967549</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L58">
+        <v>3.3</v>
+      </c>
+      <c r="M58">
+        <v>3.2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58">
         <v>3.4</v>
       </c>
-      <c r="M58">
-        <v>3.6</v>
-      </c>
-      <c r="N58">
-        <v>1.727</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6250,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7404,7 +7404,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5966986</v>
+        <v>5967567</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,55 +8116,55 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>2.875</v>
+        <v>1.952</v>
       </c>
       <c r="O86">
         <v>3.4</v>
       </c>
       <c r="P86">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
+        <v>1.85</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.925</v>
+      </c>
+      <c r="V86">
         <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.925</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8176,16 +8176,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967566</v>
+        <v>5966986</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
+        <v>2.625</v>
+      </c>
+      <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.25</v>
+      </c>
+      <c r="N87">
         <v>2.875</v>
-      </c>
-      <c r="L87">
-        <v>3.4</v>
-      </c>
-      <c r="M87">
-        <v>2.1</v>
-      </c>
-      <c r="N87">
-        <v>2.9</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q87">
         <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>1.875</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0.4375</v>
+      </c>
+      <c r="AA87">
+        <v>-0.5</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.925</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967567</v>
+        <v>5967566</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.1</v>
+      </c>
+      <c r="N88">
         <v>2.9</v>
-      </c>
-      <c r="N88">
-        <v>1.952</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45022.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5966990</v>
+        <v>5967571</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,19 +8650,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>1.727</v>
@@ -8674,52 +8674,52 @@
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5967571</v>
+        <v>5966990</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,19 +8739,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.727</v>
@@ -8763,52 +8763,52 @@
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967575</v>
+        <v>5967574</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5967574</v>
+        <v>5966989</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="N96">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.8</v>
@@ -9048,22 +9048,22 @@
         <v>2</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
@@ -9072,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5966989</v>
+        <v>5967575</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,10 +9095,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9110,46 +9110,46 @@
         <v>51</v>
       </c>
       <c r="K97">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9158,10 +9158,10 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9807,7 +9807,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -10341,7 +10341,7 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10611,7 +10611,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11234,7 +11234,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5967000</v>
+        <v>5967595</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,40 +11409,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
         <v>2.4</v>
       </c>
       <c r="N123">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11454,31 +11454,31 @@
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5967595</v>
+        <v>5967592</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
+        <v>2.55</v>
+      </c>
+      <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
         <v>2.5</v>
       </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>2.4</v>
-      </c>
       <c r="N124">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O124">
         <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5967592</v>
+        <v>5967000</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
+        <v>2.4</v>
+      </c>
+      <c r="N125">
         <v>2.5</v>
-      </c>
-      <c r="N125">
-        <v>2.1</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>45061.64583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11765,7 +11765,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12213,7 +12213,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5967005</v>
+        <v>5967597</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N135">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z135">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5967597</v>
+        <v>5967005</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
+      <c r="J136" t="s">
+        <v>50</v>
+      </c>
+      <c r="K136">
+        <v>1.833</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>3.4</v>
+      </c>
+      <c r="N136">
+        <v>1.7</v>
+      </c>
+      <c r="O136">
         <v>4</v>
       </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>2.1</v>
-      </c>
-      <c r="L136">
-        <v>3.3</v>
-      </c>
-      <c r="M136">
-        <v>3</v>
-      </c>
-      <c r="N136">
-        <v>1.909</v>
-      </c>
-      <c r="O136">
-        <v>3.3</v>
-      </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>0.7</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4625</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>2.5</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.8</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5967606</v>
+        <v>5967602</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45073.625</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M140">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N140">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>45073.625</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13189,7 +13189,7 @@
         <v>45073.625</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5967602</v>
+        <v>5967606</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45073.625</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13726,7 +13726,7 @@
         <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5967608</v>
+        <v>5967611</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,58 +13812,58 @@
         <v>45077.625</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5967611</v>
+        <v>5967608</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,58 +13901,58 @@
         <v>45077.625</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>3</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>50</v>
       </c>
       <c r="K151">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L151">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="N151">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O151">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q151">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
         <v>1.95</v>
       </c>
-      <c r="S151">
-        <v>1.85</v>
-      </c>
-      <c r="T151">
-        <v>4</v>
-      </c>
-      <c r="U151">
-        <v>2</v>
-      </c>
-      <c r="V151">
-        <v>1.8</v>
-      </c>
       <c r="W151">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13961,16 +13961,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5967607</v>
+        <v>5967008</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45077.625</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P153">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5967008</v>
+        <v>5967009</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45077.625</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>3</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="N154">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="O154">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P154">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q154">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5967009</v>
+        <v>5967607</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45077.625</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155">
+        <v>1.615</v>
+      </c>
+      <c r="L155">
+        <v>3.8</v>
+      </c>
+      <c r="M155">
+        <v>4.75</v>
+      </c>
+      <c r="N155">
+        <v>1.615</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
+        <v>4.5</v>
+      </c>
+      <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.8</v>
+      </c>
+      <c r="S155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
+        <v>1.975</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>3.5</v>
+      </c>
+      <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
         <v>1</v>
       </c>
-      <c r="J155" t="s">
-        <v>50</v>
-      </c>
-      <c r="K155">
-        <v>1.571</v>
-      </c>
-      <c r="L155">
-        <v>4.2</v>
-      </c>
-      <c r="M155">
-        <v>4.5</v>
-      </c>
-      <c r="N155">
-        <v>1.363</v>
-      </c>
-      <c r="O155">
-        <v>5.5</v>
-      </c>
-      <c r="P155">
-        <v>5</v>
-      </c>
-      <c r="Q155">
-        <v>-1.5</v>
-      </c>
-      <c r="R155">
-        <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.85</v>
-      </c>
-      <c r="T155">
-        <v>3.75</v>
-      </c>
-      <c r="U155">
-        <v>1.875</v>
-      </c>
-      <c r="V155">
-        <v>1.925</v>
-      </c>
-      <c r="W155">
-        <v>0.363</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0.95</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
       <c r="AB155">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14435,7 +14435,7 @@
         <v>45150.5</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14702,7 +14702,7 @@
         <v>45151.625</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -15328,7 +15328,7 @@
         <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6932258</v>
+        <v>6941299</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45156.625</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L169">
         <v>3.25</v>
       </c>
       <c r="M169">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N169">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O169">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z169">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6941299</v>
+        <v>6932258</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45156.625</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L170">
         <v>3.25</v>
       </c>
       <c r="M170">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15862,7 +15862,7 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15948,7 +15948,7 @@
         <v>45162.5</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941303</v>
+        <v>6941302</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,61 +16126,61 @@
         <v>45162.625</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>1.181</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M176">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="N176">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O176">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y176">
         <v>-1</v>
@@ -16189,13 +16189,13 @@
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6941302</v>
+        <v>6941303</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,61 +16304,61 @@
         <v>45162.625</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>1.181</v>
       </c>
       <c r="L178">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="N178">
+        <v>1.111</v>
+      </c>
+      <c r="O178">
+        <v>9.5</v>
+      </c>
+      <c r="P178">
+        <v>15</v>
+      </c>
+      <c r="Q178">
+        <v>-2.5</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
         <v>1.8</v>
       </c>
-      <c r="O178">
-        <v>3.6</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
-        <v>-0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.8</v>
-      </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X178">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16367,13 +16367,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>45163.625</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6941307</v>
+        <v>6932264</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45166.625</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,43 +16853,43 @@
         <v>50</v>
       </c>
       <c r="K184">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M184">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N184">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P184">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R184">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,16 +16898,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6932265</v>
+        <v>6941307</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,49 +16927,49 @@
         <v>45166.625</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H185">
+        <v>3</v>
+      </c>
+      <c r="I185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>3</v>
-      </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L185">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="N185">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
         <v>1.75</v>
       </c>
-      <c r="R185">
-        <v>1.875</v>
-      </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
         <v>1.9</v>
@@ -16978,25 +16978,25 @@
         <v>1.9</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC185">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6932264</v>
+        <v>6932265</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45166.625</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186" t="s">
+        <v>49</v>
+      </c>
+      <c r="K186">
+        <v>9</v>
+      </c>
+      <c r="L186">
+        <v>5.75</v>
+      </c>
+      <c r="M186">
+        <v>1.2</v>
+      </c>
+      <c r="N186">
+        <v>8.5</v>
+      </c>
+      <c r="O186">
+        <v>6</v>
+      </c>
+      <c r="P186">
+        <v>1.222</v>
+      </c>
+      <c r="Q186">
+        <v>1.75</v>
+      </c>
+      <c r="R186">
+        <v>1.875</v>
+      </c>
+      <c r="S186">
+        <v>1.925</v>
+      </c>
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>0.222</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.925</v>
+      </c>
+      <c r="AB186">
         <v>0</v>
       </c>
-      <c r="J186" t="s">
-        <v>50</v>
-      </c>
-      <c r="K186">
-        <v>1.181</v>
-      </c>
-      <c r="L186">
-        <v>6</v>
-      </c>
-      <c r="M186">
-        <v>10</v>
-      </c>
-      <c r="N186">
-        <v>1.222</v>
-      </c>
-      <c r="O186">
-        <v>6.5</v>
-      </c>
-      <c r="P186">
-        <v>8</v>
-      </c>
-      <c r="Q186">
-        <v>-1.75</v>
-      </c>
-      <c r="R186">
-        <v>1.85</v>
-      </c>
-      <c r="S186">
-        <v>1.95</v>
-      </c>
-      <c r="T186">
-        <v>3.25</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>0.222</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.425</v>
-      </c>
-      <c r="AA186">
-        <v>-0.5</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17108,7 +17108,7 @@
         <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17286,7 +17286,7 @@
         <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17639,7 +17639,7 @@
         <v>45170.5</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
         <v>41</v>
@@ -18084,7 +18084,7 @@
         <v>45171.625</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
         <v>45</v>
@@ -18710,7 +18710,7 @@
         <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18977,7 +18977,7 @@
         <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19244,7 +19244,7 @@
         <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>4</v>
@@ -19422,7 +19422,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -20030,7 +20030,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6940737</v>
+        <v>6940736</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20042,49 +20042,49 @@
         <v>45198.5</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K220">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="L220">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M220">
-        <v>1.3</v>
+        <v>1.142</v>
       </c>
       <c r="N220">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="O220">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P220">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="Q220">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U220">
         <v>1.975</v>
@@ -20096,13 +20096,13 @@
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z220">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
         <v>-1</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6940736</v>
+        <v>6940737</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,49 +20131,49 @@
         <v>45198.5</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>51</v>
+      </c>
+      <c r="K221">
+        <v>8.5</v>
+      </c>
+      <c r="L221">
+        <v>5</v>
+      </c>
+      <c r="M221">
+        <v>1.3</v>
+      </c>
+      <c r="N221">
+        <v>5.5</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
+        <v>1.533</v>
+      </c>
+      <c r="Q221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
-      <c r="J221" t="s">
-        <v>49</v>
-      </c>
-      <c r="K221">
-        <v>13</v>
-      </c>
-      <c r="L221">
-        <v>7</v>
-      </c>
-      <c r="M221">
-        <v>1.142</v>
-      </c>
-      <c r="N221">
-        <v>11</v>
-      </c>
-      <c r="O221">
-        <v>7.5</v>
-      </c>
-      <c r="P221">
-        <v>1.142</v>
-      </c>
-      <c r="Q221">
-        <v>2.25</v>
-      </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>1.975</v>
@@ -20185,13 +20185,13 @@
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y221">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -20398,7 +20398,7 @@
         <v>45199.5</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G224" t="s">
         <v>31</v>
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6941333</v>
+        <v>6941332</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45199.625</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M226">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O226">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P226">
+        <v>4.5</v>
+      </c>
+      <c r="Q226">
+        <v>-0.75</v>
+      </c>
+      <c r="R226">
+        <v>1.775</v>
+      </c>
+      <c r="S226">
+        <v>2.025</v>
+      </c>
+      <c r="T226">
         <v>3</v>
       </c>
-      <c r="Q226">
-        <v>-0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.95</v>
-      </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6941332</v>
+        <v>6941333</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45199.625</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L227">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20935,7 +20935,7 @@
         <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -21024,7 +21024,7 @@
         <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21822,7 +21822,7 @@
         <v>45219.625</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
         <v>41</v>
@@ -22181,7 +22181,7 @@
         <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6941345</v>
+        <v>6941347</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,40 +22356,40 @@
         <v>45225.5</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K246">
+        <v>1.95</v>
+      </c>
+      <c r="L246">
+        <v>3.5</v>
+      </c>
+      <c r="M246">
         <v>3.8</v>
       </c>
-      <c r="L246">
-        <v>3.75</v>
-      </c>
-      <c r="M246">
-        <v>1.85</v>
-      </c>
       <c r="N246">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
         <v>1.8</v>
@@ -22401,16 +22401,16 @@
         <v>2.75</v>
       </c>
       <c r="U246">
+        <v>1.875</v>
+      </c>
+      <c r="V246">
         <v>1.925</v>
       </c>
-      <c r="V246">
-        <v>1.875</v>
-      </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X246">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22425,7 +22425,7 @@
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6941347</v>
+        <v>6941345</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,40 +22445,40 @@
         <v>45225.5</v>
       </c>
       <c r="F247" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="L247">
+        <v>3.75</v>
+      </c>
+      <c r="M247">
+        <v>1.85</v>
+      </c>
+      <c r="N247">
         <v>3.5</v>
       </c>
-      <c r="M247">
-        <v>3.8</v>
-      </c>
-      <c r="N247">
-        <v>1.8</v>
-      </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R247">
         <v>1.8</v>
@@ -22490,16 +22490,16 @@
         <v>2.75</v>
       </c>
       <c r="U247">
+        <v>1.925</v>
+      </c>
+      <c r="V247">
         <v>1.875</v>
       </c>
-      <c r="V247">
-        <v>1.925</v>
-      </c>
       <c r="W247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22514,7 +22514,7 @@
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22611,7 +22611,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22623,76 +22623,76 @@
         <v>45226.5</v>
       </c>
       <c r="F249" t="s">
+        <v>38</v>
+      </c>
+      <c r="G249" t="s">
         <v>40</v>
       </c>
-      <c r="G249" t="s">
-        <v>46</v>
-      </c>
       <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
+      </c>
+      <c r="K249">
+        <v>4.75</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
+      <c r="M249">
+        <v>1.65</v>
+      </c>
+      <c r="N249">
+        <v>2.9</v>
+      </c>
+      <c r="O249">
+        <v>3.5</v>
+      </c>
+      <c r="P249">
+        <v>2.25</v>
+      </c>
+      <c r="Q249">
+        <v>0.25</v>
+      </c>
+      <c r="R249">
+        <v>1.875</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
         <v>3</v>
       </c>
-      <c r="I249">
-        <v>2</v>
-      </c>
-      <c r="J249" t="s">
-        <v>50</v>
-      </c>
-      <c r="K249">
+      <c r="U249">
         <v>1.85</v>
       </c>
-      <c r="L249">
-        <v>3.5</v>
-      </c>
-      <c r="M249">
-        <v>4</v>
-      </c>
-      <c r="N249">
-        <v>1.7</v>
-      </c>
-      <c r="O249">
-        <v>3.6</v>
-      </c>
-      <c r="P249">
-        <v>4.75</v>
-      </c>
-      <c r="Q249">
-        <v>-0.75</v>
-      </c>
-      <c r="R249">
-        <v>1.925</v>
-      </c>
-      <c r="S249">
-        <v>1.875</v>
-      </c>
-      <c r="T249">
-        <v>2.5</v>
-      </c>
-      <c r="U249">
-        <v>1.875</v>
-      </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z249">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22700,7 +22700,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22712,76 +22712,76 @@
         <v>45226.5</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K250">
+        <v>1.85</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>4</v>
+      </c>
+      <c r="N250">
+        <v>1.7</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
         <v>4.75</v>
       </c>
-      <c r="L250">
-        <v>4</v>
-      </c>
-      <c r="M250">
-        <v>1.65</v>
-      </c>
-      <c r="N250">
-        <v>2.9</v>
-      </c>
-      <c r="O250">
-        <v>3.5</v>
-      </c>
-      <c r="P250">
-        <v>2.25</v>
-      </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
         <v>1.875</v>
       </c>
-      <c r="S250">
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>1.875</v>
+      </c>
+      <c r="V250">
         <v>1.925</v>
       </c>
-      <c r="T250">
-        <v>3</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>1.95</v>
-      </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA250">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB250">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>45233.5</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
         <v>35</v>
@@ -23246,7 +23246,7 @@
         <v>45233.5</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
         <v>44</v>
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,13 +23958,13 @@
         <v>45239.5</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -23973,43 +23973,43 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M264">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N264">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O264">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24018,13 +24018,13 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,13 +24047,13 @@
         <v>45239.5</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -24062,43 +24062,43 @@
         <v>50</v>
       </c>
       <c r="K265">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L265">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M265">
+        <v>1.85</v>
+      </c>
+      <c r="N265">
+        <v>3.25</v>
+      </c>
+      <c r="O265">
         <v>3.3</v>
       </c>
-      <c r="N265">
-        <v>2</v>
-      </c>
-      <c r="O265">
-        <v>3.5</v>
-      </c>
       <c r="P265">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24107,13 +24107,13 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24139,7 +24139,7 @@
         <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>45254.625</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G275" t="s">
         <v>38</v>
@@ -25382,7 +25382,7 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
         <v>35</v>
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6941365</v>
+        <v>6941366</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,49 +26005,49 @@
         <v>45262.5</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
         <v>0</v>
       </c>
-      <c r="I287">
-        <v>1</v>
-      </c>
       <c r="J287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K287">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N287">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O287">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P287">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q287">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
+        <v>1.85</v>
+      </c>
+      <c r="S287">
         <v>1.95</v>
       </c>
-      <c r="S287">
-        <v>1.85</v>
-      </c>
       <c r="T287">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
         <v>1.975</v>
@@ -26056,19 +26056,19 @@
         <v>1.825</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
         <v>-1</v>
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6941366</v>
+        <v>6941365</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,49 +26094,49 @@
         <v>45262.5</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
         <v>1</v>
       </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
       <c r="J288" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K288">
+        <v>1.571</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>4.75</v>
+      </c>
+      <c r="N288">
+        <v>1.6</v>
+      </c>
+      <c r="O288">
+        <v>4</v>
+      </c>
+      <c r="P288">
+        <v>4.5</v>
+      </c>
+      <c r="Q288">
+        <v>-1</v>
+      </c>
+      <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.85</v>
+      </c>
+      <c r="T288">
         <v>3.25</v>
-      </c>
-      <c r="L288">
-        <v>3.5</v>
-      </c>
-      <c r="M288">
-        <v>2</v>
-      </c>
-      <c r="N288">
-        <v>3</v>
-      </c>
-      <c r="O288">
-        <v>3.25</v>
-      </c>
-      <c r="P288">
-        <v>2.2</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.85</v>
-      </c>
-      <c r="S288">
-        <v>1.95</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
       </c>
       <c r="U288">
         <v>1.975</v>
@@ -26145,19 +26145,19 @@
         <v>1.825</v>
       </c>
       <c r="W288">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA288">
-        <v>-1</v>
       </c>
       <c r="AB288">
         <v>-1</v>
@@ -26364,7 +26364,7 @@
         <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26806,7 +26806,7 @@
         <v>45268.5</v>
       </c>
       <c r="F296" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
         <v>44</v>
@@ -27254,7 +27254,7 @@
         <v>47</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27417,7 +27417,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6940763</v>
+        <v>6940818</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27429,61 +27429,61 @@
         <v>45275.5</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G303" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>51</v>
+      </c>
+      <c r="K303">
+        <v>2.55</v>
+      </c>
+      <c r="L303">
+        <v>3.4</v>
+      </c>
+      <c r="M303">
+        <v>2.45</v>
+      </c>
+      <c r="N303">
+        <v>2.375</v>
+      </c>
+      <c r="O303">
+        <v>3.5</v>
+      </c>
+      <c r="P303">
+        <v>2.625</v>
+      </c>
+      <c r="Q303">
         <v>0</v>
       </c>
-      <c r="J303" t="s">
-        <v>50</v>
-      </c>
-      <c r="K303">
-        <v>1.2</v>
-      </c>
-      <c r="L303">
-        <v>7</v>
-      </c>
-      <c r="M303">
-        <v>9.5</v>
-      </c>
-      <c r="N303">
-        <v>1.222</v>
-      </c>
-      <c r="O303">
-        <v>7</v>
-      </c>
-      <c r="P303">
-        <v>8.5</v>
-      </c>
-      <c r="Q303">
-        <v>-2</v>
-      </c>
       <c r="R303">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S303">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W303">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y303">
         <v>-1</v>
@@ -27498,7 +27498,7 @@
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6940818</v>
+        <v>6940763</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,61 +27607,61 @@
         <v>45275.5</v>
       </c>
       <c r="F305" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M305">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N305">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O305">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P305">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S305">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U305">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X305">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
@@ -27676,7 +27676,7 @@
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27966,7 +27966,7 @@
         <v>29</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7605556</v>
+        <v>6940819</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,58 +28141,58 @@
         <v>45282.5</v>
       </c>
       <c r="F311" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>50</v>
       </c>
       <c r="K311">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L311">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M311">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N311">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O311">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P311">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q311">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S311">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T311">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W311">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28201,16 +28201,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,58 +28319,58 @@
         <v>45282.5</v>
       </c>
       <c r="F313" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H313">
+        <v>3</v>
+      </c>
+      <c r="I313">
         <v>1</v>
-      </c>
-      <c r="I313">
-        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>50</v>
       </c>
       <c r="K313">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L313">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M313">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N313">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O313">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P313">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R313">
+        <v>1.925</v>
+      </c>
+      <c r="S313">
+        <v>1.875</v>
+      </c>
+      <c r="T313">
+        <v>3</v>
+      </c>
+      <c r="U313">
+        <v>1.85</v>
+      </c>
+      <c r="V313">
         <v>1.95</v>
       </c>
-      <c r="S313">
-        <v>1.85</v>
-      </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>2</v>
-      </c>
-      <c r="V313">
-        <v>1.8</v>
-      </c>
       <c r="W313">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28379,16 +28379,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC313">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28411,7 +28411,7 @@
         <v>34</v>
       </c>
       <c r="G314" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29209,7 +29209,7 @@
         <v>45290.5</v>
       </c>
       <c r="F323" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
         <v>47</v>
@@ -29476,7 +29476,7 @@
         <v>45329.625</v>
       </c>
       <c r="F326" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
         <v>30</v>
@@ -29924,7 +29924,7 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30025,31 +30025,31 @@
         <v>2.625</v>
       </c>
       <c r="N332">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O332">
         <v>3.3</v>
       </c>
       <c r="P332">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q332">
         <v>0</v>
       </c>
       <c r="R332">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S332">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T332">
         <v>2.5</v>
       </c>
       <c r="U332">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30087,7 +30087,7 @@
         <v>33</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K333">
         <v>1.222</v>
@@ -30099,31 +30099,31 @@
         <v>9</v>
       </c>
       <c r="N333">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O333">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P333">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Q333">
         <v>-1.75</v>
       </c>
       <c r="R333">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T333">
         <v>3.75</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30185,10 +30185,10 @@
         <v>-2.25</v>
       </c>
       <c r="R334">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T334">
         <v>3.5</v>
@@ -30259,19 +30259,19 @@
         <v>-1.75</v>
       </c>
       <c r="R335">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
         <v>3.25</v>
       </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V335">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>0</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Al Raed</t>
   </si>
   <si>
-    <t>Al Taee</t>
+    <t>Al Fateh SC</t>
   </si>
   <si>
-    <t>Al Fateh SC</t>
+    <t>Al Taee</t>
   </si>
   <si>
     <t>Abha</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC335"/>
+  <dimension ref="A1:AC333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5581824</v>
+        <v>5581822</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,73 +1533,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>2.25</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
         <v>2.9</v>
       </c>
-      <c r="L12">
-        <v>3.1</v>
-      </c>
-      <c r="M12">
-        <v>2.25</v>
-      </c>
-      <c r="N12">
-        <v>2.45</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5581822</v>
+        <v>5581824</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>2.9</v>
+      </c>
+      <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>2.25</v>
+      </c>
+      <c r="N13">
+        <v>2.45</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>2.8</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>2.25</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>2.9</v>
-      </c>
-      <c r="P13">
-        <v>3.4</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>44953.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3046,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5581834</v>
+        <v>5581840</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>44959.5</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="L31">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M31">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5581840</v>
+        <v>5581834</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>44959.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>44960.5</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4470,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -5535,10 +5535,10 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>40</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5967553</v>
+        <v>5967550</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,55 +5802,55 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="N60">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5859,16 +5859,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.1</v>
+        <v>0.45</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5967550</v>
+        <v>5967553</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,55 +5891,55 @@
         <v>44988.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>49</v>
       </c>
       <c r="K61">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="N61">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.45</v>
+        <v>2.1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6250,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5967559</v>
+        <v>5966981</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,58 +6514,58 @@
         <v>44994.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>3.5</v>
+        <v>1.533</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="N68">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
         <v>1.8</v>
       </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>1.85</v>
-      </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.2</v>
+        <v>0.444</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6574,16 +6574,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5966981</v>
+        <v>5967559</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,58 +6603,58 @@
         <v>44994.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>50</v>
       </c>
       <c r="K69">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.444</v>
+        <v>1.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6663,16 +6663,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7404,7 +7404,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5967567</v>
+        <v>5966986</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,55 +8116,55 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>51</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N86">
-        <v>1.952</v>
+        <v>2.875</v>
       </c>
       <c r="O86">
         <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
         <v>1.925</v>
-      </c>
-      <c r="V86">
-        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8176,16 +8176,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.925</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5966986</v>
+        <v>5967566</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q87">
         <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.925</v>
+      </c>
+      <c r="S87">
         <v>1.875</v>
-      </c>
-      <c r="S87">
-        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967566</v>
+        <v>5967567</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.875</v>
       </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>2</v>
-      </c>
-      <c r="V88">
-        <v>1.8</v>
-      </c>
       <c r="W88">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB88">
         <v>0.925</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45022.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5967571</v>
+        <v>5966990</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,19 +8650,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K92">
         <v>1.727</v>
@@ -8674,52 +8674,52 @@
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5966990</v>
+        <v>5967571</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,19 +8739,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>1.727</v>
@@ -8763,52 +8763,52 @@
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967574</v>
+        <v>5967575</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y95">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5966989</v>
+        <v>5967574</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
         <v>1.8</v>
@@ -9048,22 +9048,22 @@
         <v>2</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z96">
         <v>-1</v>
@@ -9072,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5967575</v>
+        <v>5966989</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,10 +9095,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9110,46 +9110,46 @@
         <v>51</v>
       </c>
       <c r="K97">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>7.5</v>
+      </c>
+      <c r="N97">
+        <v>1.615</v>
+      </c>
+      <c r="O97">
+        <v>4.333</v>
+      </c>
+      <c r="P97">
         <v>4</v>
-      </c>
-      <c r="M97">
-        <v>4.333</v>
-      </c>
-      <c r="N97">
-        <v>1.666</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>3.8</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.975</v>
-      </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9158,10 +9158,10 @@
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>41</v>
@@ -9807,7 +9807,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -10341,7 +10341,7 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10611,7 +10611,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11234,7 +11234,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5967595</v>
+        <v>5967000</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,40 +11409,40 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
         <v>2.4</v>
       </c>
       <c r="N123">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
         <v>2</v>
@@ -11454,31 +11454,31 @@
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5967592</v>
+        <v>5967595</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,76 +11498,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
         <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5967000</v>
+        <v>5967592</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K125">
+        <v>2.55</v>
+      </c>
+      <c r="L125">
+        <v>3.25</v>
+      </c>
+      <c r="M125">
         <v>2.5</v>
       </c>
-      <c r="L125">
-        <v>3.4</v>
-      </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
       <c r="N125">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>45061.64583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11765,7 +11765,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12213,7 +12213,7 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5967602</v>
+        <v>5967606</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45073.625</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>45073.625</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
@@ -13189,7 +13189,7 @@
         <v>45073.625</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5967606</v>
+        <v>5967602</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45073.625</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M144">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
         <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13726,7 +13726,7 @@
         <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -14435,7 +14435,7 @@
         <v>45150.5</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14702,7 +14702,7 @@
         <v>45151.625</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,13 +14791,13 @@
         <v>45152.5</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>3</v>
@@ -14806,7 +14806,7 @@
         <v>49</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L161">
         <v>3.75</v>
@@ -14815,31 +14815,31 @@
         <v>1.615</v>
       </c>
       <c r="N161">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P161">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14848,19 +14848,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,13 +14880,13 @@
         <v>45152.5</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14895,7 +14895,7 @@
         <v>49</v>
       </c>
       <c r="K162">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L162">
         <v>3.75</v>
@@ -14904,31 +14904,31 @@
         <v>1.615</v>
       </c>
       <c r="N162">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O162">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q162">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14937,19 +14937,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6933359</v>
+        <v>6932256</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45152.625</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N163">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X163">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6932256</v>
+        <v>6933359</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45152.625</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
+        <v>5</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.775</v>
+      </c>
+      <c r="S164">
+        <v>2.025</v>
+      </c>
+      <c r="T164">
         <v>3</v>
       </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>1.925</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB164">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6932259</v>
+        <v>6932260</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,76 +15770,76 @@
         <v>45157.625</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
         <v>4.333</v>
       </c>
       <c r="M172">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N172">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O172">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P172">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q172">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X172">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6932260</v>
+        <v>6932259</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45157.625</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L173">
         <v>4.333</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N173">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P173">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q173">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>45162.5</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16482,7 +16482,7 @@
         <v>45163.625</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6932264</v>
+        <v>6941307</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,13 +16838,13 @@
         <v>45166.625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16853,43 +16853,43 @@
         <v>50</v>
       </c>
       <c r="K184">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="L184">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N184">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O184">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q184">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16898,16 +16898,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,49 +16927,49 @@
         <v>45166.625</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>3</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M185">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N185">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R185">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U185">
         <v>1.9</v>
@@ -16978,25 +16978,25 @@
         <v>1.9</v>
       </c>
       <c r="W185">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6932265</v>
+        <v>6932264</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45166.625</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>3</v>
-      </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="L186">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="M186">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="N186">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>1.222</v>
+        <v>8</v>
       </c>
       <c r="Q186">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA186">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17108,7 +17108,7 @@
         <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17286,7 +17286,7 @@
         <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17360,7 +17360,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6932266</v>
+        <v>6941310</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17372,76 +17372,76 @@
         <v>45167.625</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L190">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N190">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O190">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q190">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6941310</v>
+        <v>6932266</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,76 +17461,76 @@
         <v>45167.625</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H191">
+        <v>4</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>50</v>
+      </c>
+      <c r="K191">
+        <v>1.333</v>
+      </c>
+      <c r="L191">
+        <v>4.75</v>
+      </c>
+      <c r="M191">
+        <v>6.5</v>
+      </c>
+      <c r="N191">
+        <v>1.363</v>
+      </c>
+      <c r="O191">
+        <v>5.25</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1.5</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>3.25</v>
+      </c>
+      <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
+        <v>1.975</v>
+      </c>
+      <c r="W191">
+        <v>0.363</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191" t="s">
-        <v>51</v>
-      </c>
-      <c r="K191">
-        <v>2.3</v>
-      </c>
-      <c r="L191">
-        <v>3.2</v>
-      </c>
-      <c r="M191">
-        <v>2.75</v>
-      </c>
-      <c r="N191">
-        <v>1.95</v>
-      </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>3.4</v>
-      </c>
-      <c r="Q191">
-        <v>-0.5</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.825</v>
-      </c>
-      <c r="T191">
-        <v>2.5</v>
-      </c>
-      <c r="U191">
-        <v>1.9</v>
-      </c>
-      <c r="V191">
-        <v>1.9</v>
-      </c>
-      <c r="W191">
-        <v>-1</v>
-      </c>
-      <c r="X191">
-        <v>2.3</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>-1</v>
-      </c>
       <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.825</v>
       </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
       <c r="AC191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17639,7 +17639,7 @@
         <v>45170.5</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
         <v>41</v>
@@ -18084,7 +18084,7 @@
         <v>45171.625</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
         <v>45</v>
@@ -18710,7 +18710,7 @@
         <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18977,7 +18977,7 @@
         <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6941324</v>
+        <v>6941325</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,58 +19152,58 @@
         <v>45190.5</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
         <v>50</v>
       </c>
       <c r="K210">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L210">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="N210">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O210">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19212,16 +19212,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45190.5</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>51</v>
+      </c>
+      <c r="K211">
+        <v>13</v>
+      </c>
+      <c r="L211">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>1.142</v>
+      </c>
+      <c r="N211">
+        <v>15</v>
+      </c>
+      <c r="O211">
+        <v>9</v>
+      </c>
+      <c r="P211">
+        <v>1.111</v>
+      </c>
+      <c r="Q211">
+        <v>2.5</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.825</v>
+      </c>
+      <c r="T211">
         <v>4</v>
       </c>
-      <c r="I211">
-        <v>3</v>
-      </c>
-      <c r="J211" t="s">
-        <v>50</v>
-      </c>
-      <c r="K211">
-        <v>1.7</v>
-      </c>
-      <c r="L211">
-        <v>3.7</v>
-      </c>
-      <c r="M211">
-        <v>4.25</v>
-      </c>
-      <c r="N211">
-        <v>1.45</v>
-      </c>
-      <c r="O211">
-        <v>4.2</v>
-      </c>
-      <c r="P211">
-        <v>5.5</v>
-      </c>
-      <c r="Q211">
-        <v>-1</v>
-      </c>
-      <c r="R211">
-        <v>1.775</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
-      </c>
-      <c r="T211">
-        <v>2.75</v>
-      </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6940734</v>
+        <v>6941324</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45190.5</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>13</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M212">
-        <v>1.142</v>
+        <v>4.5</v>
       </c>
       <c r="N212">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="O212">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="Q212">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X212">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -20042,7 +20042,7 @@
         <v>45198.5</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
         <v>33</v>
@@ -20398,7 +20398,7 @@
         <v>45199.5</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
         <v>31</v>
@@ -20935,7 +20935,7 @@
         <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -21024,7 +21024,7 @@
         <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6940744</v>
+        <v>6941340</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,58 +21733,58 @@
         <v>45219.625</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239">
         <v>1</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
       </c>
       <c r="J239" t="s">
         <v>50</v>
       </c>
       <c r="K239">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="L239">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M239">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="N239">
-        <v>1.111</v>
+        <v>1.4</v>
       </c>
       <c r="O239">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P239">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="Q239">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R239">
+        <v>1.85</v>
+      </c>
+      <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
+        <v>3.25</v>
+      </c>
+      <c r="U239">
         <v>1.9</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.9</v>
       </c>
-      <c r="T239">
-        <v>3.75</v>
-      </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
-      <c r="V239">
-        <v>1.925</v>
-      </c>
       <c r="W239">
-        <v>0.111</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21793,16 +21793,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
       <c r="AC239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21810,7 +21810,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6941340</v>
+        <v>6940744</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21822,58 +21822,58 @@
         <v>45219.625</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>50</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M240">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="N240">
-        <v>1.4</v>
+        <v>1.111</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P240">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
-        <v>0.3999999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21882,16 +21882,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22181,7 +22181,7 @@
         <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22626,7 +22626,7 @@
         <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22712,7 +22712,7 @@
         <v>45226.5</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
         <v>46</v>
@@ -23157,7 +23157,7 @@
         <v>45233.5</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
         <v>35</v>
@@ -23246,7 +23246,7 @@
         <v>45233.5</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
         <v>44</v>
@@ -23961,7 +23961,7 @@
         <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -24139,7 +24139,7 @@
         <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24925,7 +24925,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6941361</v>
+        <v>6940756</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24937,58 +24937,58 @@
         <v>45254.625</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
         <v>50</v>
       </c>
       <c r="K275">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L275">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M275">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="N275">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="O275">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P275">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="Q275">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U275">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W275">
-        <v>2.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -24997,16 +24997,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6940756</v>
+        <v>6941361</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,58 +25026,58 @@
         <v>45254.625</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276">
         <v>3</v>
-      </c>
-      <c r="I276">
-        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>50</v>
       </c>
       <c r="K276">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L276">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M276">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="N276">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="O276">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P276">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q276">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V276">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W276">
-        <v>0.2849999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6941360</v>
+        <v>6940815</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>45255.625</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H278">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L278">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M278">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N278">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
         <v>3.4</v>
       </c>
       <c r="P278">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S278">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
         <v>2.75</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V278">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
+        <v>-1</v>
+      </c>
+      <c r="AA278">
+        <v>0.825</v>
+      </c>
+      <c r="AB278">
+        <v>-1</v>
+      </c>
+      <c r="AC278">
         <v>1.025</v>
-      </c>
-      <c r="AA278">
-        <v>-1</v>
-      </c>
-      <c r="AB278">
-        <v>1</v>
-      </c>
-      <c r="AC278">
-        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25281,7 +25281,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6940815</v>
+        <v>6941360</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25293,76 +25293,76 @@
         <v>45255.625</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K279">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L279">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M279">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O279">
         <v>3.4</v>
       </c>
       <c r="P279">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
         <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S279">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
         <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X279">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC279">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25382,7 +25382,7 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G280" t="s">
         <v>35</v>
@@ -25548,7 +25548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6941374</v>
+        <v>6941371</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25560,76 +25560,76 @@
         <v>45260.5</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G282" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H282">
         <v>0</v>
       </c>
       <c r="I282">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L282">
+        <v>3.75</v>
+      </c>
+      <c r="M282">
         <v>4</v>
       </c>
-      <c r="M282">
-        <v>1.615</v>
-      </c>
       <c r="N282">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O282">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P282">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>1.8</v>
+      </c>
+      <c r="T282">
+        <v>2.5</v>
+      </c>
+      <c r="U282">
+        <v>1.875</v>
+      </c>
+      <c r="V282">
         <v>1.925</v>
       </c>
-      <c r="S282">
-        <v>1.875</v>
-      </c>
-      <c r="T282">
-        <v>3.25</v>
-      </c>
-      <c r="U282">
-        <v>1.95</v>
-      </c>
-      <c r="V282">
-        <v>1.85</v>
-      </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y282">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA282">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB282">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25637,7 +25637,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6941371</v>
+        <v>6941374</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25649,76 +25649,76 @@
         <v>45260.5</v>
       </c>
       <c r="F283" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J283" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K283">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L283">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M283">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N283">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P283">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R283">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V283">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC283">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26094,10 +26094,10 @@
         <v>45262.5</v>
       </c>
       <c r="F288" t="s">
+        <v>39</v>
+      </c>
+      <c r="G288" t="s">
         <v>40</v>
-      </c>
-      <c r="G288" t="s">
-        <v>39</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6941379</v>
+        <v>6941378</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,13 +26628,13 @@
         <v>45268.5</v>
       </c>
       <c r="F294" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H294">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -26643,43 +26643,43 @@
         <v>50</v>
       </c>
       <c r="K294">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L294">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N294">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O294">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q294">
         <v>-0.75</v>
       </c>
       <c r="R294">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W294">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26688,13 +26688,13 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC294">
         <v>-1</v>
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6941378</v>
+        <v>6940759</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,76 +26717,76 @@
         <v>45268.5</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H295">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K295">
-        <v>1.75</v>
+        <v>9.5</v>
       </c>
       <c r="L295">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M295">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="N295">
-        <v>1.7</v>
+        <v>15</v>
       </c>
       <c r="O295">
+        <v>9</v>
+      </c>
+      <c r="P295">
+        <v>1.111</v>
+      </c>
+      <c r="Q295">
+        <v>2.5</v>
+      </c>
+      <c r="R295">
+        <v>1.9</v>
+      </c>
+      <c r="S295">
+        <v>1.9</v>
+      </c>
+      <c r="T295">
         <v>3.75</v>
       </c>
-      <c r="P295">
-        <v>4.5</v>
-      </c>
-      <c r="Q295">
-        <v>-0.75</v>
-      </c>
-      <c r="R295">
-        <v>1.95</v>
-      </c>
-      <c r="S295">
-        <v>1.85</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V295">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W295">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z295">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6940759</v>
+        <v>6941379</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,76 +26806,76 @@
         <v>45268.5</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G296" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H296">
+        <v>3</v>
+      </c>
+      <c r="I296">
         <v>1</v>
       </c>
-      <c r="I296">
-        <v>2</v>
-      </c>
       <c r="J296" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K296">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="L296">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M296">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="N296">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="O296">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P296">
-        <v>1.111</v>
+        <v>4</v>
       </c>
       <c r="Q296">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R296">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U296">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V296">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA296">
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC296">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27254,7 +27254,7 @@
         <v>47</v>
       </c>
       <c r="G301" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27429,7 +27429,7 @@
         <v>45275.5</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G303" t="s">
         <v>37</v>
@@ -27966,7 +27966,7 @@
         <v>29</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,58 +28141,58 @@
         <v>45282.5</v>
       </c>
       <c r="F311" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H311">
+        <v>3</v>
+      </c>
+      <c r="I311">
         <v>1</v>
-      </c>
-      <c r="I311">
-        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>50</v>
       </c>
       <c r="K311">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L311">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M311">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N311">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O311">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P311">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R311">
+        <v>1.925</v>
+      </c>
+      <c r="S311">
+        <v>1.875</v>
+      </c>
+      <c r="T311">
+        <v>3</v>
+      </c>
+      <c r="U311">
+        <v>1.85</v>
+      </c>
+      <c r="V311">
         <v>1.95</v>
       </c>
-      <c r="S311">
-        <v>1.85</v>
-      </c>
-      <c r="T311">
-        <v>2.5</v>
-      </c>
-      <c r="U311">
-        <v>2</v>
-      </c>
-      <c r="V311">
-        <v>1.8</v>
-      </c>
       <c r="W311">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28201,16 +28201,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7605556</v>
+        <v>6940819</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,58 +28319,58 @@
         <v>45282.5</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>50</v>
       </c>
       <c r="K313">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L313">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M313">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N313">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O313">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P313">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q313">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T313">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28379,16 +28379,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28411,7 +28411,7 @@
         <v>34</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28752,7 +28752,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,76 +28764,76 @@
         <v>45288.5</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G318" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K318">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M318">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N318">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O318">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P318">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q318">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R318">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S318">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T318">
         <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V318">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X318">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
         <v>-1</v>
       </c>
       <c r="AC318">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28841,7 +28841,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28853,76 +28853,76 @@
         <v>45288.5</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H319">
         <v>1</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K319">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L319">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N319">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O319">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P319">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q319">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
         <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W319">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
+        <v>-1</v>
+      </c>
+      <c r="AA319">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB319">
+        <v>-1</v>
+      </c>
+      <c r="AC319">
         <v>1</v>
-      </c>
-      <c r="AA319">
-        <v>-1</v>
-      </c>
-      <c r="AB319">
-        <v>-1</v>
-      </c>
-      <c r="AC319">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28930,7 +28930,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6940767</v>
+        <v>6941392</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28942,76 +28942,76 @@
         <v>45289.5</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H320">
+        <v>4</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+      <c r="J320" t="s">
+        <v>50</v>
+      </c>
+      <c r="K320">
+        <v>1.666</v>
+      </c>
+      <c r="L320">
+        <v>4</v>
+      </c>
+      <c r="M320">
+        <v>4.333</v>
+      </c>
+      <c r="N320">
+        <v>1.533</v>
+      </c>
+      <c r="O320">
+        <v>4.2</v>
+      </c>
+      <c r="P320">
+        <v>5.25</v>
+      </c>
+      <c r="Q320">
+        <v>-1</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.9</v>
+      </c>
+      <c r="T320">
+        <v>3</v>
+      </c>
+      <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
+        <v>1.85</v>
+      </c>
+      <c r="W320">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>-1</v>
+      </c>
+      <c r="Z320">
         <v>0</v>
       </c>
-      <c r="I320">
-        <v>2</v>
-      </c>
-      <c r="J320" t="s">
-        <v>49</v>
-      </c>
-      <c r="K320">
-        <v>10</v>
-      </c>
-      <c r="L320">
-        <v>6</v>
-      </c>
-      <c r="M320">
-        <v>1.222</v>
-      </c>
-      <c r="N320">
-        <v>17</v>
-      </c>
-      <c r="O320">
-        <v>8</v>
-      </c>
-      <c r="P320">
-        <v>1.111</v>
-      </c>
-      <c r="Q320">
-        <v>2.5</v>
-      </c>
-      <c r="R320">
-        <v>1.8</v>
-      </c>
-      <c r="S320">
-        <v>2</v>
-      </c>
-      <c r="T320">
-        <v>3.5</v>
-      </c>
-      <c r="U320">
-        <v>1.85</v>
-      </c>
-      <c r="V320">
-        <v>1.95</v>
-      </c>
-      <c r="W320">
-        <v>-1</v>
-      </c>
-      <c r="X320">
-        <v>-1</v>
-      </c>
-      <c r="Y320">
-        <v>0.111</v>
-      </c>
-      <c r="Z320">
-        <v>0.8</v>
-      </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6941392</v>
+        <v>6940767</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,76 +29031,76 @@
         <v>45289.5</v>
       </c>
       <c r="F321" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H321">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M321">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="N321">
-        <v>1.533</v>
+        <v>17</v>
       </c>
       <c r="O321">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P321">
-        <v>5.25</v>
+        <v>1.111</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R321">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T321">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U321">
+        <v>1.85</v>
+      </c>
+      <c r="V321">
         <v>1.95</v>
       </c>
-      <c r="V321">
-        <v>1.85</v>
-      </c>
       <c r="W321">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.95</v>
-      </c>
-      <c r="AC321">
-        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29209,7 +29209,7 @@
         <v>45290.5</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G323" t="s">
         <v>47</v>
@@ -29476,7 +29476,7 @@
         <v>45329.625</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
         <v>30</v>
@@ -29924,7 +29924,7 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -29998,7 +29998,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6941398</v>
+        <v>6940772</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30007,49 +30007,49 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K332">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="L332">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M332">
-        <v>2.625</v>
+        <v>10</v>
       </c>
       <c r="N332">
-        <v>2.75</v>
+        <v>1.181</v>
       </c>
       <c r="O332">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P332">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q332">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S332">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T332">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30072,7 +30072,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6940770</v>
+        <v>7733874</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30081,49 +30081,49 @@
         <v>28</v>
       </c>
       <c r="E333" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K333">
         <v>1.222</v>
       </c>
       <c r="L333">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M333">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N333">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O333">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P333">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q333">
         <v>-1.75</v>
       </c>
       <c r="R333">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30138,154 +30138,6 @@
         <v>0</v>
       </c>
       <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>6940772</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F334" t="s">
-        <v>44</v>
-      </c>
-      <c r="G334" t="s">
-        <v>38</v>
-      </c>
-      <c r="K334">
-        <v>1.181</v>
-      </c>
-      <c r="L334">
-        <v>7.5</v>
-      </c>
-      <c r="M334">
-        <v>10</v>
-      </c>
-      <c r="N334">
-        <v>1.181</v>
-      </c>
-      <c r="O334">
-        <v>7.5</v>
-      </c>
-      <c r="P334">
-        <v>10</v>
-      </c>
-      <c r="Q334">
-        <v>-2.25</v>
-      </c>
-      <c r="R334">
-        <v>2</v>
-      </c>
-      <c r="S334">
-        <v>1.8</v>
-      </c>
-      <c r="T334">
-        <v>3.5</v>
-      </c>
-      <c r="U334">
-        <v>1.875</v>
-      </c>
-      <c r="V334">
-        <v>1.925</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>7733874</v>
-      </c>
-      <c r="C335" t="s">
-        <v>28</v>
-      </c>
-      <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F335" t="s">
-        <v>30</v>
-      </c>
-      <c r="G335" t="s">
-        <v>46</v>
-      </c>
-      <c r="K335">
-        <v>1.222</v>
-      </c>
-      <c r="L335">
-        <v>6</v>
-      </c>
-      <c r="M335">
-        <v>9.5</v>
-      </c>
-      <c r="N335">
-        <v>1.222</v>
-      </c>
-      <c r="O335">
-        <v>6</v>
-      </c>
-      <c r="P335">
-        <v>9.5</v>
-      </c>
-      <c r="Q335">
-        <v>-1.75</v>
-      </c>
-      <c r="R335">
-        <v>1.85</v>
-      </c>
-      <c r="S335">
-        <v>1.95</v>
-      </c>
-      <c r="T335">
-        <v>3.25</v>
-      </c>
-      <c r="U335">
-        <v>1.95</v>
-      </c>
-      <c r="V335">
-        <v>1.85</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
-      <c r="Y335">
-        <v>0</v>
-      </c>
-      <c r="Z335">
-        <v>0</v>
-      </c>
-      <c r="AA335">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Al Raed</t>
   </si>
   <si>
-    <t>Al Taee</t>
+    <t>Al Fateh SC</t>
   </si>
   <si>
-    <t>Al Fateh SC</t>
+    <t>Al Taee</t>
   </si>
   <si>
     <t>Abha</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC344"/>
+  <dimension ref="A1:AC343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5581824</v>
+        <v>5581822</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,73 +1533,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>2.25</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
         <v>2.9</v>
       </c>
-      <c r="L12">
-        <v>3.1</v>
-      </c>
-      <c r="M12">
-        <v>2.25</v>
-      </c>
-      <c r="N12">
-        <v>2.45</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
         <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5581822</v>
+        <v>5581824</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,73 +1622,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>2.9</v>
+      </c>
+      <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>2.25</v>
+      </c>
+      <c r="N13">
+        <v>2.45</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>2.8</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>2.25</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>2.9</v>
-      </c>
-      <c r="P13">
-        <v>3.4</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>44953.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3046,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5581834</v>
+        <v>5581840</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>44959.5</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="L31">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="M31">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T31">
         <v>3</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5581840</v>
+        <v>5581834</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>44959.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>3</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>44960.5</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3577,7 +3577,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5967535</v>
+        <v>5967538</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,58 +4022,58 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>50</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
         <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4082,16 +4082,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5967538</v>
+        <v>5967535</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,58 +4200,58 @@
         <v>44967.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>50</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
         <v>3.25</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4260,16 +4260,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4823,7 +4823,7 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -5535,10 +5535,10 @@
         <v>44987.41666666666</v>
       </c>
       <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>40</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7404,7 +7404,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967566</v>
+        <v>5967567</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
         <v>1.925</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.875</v>
       </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>1.8</v>
-      </c>
       <c r="W87">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB87">
         <v>0.925</v>
       </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967567</v>
+        <v>5967566</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.1</v>
+      </c>
+      <c r="N88">
         <v>2.9</v>
-      </c>
-      <c r="N88">
-        <v>1.952</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45022.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5966990</v>
+        <v>5967571</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,19 +8650,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>1.727</v>
@@ -8674,52 +8674,52 @@
         <v>3.75</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5967571</v>
+        <v>5966990</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,19 +8739,19 @@
         <v>45025.66666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>1.727</v>
@@ -8763,52 +8763,52 @@
         <v>3.75</v>
       </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5966989</v>
+        <v>5967575</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,10 +8917,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8932,46 +8932,46 @@
         <v>51</v>
       </c>
       <c r="K95">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8980,10 +8980,10 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9009,7 +9009,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5967575</v>
+        <v>5966989</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,10 +9095,10 @@
         <v>45026.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9110,46 +9110,46 @@
         <v>51</v>
       </c>
       <c r="K97">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>7.5</v>
+      </c>
+      <c r="N97">
+        <v>1.615</v>
+      </c>
+      <c r="O97">
+        <v>4.333</v>
+      </c>
+      <c r="P97">
         <v>4</v>
-      </c>
-      <c r="M97">
-        <v>4.333</v>
-      </c>
-      <c r="N97">
-        <v>1.666</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
-      <c r="P97">
-        <v>3.8</v>
       </c>
       <c r="Q97">
         <v>-0.75</v>
       </c>
       <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.85</v>
+      </c>
+      <c r="V97">
         <v>1.95</v>
       </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.975</v>
-      </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9158,10 +9158,10 @@
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB97">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9540,7 +9540,7 @@
         <v>45043.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>41</v>
@@ -9896,7 +9896,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5967582</v>
+        <v>5967583</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10341,10 +10341,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10356,43 +10356,43 @@
         <v>50</v>
       </c>
       <c r="K111">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L111">
+        <v>3.5</v>
+      </c>
+      <c r="M111">
         <v>3.1</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>2.4</v>
       </c>
-      <c r="N111">
-        <v>2.2</v>
-      </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
         <v>1.95</v>
-      </c>
-      <c r="S111">
-        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10401,13 +10401,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5967583</v>
+        <v>5967582</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,10 +10430,10 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10445,43 +10445,43 @@
         <v>50</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
         <v>1.85</v>
-      </c>
-      <c r="S112">
-        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W112">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10490,13 +10490,13 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967584</v>
+        <v>5966995</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45049.64583333334</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>1.615</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>4</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
         <v>3</v>
       </c>
-      <c r="N114">
-        <v>2.1</v>
-      </c>
-      <c r="O114">
-        <v>3.25</v>
-      </c>
-      <c r="P114">
-        <v>3</v>
-      </c>
-      <c r="Q114">
-        <v>-0.25</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA114">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5966995</v>
+        <v>5967584</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,76 +10697,76 @@
         <v>45049.64583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L115">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.775</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
       <c r="W115">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z115">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11145,7 +11145,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11234,7 +11234,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11676,7 +11676,7 @@
         <v>45061.64583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11765,7 +11765,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5967600</v>
+        <v>5967598</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,49 +12299,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
         <v>1.825</v>
@@ -12350,25 +12350,25 @@
         <v>1.975</v>
       </c>
       <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
         <v>1</v>
       </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5967598</v>
+        <v>5967600</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,49 +12388,49 @@
         <v>45068.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>4</v>
-      </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>3.5</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
         <v>3.3</v>
       </c>
-      <c r="M134">
-        <v>2.25</v>
-      </c>
-      <c r="N134">
-        <v>3.1</v>
-      </c>
-      <c r="O134">
-        <v>3.4</v>
-      </c>
       <c r="P134">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.825</v>
@@ -12439,25 +12439,25 @@
         <v>1.975</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5967597</v>
+        <v>5967005</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
         <v>1</v>
       </c>
-      <c r="I135">
+      <c r="J135" t="s">
+        <v>50</v>
+      </c>
+      <c r="K135">
+        <v>1.833</v>
+      </c>
+      <c r="L135">
+        <v>3.75</v>
+      </c>
+      <c r="M135">
+        <v>3.4</v>
+      </c>
+      <c r="N135">
+        <v>1.7</v>
+      </c>
+      <c r="O135">
         <v>4</v>
       </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>2.1</v>
-      </c>
-      <c r="L135">
-        <v>3.3</v>
-      </c>
-      <c r="M135">
-        <v>3</v>
-      </c>
-      <c r="N135">
-        <v>1.909</v>
-      </c>
-      <c r="O135">
-        <v>3.3</v>
-      </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
+        <v>-0.75</v>
+      </c>
+      <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
+        <v>1.825</v>
+      </c>
+      <c r="W135">
+        <v>0.7</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.4625</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>2</v>
-      </c>
-      <c r="S135">
-        <v>1.8</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>2.5</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
-      <c r="AA135">
-        <v>0.8</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5967005</v>
+        <v>5967597</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z136">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>45073.625</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13189,7 +13189,7 @@
         <v>45073.625</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5967606</v>
+        <v>5967007</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45073.625</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
+        <v>4.2</v>
+      </c>
+      <c r="M144">
+        <v>4.75</v>
+      </c>
+      <c r="N144">
+        <v>1.571</v>
+      </c>
+      <c r="O144">
+        <v>4.333</v>
+      </c>
+      <c r="P144">
+        <v>4.333</v>
+      </c>
+      <c r="Q144">
+        <v>-1</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.825</v>
+      </c>
+      <c r="T144">
         <v>3.5</v>
       </c>
-      <c r="M144">
-        <v>2.15</v>
-      </c>
-      <c r="N144">
-        <v>2.625</v>
-      </c>
-      <c r="O144">
-        <v>3.5</v>
-      </c>
-      <c r="P144">
-        <v>2.25</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>2.025</v>
-      </c>
-      <c r="S144">
-        <v>1.775</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
       <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.85</v>
       </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5967007</v>
+        <v>5967006</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,10 +13367,10 @@
         <v>45073.625</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13382,40 +13382,40 @@
         <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
+        <v>1.727</v>
+      </c>
+      <c r="N145">
+        <v>5.75</v>
+      </c>
+      <c r="O145">
         <v>4.75</v>
       </c>
-      <c r="N145">
-        <v>1.571</v>
-      </c>
-      <c r="O145">
-        <v>4.333</v>
-      </c>
       <c r="P145">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13424,19 +13424,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>3.333</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5967006</v>
+        <v>5967606</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45073.625</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K146">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N146">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="O146">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q146">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y146">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5967010</v>
+        <v>5967008</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,73 +13901,73 @@
         <v>45077.625</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>50</v>
+      </c>
+      <c r="K151">
+        <v>1.222</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>8.5</v>
+      </c>
+      <c r="N151">
+        <v>1.222</v>
+      </c>
+      <c r="O151">
+        <v>6.5</v>
+      </c>
+      <c r="P151">
+        <v>8</v>
+      </c>
+      <c r="Q151">
+        <v>-2</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
         <v>4</v>
       </c>
-      <c r="J151" t="s">
-        <v>49</v>
-      </c>
-      <c r="K151">
-        <v>4.333</v>
-      </c>
-      <c r="L151">
-        <v>4.2</v>
-      </c>
-      <c r="M151">
-        <v>1.6</v>
-      </c>
-      <c r="N151">
-        <v>4.5</v>
-      </c>
-      <c r="O151">
-        <v>4.333</v>
-      </c>
-      <c r="P151">
-        <v>1.5</v>
-      </c>
-      <c r="Q151">
-        <v>1</v>
-      </c>
-      <c r="R151">
-        <v>1.95</v>
-      </c>
-      <c r="S151">
-        <v>1.85</v>
-      </c>
-      <c r="T151">
-        <v>3.25</v>
-      </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5967008</v>
+        <v>5967009</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,58 +13990,58 @@
         <v>45077.625</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H152">
         <v>3</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>50</v>
       </c>
       <c r="K152">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L152">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M152">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="N152">
-        <v>1.222</v>
+        <v>1.363</v>
       </c>
       <c r="O152">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P152">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q152">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14050,16 +14050,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5967009</v>
+        <v>5967010</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,40 +14079,40 @@
         <v>45077.625</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L153">
         <v>4.2</v>
       </c>
       <c r="M153">
+        <v>1.6</v>
+      </c>
+      <c r="N153">
         <v>4.5</v>
       </c>
-      <c r="N153">
-        <v>1.363</v>
-      </c>
       <c r="O153">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R153">
         <v>1.95</v>
@@ -14121,7 +14121,7 @@
         <v>1.85</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
         <v>1.875</v>
@@ -14130,25 +14130,25 @@
         <v>1.925</v>
       </c>
       <c r="W153">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14171,7 +14171,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14260,7 +14260,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>45150.5</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14613,7 +14613,7 @@
         <v>45151.625</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
         <v>32</v>
@@ -14779,7 +14779,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14791,13 +14791,13 @@
         <v>45152.5</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>3</v>
@@ -14806,7 +14806,7 @@
         <v>49</v>
       </c>
       <c r="K161">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L161">
         <v>3.75</v>
@@ -14815,31 +14815,31 @@
         <v>1.615</v>
       </c>
       <c r="N161">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O161">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q161">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14848,19 +14848,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,13 +14880,13 @@
         <v>45152.5</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14895,7 +14895,7 @@
         <v>49</v>
       </c>
       <c r="K162">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L162">
         <v>3.75</v>
@@ -14904,31 +14904,31 @@
         <v>1.615</v>
       </c>
       <c r="N162">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P162">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14937,19 +14937,19 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15328,7 +15328,7 @@
         <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15862,7 +15862,7 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15948,7 +15948,7 @@
         <v>45162.5</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6933358</v>
+        <v>6941303</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45162.625</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>4</v>
-      </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K175">
+        <v>1.181</v>
+      </c>
+      <c r="L175">
+        <v>7</v>
+      </c>
+      <c r="M175">
         <v>11</v>
       </c>
-      <c r="L175">
-        <v>6.5</v>
-      </c>
-      <c r="M175">
-        <v>1.2</v>
-      </c>
       <c r="N175">
-        <v>8.5</v>
+        <v>1.111</v>
       </c>
       <c r="O175">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P175">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q175">
-        <v>1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R175">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941302</v>
+        <v>6933358</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,49 +16126,49 @@
         <v>45162.625</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="L176">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M176">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U176">
         <v>1.875</v>
@@ -16180,22 +16180,22 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6941303</v>
+        <v>6941302</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,61 +16215,61 @@
         <v>45162.625</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>1.181</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M177">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="N177">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>45163.625</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6941305</v>
+        <v>6932262</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45163.625</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
         <v>4</v>
       </c>
       <c r="M181">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N181">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6932262</v>
+        <v>6941305</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45163.625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L182">
         <v>4</v>
       </c>
       <c r="M182">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17197,7 +17197,7 @@
         <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17286,7 +17286,7 @@
         <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17550,7 +17550,7 @@
         <v>45170.5</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
         <v>41</v>
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6941314</v>
+        <v>6932267</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,56 +17728,56 @@
         <v>45170.625</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J194" t="s">
         <v>49</v>
       </c>
       <c r="K194">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L194">
         <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N194">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q194">
         <v>0</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
         <v>1.95</v>
       </c>
-      <c r="V194">
-        <v>1.85</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17785,19 +17785,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6932267</v>
+        <v>6941314</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,56 +17817,56 @@
         <v>45170.625</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
         <v>49</v>
       </c>
       <c r="K195">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L195">
         <v>3.4</v>
       </c>
       <c r="M195">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N195">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q195">
         <v>0</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="V195">
-        <v>1.95</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
@@ -17874,19 +17874,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>45171.625</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18621,7 +18621,7 @@
         <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18977,7 +18977,7 @@
         <v>48</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45190.5</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>51</v>
+      </c>
+      <c r="K211">
+        <v>13</v>
+      </c>
+      <c r="L211">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>1.142</v>
+      </c>
+      <c r="N211">
+        <v>15</v>
+      </c>
+      <c r="O211">
+        <v>9</v>
+      </c>
+      <c r="P211">
+        <v>1.111</v>
+      </c>
+      <c r="Q211">
+        <v>2.5</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.825</v>
+      </c>
+      <c r="T211">
         <v>4</v>
       </c>
-      <c r="I211">
-        <v>3</v>
-      </c>
-      <c r="J211" t="s">
-        <v>50</v>
-      </c>
-      <c r="K211">
-        <v>1.7</v>
-      </c>
-      <c r="L211">
-        <v>3.7</v>
-      </c>
-      <c r="M211">
-        <v>4.25</v>
-      </c>
-      <c r="N211">
-        <v>1.45</v>
-      </c>
-      <c r="O211">
-        <v>4.2</v>
-      </c>
-      <c r="P211">
-        <v>5.5</v>
-      </c>
-      <c r="Q211">
-        <v>-1</v>
-      </c>
-      <c r="R211">
-        <v>1.775</v>
-      </c>
-      <c r="S211">
-        <v>2.025</v>
-      </c>
-      <c r="T211">
-        <v>2.75</v>
-      </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45190.5</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M212">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N212">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O212">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X212">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19511,7 +19511,7 @@
         <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -20131,7 +20131,7 @@
         <v>45198.5</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
         <v>33</v>
@@ -20398,7 +20398,7 @@
         <v>45199.5</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
         <v>31</v>
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6941333</v>
+        <v>6941332</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45199.625</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M226">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O226">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P226">
+        <v>4.5</v>
+      </c>
+      <c r="Q226">
+        <v>-0.75</v>
+      </c>
+      <c r="R226">
+        <v>1.775</v>
+      </c>
+      <c r="S226">
+        <v>2.025</v>
+      </c>
+      <c r="T226">
         <v>3</v>
       </c>
-      <c r="Q226">
-        <v>-0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.95</v>
-      </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6941332</v>
+        <v>6941333</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45199.625</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L227">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20935,7 +20935,7 @@
         <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -21024,7 +21024,7 @@
         <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21733,7 +21733,7 @@
         <v>45219.625</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
         <v>41</v>
@@ -22181,7 +22181,7 @@
         <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22626,7 +22626,7 @@
         <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22712,7 +22712,7 @@
         <v>45226.5</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G250" t="s">
         <v>46</v>
@@ -23157,7 +23157,7 @@
         <v>45233.5</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
         <v>35</v>
@@ -23246,7 +23246,7 @@
         <v>45233.5</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
         <v>44</v>
@@ -23679,7 +23679,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7316920</v>
+        <v>7316919</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23691,76 +23691,76 @@
         <v>45235.5</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K261">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M261">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N261">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O261">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P261">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S261">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T261">
         <v>2.75</v>
       </c>
       <c r="U261">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V261">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC261">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7316919</v>
+        <v>7316920</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,76 +23780,76 @@
         <v>45235.5</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K262">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L262">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N262">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O262">
+        <v>3.8</v>
+      </c>
+      <c r="P262">
         <v>3.75</v>
       </c>
-      <c r="P262">
-        <v>1.85</v>
-      </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T262">
         <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y262">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB262">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,13 +23958,13 @@
         <v>45239.5</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -23973,43 +23973,43 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
+        <v>1.85</v>
+      </c>
+      <c r="N264">
+        <v>3.25</v>
+      </c>
+      <c r="O264">
         <v>3.3</v>
       </c>
-      <c r="N264">
-        <v>2</v>
-      </c>
-      <c r="O264">
-        <v>3.5</v>
-      </c>
       <c r="P264">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24018,13 +24018,13 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,13 +24047,13 @@
         <v>45239.5</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -24062,43 +24062,43 @@
         <v>50</v>
       </c>
       <c r="K265">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L265">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M265">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N265">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O265">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q265">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T265">
         <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W265">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24107,13 +24107,13 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24139,7 +24139,7 @@
         <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -25026,7 +25026,7 @@
         <v>45254.625</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
         <v>38</v>
@@ -25471,7 +25471,7 @@
         <v>45255.625</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G281" t="s">
         <v>35</v>
@@ -26094,10 +26094,10 @@
         <v>45262.5</v>
       </c>
       <c r="F288" t="s">
+        <v>39</v>
+      </c>
+      <c r="G288" t="s">
         <v>40</v>
-      </c>
-      <c r="G288" t="s">
-        <v>39</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26628,7 +26628,7 @@
         <v>45268.5</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G294" t="s">
         <v>44</v>
@@ -27165,7 +27165,7 @@
         <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -27429,7 +27429,7 @@
         <v>45275.5</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G303" t="s">
         <v>37</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6940763</v>
+        <v>6941381</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>45275.5</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304" t="s">
+        <v>49</v>
+      </c>
+      <c r="K304">
+        <v>2.6</v>
+      </c>
+      <c r="L304">
+        <v>3.4</v>
+      </c>
+      <c r="M304">
+        <v>2.4</v>
+      </c>
+      <c r="N304">
+        <v>2.75</v>
+      </c>
+      <c r="O304">
+        <v>3.25</v>
+      </c>
+      <c r="P304">
+        <v>2.375</v>
+      </c>
+      <c r="Q304">
         <v>0</v>
       </c>
-      <c r="J304" t="s">
-        <v>50</v>
-      </c>
-      <c r="K304">
-        <v>1.2</v>
-      </c>
-      <c r="L304">
-        <v>7</v>
-      </c>
-      <c r="M304">
-        <v>9.5</v>
-      </c>
-      <c r="N304">
-        <v>1.222</v>
-      </c>
-      <c r="O304">
-        <v>7</v>
-      </c>
-      <c r="P304">
-        <v>8.5</v>
-      </c>
-      <c r="Q304">
-        <v>-2</v>
-      </c>
       <c r="R304">
+        <v>2.025</v>
+      </c>
+      <c r="S304">
+        <v>1.775</v>
+      </c>
+      <c r="T304">
+        <v>2.5</v>
+      </c>
+      <c r="U304">
+        <v>1.95</v>
+      </c>
+      <c r="V304">
         <v>1.85</v>
       </c>
-      <c r="S304">
-        <v>1.95</v>
-      </c>
-      <c r="T304">
-        <v>3.75</v>
-      </c>
-      <c r="U304">
-        <v>1.9</v>
-      </c>
-      <c r="V304">
-        <v>1.9</v>
-      </c>
       <c r="W304">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6941381</v>
+        <v>6940763</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,76 +27607,76 @@
         <v>45275.5</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305">
         <v>0</v>
       </c>
-      <c r="I305">
-        <v>1</v>
-      </c>
       <c r="J305" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L305">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M305">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="N305">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O305">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P305">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q305">
+        <v>-2</v>
+      </c>
+      <c r="R305">
+        <v>1.85</v>
+      </c>
+      <c r="S305">
+        <v>1.95</v>
+      </c>
+      <c r="T305">
+        <v>3.75</v>
+      </c>
+      <c r="U305">
+        <v>1.9</v>
+      </c>
+      <c r="V305">
+        <v>1.9</v>
+      </c>
+      <c r="W305">
+        <v>0.222</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
         <v>0</v>
       </c>
-      <c r="R305">
-        <v>2.025</v>
-      </c>
-      <c r="S305">
-        <v>1.775</v>
-      </c>
-      <c r="T305">
-        <v>2.5</v>
-      </c>
-      <c r="U305">
-        <v>1.95</v>
-      </c>
-      <c r="V305">
-        <v>1.85</v>
-      </c>
-      <c r="W305">
-        <v>-1</v>
-      </c>
-      <c r="X305">
-        <v>-1</v>
-      </c>
-      <c r="Y305">
-        <v>1.375</v>
-      </c>
-      <c r="Z305">
-        <v>-1</v>
-      </c>
       <c r="AA305">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,10 +27874,10 @@
         <v>45281.5</v>
       </c>
       <c r="F308" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -27889,43 +27889,43 @@
         <v>50</v>
       </c>
       <c r="K308">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M308">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N308">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P308">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S308">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W308">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27934,16 +27934,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27951,7 +27951,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27963,10 +27963,10 @@
         <v>45281.5</v>
       </c>
       <c r="F309" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G309" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -27978,61 +27978,61 @@
         <v>50</v>
       </c>
       <c r="K309">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M309">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N309">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P309">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q309">
+        <v>-0.75</v>
+      </c>
+      <c r="R309">
+        <v>1.85</v>
+      </c>
+      <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
+        <v>2.75</v>
+      </c>
+      <c r="U309">
+        <v>1.975</v>
+      </c>
+      <c r="V309">
+        <v>1.825</v>
+      </c>
+      <c r="W309">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA309">
+        <v>-1</v>
+      </c>
+      <c r="AB309">
+        <v>0.4875</v>
+      </c>
+      <c r="AC309">
         <v>-0.5</v>
-      </c>
-      <c r="R309">
-        <v>2.025</v>
-      </c>
-      <c r="S309">
-        <v>1.775</v>
-      </c>
-      <c r="T309">
-        <v>2.25</v>
-      </c>
-      <c r="U309">
-        <v>1.775</v>
-      </c>
-      <c r="V309">
-        <v>2.025</v>
-      </c>
-      <c r="W309">
-        <v>1</v>
-      </c>
-      <c r="X309">
-        <v>-1</v>
-      </c>
-      <c r="Y309">
-        <v>-1</v>
-      </c>
-      <c r="Z309">
-        <v>1.025</v>
-      </c>
-      <c r="AA309">
-        <v>-1</v>
-      </c>
-      <c r="AB309">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC309">
-        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,58 +28141,58 @@
         <v>45282.5</v>
       </c>
       <c r="F311" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H311">
+        <v>3</v>
+      </c>
+      <c r="I311">
         <v>1</v>
-      </c>
-      <c r="I311">
-        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>50</v>
       </c>
       <c r="K311">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L311">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M311">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N311">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O311">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P311">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R311">
+        <v>1.925</v>
+      </c>
+      <c r="S311">
+        <v>1.875</v>
+      </c>
+      <c r="T311">
+        <v>3</v>
+      </c>
+      <c r="U311">
+        <v>1.85</v>
+      </c>
+      <c r="V311">
         <v>1.95</v>
       </c>
-      <c r="S311">
-        <v>1.85</v>
-      </c>
-      <c r="T311">
-        <v>2.5</v>
-      </c>
-      <c r="U311">
-        <v>2</v>
-      </c>
-      <c r="V311">
-        <v>1.8</v>
-      </c>
       <c r="W311">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X311">
         <v>-1</v>
@@ -28201,16 +28201,16 @@
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA311">
         <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC311">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7605556</v>
+        <v>6940819</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,58 +28319,58 @@
         <v>45282.5</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>50</v>
       </c>
       <c r="K313">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L313">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M313">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N313">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O313">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P313">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Q313">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T313">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -28379,16 +28379,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28411,7 +28411,7 @@
         <v>32</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28930,7 +28930,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6940767</v>
+        <v>6941392</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28942,76 +28942,76 @@
         <v>45289.5</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G320" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H320">
+        <v>4</v>
+      </c>
+      <c r="I320">
+        <v>3</v>
+      </c>
+      <c r="J320" t="s">
+        <v>50</v>
+      </c>
+      <c r="K320">
+        <v>1.666</v>
+      </c>
+      <c r="L320">
+        <v>4</v>
+      </c>
+      <c r="M320">
+        <v>4.333</v>
+      </c>
+      <c r="N320">
+        <v>1.533</v>
+      </c>
+      <c r="O320">
+        <v>4.2</v>
+      </c>
+      <c r="P320">
+        <v>5.25</v>
+      </c>
+      <c r="Q320">
+        <v>-1</v>
+      </c>
+      <c r="R320">
+        <v>1.9</v>
+      </c>
+      <c r="S320">
+        <v>1.9</v>
+      </c>
+      <c r="T320">
+        <v>3</v>
+      </c>
+      <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
+        <v>1.85</v>
+      </c>
+      <c r="W320">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>-1</v>
+      </c>
+      <c r="Z320">
         <v>0</v>
       </c>
-      <c r="I320">
-        <v>2</v>
-      </c>
-      <c r="J320" t="s">
-        <v>49</v>
-      </c>
-      <c r="K320">
-        <v>10</v>
-      </c>
-      <c r="L320">
-        <v>6</v>
-      </c>
-      <c r="M320">
-        <v>1.222</v>
-      </c>
-      <c r="N320">
-        <v>17</v>
-      </c>
-      <c r="O320">
-        <v>8</v>
-      </c>
-      <c r="P320">
-        <v>1.111</v>
-      </c>
-      <c r="Q320">
-        <v>2.5</v>
-      </c>
-      <c r="R320">
-        <v>1.8</v>
-      </c>
-      <c r="S320">
-        <v>2</v>
-      </c>
-      <c r="T320">
-        <v>3.5</v>
-      </c>
-      <c r="U320">
-        <v>1.85</v>
-      </c>
-      <c r="V320">
-        <v>1.95</v>
-      </c>
-      <c r="W320">
-        <v>-1</v>
-      </c>
-      <c r="X320">
-        <v>-1</v>
-      </c>
-      <c r="Y320">
-        <v>0.111</v>
-      </c>
-      <c r="Z320">
-        <v>0.8</v>
-      </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29019,7 +29019,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6941392</v>
+        <v>6940767</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29031,76 +29031,76 @@
         <v>45289.5</v>
       </c>
       <c r="F321" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H321">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M321">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="N321">
-        <v>1.533</v>
+        <v>17</v>
       </c>
       <c r="O321">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P321">
-        <v>5.25</v>
+        <v>1.111</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R321">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T321">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U321">
+        <v>1.85</v>
+      </c>
+      <c r="V321">
         <v>1.95</v>
       </c>
-      <c r="V321">
-        <v>1.85</v>
-      </c>
       <c r="W321">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
+        <v>-1</v>
+      </c>
+      <c r="AC321">
         <v>0.95</v>
-      </c>
-      <c r="AC321">
-        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29209,7 +29209,7 @@
         <v>45290.5</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G323" t="s">
         <v>47</v>
@@ -29286,7 +29286,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6940769</v>
+        <v>6940820</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29298,49 +29298,49 @@
         <v>45290.625</v>
       </c>
       <c r="F324" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G324" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K324">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L324">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M324">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N324">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O324">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P324">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q324">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S324">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
         <v>1.85</v>
@@ -29349,25 +29349,25 @@
         <v>1.95</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA324">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6940820</v>
+        <v>6940769</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,49 +29387,49 @@
         <v>45290.625</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G325" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J325" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K325">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L325">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M325">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P325">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R325">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S325">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T325">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
         <v>1.85</v>
@@ -29438,25 +29438,25 @@
         <v>1.95</v>
       </c>
       <c r="W325">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z325">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC325">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29476,7 +29476,7 @@
         <v>45329.625</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G326" t="s">
         <v>30</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6941397</v>
+        <v>6941396</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,76 +29832,76 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K330">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="L330">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M330">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N330">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="O330">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P330">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q330">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
+        <v>1.825</v>
+      </c>
+      <c r="S330">
+        <v>1.975</v>
+      </c>
+      <c r="T330">
+        <v>2.75</v>
+      </c>
+      <c r="U330">
+        <v>2</v>
+      </c>
+      <c r="V330">
         <v>1.8</v>
       </c>
-      <c r="S330">
-        <v>2</v>
-      </c>
-      <c r="T330">
-        <v>2.5</v>
-      </c>
-      <c r="U330">
-        <v>1.8</v>
-      </c>
-      <c r="V330">
-        <v>2</v>
-      </c>
       <c r="W330">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
+        <v>-1</v>
+      </c>
+      <c r="AA330">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB330">
+        <v>-1</v>
+      </c>
+      <c r="AC330">
         <v>0.8</v>
-      </c>
-      <c r="AA330">
-        <v>-1</v>
-      </c>
-      <c r="AB330">
-        <v>0.8</v>
-      </c>
-      <c r="AC330">
-        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6941396</v>
+        <v>6941397</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,76 +29921,76 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G331" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331" t="s">
+        <v>50</v>
+      </c>
+      <c r="K331">
+        <v>5.5</v>
+      </c>
+      <c r="L331">
+        <v>4.2</v>
+      </c>
+      <c r="M331">
+        <v>1.5</v>
+      </c>
+      <c r="N331">
+        <v>5.25</v>
+      </c>
+      <c r="O331">
+        <v>4</v>
+      </c>
+      <c r="P331">
+        <v>1.55</v>
+      </c>
+      <c r="Q331">
         <v>1</v>
       </c>
-      <c r="I331">
-        <v>1</v>
-      </c>
-      <c r="J331" t="s">
-        <v>51</v>
-      </c>
-      <c r="K331">
-        <v>1.55</v>
-      </c>
-      <c r="L331">
-        <v>4</v>
-      </c>
-      <c r="M331">
-        <v>5</v>
-      </c>
-      <c r="N331">
+      <c r="R331">
         <v>1.8</v>
       </c>
-      <c r="O331">
-        <v>3.6</v>
-      </c>
-      <c r="P331">
-        <v>3.8</v>
-      </c>
-      <c r="Q331">
-        <v>-0.5</v>
-      </c>
-      <c r="R331">
-        <v>1.825</v>
-      </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V331">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X331">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA331">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC331">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30102,7 +30102,7 @@
         <v>33</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H333">
         <v>2</v>
@@ -30544,7 +30544,7 @@
         <v>45345.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G338" t="s">
         <v>29</v>
@@ -30630,7 +30630,7 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F339" t="s">
         <v>48</v>
@@ -30666,13 +30666,13 @@
         <v>2.05</v>
       </c>
       <c r="T339">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U339">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V339">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30695,7 +30695,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6941406</v>
+        <v>6941404</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30704,49 +30704,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45346.45833333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F340" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K340">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L340">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M340">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="N340">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O340">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P340">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q340">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S340">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
+        <v>1.95</v>
+      </c>
+      <c r="V340">
         <v>1.85</v>
-      </c>
-      <c r="V340">
-        <v>1.95</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30769,7 +30769,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6941404</v>
+        <v>6940775</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30778,49 +30778,49 @@
         <v>28</v>
       </c>
       <c r="E341" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F341" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G341" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K341">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L341">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M341">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="N341">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="O341">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P341">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q341">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R341">
+        <v>1.95</v>
+      </c>
+      <c r="S341">
+        <v>1.85</v>
+      </c>
+      <c r="T341">
+        <v>3.25</v>
+      </c>
+      <c r="U341">
         <v>2.025</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>1.775</v>
-      </c>
-      <c r="T341">
-        <v>2.75</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
-        <v>1.85</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30843,7 +30843,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6940775</v>
+        <v>6940774</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30852,49 +30852,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45347.58333333334</v>
+        <v>45348.45833333334</v>
       </c>
       <c r="F342" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G342" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K342">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L342">
         <v>4.2</v>
       </c>
       <c r="M342">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="N342">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="O342">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P342">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q342">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R342">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S342">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T342">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V342">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6940774</v>
+        <v>7733873</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30926,49 +30926,49 @@
         <v>28</v>
       </c>
       <c r="E343" s="2">
-        <v>45348.45833333334</v>
+        <v>45348.58333333334</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G343" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K343">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L343">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M343">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="N343">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="O343">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P343">
-        <v>1.444</v>
+        <v>6.5</v>
       </c>
       <c r="Q343">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R343">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S343">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T343">
         <v>3</v>
       </c>
       <c r="U343">
+        <v>1.95</v>
+      </c>
+      <c r="V343">
         <v>1.85</v>
-      </c>
-      <c r="V343">
-        <v>1.95</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -30983,80 +30983,6 @@
         <v>0</v>
       </c>
       <c r="AA343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:29">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344">
-        <v>7733873</v>
-      </c>
-      <c r="C344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D344" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="2">
-        <v>45348.58333333334</v>
-      </c>
-      <c r="F344" t="s">
-        <v>30</v>
-      </c>
-      <c r="G344" t="s">
-        <v>31</v>
-      </c>
-      <c r="K344">
-        <v>1.363</v>
-      </c>
-      <c r="L344">
-        <v>4.5</v>
-      </c>
-      <c r="M344">
-        <v>7</v>
-      </c>
-      <c r="N344">
-        <v>1.4</v>
-      </c>
-      <c r="O344">
-        <v>4.5</v>
-      </c>
-      <c r="P344">
-        <v>6.5</v>
-      </c>
-      <c r="Q344">
-        <v>-1.25</v>
-      </c>
-      <c r="R344">
-        <v>1.875</v>
-      </c>
-      <c r="S344">
-        <v>1.925</v>
-      </c>
-      <c r="T344">
-        <v>3</v>
-      </c>
-      <c r="U344">
-        <v>1.95</v>
-      </c>
-      <c r="V344">
-        <v>1.85</v>
-      </c>
-      <c r="W344">
-        <v>0</v>
-      </c>
-      <c r="X344">
-        <v>0</v>
-      </c>
-      <c r="Y344">
-        <v>0</v>
-      </c>
-      <c r="Z344">
-        <v>0</v>
-      </c>
-      <c r="AA344">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -26349,7 +26349,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26361,31 +26361,31 @@
         <v>45267.5</v>
       </c>
       <c r="F291" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G291" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>50</v>
       </c>
       <c r="K291">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L291">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M291">
         <v>1.6</v>
       </c>
       <c r="N291">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O291">
         <v>3.5</v>
@@ -26397,22 +26397,22 @@
         <v>0.25</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T291">
         <v>2.75</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V291">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26438,7 +26438,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26450,31 +26450,31 @@
         <v>45267.5</v>
       </c>
       <c r="F292" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
         <v>50</v>
       </c>
       <c r="K292">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L292">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M292">
         <v>1.6</v>
       </c>
       <c r="N292">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O292">
         <v>3.5</v>
@@ -26486,22 +26486,22 @@
         <v>0.25</v>
       </c>
       <c r="R292">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S292">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T292">
         <v>2.75</v>
       </c>
       <c r="U292">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V292">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W292">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X292">
         <v>-1</v>
@@ -26510,16 +26510,16 @@
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA292">
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC292">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26616,7 +26616,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6940759</v>
+        <v>6941378</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26628,76 +26628,76 @@
         <v>45268.5</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H294">
+        <v>4</v>
+      </c>
+      <c r="I294">
         <v>1</v>
       </c>
-      <c r="I294">
-        <v>2</v>
-      </c>
       <c r="J294" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K294">
-        <v>9.5</v>
+        <v>1.75</v>
       </c>
       <c r="L294">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="N294">
-        <v>15</v>
+        <v>1.7</v>
       </c>
       <c r="O294">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P294">
-        <v>1.111</v>
+        <v>4.5</v>
       </c>
       <c r="Q294">
+        <v>-0.75</v>
+      </c>
+      <c r="R294">
+        <v>1.95</v>
+      </c>
+      <c r="S294">
+        <v>1.85</v>
+      </c>
+      <c r="T294">
         <v>2.5</v>
       </c>
-      <c r="R294">
-        <v>1.9</v>
-      </c>
-      <c r="S294">
-        <v>1.9</v>
-      </c>
-      <c r="T294">
-        <v>3.75</v>
-      </c>
       <c r="U294">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V294">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC294">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6941378</v>
+        <v>6941379</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,13 +26717,13 @@
         <v>45268.5</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H295">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -26732,43 +26732,43 @@
         <v>50</v>
       </c>
       <c r="K295">
+        <v>2.15</v>
+      </c>
+      <c r="L295">
+        <v>3.5</v>
+      </c>
+      <c r="M295">
+        <v>3</v>
+      </c>
+      <c r="N295">
         <v>1.75</v>
       </c>
-      <c r="L295">
-        <v>3.6</v>
-      </c>
-      <c r="M295">
-        <v>4.2</v>
-      </c>
-      <c r="N295">
-        <v>1.7</v>
-      </c>
       <c r="O295">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P295">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q295">
         <v>-0.75</v>
       </c>
       <c r="R295">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S295">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
         <v>1.8</v>
       </c>
-      <c r="V295">
-        <v>2</v>
-      </c>
       <c r="W295">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X295">
         <v>-1</v>
@@ -26777,13 +26777,13 @@
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC295">
         <v>-1</v>
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6941379</v>
+        <v>6940759</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,76 +26806,76 @@
         <v>45268.5</v>
       </c>
       <c r="F296" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K296">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M296">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="N296">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="O296">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P296">
-        <v>4</v>
+        <v>1.111</v>
       </c>
       <c r="Q296">
-        <v>-0.75</v>
+        <v>2.5</v>
       </c>
       <c r="R296">
+        <v>1.9</v>
+      </c>
+      <c r="S296">
+        <v>1.9</v>
+      </c>
+      <c r="T296">
+        <v>3.75</v>
+      </c>
+      <c r="U296">
         <v>1.975</v>
       </c>
-      <c r="S296">
+      <c r="V296">
         <v>1.825</v>
       </c>
-      <c r="T296">
-        <v>3</v>
-      </c>
-      <c r="U296">
-        <v>2</v>
-      </c>
-      <c r="V296">
-        <v>1.8</v>
-      </c>
       <c r="W296">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z296">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA296">
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27417,7 +27417,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6940818</v>
+        <v>6940763</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27429,61 +27429,61 @@
         <v>45275.5</v>
       </c>
       <c r="F303" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K303">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L303">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M303">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N303">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O303">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P303">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R303">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V303">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X303">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
@@ -27498,7 +27498,7 @@
         <v>-1</v>
       </c>
       <c r="AC303">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6941381</v>
+        <v>6940818</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>45275.5</v>
       </c>
       <c r="F304" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K304">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L304">
         <v>3.4</v>
       </c>
       <c r="M304">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N304">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O304">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P304">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q304">
         <v>0</v>
       </c>
       <c r="R304">
+        <v>1.8</v>
+      </c>
+      <c r="S304">
+        <v>2</v>
+      </c>
+      <c r="T304">
+        <v>2.75</v>
+      </c>
+      <c r="U304">
+        <v>1.775</v>
+      </c>
+      <c r="V304">
         <v>2.025</v>
       </c>
-      <c r="S304">
-        <v>1.775</v>
-      </c>
-      <c r="T304">
+      <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
         <v>2.5</v>
       </c>
-      <c r="U304">
-        <v>1.95</v>
-      </c>
-      <c r="V304">
-        <v>1.85</v>
-      </c>
-      <c r="W304">
-        <v>-1</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
       <c r="Y304">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA304">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6940763</v>
+        <v>6941381</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,76 +27607,76 @@
         <v>45275.5</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305" t="s">
+        <v>49</v>
+      </c>
+      <c r="K305">
+        <v>2.6</v>
+      </c>
+      <c r="L305">
+        <v>3.4</v>
+      </c>
+      <c r="M305">
+        <v>2.4</v>
+      </c>
+      <c r="N305">
+        <v>2.75</v>
+      </c>
+      <c r="O305">
+        <v>3.25</v>
+      </c>
+      <c r="P305">
+        <v>2.375</v>
+      </c>
+      <c r="Q305">
         <v>0</v>
       </c>
-      <c r="J305" t="s">
-        <v>50</v>
-      </c>
-      <c r="K305">
-        <v>1.2</v>
-      </c>
-      <c r="L305">
-        <v>7</v>
-      </c>
-      <c r="M305">
-        <v>9.5</v>
-      </c>
-      <c r="N305">
-        <v>1.222</v>
-      </c>
-      <c r="O305">
-        <v>7</v>
-      </c>
-      <c r="P305">
-        <v>8.5</v>
-      </c>
-      <c r="Q305">
-        <v>-2</v>
-      </c>
       <c r="R305">
+        <v>2.025</v>
+      </c>
+      <c r="S305">
+        <v>1.775</v>
+      </c>
+      <c r="T305">
+        <v>2.5</v>
+      </c>
+      <c r="U305">
+        <v>1.95</v>
+      </c>
+      <c r="V305">
         <v>1.85</v>
       </c>
-      <c r="S305">
-        <v>1.95</v>
-      </c>
-      <c r="T305">
-        <v>3.75</v>
-      </c>
-      <c r="U305">
-        <v>1.9</v>
-      </c>
-      <c r="V305">
-        <v>1.9</v>
-      </c>
       <c r="W305">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB305">
         <v>-1</v>
       </c>
       <c r="AC305">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -28129,7 +28129,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28141,76 +28141,76 @@
         <v>45282.5</v>
       </c>
       <c r="F311" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G311" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
         <v>0</v>
       </c>
-      <c r="I311">
-        <v>4</v>
-      </c>
       <c r="J311" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K311">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L311">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M311">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N311">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O311">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P311">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q311">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R311">
+        <v>1.95</v>
+      </c>
+      <c r="S311">
+        <v>1.85</v>
+      </c>
+      <c r="T311">
+        <v>2.5</v>
+      </c>
+      <c r="U311">
+        <v>2</v>
+      </c>
+      <c r="V311">
         <v>1.8</v>
       </c>
-      <c r="S311">
-        <v>2</v>
-      </c>
-      <c r="T311">
-        <v>3.25</v>
-      </c>
-      <c r="U311">
-        <v>2.025</v>
-      </c>
-      <c r="V311">
-        <v>1.775</v>
-      </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA311">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28307,7 +28307,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6940819</v>
+        <v>6941388</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28319,76 +28319,76 @@
         <v>45282.5</v>
       </c>
       <c r="F313" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>4</v>
+      </c>
+      <c r="J313" t="s">
+        <v>49</v>
+      </c>
+      <c r="K313">
+        <v>5</v>
+      </c>
+      <c r="L313">
+        <v>4.75</v>
+      </c>
+      <c r="M313">
+        <v>1.444</v>
+      </c>
+      <c r="N313">
+        <v>5.5</v>
+      </c>
+      <c r="O313">
+        <v>5</v>
+      </c>
+      <c r="P313">
+        <v>1.363</v>
+      </c>
+      <c r="Q313">
+        <v>1.5</v>
+      </c>
+      <c r="R313">
+        <v>1.8</v>
+      </c>
+      <c r="S313">
+        <v>2</v>
+      </c>
+      <c r="T313">
+        <v>3.25</v>
+      </c>
+      <c r="U313">
+        <v>2.025</v>
+      </c>
+      <c r="V313">
+        <v>1.775</v>
+      </c>
+      <c r="W313">
+        <v>-1</v>
+      </c>
+      <c r="X313">
+        <v>-1</v>
+      </c>
+      <c r="Y313">
+        <v>0.363</v>
+      </c>
+      <c r="Z313">
+        <v>-1</v>
+      </c>
+      <c r="AA313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>0</v>
-      </c>
-      <c r="J313" t="s">
-        <v>50</v>
-      </c>
-      <c r="K313">
-        <v>2.5</v>
-      </c>
-      <c r="L313">
-        <v>3.4</v>
-      </c>
-      <c r="M313">
-        <v>2.6</v>
-      </c>
-      <c r="N313">
-        <v>2.7</v>
-      </c>
-      <c r="O313">
-        <v>3.25</v>
-      </c>
-      <c r="P313">
-        <v>2.5</v>
-      </c>
-      <c r="Q313">
-        <v>0</v>
-      </c>
-      <c r="R313">
-        <v>1.95</v>
-      </c>
-      <c r="S313">
-        <v>1.85</v>
-      </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>2</v>
-      </c>
-      <c r="V313">
-        <v>1.8</v>
-      </c>
-      <c r="W313">
-        <v>1.7</v>
-      </c>
-      <c r="X313">
-        <v>-1</v>
-      </c>
-      <c r="Y313">
-        <v>-1</v>
-      </c>
-      <c r="Z313">
-        <v>0.95</v>
-      </c>
-      <c r="AA313">
-        <v>-1</v>
-      </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC313">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -30838,10 +30838,10 @@
         <v>-0.5</v>
       </c>
       <c r="R341">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S341">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T341">
         <v>2.75</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,16 +118,16 @@
     <t>Al Fateh SC</t>
   </si>
   <si>
+    <t>Abha</t>
+  </si>
+  <si>
     <t>Al Raed</t>
   </si>
   <si>
-    <t>Abha</t>
+    <t>Al Ittifaq Dammam</t>
   </si>
   <si>
     <t>Al Shabab Riyadh</t>
-  </si>
-  <si>
-    <t>Al Ittifaq Dammam</t>
   </si>
   <si>
     <t>Damac FC</t>
@@ -142,16 +142,16 @@
     <t>Al Hazm</t>
   </si>
   <si>
+    <t>AlNassr Riyadh</t>
+  </si>
+  <si>
     <t>Al Wehda Mecca</t>
   </si>
   <si>
-    <t>AlNassr Riyadh</t>
+    <t>Al Hilal Riyadh</t>
   </si>
   <si>
     <t>Al Ittihad Jeddah</t>
-  </si>
-  <si>
-    <t>Al Hilal Riyadh</t>
   </si>
   <si>
     <t>Al Taawon Buraidah</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>3.75</v>
@@ -1103,31 +1103,31 @@
         <v>1.615</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q7">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,7 +1174,7 @@
         <v>45</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
         <v>3.75</v>
@@ -1192,31 +1192,31 @@
         <v>1.615</v>
       </c>
       <c r="N8">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1225,19 +1225,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6933359</v>
+        <v>6932256</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6932256</v>
+        <v>6933359</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,73 +1349,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>-0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.775</v>
+      </c>
+      <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>1.875</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6932258</v>
+        <v>6932257</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,37 +1794,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>5.25</v>
+        <v>1.222</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
         <v>1.775</v>
@@ -1833,7 +1833,7 @@
         <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.9</v>
@@ -1842,25 +1842,25 @@
         <v>1.9</v>
       </c>
       <c r="W15">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6932257</v>
+        <v>6932258</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1.775</v>
@@ -1922,7 +1922,7 @@
         <v>2.025</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.9</v>
@@ -1931,25 +1931,25 @@
         <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1969,10 +1969,10 @@
         <v>45157.5</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6932260</v>
+        <v>6932259</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L18">
         <v>4.333</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6932259</v>
+        <v>6932260</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L19">
         <v>4.333</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X19">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>45162.625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6941302</v>
+        <v>6941303</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,61 +2503,61 @@
         <v>45162.625</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>1.181</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="N23">
+        <v>1.111</v>
+      </c>
+      <c r="O23">
+        <v>9.5</v>
+      </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <v>-2.5</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
         <v>1.8</v>
       </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.8</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2566,13 +2566,13 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6941303</v>
+        <v>6941302</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,61 +2592,61 @@
         <v>45162.625</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>1.181</v>
+        <v>1.571</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="N24">
-        <v>1.111</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2655,13 +2655,13 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2773,7 +2773,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>45163.625</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3037,7 +3037,7 @@
         <v>45166.5</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3126,10 +3126,10 @@
         <v>45166.625</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932265</v>
+        <v>6941307</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,49 +3215,49 @@
         <v>45166.625</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>1.75</v>
       </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
         <v>1.9</v>
@@ -3266,25 +3266,25 @@
         <v>1.9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,49 +3304,49 @@
         <v>45166.625</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M32">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3355,25 +3355,25 @@
         <v>1.9</v>
       </c>
       <c r="W32">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6941308</v>
+        <v>6941309</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45167.5</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA33">
+        <v>-0.5</v>
+      </c>
+      <c r="AB33">
         <v>0.875</v>
       </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6941309</v>
+        <v>6941308</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,76 +3482,76 @@
         <v>45167.5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
+        <v>1.925</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
       </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z34">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.875</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932266</v>
+        <v>6941311</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45167.625</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="L35">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M35">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>1.125</v>
       </c>
       <c r="O35">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>0.125</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6941311</v>
+        <v>6932266</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,13 +3749,13 @@
         <v>45167.625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3764,43 +3764,43 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N37">
-        <v>1.125</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="P37">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q37">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1.8</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
+        <v>1.825</v>
+      </c>
+      <c r="V37">
         <v>1.975</v>
       </c>
-      <c r="S37">
-        <v>1.825</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.775</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
       <c r="W37">
-        <v>0.125</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6941313</v>
+        <v>6941312</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,34 +3838,34 @@
         <v>45170.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -3874,40 +3874,40 @@
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941312</v>
+        <v>6941313</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,34 +3927,34 @@
         <v>45170.5</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
         <v>3</v>
@@ -3963,40 +3963,40 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X39">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4105,10 +4105,10 @@
         <v>45170.625</v>
       </c>
       <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
         <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6932269</v>
+        <v>6941317</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45171.625</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>43</v>
       </c>
       <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>13</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>1.166</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
+        <v>1.825</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6932268</v>
+        <v>6941316</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="L43">
         <v>4.2</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6941317</v>
+        <v>6932269</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>13</v>
       </c>
       <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>1.166</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+      <c r="O44">
+        <v>7.5</v>
+      </c>
+      <c r="P44">
+        <v>1.142</v>
+      </c>
+      <c r="Q44">
+        <v>2.25</v>
+      </c>
+      <c r="R44">
+        <v>1.875</v>
+      </c>
+      <c r="S44">
+        <v>1.925</v>
+      </c>
+      <c r="T44">
         <v>3.5</v>
       </c>
-      <c r="M44">
-        <v>3.5</v>
-      </c>
-      <c r="N44">
-        <v>2.375</v>
-      </c>
-      <c r="O44">
-        <v>3.25</v>
-      </c>
-      <c r="P44">
-        <v>2.7</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1.775</v>
-      </c>
-      <c r="S44">
-        <v>2.025</v>
-      </c>
-      <c r="T44">
-        <v>2.5</v>
-      </c>
       <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6941316</v>
+        <v>6941315</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,13 +4461,13 @@
         <v>45171.625</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4476,43 +4476,43 @@
         <v>47</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>5.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4521,13 +4521,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6941315</v>
+        <v>6932268</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,70 +4553,70 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46">
+        <v>1.444</v>
+      </c>
+      <c r="L46">
+        <v>4.2</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>1.833</v>
+      </c>
+      <c r="O46">
+        <v>3.75</v>
+      </c>
+      <c r="P46">
+        <v>3.4</v>
+      </c>
+      <c r="Q46">
+        <v>-0.5</v>
+      </c>
+      <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>1.8</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>2.4</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB46">
         <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46">
-        <v>1.909</v>
-      </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.6</v>
-      </c>
-      <c r="O46">
-        <v>3.8</v>
-      </c>
-      <c r="P46">
-        <v>5.25</v>
-      </c>
-      <c r="Q46">
-        <v>-1</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
-      <c r="W46">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>1.025</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4642,7 +4642,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>45183.625</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -4820,7 +4820,7 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6940732</v>
+        <v>6941321</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,73 +4906,73 @@
         <v>45184.625</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>1.125</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>1.035</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>41</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.03499999999999992</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6941321</v>
+        <v>6940732</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,73 +4995,73 @@
         <v>45184.625</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>1.125</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>1.035</v>
+      </c>
+      <c r="O51">
+        <v>15</v>
+      </c>
+      <c r="P51">
+        <v>41</v>
+      </c>
+      <c r="Q51">
+        <v>-3.25</v>
+      </c>
+      <c r="R51">
         <v>1.8</v>
       </c>
-      <c r="N51">
-        <v>2.8</v>
-      </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
-      <c r="P51">
-        <v>2.2</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.03499999999999992</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5084,10 +5084,10 @@
         <v>45185.375</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6940731</v>
+        <v>6941319</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T53">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6941319</v>
+        <v>6940731</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45185.5</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P54">
-        <v>3.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6941325</v>
+        <v>6941324</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,58 +5440,58 @@
         <v>45190.5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="M56">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5500,16 +5500,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6941324</v>
+        <v>6941325</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>45190.5</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>47</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M57">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="N57">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6940810</v>
+        <v>6940733</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,13 +5707,13 @@
         <v>45190.625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5722,31 +5722,31 @@
         <v>47</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L59">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="M59">
-        <v>4.9</v>
+        <v>9.5</v>
       </c>
       <c r="N59">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q59">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.75</v>
@@ -5758,7 +5758,7 @@
         <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,16 +5767,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6940733</v>
+        <v>6940810</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,13 +5796,13 @@
         <v>45190.625</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5811,31 +5811,31 @@
         <v>47</v>
       </c>
       <c r="K60">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
-        <v>9.5</v>
+        <v>4.9</v>
       </c>
       <c r="N60">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
         <v>1.85</v>
-      </c>
-      <c r="S60">
-        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.75</v>
@@ -5847,7 +5847,7 @@
         <v>2.025</v>
       </c>
       <c r="W60">
-        <v>0.6499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,31 +6066,31 @@
         <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N63">
         <v>1.65</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>4.333</v>
@@ -6099,19 +6099,19 @@
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>1.975</v>
+      </c>
+      <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.775</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
       </c>
       <c r="W63">
         <v>0.6499999999999999</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,31 +6155,31 @@
         <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L64">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
         <v>1.65</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>4.333</v>
@@ -6188,19 +6188,19 @@
         <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>0.6499999999999999</v>
@@ -6212,13 +6212,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45198.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N65">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>1.975</v>
@@ -6295,22 +6295,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45198.5</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
+        <v>8.5</v>
+      </c>
+      <c r="L67">
         <v>5</v>
       </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
       <c r="M67">
+        <v>1.3</v>
+      </c>
+      <c r="N67">
+        <v>5.5</v>
+      </c>
+      <c r="O67">
+        <v>3.8</v>
+      </c>
+      <c r="P67">
         <v>1.533</v>
-      </c>
-      <c r="N67">
-        <v>5.25</v>
-      </c>
-      <c r="O67">
-        <v>4.2</v>
-      </c>
-      <c r="P67">
-        <v>1.5</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.975</v>
@@ -6473,22 +6473,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6508,10 +6508,10 @@
         <v>45198.625</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>45199.375</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6941330</v>
+        <v>6941328</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,73 +6686,73 @@
         <v>45199.5</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>1.75</v>
+      </c>
+      <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>3.8</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.6</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>3.25</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6941328</v>
+        <v>6941330</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,73 +6775,73 @@
         <v>45199.5</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>3.8</v>
-      </c>
       <c r="N71">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7309,7 +7309,7 @@
         <v>45204.625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7398,10 +7398,10 @@
         <v>45205.5</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7487,7 +7487,7 @@
         <v>45205.625</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -7579,7 +7579,7 @@
         <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6941335</v>
+        <v>6941337</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,61 +7665,61 @@
         <v>45206.625</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.9</v>
+      </c>
+      <c r="N81">
+        <v>2.375</v>
+      </c>
+      <c r="O81">
         <v>3.2</v>
       </c>
-      <c r="N81">
-        <v>2.2</v>
-      </c>
-      <c r="O81">
-        <v>3.25</v>
-      </c>
       <c r="P81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q81">
         <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7728,13 +7728,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.4125</v>
+        <v>0.3625</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6941337</v>
+        <v>6941335</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,61 +7754,61 @@
         <v>45206.625</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>3.4</v>
       </c>
       <c r="M82">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O82">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7817,13 +7817,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.3625</v>
+        <v>0.4125</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45219.5</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45219.5</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8110,7 +8110,7 @@
         <v>45219.625</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6941343</v>
+        <v>6940742</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,58 +8199,58 @@
         <v>45220.5</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>2.45</v>
+        <v>1.153</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M87">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
+        <v>7</v>
+      </c>
+      <c r="P87">
+        <v>15</v>
+      </c>
+      <c r="Q87">
+        <v>-2.25</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
         <v>3.5</v>
       </c>
-      <c r="P87">
-        <v>2.1</v>
-      </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.825</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940742</v>
+        <v>6941343</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,59 +8288,59 @@
         <v>45220.5</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.153</v>
+        <v>2.45</v>
       </c>
       <c r="L88">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>2.55</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
         <v>2</v>
       </c>
-      <c r="W88">
-        <v>0.1659999999999999</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6941341</v>
+        <v>6940812</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45220.625</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
         <v>4.2</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6940812</v>
+        <v>6941341</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,58 +8466,58 @@
         <v>45220.625</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
         <v>4.2</v>
       </c>
       <c r="P90">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6941345</v>
+        <v>6941347</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,40 +8644,40 @@
         <v>45225.5</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
+        <v>1.95</v>
+      </c>
+      <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
         <v>3.8</v>
       </c>
-      <c r="L92">
-        <v>3.75</v>
-      </c>
-      <c r="M92">
-        <v>1.85</v>
-      </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
         <v>1.8</v>
@@ -8689,16 +8689,16 @@
         <v>2.75</v>
       </c>
       <c r="U92">
+        <v>1.875</v>
+      </c>
+      <c r="V92">
         <v>1.925</v>
       </c>
-      <c r="V92">
-        <v>1.875</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
@@ -8713,7 +8713,7 @@
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6941347</v>
+        <v>6941345</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,40 +8733,40 @@
         <v>45225.5</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93">
+        <v>3.8</v>
+      </c>
+      <c r="L93">
+        <v>3.75</v>
+      </c>
+      <c r="M93">
+        <v>1.85</v>
+      </c>
+      <c r="N93">
+        <v>3.5</v>
+      </c>
+      <c r="O93">
+        <v>3.4</v>
+      </c>
+      <c r="P93">
         <v>2</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93">
-        <v>1.95</v>
-      </c>
-      <c r="L93">
-        <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>3.8</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
-      </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>4.2</v>
-      </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
         <v>1.8</v>
@@ -8778,16 +8778,16 @@
         <v>2.75</v>
       </c>
       <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y93">
         <v>-1</v>
@@ -8802,7 +8802,7 @@
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8822,7 +8822,7 @@
         <v>45225.625</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6941348</v>
+        <v>6941346</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45226.5</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
+        <v>4.75</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>1.65</v>
+      </c>
+      <c r="N95">
+        <v>2.9</v>
+      </c>
+      <c r="O95">
+        <v>3.5</v>
+      </c>
+      <c r="P95">
+        <v>2.25</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>1.875</v>
+      </c>
+      <c r="S95">
+        <v>1.925</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
         <v>1.85</v>
       </c>
-      <c r="L95">
-        <v>3.5</v>
-      </c>
-      <c r="M95">
-        <v>4</v>
-      </c>
-      <c r="N95">
-        <v>1.7</v>
-      </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
-      <c r="P95">
-        <v>4.75</v>
-      </c>
-      <c r="Q95">
-        <v>-0.75</v>
-      </c>
-      <c r="R95">
-        <v>1.925</v>
-      </c>
-      <c r="S95">
-        <v>1.875</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z95">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6941346</v>
+        <v>6941348</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45226.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
+        <v>1.85</v>
+      </c>
+      <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>1.7</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
         <v>4.75</v>
       </c>
-      <c r="L96">
-        <v>4</v>
-      </c>
-      <c r="M96">
-        <v>1.65</v>
-      </c>
-      <c r="N96">
-        <v>2.9</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
-      <c r="P96">
-        <v>2.25</v>
-      </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>1.925</v>
+      </c>
+      <c r="S96">
         <v>1.875</v>
       </c>
-      <c r="S96">
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.925</v>
       </c>
-      <c r="T96">
-        <v>3</v>
-      </c>
-      <c r="U96">
-        <v>1.85</v>
-      </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>45226.625</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6940747</v>
+        <v>6940813</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,49 +9178,49 @@
         <v>45227.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>3.6</v>
+      </c>
+      <c r="M98">
+        <v>1.833</v>
+      </c>
+      <c r="N98">
+        <v>4.2</v>
+      </c>
+      <c r="O98">
+        <v>3.8</v>
+      </c>
+      <c r="P98">
+        <v>1.727</v>
+      </c>
+      <c r="Q98">
+        <v>0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K98">
-        <v>6</v>
-      </c>
-      <c r="L98">
-        <v>5</v>
-      </c>
-      <c r="M98">
-        <v>1.444</v>
-      </c>
-      <c r="N98">
-        <v>7.5</v>
-      </c>
-      <c r="O98">
-        <v>5.5</v>
-      </c>
-      <c r="P98">
-        <v>1.333</v>
-      </c>
-      <c r="Q98">
-        <v>1.5</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.9</v>
@@ -9229,25 +9229,25 @@
         <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6940813</v>
+        <v>6940747</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,49 +9267,49 @@
         <v>45227.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P99">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
         <v>1.85</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.9</v>
@@ -9318,25 +9318,25 @@
         <v>1.9</v>
       </c>
       <c r="W99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,10 +9356,10 @@
         <v>45227.625</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9623,10 +9623,10 @@
         <v>45233.625</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>45234.5</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9801,10 +9801,10 @@
         <v>45234.625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>45234.625</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9982,7 +9982,7 @@
         <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10246,10 +10246,10 @@
         <v>45239.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>45240.5</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -10691,10 +10691,10 @@
         <v>45240.625</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10783,7 +10783,7 @@
         <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10958,10 +10958,10 @@
         <v>45241.625</v>
       </c>
       <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s">
         <v>42</v>
-      </c>
-      <c r="G118" t="s">
-        <v>43</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6941363</v>
+        <v>6940754</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45254.5</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N119">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y119">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6940754</v>
+        <v>6941363</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45254.5</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z120">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>45254.625</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11317,7 +11317,7 @@
         <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -11406,7 +11406,7 @@
         <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6941364</v>
+        <v>6941360</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,19 +11492,19 @@
         <v>45255.625</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11513,55 +11513,55 @@
         <v>3.6</v>
       </c>
       <c r="M124">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N124">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6941360</v>
+        <v>6940815</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45255.625</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O126">
         <v>3.4</v>
       </c>
       <c r="P126">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q126">
         <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.825</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>1.025</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>1</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6940815</v>
+        <v>6941364</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,46 +11759,46 @@
         <v>45255.625</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N127">
         <v>1.909</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.75</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11848,7 +11848,7 @@
         <v>45260.5</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -12026,7 +12026,7 @@
         <v>45260.625</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12204,10 +12204,10 @@
         <v>45261.625</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12385,7 +12385,7 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>45262.625</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45262.625</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>46</v>
@@ -12741,7 +12741,7 @@
         <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,10 +12827,10 @@
         <v>45267.625</v>
       </c>
       <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
         <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6941378</v>
+        <v>6940759</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45268.5</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.75</v>
+        <v>9.5</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="N141">
-        <v>1.7</v>
+        <v>15</v>
       </c>
       <c r="O141">
+        <v>9</v>
+      </c>
+      <c r="P141">
+        <v>1.111</v>
+      </c>
+      <c r="Q141">
+        <v>2.5</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
         <v>3.75</v>
       </c>
-      <c r="P141">
-        <v>4.5</v>
-      </c>
-      <c r="Q141">
-        <v>-0.75</v>
-      </c>
-      <c r="R141">
-        <v>1.95</v>
-      </c>
-      <c r="S141">
-        <v>1.85</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z141">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6940759</v>
+        <v>6941378</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45268.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>1.75</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.7</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>4.5</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="J142" t="s">
-        <v>49</v>
-      </c>
-      <c r="K142">
-        <v>9.5</v>
-      </c>
-      <c r="L142">
-        <v>6.5</v>
-      </c>
-      <c r="M142">
-        <v>1.2</v>
-      </c>
-      <c r="N142">
-        <v>15</v>
-      </c>
-      <c r="O142">
-        <v>9</v>
-      </c>
-      <c r="P142">
-        <v>1.111</v>
-      </c>
-      <c r="Q142">
-        <v>2.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>3.75</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>45268.625</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13361,7 +13361,7 @@
         <v>45269.625</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45274.5</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
         <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45274.5</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N147">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
         <v>3.4</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>1.8</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>2.4</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.9</v>
-      </c>
-      <c r="W147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6940763</v>
+        <v>6940818</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,61 +13717,61 @@
         <v>45275.5</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
+      </c>
+      <c r="K149">
+        <v>2.55</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>2.45</v>
+      </c>
+      <c r="N149">
+        <v>2.375</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
+        <v>2.625</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
         <v>2</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>1.2</v>
-      </c>
-      <c r="L149">
-        <v>7</v>
-      </c>
-      <c r="M149">
-        <v>9.5</v>
-      </c>
-      <c r="N149">
-        <v>1.222</v>
-      </c>
-      <c r="O149">
-        <v>7</v>
-      </c>
-      <c r="P149">
-        <v>8.5</v>
-      </c>
-      <c r="Q149">
-        <v>-2</v>
-      </c>
-      <c r="R149">
-        <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13786,7 +13786,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6940818</v>
+        <v>6940763</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,61 +13806,61 @@
         <v>45275.5</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M150">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13875,7 +13875,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>45275.5</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>38</v>
@@ -14073,7 +14073,7 @@
         <v>45276.625</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>46</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,10 +14162,10 @@
         <v>45281.5</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,61 +14177,61 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>2.025</v>
-      </c>
-      <c r="S154">
-        <v>1.775</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.775</v>
-      </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
-      <c r="W154">
-        <v>1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>1.025</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,10 +14251,10 @@
         <v>45281.5</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14266,43 +14266,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,16 +14311,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14340,10 +14340,10 @@
         <v>45281.625</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>7</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45282.5</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N157">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q157">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6940819</v>
+        <v>7605556</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,58 +14518,58 @@
         <v>45282.5</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
         <v>36</v>
       </c>
       <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M158">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N158">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P158">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
         <v>1.95</v>
       </c>
-      <c r="S158">
-        <v>1.85</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
       <c r="W158">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14578,16 +14578,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7605556</v>
+        <v>6941388</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,73 +14607,73 @@
         <v>45282.5</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="L159">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="N159">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="O159">
         <v>5</v>
       </c>
       <c r="P159">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="Q159">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W159">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14785,10 +14785,10 @@
         <v>45283.625</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14874,7 +14874,7 @@
         <v>45284.625</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
         <v>32</v>
@@ -14963,10 +14963,10 @@
         <v>45286.625</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45288.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>1</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45288.5</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
         <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15319,10 +15319,10 @@
         <v>45289.5</v>
       </c>
       <c r="F167" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" t="s">
         <v>34</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6940769</v>
+        <v>6940820</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,7 +15586,7 @@
         <v>45290.625</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
         <v>43</v>
@@ -15595,40 +15595,40 @@
         <v>1</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L170">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O170">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
         <v>1.85</v>
@@ -15637,25 +15637,25 @@
         <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6940820</v>
+        <v>6940769</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,7 +15675,7 @@
         <v>45290.625</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
         <v>42</v>
@@ -15684,40 +15684,40 @@
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M171">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N171">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
         <v>1.85</v>
@@ -15726,25 +15726,25 @@
         <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z171">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>45337.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -15945,7 +15945,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16387,7 +16387,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -16476,10 +16476,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16565,7 +16565,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
         <v>32</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6941403</v>
+        <v>6941401</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L182">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6941401</v>
+        <v>6941403</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O183">
         <v>3.5</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17188,10 +17188,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17277,10 +17277,19 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189" t="s">
+        <v>49</v>
       </c>
       <c r="K189">
         <v>6</v>
@@ -17292,46 +17301,52 @@
         <v>1.444</v>
       </c>
       <c r="N189">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P189">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="Q189">
         <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17351,10 +17366,19 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
       </c>
       <c r="K190">
         <v>1.363</v>
@@ -17366,22 +17390,22 @@
         <v>7</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
         <v>3</v>
@@ -17393,18 +17417,690 @@
         <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>0</v>
       </c>
       <c r="AA190">
+        <v>-0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6941407</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45351.45833333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" t="s">
+        <v>46</v>
+      </c>
+      <c r="K191">
+        <v>2.2</v>
+      </c>
+      <c r="L191">
+        <v>3.5</v>
+      </c>
+      <c r="M191">
+        <v>3.1</v>
+      </c>
+      <c r="N191">
+        <v>2.75</v>
+      </c>
+      <c r="O191">
+        <v>3.4</v>
+      </c>
+      <c r="P191">
+        <v>2.45</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>2.025</v>
+      </c>
+      <c r="S191">
+        <v>1.775</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
+        <v>1.825</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6941409</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45351.45833333334</v>
+      </c>
+      <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192">
+        <v>2.05</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>3.5</v>
+      </c>
+      <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>3.4</v>
+      </c>
+      <c r="P192">
+        <v>3.5</v>
+      </c>
+      <c r="Q192">
+        <v>-0.5</v>
+      </c>
+      <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
+        <v>1.775</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
+        <v>1.825</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6940776</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45351.58333333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193">
+        <v>1.111</v>
+      </c>
+      <c r="L193">
+        <v>9</v>
+      </c>
+      <c r="M193">
+        <v>17</v>
+      </c>
+      <c r="N193">
+        <v>1.111</v>
+      </c>
+      <c r="O193">
+        <v>8.5</v>
+      </c>
+      <c r="P193">
+        <v>17</v>
+      </c>
+      <c r="Q193">
+        <v>-2.5</v>
+      </c>
+      <c r="R193">
+        <v>1.875</v>
+      </c>
+      <c r="S193">
+        <v>1.925</v>
+      </c>
+      <c r="T193">
+        <v>3.75</v>
+      </c>
+      <c r="U193">
+        <v>1.8</v>
+      </c>
+      <c r="V193">
+        <v>2</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6941412</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="F194" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" t="s">
+        <v>30</v>
+      </c>
+      <c r="K194">
+        <v>2.4</v>
+      </c>
+      <c r="L194">
+        <v>3.5</v>
+      </c>
+      <c r="M194">
+        <v>2.75</v>
+      </c>
+      <c r="N194">
+        <v>2.2</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
+        <v>3</v>
+      </c>
+      <c r="Q194">
+        <v>-0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>1.85</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
+        <v>1.95</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6941410</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195">
+        <v>1.615</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>5</v>
+      </c>
+      <c r="N195">
+        <v>1.6</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>5</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>1.775</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
+        <v>1.825</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6940777</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G196" t="s">
+        <v>45</v>
+      </c>
+      <c r="K196">
+        <v>1.571</v>
+      </c>
+      <c r="L196">
+        <v>4.5</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.45</v>
+      </c>
+      <c r="O196">
+        <v>4.5</v>
+      </c>
+      <c r="P196">
+        <v>5.75</v>
+      </c>
+      <c r="Q196">
+        <v>-1.25</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>3.5</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.8</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6941411</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>38</v>
+      </c>
+      <c r="G197" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197">
+        <v>2.45</v>
+      </c>
+      <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>2.875</v>
+      </c>
+      <c r="N197">
+        <v>2.45</v>
+      </c>
+      <c r="O197">
+        <v>3.25</v>
+      </c>
+      <c r="P197">
+        <v>2.875</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>1.775</v>
+      </c>
+      <c r="S197">
+        <v>2.025</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
+        <v>1.9</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6940822</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>39</v>
+      </c>
+      <c r="G198" t="s">
+        <v>37</v>
+      </c>
+      <c r="K198">
+        <v>3.3</v>
+      </c>
+      <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
+        <v>2.15</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
+        <v>1.909</v>
+      </c>
+      <c r="Q198">
+        <v>0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.9</v>
+      </c>
+      <c r="S198">
+        <v>1.9</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6941408</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" t="s">
+        <v>33</v>
+      </c>
+      <c r="K199">
+        <v>1.4</v>
+      </c>
+      <c r="L199">
+        <v>5</v>
+      </c>
+      <c r="M199">
+        <v>6.5</v>
+      </c>
+      <c r="N199">
+        <v>1.4</v>
+      </c>
+      <c r="O199">
+        <v>5</v>
+      </c>
+      <c r="P199">
+        <v>6.5</v>
+      </c>
+      <c r="Q199">
+        <v>-1.25</v>
+      </c>
+      <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>2.025</v>
+      </c>
+      <c r="V199">
+        <v>1.775</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Abha</t>
   </si>
   <si>
-    <t>Al Ittifaq Dammam</t>
+    <t>Al Shabab Riyadh</t>
   </si>
   <si>
-    <t>Al Shabab Riyadh</t>
+    <t>Al Ittifaq Dammam</t>
   </si>
   <si>
     <t>Damac FC</t>
@@ -142,10 +142,10 @@
     <t>AlNassr Riyadh</t>
   </si>
   <si>
-    <t>Al Hazm</t>
+    <t>Al Wehda Mecca</t>
   </si>
   <si>
-    <t>Al Wehda Mecca</t>
+    <t>Al Hazm</t>
   </si>
   <si>
     <t>Al Ittihad Jeddah</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6932256</v>
+        <v>6933359</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.775</v>
+      </c>
+      <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6933359</v>
+        <v>6932256</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,73 +1349,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6941299</v>
+        <v>6932258</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,70 +1797,70 @@
         <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6932258</v>
+        <v>6941299</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,70 +1886,70 @@
         <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
         <v>3.25</v>
       </c>
       <c r="M16">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6941303</v>
+        <v>6932261</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45162.625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>1.181</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>7</v>
       </c>
       <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21">
         <v>11</v>
       </c>
-      <c r="N21">
-        <v>1.111</v>
-      </c>
       <c r="O21">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="P21">
-        <v>15</v>
+        <v>1.142</v>
       </c>
       <c r="Q21">
-        <v>-2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6932261</v>
+        <v>6941302</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,76 +2414,76 @@
         <v>45162.625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>1.571</v>
+      </c>
+      <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>4.75</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>1.2</v>
-      </c>
-      <c r="N22">
-        <v>11</v>
-      </c>
-      <c r="O22">
-        <v>9</v>
-      </c>
-      <c r="P22">
-        <v>1.142</v>
-      </c>
       <c r="Q22">
-        <v>2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
         <v>1.925</v>
       </c>
-      <c r="V22">
-        <v>1.875</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.925</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6933358</v>
+        <v>6941303</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45162.625</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23">
+        <v>1.181</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
         <v>11</v>
       </c>
-      <c r="L23">
-        <v>6.5</v>
-      </c>
-      <c r="M23">
-        <v>1.2</v>
-      </c>
       <c r="N23">
-        <v>8.5</v>
+        <v>1.111</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="P23">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q23">
-        <v>1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6941302</v>
+        <v>6933358</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,49 +2592,49 @@
         <v>45162.625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.875</v>
@@ -2646,22 +2646,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6941305</v>
+        <v>6932263</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,46 +2770,46 @@
         <v>45163.625</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>5.75</v>
+      </c>
+      <c r="L26">
+        <v>4.75</v>
+      </c>
+      <c r="M26">
+        <v>1.444</v>
+      </c>
+      <c r="N26">
+        <v>3.8</v>
+      </c>
+      <c r="O26">
+        <v>4.5</v>
+      </c>
+      <c r="P26">
+        <v>1.6</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>1.45</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>6.5</v>
-      </c>
-      <c r="N26">
-        <v>1.55</v>
-      </c>
-      <c r="O26">
-        <v>4.2</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>-1</v>
-      </c>
       <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
         <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.85</v>
       </c>
       <c r="T26">
         <v>3</v>
@@ -2821,25 +2821,25 @@
         <v>2</v>
       </c>
       <c r="W26">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6932263</v>
+        <v>6941305</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,46 +2859,46 @@
         <v>45163.625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>1.45</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>6.5</v>
+      </c>
+      <c r="N27">
+        <v>1.55</v>
+      </c>
+      <c r="O27">
+        <v>4.2</v>
+      </c>
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>5.75</v>
-      </c>
-      <c r="L27">
-        <v>4.75</v>
-      </c>
-      <c r="M27">
-        <v>1.444</v>
-      </c>
-      <c r="N27">
-        <v>3.8</v>
-      </c>
-      <c r="O27">
-        <v>4.5</v>
-      </c>
-      <c r="P27">
-        <v>1.6</v>
-      </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R27">
+        <v>1.95</v>
+      </c>
+      <c r="S27">
         <v>1.85</v>
-      </c>
-      <c r="S27">
-        <v>1.95</v>
       </c>
       <c r="T27">
         <v>3</v>
@@ -2910,25 +2910,25 @@
         <v>2</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>45163.625</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6932265</v>
+        <v>6941307</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,49 +3126,49 @@
         <v>45166.625</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="N30">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>1.75</v>
       </c>
-      <c r="R30">
-        <v>1.875</v>
-      </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
         <v>1.9</v>
@@ -3177,25 +3177,25 @@
         <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932264</v>
+        <v>6932265</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45166.625</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>5.75</v>
+      </c>
+      <c r="M31">
+        <v>1.2</v>
+      </c>
+      <c r="N31">
+        <v>8.5</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>1.222</v>
+      </c>
+      <c r="Q31">
+        <v>1.75</v>
+      </c>
+      <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.9</v>
+      </c>
+      <c r="V31">
+        <v>1.9</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>0.222</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>0.925</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>1.181</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1.222</v>
-      </c>
-      <c r="O31">
-        <v>6.5</v>
-      </c>
-      <c r="P31">
-        <v>8</v>
-      </c>
-      <c r="Q31">
-        <v>-1.75</v>
-      </c>
-      <c r="R31">
-        <v>1.85</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
-      <c r="W31">
-        <v>0.222</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>0.425</v>
-      </c>
-      <c r="AA31">
-        <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6941307</v>
+        <v>6932264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,13 +3304,13 @@
         <v>45166.625</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3319,43 +3319,43 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3364,16 +3364,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6941314</v>
+        <v>6932267</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,56 +4016,56 @@
         <v>45170.625</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U40">
+        <v>1.85</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6932267</v>
+        <v>6941314</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,56 +4105,56 @@
         <v>45170.625</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
         <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6941317</v>
+        <v>6932268</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,73 +4194,73 @@
         <v>45171.625</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42">
+        <v>1.444</v>
+      </c>
+      <c r="L42">
+        <v>4.2</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>1.833</v>
+      </c>
+      <c r="O42">
+        <v>3.75</v>
+      </c>
+      <c r="P42">
+        <v>3.4</v>
+      </c>
+      <c r="Q42">
+        <v>-0.5</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
+        <v>1.9</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>1.8</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
+        <v>2.4</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB42">
         <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42">
-        <v>1.909</v>
-      </c>
-      <c r="L42">
-        <v>3.5</v>
-      </c>
-      <c r="M42">
-        <v>3.5</v>
-      </c>
-      <c r="N42">
-        <v>2.375</v>
-      </c>
-      <c r="O42">
-        <v>3.25</v>
-      </c>
-      <c r="P42">
-        <v>2.7</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>1.775</v>
-      </c>
-      <c r="S42">
-        <v>2.025</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.825</v>
-      </c>
-      <c r="V42">
-        <v>1.975</v>
-      </c>
-      <c r="W42">
-        <v>1.375</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
-      <c r="Z42">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6932268</v>
+        <v>6941315</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,70 +4286,70 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6941315</v>
+        <v>6941316</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,13 +4372,13 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4387,43 +4387,43 @@
         <v>47</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>0.6000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4432,13 +4432,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6941316</v>
+        <v>6941317</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,13 +4461,13 @@
         <v>45171.625</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4476,43 +4476,43 @@
         <v>47</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>5.5</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4521,13 +4521,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4550,7 +4550,7 @@
         <v>45171.625</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
@@ -4728,7 +4728,7 @@
         <v>45183.625</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -4820,7 +4820,7 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>45185.5</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6940734</v>
+        <v>6941324</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45190.5</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>13</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M56">
-        <v>1.142</v>
+        <v>4.5</v>
       </c>
       <c r="N56">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="Q56">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X56">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45190.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>1.142</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57">
+        <v>9</v>
+      </c>
+      <c r="P57">
+        <v>1.111</v>
+      </c>
+      <c r="Q57">
+        <v>2.5</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-      <c r="J57" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57">
-        <v>1.7</v>
-      </c>
-      <c r="L57">
-        <v>3.7</v>
-      </c>
-      <c r="M57">
-        <v>4.25</v>
-      </c>
-      <c r="N57">
-        <v>1.45</v>
-      </c>
-      <c r="O57">
-        <v>4.2</v>
-      </c>
-      <c r="P57">
-        <v>5.5</v>
-      </c>
-      <c r="Q57">
-        <v>-1</v>
-      </c>
-      <c r="R57">
-        <v>1.775</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6941324</v>
+        <v>6941325</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>45190.5</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L58">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M58">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="N58">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,10 +5707,10 @@
         <v>45190.625</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,34 +6063,34 @@
         <v>45191.625</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N63">
         <v>1.65</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>4.333</v>
@@ -6099,19 +6099,19 @@
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>1.975</v>
+      </c>
+      <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.775</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
       </c>
       <c r="W63">
         <v>0.6499999999999999</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,34 +6152,34 @@
         <v>45191.625</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L64">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
         <v>1.65</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>4.333</v>
@@ -6188,19 +6188,19 @@
         <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>0.6499999999999999</v>
@@ -6212,13 +6212,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6940737</v>
+        <v>6941329</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45198.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="N65">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>1.975</v>
@@ -6295,22 +6295,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6941329</v>
+        <v>6940737</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,49 +6330,49 @@
         <v>45198.5</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
+        <v>8.5</v>
+      </c>
+      <c r="L66">
         <v>5</v>
       </c>
-      <c r="L66">
-        <v>4</v>
-      </c>
       <c r="M66">
+        <v>1.3</v>
+      </c>
+      <c r="N66">
+        <v>5.5</v>
+      </c>
+      <c r="O66">
+        <v>3.8</v>
+      </c>
+      <c r="P66">
         <v>1.533</v>
-      </c>
-      <c r="N66">
-        <v>5.25</v>
-      </c>
-      <c r="O66">
-        <v>4.2</v>
-      </c>
-      <c r="P66">
-        <v>1.5</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.975</v>
@@ -6384,22 +6384,22 @@
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6941332</v>
+        <v>6941333</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45199.625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N72">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6941333</v>
+        <v>6941332</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45199.625</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P73">
+        <v>4.5</v>
+      </c>
+      <c r="Q73">
+        <v>-0.75</v>
+      </c>
+      <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6940811</v>
+        <v>6941336</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,46 +7131,46 @@
         <v>45204.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
+        <v>1.45</v>
+      </c>
+      <c r="L75">
         <v>4</v>
       </c>
-      <c r="L75">
-        <v>3.6</v>
-      </c>
       <c r="M75">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
         <v>3</v>
@@ -7182,25 +7182,25 @@
         <v>1.85</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X75">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6941336</v>
+        <v>6940811</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,46 +7220,46 @@
         <v>45204.5</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N76">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>3</v>
@@ -7271,25 +7271,25 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>45204.625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6941337</v>
+        <v>6941335</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,61 +7665,61 @@
         <v>45206.625</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q81">
         <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7728,13 +7728,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.3625</v>
+        <v>0.4125</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6941335</v>
+        <v>6941337</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,61 +7754,61 @@
         <v>45206.625</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
         <v>3.4</v>
       </c>
       <c r="M82">
+        <v>2.9</v>
+      </c>
+      <c r="N82">
+        <v>2.375</v>
+      </c>
+      <c r="O82">
         <v>3.2</v>
       </c>
-      <c r="N82">
-        <v>2.2</v>
-      </c>
-      <c r="O82">
-        <v>3.25</v>
-      </c>
       <c r="P82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T82">
         <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7817,13 +7817,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.4125</v>
+        <v>0.3625</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45219.5</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N83">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45219.5</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6941343</v>
+        <v>6940742</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,58 +8199,58 @@
         <v>45220.5</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>2.45</v>
+        <v>1.153</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M87">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
+        <v>7</v>
+      </c>
+      <c r="P87">
+        <v>15</v>
+      </c>
+      <c r="Q87">
+        <v>-2.25</v>
+      </c>
+      <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
         <v>3.5</v>
       </c>
-      <c r="P87">
-        <v>2.1</v>
-      </c>
-      <c r="Q87">
-        <v>0.25</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.825</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940742</v>
+        <v>6941343</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,59 +8288,59 @@
         <v>45220.5</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.153</v>
+        <v>2.45</v>
       </c>
       <c r="L88">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>2.55</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
+        <v>1.825</v>
+      </c>
+      <c r="W88">
         <v>2</v>
       </c>
-      <c r="W88">
-        <v>0.1659999999999999</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6941341</v>
+        <v>6940812</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45220.625</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
         <v>4.2</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6940812</v>
+        <v>6941341</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,58 +8466,58 @@
         <v>45220.625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
         <v>4.2</v>
       </c>
       <c r="P90">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9181,7 +9181,7 @@
         <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9356,10 +9356,10 @@
         <v>45227.625</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6941351</v>
+        <v>6940749</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,76 +9445,76 @@
         <v>45233.5</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3.75</v>
+      </c>
+      <c r="U101">
+        <v>1.9</v>
+      </c>
+      <c r="V101">
+        <v>1.9</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>0.25</v>
       </c>
-      <c r="R101">
-        <v>1.8</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.3</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
       <c r="Z101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6940749</v>
+        <v>6941351</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45233.5</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102">
+        <v>2.8</v>
+      </c>
+      <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>2.4</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>3.3</v>
+      </c>
+      <c r="P102">
+        <v>2.3</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>1.8</v>
+      </c>
+      <c r="S102">
         <v>2</v>
       </c>
-      <c r="J102" t="s">
-        <v>49</v>
-      </c>
-      <c r="K102">
-        <v>6.5</v>
-      </c>
-      <c r="L102">
-        <v>5</v>
-      </c>
-      <c r="M102">
-        <v>1.4</v>
-      </c>
-      <c r="N102">
-        <v>9</v>
-      </c>
-      <c r="O102">
-        <v>7</v>
-      </c>
-      <c r="P102">
-        <v>1.25</v>
-      </c>
-      <c r="Q102">
-        <v>2</v>
-      </c>
-      <c r="R102">
-        <v>1.825</v>
-      </c>
-      <c r="S102">
-        <v>1.975</v>
-      </c>
       <c r="T102">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y102">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>45233.625</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
         <v>45234.625</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -9979,10 +9979,10 @@
         <v>45235.5</v>
       </c>
       <c r="F107" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s">
         <v>42</v>
-      </c>
-      <c r="G107" t="s">
-        <v>43</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10249,7 +10249,7 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6941356</v>
+        <v>6941355</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45241.5</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L116">
         <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
         <v>1.825</v>
       </c>
-      <c r="V116">
-        <v>1.975</v>
-      </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA116">
         <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6941355</v>
+        <v>6941356</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="V117">
-        <v>1.825</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA117">
         <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10958,7 +10958,7 @@
         <v>45241.625</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>41</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6941363</v>
+        <v>6940754</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45254.5</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N119">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y119">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6940754</v>
+        <v>6941363</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45254.5</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z120">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>45255.5</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
         <v>45</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6941364</v>
+        <v>6940815</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,46 +11492,46 @@
         <v>45255.625</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N124">
         <v>1.909</v>
       </c>
       <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
         <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.75</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11670,7 +11670,7 @@
         <v>45255.625</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6940815</v>
+        <v>6941364</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,46 +11759,46 @@
         <v>45255.625</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N127">
         <v>1.909</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.75</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6940816</v>
+        <v>6941372</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45262.625</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135">
+        <v>2.45</v>
+      </c>
+      <c r="L135">
+        <v>3.4</v>
+      </c>
+      <c r="M135">
+        <v>2.55</v>
+      </c>
+      <c r="N135">
+        <v>2.75</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>2.3</v>
+      </c>
+      <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
         <v>2</v>
-      </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>2.05</v>
-      </c>
-      <c r="L135">
-        <v>3.3</v>
-      </c>
-      <c r="M135">
-        <v>3.3</v>
-      </c>
-      <c r="N135">
-        <v>2.1</v>
-      </c>
-      <c r="O135">
-        <v>3.3</v>
-      </c>
-      <c r="P135">
-        <v>3.1</v>
-      </c>
-      <c r="Q135">
-        <v>-0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>1.925</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6941372</v>
+        <v>6940816</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45262.625</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>2</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N136">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,31 +12649,31 @@
         <v>45267.5</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L137">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
         <v>1.6</v>
       </c>
       <c r="N137">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
         <v>3.5</v>
@@ -12685,22 +12685,22 @@
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12709,16 +12709,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,31 +12738,31 @@
         <v>45267.5</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L138">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M138">
         <v>1.6</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
         <v>3.5</v>
@@ -12774,22 +12774,22 @@
         <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12798,16 +12798,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,10 +12827,10 @@
         <v>45267.625</v>
       </c>
       <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
         <v>37</v>
-      </c>
-      <c r="G139" t="s">
-        <v>36</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6941378</v>
+        <v>6940759</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45268.5</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>9.5</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="N140">
-        <v>1.7</v>
+        <v>15</v>
       </c>
       <c r="O140">
+        <v>9</v>
+      </c>
+      <c r="P140">
+        <v>1.111</v>
+      </c>
+      <c r="Q140">
+        <v>2.5</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
         <v>3.75</v>
       </c>
-      <c r="P140">
-        <v>4.5</v>
-      </c>
-      <c r="Q140">
-        <v>-0.75</v>
-      </c>
-      <c r="R140">
-        <v>1.95</v>
-      </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6941379</v>
+        <v>6941378</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,13 +13005,13 @@
         <v>45268.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -13020,43 +13020,43 @@
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,13 +13065,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6940759</v>
+        <v>6941379</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45268.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>2.15</v>
+      </c>
+      <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>1.75</v>
+      </c>
+      <c r="O142">
+        <v>3.8</v>
+      </c>
+      <c r="P142">
+        <v>4</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.825</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
         <v>2</v>
       </c>
-      <c r="J142" t="s">
-        <v>49</v>
-      </c>
-      <c r="K142">
-        <v>9.5</v>
-      </c>
-      <c r="L142">
-        <v>6.5</v>
-      </c>
-      <c r="M142">
-        <v>1.2</v>
-      </c>
-      <c r="N142">
-        <v>15</v>
-      </c>
-      <c r="O142">
-        <v>9</v>
-      </c>
-      <c r="P142">
-        <v>1.111</v>
-      </c>
-      <c r="Q142">
-        <v>2.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>3.75</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>45269.625</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13453,7 +13453,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13720,7 +13720,7 @@
         <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13809,7 +13809,7 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>45276.625</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
         <v>46</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,10 +14162,10 @@
         <v>45281.5</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,43 +14177,43 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14222,16 +14222,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,10 +14251,10 @@
         <v>45281.5</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14266,61 +14266,61 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.85</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.975</v>
+      </c>
+      <c r="V155">
+        <v>1.825</v>
+      </c>
+      <c r="W155">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.4875</v>
+      </c>
+      <c r="AC155">
         <v>-0.5</v>
-      </c>
-      <c r="R155">
-        <v>2.025</v>
-      </c>
-      <c r="S155">
-        <v>1.775</v>
-      </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
-      <c r="U155">
-        <v>1.775</v>
-      </c>
-      <c r="V155">
-        <v>2.025</v>
-      </c>
-      <c r="W155">
-        <v>1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>1.025</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45282.5</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N157">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q157">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6940819</v>
+        <v>6941388</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45282.5</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>4.75</v>
+      </c>
+      <c r="M158">
+        <v>1.444</v>
+      </c>
+      <c r="N158">
+        <v>5.5</v>
+      </c>
+      <c r="O158">
+        <v>5</v>
+      </c>
+      <c r="P158">
+        <v>1.363</v>
+      </c>
+      <c r="Q158">
+        <v>1.5</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
+        <v>1.775</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.363</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>2.5</v>
-      </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>2.6</v>
-      </c>
-      <c r="N158">
-        <v>2.7</v>
-      </c>
-      <c r="O158">
-        <v>3.25</v>
-      </c>
-      <c r="P158">
-        <v>2.5</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.95</v>
-      </c>
-      <c r="S158">
-        <v>1.85</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
-      <c r="W158">
-        <v>1.7</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.95</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14874,7 +14874,7 @@
         <v>45284.625</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -15052,10 +15052,10 @@
         <v>45288.5</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6940767</v>
+        <v>6941392</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45289.5</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
+      </c>
+      <c r="K166">
+        <v>1.666</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>4.333</v>
+      </c>
+      <c r="N166">
+        <v>1.533</v>
+      </c>
+      <c r="O166">
+        <v>4.2</v>
+      </c>
+      <c r="P166">
+        <v>5.25</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.9</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.95</v>
+      </c>
+      <c r="V166">
+        <v>1.85</v>
+      </c>
+      <c r="W166">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
         <v>0</v>
       </c>
-      <c r="I166">
-        <v>2</v>
-      </c>
-      <c r="J166" t="s">
-        <v>49</v>
-      </c>
-      <c r="K166">
-        <v>10</v>
-      </c>
-      <c r="L166">
-        <v>6</v>
-      </c>
-      <c r="M166">
-        <v>1.222</v>
-      </c>
-      <c r="N166">
-        <v>17</v>
-      </c>
-      <c r="O166">
-        <v>8</v>
-      </c>
-      <c r="P166">
-        <v>1.111</v>
-      </c>
-      <c r="Q166">
-        <v>2.5</v>
-      </c>
-      <c r="R166">
-        <v>1.8</v>
-      </c>
-      <c r="S166">
-        <v>2</v>
-      </c>
-      <c r="T166">
-        <v>3.5</v>
-      </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
-      </c>
-      <c r="W166">
-        <v>-1</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>0.111</v>
-      </c>
-      <c r="Z166">
-        <v>0.8</v>
-      </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6941392</v>
+        <v>6940767</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,76 +15319,76 @@
         <v>45289.5</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="N167">
-        <v>1.533</v>
+        <v>17</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P167">
-        <v>5.25</v>
+        <v>1.111</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
+        <v>-1</v>
+      </c>
+      <c r="AC167">
         <v>0.95</v>
-      </c>
-      <c r="AC167">
-        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15586,10 +15586,10 @@
         <v>45290.625</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -16298,7 +16298,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
         <v>31</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6941403</v>
+        <v>6941401</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L182">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6941401</v>
+        <v>6941403</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O183">
         <v>3.5</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17188,7 +17188,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17277,7 +17277,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>45</v>
@@ -17369,7 +17369,7 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17455,11 +17455,20 @@
         <v>45351.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
       </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+      <c r="J191" t="s">
+        <v>48</v>
+      </c>
       <c r="K191">
         <v>2.2</v>
       </c>
@@ -17470,46 +17479,52 @@
         <v>3.1</v>
       </c>
       <c r="N191">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q191">
         <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
         <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB191">
+        <v>0.925</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17534,6 +17549,15 @@
       <c r="G192" t="s">
         <v>31</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
+      </c>
       <c r="K192">
         <v>2.05</v>
       </c>
@@ -17544,49 +17568,55 @@
         <v>3.5</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB192">
+        <v>0.825</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17606,7 +17636,16 @@
         <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+      <c r="J193" t="s">
+        <v>48</v>
       </c>
       <c r="K193">
         <v>1.111</v>
@@ -17618,49 +17657,55 @@
         <v>17</v>
       </c>
       <c r="N193">
-        <v>1.1</v>
+        <v>1.166</v>
       </c>
       <c r="O193">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P193">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q193">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R193">
+        <v>1.975</v>
+      </c>
+      <c r="S193">
+        <v>1.825</v>
+      </c>
+      <c r="T193">
+        <v>3.75</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
         <v>1.95</v>
       </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>4</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.85</v>
-      </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB193">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17682,6 +17727,15 @@
       <c r="G194" t="s">
         <v>30</v>
       </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>47</v>
+      </c>
       <c r="K194">
         <v>2.4</v>
       </c>
@@ -17704,37 +17758,43 @@
         <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17756,6 +17816,15 @@
       <c r="G195" t="s">
         <v>33</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>49</v>
+      </c>
       <c r="K195">
         <v>1.615</v>
       </c>
@@ -17766,49 +17835,55 @@
         <v>5</v>
       </c>
       <c r="N195">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17830,6 +17905,15 @@
       <c r="G196" t="s">
         <v>44</v>
       </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
+      </c>
       <c r="K196">
         <v>1.571</v>
       </c>
@@ -17840,25 +17924,25 @@
         <v>4.75</v>
       </c>
       <c r="N196">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U196">
         <v>1.8</v>
@@ -17867,22 +17951,28 @@
         <v>2</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.8</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -17902,7 +17992,7 @@
         <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K197">
         <v>2.45</v>
@@ -17914,31 +18004,31 @@
         <v>2.875</v>
       </c>
       <c r="N197">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -17956,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:29">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -17976,7 +18066,7 @@
         <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K198">
         <v>3.3</v>
@@ -17988,22 +18078,22 @@
         <v>2.15</v>
       </c>
       <c r="N198">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O198">
         <v>3.5</v>
       </c>
       <c r="P198">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q198">
         <v>0.5</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.5</v>
@@ -18030,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:29">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -18062,31 +18152,31 @@
         <v>6.5</v>
       </c>
       <c r="N199">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P199">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
         <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U199">
+        <v>1.8</v>
+      </c>
+      <c r="V199">
         <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.8</v>
       </c>
       <c r="W199">
         <v>0</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Al Riyadh</t>
   </si>
   <si>
-    <t>Al Raed</t>
+    <t>Abha</t>
   </si>
   <si>
-    <t>Abha</t>
+    <t>Al Raed</t>
   </si>
   <si>
     <t>Al Shabab Riyadh</t>
@@ -139,13 +139,13 @@
     <t>Al Akhdoud</t>
   </si>
   <si>
-    <t>AlNassr Riyadh</t>
-  </si>
-  <si>
     <t>Al Wehda Mecca</t>
   </si>
   <si>
     <t>Al Hazm</t>
+  </si>
+  <si>
+    <t>AlNassr Riyadh</t>
   </si>
   <si>
     <t>Al Ittihad Jeddah</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,10 +1082,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>3.75</v>
@@ -1103,31 +1103,31 @@
         <v>1.615</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q7">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,10 +1171,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
         <v>3.75</v>
@@ -1192,31 +1192,31 @@
         <v>1.615</v>
       </c>
       <c r="N8">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1225,19 +1225,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6932257</v>
+        <v>6932258</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,37 +1705,37 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N14">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1.775</v>
@@ -1744,7 +1744,7 @@
         <v>2.025</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
         <v>1.9</v>
@@ -1753,25 +1753,25 @@
         <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6932258</v>
+        <v>6941299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
         <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6941299</v>
+        <v>6932257</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1895,40 +1895,40 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1.222</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>-1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.775</v>
+      </c>
+      <c r="S16">
+        <v>2.025</v>
+      </c>
+      <c r="T16">
         <v>3.25</v>
       </c>
-      <c r="M16">
-        <v>2.25</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>1.7</v>
-      </c>
-      <c r="Q16">
-        <v>0.75</v>
-      </c>
-      <c r="R16">
-        <v>1.875</v>
-      </c>
-      <c r="S16">
-        <v>1.925</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1937,19 +1937,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>11</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1969,10 +1969,10 @@
         <v>45157.5</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6932261</v>
+        <v>6941303</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45162.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>1.181</v>
       </c>
       <c r="L21">
         <v>7</v>
       </c>
       <c r="M21">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>1.111</v>
       </c>
       <c r="O21">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="P21">
-        <v>1.142</v>
+        <v>15</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6941302</v>
+        <v>6933358</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,49 +2414,49 @@
         <v>45162.625</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
         <v>1.875</v>
@@ -2468,22 +2468,22 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6941303</v>
+        <v>6932261</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>45162.625</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.181</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
       <c r="M23">
+        <v>1.2</v>
+      </c>
+      <c r="N23">
         <v>11</v>
       </c>
-      <c r="N23">
-        <v>1.111</v>
-      </c>
       <c r="O23">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="P23">
-        <v>15</v>
+        <v>1.142</v>
       </c>
       <c r="Q23">
-        <v>-2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6933358</v>
+        <v>6941302</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,49 +2592,49 @@
         <v>45162.625</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>1.571</v>
+      </c>
+      <c r="L24">
+        <v>3.8</v>
+      </c>
+      <c r="M24">
+        <v>4.75</v>
+      </c>
+      <c r="N24">
+        <v>1.8</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
         <v>4</v>
       </c>
-      <c r="J24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>11</v>
-      </c>
-      <c r="L24">
-        <v>6.5</v>
-      </c>
-      <c r="M24">
-        <v>1.2</v>
-      </c>
-      <c r="N24">
-        <v>8.5</v>
-      </c>
-      <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24">
-        <v>1.222</v>
-      </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.875</v>
@@ -2646,22 +2646,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6932263</v>
+        <v>6932262</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45163.625</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
+        <v>1.5</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
         <v>5.75</v>
       </c>
-      <c r="L26">
-        <v>4.75</v>
-      </c>
-      <c r="M26">
-        <v>1.444</v>
-      </c>
       <c r="N26">
+        <v>1.65</v>
+      </c>
+      <c r="O26">
         <v>3.8</v>
       </c>
-      <c r="O26">
-        <v>4.5</v>
-      </c>
       <c r="P26">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y26">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6941305</v>
+        <v>6932263</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,46 +2859,46 @@
         <v>45163.625</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>5.75</v>
+      </c>
+      <c r="L27">
+        <v>4.75</v>
+      </c>
+      <c r="M27">
+        <v>1.444</v>
+      </c>
+      <c r="N27">
+        <v>3.8</v>
+      </c>
+      <c r="O27">
+        <v>4.5</v>
+      </c>
+      <c r="P27">
+        <v>1.6</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>1.45</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>6.5</v>
-      </c>
-      <c r="N27">
-        <v>1.55</v>
-      </c>
-      <c r="O27">
-        <v>4.2</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <v>-1</v>
-      </c>
       <c r="R27">
+        <v>1.85</v>
+      </c>
+      <c r="S27">
         <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>1.85</v>
       </c>
       <c r="T27">
         <v>3</v>
@@ -2910,25 +2910,25 @@
         <v>2</v>
       </c>
       <c r="W27">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6932262</v>
+        <v>6941305</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45163.625</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
       <c r="M28">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3037,7 +3037,7 @@
         <v>45166.5</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,49 +3126,49 @@
         <v>45166.625</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>1.9</v>
@@ -3177,25 +3177,25 @@
         <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932265</v>
+        <v>6932264</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45166.625</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="L31">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P31">
-        <v>1.222</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6932264</v>
+        <v>6941307</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,13 +3304,13 @@
         <v>45166.625</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3319,43 +3319,43 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O32">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3364,16 +3364,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6941310</v>
+        <v>6932266</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45167.625</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>1.333</v>
+      </c>
+      <c r="L35">
+        <v>4.75</v>
+      </c>
+      <c r="M35">
+        <v>6.5</v>
+      </c>
+      <c r="N35">
+        <v>1.363</v>
+      </c>
+      <c r="O35">
+        <v>5.25</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>-1.5</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>3.25</v>
+      </c>
+      <c r="U35">
+        <v>1.825</v>
+      </c>
+      <c r="V35">
+        <v>1.975</v>
+      </c>
+      <c r="W35">
+        <v>0.363</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35">
-        <v>2.3</v>
-      </c>
-      <c r="L35">
-        <v>3.2</v>
-      </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
-      <c r="O35">
-        <v>3.3</v>
-      </c>
-      <c r="P35">
-        <v>3.4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
-      <c r="S35">
-        <v>1.825</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>2.3</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.825</v>
       </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6932266</v>
+        <v>6941310</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45167.625</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6941313</v>
+        <v>6941312</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,34 +3838,34 @@
         <v>45170.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -3874,40 +3874,40 @@
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941312</v>
+        <v>6941313</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,34 +3927,34 @@
         <v>45170.5</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
         <v>3</v>
@@ -3963,40 +3963,40 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X39">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6932267</v>
+        <v>6941314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,56 +4016,56 @@
         <v>45170.625</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
       </c>
       <c r="K40">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
         <v>1.85</v>
       </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6941314</v>
+        <v>6932267</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,56 +4105,56 @@
         <v>45170.625</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
         <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.85</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6941315</v>
+        <v>6932269</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>13</v>
       </c>
       <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>1.166</v>
+      </c>
+      <c r="N43">
+        <v>15</v>
+      </c>
+      <c r="O43">
+        <v>7.5</v>
+      </c>
+      <c r="P43">
+        <v>1.142</v>
+      </c>
+      <c r="Q43">
+        <v>2.25</v>
+      </c>
+      <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
+        <v>1.925</v>
+      </c>
+      <c r="T43">
         <v>3.5</v>
       </c>
-      <c r="M43">
-        <v>3.5</v>
-      </c>
-      <c r="N43">
-        <v>1.6</v>
-      </c>
-      <c r="O43">
-        <v>3.8</v>
-      </c>
-      <c r="P43">
-        <v>5.25</v>
-      </c>
-      <c r="Q43">
-        <v>-1</v>
-      </c>
-      <c r="R43">
-        <v>2.025</v>
-      </c>
-      <c r="S43">
-        <v>1.775</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z43">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6941316</v>
+        <v>6941315</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,13 +4372,13 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4387,43 +4387,43 @@
         <v>47</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>5.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4432,13 +4432,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6941317</v>
+        <v>6941316</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,13 +4461,13 @@
         <v>45171.625</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4476,43 +4476,43 @@
         <v>47</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="O45">
+        <v>4.75</v>
+      </c>
+      <c r="P45">
+        <v>1.363</v>
+      </c>
+      <c r="Q45">
+        <v>1.5</v>
+      </c>
+      <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
         <v>3.25</v>
       </c>
-      <c r="P45">
-        <v>2.7</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1.775</v>
-      </c>
-      <c r="S45">
-        <v>2.025</v>
-      </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>5.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4521,13 +4521,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6932269</v>
+        <v>6941317</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4550,73 @@
         <v>45171.625</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>41</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.166</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="O46">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>1.142</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
+        <v>1.825</v>
+      </c>
+      <c r="V46">
         <v>1.975</v>
       </c>
-      <c r="V46">
-        <v>1.825</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>45183.625</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5084,7 +5084,7 @@
         <v>45185.375</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6940731</v>
+        <v>6941319</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T53">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6941319</v>
+        <v>6940731</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45185.5</v>
       </c>
       <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
         <v>43</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="N54">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P54">
-        <v>3.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6940734</v>
+        <v>6941325</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45190.5</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M57">
-        <v>1.142</v>
+        <v>4.25</v>
       </c>
       <c r="N57">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="O57">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>1.111</v>
+        <v>5.5</v>
       </c>
       <c r="Q57">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X57">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45190.5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58">
+        <v>13</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>1.142</v>
+      </c>
+      <c r="N58">
+        <v>15</v>
+      </c>
+      <c r="O58">
+        <v>9</v>
+      </c>
+      <c r="P58">
+        <v>1.111</v>
+      </c>
+      <c r="Q58">
+        <v>2.5</v>
+      </c>
+      <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.825</v>
+      </c>
+      <c r="T58">
         <v>4</v>
       </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-      <c r="J58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K58">
-        <v>1.7</v>
-      </c>
-      <c r="L58">
-        <v>3.7</v>
-      </c>
-      <c r="M58">
-        <v>4.25</v>
-      </c>
-      <c r="N58">
-        <v>1.45</v>
-      </c>
-      <c r="O58">
-        <v>4.2</v>
-      </c>
-      <c r="P58">
-        <v>5.5</v>
-      </c>
-      <c r="Q58">
-        <v>-1</v>
-      </c>
-      <c r="R58">
-        <v>1.775</v>
-      </c>
-      <c r="S58">
-        <v>2.025</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,31 +6066,31 @@
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
         <v>1.65</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
         <v>4.333</v>
@@ -6099,19 +6099,19 @@
         <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>0.6499999999999999</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,34 +6152,34 @@
         <v>45191.625</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N64">
         <v>1.65</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>4.333</v>
@@ -6188,19 +6188,19 @@
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>3.25</v>
+      </c>
+      <c r="U64">
+        <v>1.925</v>
+      </c>
+      <c r="V64">
         <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.775</v>
-      </c>
-      <c r="V64">
-        <v>2.025</v>
       </c>
       <c r="W64">
         <v>0.6499999999999999</v>
@@ -6212,13 +6212,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6941329</v>
+        <v>6940736</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45198.5</v>
       </c>
       <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
         <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>46</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M65">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="N65">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U65">
         <v>1.975</v>
@@ -6298,19 +6298,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6940736</v>
+        <v>6941329</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45198.5</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
       </c>
       <c r="K67">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="N67">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="O67">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="Q67">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U67">
         <v>1.975</v>
@@ -6476,19 +6476,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.1419999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>45199.375</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6941330</v>
+        <v>6941328</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,73 +6686,73 @@
         <v>45199.5</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>1.75</v>
+      </c>
+      <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>3.8</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.6</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.85</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>3.75</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>3.25</v>
-      </c>
-      <c r="Q70">
-        <v>-0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6941328</v>
+        <v>6941330</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,73 +6775,73 @@
         <v>45199.5</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>3.8</v>
-      </c>
       <c r="N71">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7045,7 +7045,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6941336</v>
+        <v>6940811</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,46 +7131,46 @@
         <v>45204.5</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="N75">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3</v>
@@ -7182,25 +7182,25 @@
         <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6940811</v>
+        <v>6941336</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,46 +7220,46 @@
         <v>45204.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76">
+        <v>1.45</v>
+      </c>
+      <c r="L76">
         <v>4</v>
       </c>
-      <c r="L76">
-        <v>3.6</v>
-      </c>
       <c r="M76">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="O76">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
         <v>3</v>
@@ -7271,25 +7271,25 @@
         <v>1.85</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X76">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7398,10 +7398,10 @@
         <v>45205.5</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>45206.625</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7757,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45219.5</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45219.5</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6940744</v>
+        <v>6941340</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45219.625</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="N85">
-        <v>1.111</v>
+        <v>1.4</v>
       </c>
       <c r="O85">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P85">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="Q85">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>3.25</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>3.75</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
       <c r="W85">
-        <v>0.111</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6941340</v>
+        <v>6940744</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45219.625</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M86">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="N86">
-        <v>1.4</v>
+        <v>1.111</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P86">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.3999999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>45220.5</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8288,10 +8288,10 @@
         <v>45220.5</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6940812</v>
+        <v>6941341</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45220.625</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
         <v>4.2</v>
       </c>
       <c r="P89">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6941341</v>
+        <v>6940812</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,58 +8466,58 @@
         <v>45220.625</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
         <v>4.2</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8825,7 +8825,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8911,7 +8911,7 @@
         <v>45226.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6940813</v>
+        <v>6940747</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,49 +9178,49 @@
         <v>45227.5</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P98">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
         <v>1.85</v>
       </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U98">
         <v>1.9</v>
@@ -9229,25 +9229,25 @@
         <v>1.9</v>
       </c>
       <c r="W98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6940747</v>
+        <v>6940813</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,49 +9267,49 @@
         <v>45227.5</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>3.6</v>
+      </c>
+      <c r="M99">
+        <v>1.833</v>
+      </c>
+      <c r="N99">
+        <v>4.2</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
+        <v>1.727</v>
+      </c>
+      <c r="Q99">
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
         <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>49</v>
-      </c>
-      <c r="K99">
-        <v>6</v>
-      </c>
-      <c r="L99">
-        <v>5</v>
-      </c>
-      <c r="M99">
-        <v>1.444</v>
-      </c>
-      <c r="N99">
-        <v>7.5</v>
-      </c>
-      <c r="O99">
-        <v>5.5</v>
-      </c>
-      <c r="P99">
-        <v>1.333</v>
-      </c>
-      <c r="Q99">
-        <v>1.5</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>3.5</v>
       </c>
       <c r="U99">
         <v>1.9</v>
@@ -9318,25 +9318,25 @@
         <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>45227.625</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9712,7 +9712,7 @@
         <v>45234.5</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9801,7 +9801,7 @@
         <v>45234.625</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9893,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9979,10 +9979,10 @@
         <v>45235.5</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>45239.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,55 +10424,55 @@
         <v>45239.625</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>48</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L112">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N112">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
         <v>3.75</v>
       </c>
       <c r="P112">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,55 +10513,55 @@
         <v>45239.625</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>48</v>
       </c>
       <c r="K113">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
         <v>3.75</v>
       </c>
       <c r="P113">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10872,7 +10872,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10958,10 +10958,10 @@
         <v>45241.625</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6941361</v>
+        <v>6940756</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,58 +11225,58 @@
         <v>45254.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>47</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.8</v>
+        <v>1.285</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P121">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>2.8</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6940756</v>
+        <v>6941361</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,58 +11314,58 @@
         <v>45254.625</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>3</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>47</v>
       </c>
       <c r="K122">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L122">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
-        <v>1.285</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q122">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>0.2849999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11403,7 +11403,7 @@
         <v>45255.5</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
         <v>45</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6940815</v>
+        <v>6941364</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,46 +11492,46 @@
         <v>45255.625</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
         <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
         <v>2.75</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11584,7 +11584,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11670,7 +11670,7 @@
         <v>45255.625</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6941364</v>
+        <v>6940815</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,46 +11759,46 @@
         <v>45255.625</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N127">
         <v>1.909</v>
       </c>
       <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
         <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>3.6</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
         <v>2.75</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>45260.5</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12471,10 +12471,10 @@
         <v>45262.625</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6940761</v>
+        <v>6941375</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,31 +12649,31 @@
         <v>45267.5</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>47</v>
       </c>
       <c r="K137">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M137">
         <v>1.6</v>
       </c>
       <c r="N137">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O137">
         <v>3.5</v>
@@ -12685,22 +12685,22 @@
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12709,16 +12709,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6941375</v>
+        <v>6940761</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,31 +12738,31 @@
         <v>45267.5</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>47</v>
       </c>
       <c r="K138">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L138">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
         <v>1.6</v>
       </c>
       <c r="N138">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O138">
         <v>3.5</v>
@@ -12774,22 +12774,22 @@
         <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12798,16 +12798,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6941378</v>
+        <v>6941379</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,13 +13005,13 @@
         <v>45268.5</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -13020,43 +13020,43 @@
         <v>47</v>
       </c>
       <c r="K141">
+        <v>2.15</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
         <v>1.75</v>
       </c>
-      <c r="L141">
-        <v>3.6</v>
-      </c>
-      <c r="M141">
-        <v>4.2</v>
-      </c>
-      <c r="N141">
-        <v>1.7</v>
-      </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,13 +13065,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6941379</v>
+        <v>6941378</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,13 +13094,13 @@
         <v>45268.5</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13109,43 +13109,43 @@
         <v>47</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
         <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
         <v>2</v>
       </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,13 +13154,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13183,7 +13183,7 @@
         <v>45268.625</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13361,7 +13361,7 @@
         <v>45269.625</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6941382</v>
+        <v>6941383</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45274.5</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
         <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6941383</v>
+        <v>6941382</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45274.5</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N147">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
         <v>3.4</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>1.8</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>2.4</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.9</v>
-      </c>
-      <c r="W147">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6940763</v>
+        <v>6940818</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,61 +13717,61 @@
         <v>45275.5</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>48</v>
+      </c>
+      <c r="K149">
+        <v>2.55</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>2.45</v>
+      </c>
+      <c r="N149">
+        <v>2.375</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
+        <v>2.625</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
         <v>2</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="K149">
-        <v>1.2</v>
-      </c>
-      <c r="L149">
-        <v>7</v>
-      </c>
-      <c r="M149">
-        <v>9.5</v>
-      </c>
-      <c r="N149">
-        <v>1.222</v>
-      </c>
-      <c r="O149">
-        <v>7</v>
-      </c>
-      <c r="P149">
-        <v>8.5</v>
-      </c>
-      <c r="Q149">
-        <v>-2</v>
-      </c>
-      <c r="R149">
-        <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -13786,7 +13786,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6940818</v>
+        <v>6940763</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,61 +13806,61 @@
         <v>45275.5</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M150">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -13875,7 +13875,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>45275.5</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>38</v>
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941386</v>
+        <v>6941390</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,10 +14162,10 @@
         <v>45281.5</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,61 +14177,61 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>2.025</v>
-      </c>
-      <c r="S154">
-        <v>1.775</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.775</v>
-      </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
-      <c r="W154">
-        <v>1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>1.025</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14239,7 +14239,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941390</v>
+        <v>6941386</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14251,10 +14251,10 @@
         <v>45281.5</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14266,43 +14266,43 @@
         <v>47</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14311,16 +14311,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14343,7 +14343,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>7</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6940819</v>
+        <v>6941388</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45282.5</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157">
+        <v>5</v>
+      </c>
+      <c r="L157">
+        <v>4.75</v>
+      </c>
+      <c r="M157">
+        <v>1.444</v>
+      </c>
+      <c r="N157">
+        <v>5.5</v>
+      </c>
+      <c r="O157">
+        <v>5</v>
+      </c>
+      <c r="P157">
+        <v>1.363</v>
+      </c>
+      <c r="Q157">
+        <v>1.5</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
+        <v>1.775</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.363</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="K157">
-        <v>2.5</v>
-      </c>
-      <c r="L157">
-        <v>3.4</v>
-      </c>
-      <c r="M157">
-        <v>2.6</v>
-      </c>
-      <c r="N157">
-        <v>2.7</v>
-      </c>
-      <c r="O157">
-        <v>3.25</v>
-      </c>
-      <c r="P157">
-        <v>2.5</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
-      <c r="V157">
-        <v>1.8</v>
-      </c>
-      <c r="W157">
-        <v>1.7</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.95</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45282.5</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>4</v>
-      </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N158">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q158">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>1.85</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.8</v>
       </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>3.25</v>
-      </c>
-      <c r="U158">
-        <v>2.025</v>
-      </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45282.5</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
         <v>37</v>
@@ -14788,7 +14788,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14874,7 +14874,7 @@
         <v>45284.625</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -14966,7 +14966,7 @@
         <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45288.5</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N164">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45288.5</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N165">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
         <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>1</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
-      <c r="AC165">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15230,10 +15230,10 @@
         <v>45289.5</v>
       </c>
       <c r="F166" t="s">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
         <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15589,7 +15589,7 @@
         <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>45337.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -16120,7 +16120,7 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -16298,7 +16298,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
         <v>31</v>
@@ -16387,7 +16387,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16479,7 +16479,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6941401</v>
+        <v>6941403</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M182">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N182">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6941403</v>
+        <v>6941401</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L183">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O183">
         <v>3.5</v>
       </c>
       <c r="P183">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X183">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17102,7 +17102,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17191,7 +17191,7 @@
         <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17369,7 +17369,7 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6941407</v>
+        <v>6941409</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,73 +17455,73 @@
         <v>45351.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
+        <v>2.05</v>
+      </c>
+      <c r="L191">
+        <v>3.4</v>
+      </c>
+      <c r="M191">
+        <v>3.5</v>
+      </c>
+      <c r="N191">
         <v>2.2</v>
       </c>
-      <c r="L191">
-        <v>3.5</v>
-      </c>
-      <c r="M191">
-        <v>3.1</v>
-      </c>
-      <c r="N191">
-        <v>2.8</v>
-      </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z191">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6941409</v>
+        <v>6941407</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,73 +17544,73 @@
         <v>45351.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
+        <v>2.2</v>
+      </c>
+      <c r="L192">
+        <v>3.5</v>
+      </c>
+      <c r="M192">
+        <v>3.1</v>
+      </c>
+      <c r="N192">
+        <v>2.8</v>
+      </c>
+      <c r="O192">
+        <v>3.5</v>
+      </c>
+      <c r="P192">
+        <v>2.375</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.75</v>
+      </c>
+      <c r="S192">
         <v>2.05</v>
       </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>3.5</v>
-      </c>
-      <c r="N192">
-        <v>2.2</v>
-      </c>
-      <c r="O192">
-        <v>3.3</v>
-      </c>
-      <c r="P192">
-        <v>3.25</v>
-      </c>
-      <c r="Q192">
-        <v>-0.25</v>
-      </c>
-      <c r="R192">
-        <v>1.9</v>
-      </c>
-      <c r="S192">
-        <v>1.9</v>
-      </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y192">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA192">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17633,10 +17633,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H193">
         <v>4</v>
@@ -17722,7 +17722,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>30</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6941411</v>
+        <v>6940822</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,61 +17989,76 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q197">
         <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18051,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6940822</v>
+        <v>6941411</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,61 +18078,76 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="Q198">
+        <v>0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.75</v>
+      </c>
+      <c r="S198">
+        <v>2.05</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
+        <v>2</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>1.4</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>1.05</v>
+      </c>
+      <c r="AB198">
+        <v>-0.5</v>
+      </c>
+      <c r="AC198">
         <v>0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.8</v>
-      </c>
-      <c r="S198">
-        <v>2</v>
-      </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.975</v>
-      </c>
-      <c r="V198">
-        <v>1.825</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
-      <c r="AA198">
-        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18142,6 +18172,15 @@
       <c r="G199" t="s">
         <v>32</v>
       </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
       <c r="K199">
         <v>1.4</v>
       </c>
@@ -18152,45 +18191,495 @@
         <v>6.5</v>
       </c>
       <c r="N199">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O199">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q199">
         <v>-1.25</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
+        <v>1.825</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>4.25</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>-1</v>
+      </c>
+      <c r="AA199">
+        <v>1</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6941415</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45358.45833333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200">
+        <v>2.1</v>
+      </c>
+      <c r="L200">
+        <v>3.4</v>
+      </c>
+      <c r="M200">
+        <v>3.1</v>
+      </c>
+      <c r="N200">
+        <v>2.1</v>
+      </c>
+      <c r="O200">
+        <v>3.4</v>
+      </c>
+      <c r="P200">
+        <v>3.2</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.85</v>
+      </c>
+      <c r="S200">
+        <v>1.95</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.8</v>
+      </c>
+      <c r="V200">
+        <v>2</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6940823</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45358.45833333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="K201">
+        <v>1.95</v>
+      </c>
+      <c r="L201">
+        <v>3.6</v>
+      </c>
+      <c r="M201">
+        <v>3.4</v>
+      </c>
+      <c r="N201">
+        <v>1.85</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>3.5</v>
+      </c>
+      <c r="Q201">
+        <v>-0.5</v>
+      </c>
+      <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.8</v>
+      </c>
+      <c r="V201">
+        <v>2</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6940778</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45358.58333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="K202">
+        <v>1.3</v>
+      </c>
+      <c r="L202">
+        <v>5.75</v>
+      </c>
+      <c r="M202">
+        <v>6.5</v>
+      </c>
+      <c r="N202">
+        <v>1.285</v>
+      </c>
+      <c r="O202">
+        <v>6</v>
+      </c>
+      <c r="P202">
+        <v>7</v>
+      </c>
+      <c r="Q202">
+        <v>-1.75</v>
+      </c>
+      <c r="R202">
+        <v>1.9</v>
+      </c>
+      <c r="S202">
+        <v>1.9</v>
+      </c>
+      <c r="T202">
+        <v>3.5</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6941416</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45359.45833333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" t="s">
+        <v>42</v>
+      </c>
+      <c r="K203">
+        <v>1.909</v>
+      </c>
+      <c r="L203">
+        <v>3.6</v>
+      </c>
+      <c r="M203">
+        <v>3.3</v>
+      </c>
+      <c r="N203">
+        <v>1.909</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>3.3</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.9</v>
+      </c>
+      <c r="V203">
+        <v>1.9</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6940780</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45359.45833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" t="s">
+        <v>45</v>
+      </c>
+      <c r="K204">
+        <v>13</v>
+      </c>
+      <c r="L204">
+        <v>8</v>
+      </c>
+      <c r="M204">
+        <v>1.125</v>
+      </c>
+      <c r="N204">
+        <v>13</v>
+      </c>
+      <c r="O204">
+        <v>8</v>
+      </c>
+      <c r="P204">
+        <v>1.125</v>
+      </c>
+      <c r="Q204">
+        <v>2.25</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>3.75</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6940779</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" t="s">
+        <v>40</v>
+      </c>
+      <c r="K205">
+        <v>1.45</v>
+      </c>
+      <c r="L205">
+        <v>4.5</v>
+      </c>
+      <c r="M205">
+        <v>5.75</v>
+      </c>
+      <c r="N205">
+        <v>1.45</v>
+      </c>
+      <c r="O205">
+        <v>4.5</v>
+      </c>
+      <c r="P205">
+        <v>5.75</v>
+      </c>
+      <c r="Q205">
+        <v>-1.25</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
         <v>3</v>
       </c>
-      <c r="U199">
-        <v>1.8</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
-      <c r="W199">
+      <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
         <v>0</v>
       </c>
-      <c r="X199">
+      <c r="X205">
         <v>0</v>
       </c>
-      <c r="Y199">
+      <c r="Y205">
         <v>0</v>
       </c>
-      <c r="Z199">
+      <c r="Z205">
         <v>0</v>
       </c>
-      <c r="AA199">
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -112,16 +112,16 @@
     <t>Al Fayha</t>
   </si>
   <si>
+    <t>Al Riyadh</t>
+  </si>
+  <si>
     <t>Al Fateh SC</t>
   </si>
   <si>
-    <t>Al Riyadh</t>
+    <t>Al Raed</t>
   </si>
   <si>
     <t>Abha</t>
-  </si>
-  <si>
-    <t>Al Raed</t>
   </si>
   <si>
     <t>Al Shabab Riyadh</t>
@@ -139,13 +139,13 @@
     <t>Al Akhdoud</t>
   </si>
   <si>
-    <t>Al Wehda Mecca</t>
-  </si>
-  <si>
     <t>Al Hazm</t>
   </si>
   <si>
     <t>AlNassr Riyadh</t>
+  </si>
+  <si>
+    <t>Al Wehda Mecca</t>
   </si>
   <si>
     <t>Al Ittihad Jeddah</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6941294</v>
+        <v>6941295</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
         <v>1.875</v>
       </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6941295</v>
+        <v>6941294</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
         <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
+        <v>-0.25</v>
+      </c>
+      <c r="R6">
+        <v>1.875</v>
+      </c>
+      <c r="S6">
+        <v>1.925</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
+        <v>1.95</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>2.4</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.925</v>
-      </c>
-      <c r="S6">
-        <v>1.875</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>0.909</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.925</v>
-      </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6932254</v>
+        <v>6932255</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,10 +1082,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
         <v>3.75</v>
@@ -1103,31 +1103,31 @@
         <v>1.615</v>
       </c>
       <c r="N7">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>1.571</v>
+        <v>1.142</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.571</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6932255</v>
+        <v>6932254</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,10 +1171,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>3.75</v>
@@ -1192,31 +1192,31 @@
         <v>1.615</v>
       </c>
       <c r="N8">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.142</v>
+        <v>1.571</v>
       </c>
       <c r="Q8">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1225,19 +1225,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.1419999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6932258</v>
+        <v>6941299</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
         <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6941299</v>
+        <v>6932257</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1806,40 +1806,40 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1.222</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>-1.75</v>
+      </c>
+      <c r="R15">
+        <v>1.775</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
         <v>3.25</v>
       </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>1.7</v>
-      </c>
-      <c r="Q15">
-        <v>0.75</v>
-      </c>
-      <c r="R15">
-        <v>1.875</v>
-      </c>
-      <c r="S15">
-        <v>1.925</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1848,19 +1848,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.7</v>
+        <v>11</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6932257</v>
+        <v>6932258</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,37 +1883,37 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1.775</v>
@@ -1922,7 +1922,7 @@
         <v>2.025</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.9</v>
@@ -1931,25 +1931,25 @@
         <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1969,10 +1969,10 @@
         <v>45157.5</v>
       </c>
       <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6933358</v>
+        <v>6941302</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,49 +2414,49 @@
         <v>45162.625</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>1.571</v>
+      </c>
+      <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>4.75</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <v>6.5</v>
-      </c>
-      <c r="M22">
-        <v>1.2</v>
-      </c>
-      <c r="N22">
-        <v>8.5</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>1.222</v>
-      </c>
       <c r="Q22">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>1.875</v>
@@ -2468,22 +2468,22 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>45162.625</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6941302</v>
+        <v>6933358</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,49 +2592,49 @@
         <v>45162.625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.875</v>
@@ -2646,22 +2646,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6932262</v>
+        <v>6932263</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45163.625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>5.75</v>
+      </c>
+      <c r="L26">
+        <v>4.75</v>
+      </c>
+      <c r="M26">
+        <v>1.444</v>
+      </c>
+      <c r="N26">
+        <v>3.8</v>
+      </c>
+      <c r="O26">
+        <v>4.5</v>
+      </c>
+      <c r="P26">
+        <v>1.6</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <v>1.5</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>5.75</v>
-      </c>
-      <c r="N26">
-        <v>1.65</v>
-      </c>
-      <c r="O26">
-        <v>3.8</v>
-      </c>
-      <c r="P26">
-        <v>4.333</v>
-      </c>
-      <c r="Q26">
-        <v>-0.75</v>
-      </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6932263</v>
+        <v>6932262</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45163.625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
+        <v>1.5</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
         <v>5.75</v>
       </c>
-      <c r="L27">
-        <v>4.75</v>
-      </c>
-      <c r="M27">
-        <v>1.444</v>
-      </c>
       <c r="N27">
+        <v>1.65</v>
+      </c>
+      <c r="O27">
         <v>3.8</v>
       </c>
-      <c r="O27">
-        <v>4.5</v>
-      </c>
       <c r="P27">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y27">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2951,7 +2951,7 @@
         <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>45166.5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6932265</v>
+        <v>6932264</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45166.625</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="L30">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P30">
-        <v>1.222</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932264</v>
+        <v>6941307</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,13 +3215,13 @@
         <v>45166.625</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3230,43 +3230,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3275,16 +3275,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,49 +3304,49 @@
         <v>45166.625</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M32">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N32">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3355,25 +3355,25 @@
         <v>1.9</v>
       </c>
       <c r="W32">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932266</v>
+        <v>6941311</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45167.625</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="L35">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="M35">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>1.125</v>
       </c>
       <c r="O35">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>0.125</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6941310</v>
+        <v>6932266</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45167.625</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>1.333</v>
+      </c>
+      <c r="L36">
+        <v>4.75</v>
+      </c>
+      <c r="M36">
+        <v>6.5</v>
+      </c>
+      <c r="N36">
+        <v>1.363</v>
+      </c>
+      <c r="O36">
+        <v>5.25</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>-1.5</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
+        <v>1.825</v>
+      </c>
+      <c r="V36">
+        <v>1.975</v>
+      </c>
+      <c r="W36">
+        <v>0.363</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36">
-        <v>2.3</v>
-      </c>
-      <c r="L36">
-        <v>3.2</v>
-      </c>
-      <c r="M36">
-        <v>2.75</v>
-      </c>
-      <c r="N36">
-        <v>1.95</v>
-      </c>
-      <c r="O36">
-        <v>3.3</v>
-      </c>
-      <c r="P36">
-        <v>3.4</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.975</v>
-      </c>
-      <c r="S36">
-        <v>1.825</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.9</v>
-      </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>2.3</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.825</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6941311</v>
+        <v>6941310</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,40 +3749,40 @@
         <v>45167.625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="Q37">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,34 +3791,34 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6941312</v>
+        <v>6941313</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,34 +3838,34 @@
         <v>45170.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
         <v>3</v>
@@ -3874,40 +3874,40 @@
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X38">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941313</v>
+        <v>6941312</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,34 +3927,34 @@
         <v>45170.5</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
         <v>3</v>
@@ -3963,40 +3963,40 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
         <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6941314</v>
+        <v>6932267</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,56 +4016,56 @@
         <v>45170.625</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U40">
+        <v>1.85</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6932267</v>
+        <v>6941314</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,56 +4105,56 @@
         <v>45170.625</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
         <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4283,10 +4283,10 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
         <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>45171.625</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4553,7 +4553,7 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4728,7 +4728,7 @@
         <v>45183.625</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -4909,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4998,7 +4998,7 @@
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -5084,7 +5084,7 @@
         <v>45185.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6941319</v>
+        <v>6940731</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.5</v>
       </c>
       <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>42</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6940731</v>
+        <v>6941319</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45185.5</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="N54">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6941324</v>
+        <v>6941325</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,58 +5440,58 @@
         <v>45190.5</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M56">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="N56">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5500,16 +5500,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6941325</v>
+        <v>6940734</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45190.5</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57">
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>1.142</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57">
+        <v>9</v>
+      </c>
+      <c r="P57">
+        <v>1.111</v>
+      </c>
+      <c r="Q57">
+        <v>2.5</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-      <c r="J57" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57">
-        <v>1.7</v>
-      </c>
-      <c r="L57">
-        <v>3.7</v>
-      </c>
-      <c r="M57">
-        <v>4.25</v>
-      </c>
-      <c r="N57">
-        <v>1.45</v>
-      </c>
-      <c r="O57">
-        <v>4.2</v>
-      </c>
-      <c r="P57">
-        <v>5.5</v>
-      </c>
-      <c r="Q57">
-        <v>-1</v>
-      </c>
-      <c r="R57">
-        <v>1.775</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6940734</v>
+        <v>6941324</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,76 +5618,76 @@
         <v>45190.5</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>13</v>
+        <v>1.615</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M58">
-        <v>1.142</v>
+        <v>4.5</v>
       </c>
       <c r="N58">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="O58">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="Q58">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X58">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6940810</v>
+        <v>6940733</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,13 +5707,13 @@
         <v>45190.625</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5722,31 +5722,31 @@
         <v>47</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="L59">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="M59">
-        <v>4.9</v>
+        <v>9.5</v>
       </c>
       <c r="N59">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q59">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.75</v>
@@ -5758,7 +5758,7 @@
         <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,16 +5767,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6940733</v>
+        <v>6940810</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,13 +5796,13 @@
         <v>45190.625</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5811,31 +5811,31 @@
         <v>47</v>
       </c>
       <c r="K60">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
-        <v>9.5</v>
+        <v>4.9</v>
       </c>
       <c r="N60">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
         <v>1.85</v>
-      </c>
-      <c r="S60">
-        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.75</v>
@@ -5847,7 +5847,7 @@
         <v>2.025</v>
       </c>
       <c r="W60">
-        <v>0.6499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,55 +5885,55 @@
         <v>45191.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>49</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N61">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5942,19 +5942,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,55 +5974,55 @@
         <v>45191.5</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>49</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6031,19 +6031,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
+        <v>0.875</v>
+      </c>
+      <c r="AB62">
         <v>0.825</v>
       </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
       <c r="AC62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6941327</v>
+        <v>6940735</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,34 +6063,34 @@
         <v>45191.625</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N63">
         <v>1.65</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>4.333</v>
@@ -6099,19 +6099,19 @@
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>1.975</v>
+      </c>
+      <c r="T63">
+        <v>3.25</v>
+      </c>
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.775</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
       </c>
       <c r="W63">
         <v>0.6499999999999999</v>
@@ -6123,13 +6123,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6940735</v>
+        <v>6941327</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,31 +6155,31 @@
         <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L64">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
         <v>1.65</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
         <v>4.333</v>
@@ -6188,19 +6188,19 @@
         <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>0.6499999999999999</v>
@@ -6212,13 +6212,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6940736</v>
+        <v>6941329</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45198.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="N65">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="O65">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="Q65">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U65">
         <v>1.975</v>
@@ -6298,19 +6298,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.1419999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6941329</v>
+        <v>6940736</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,49 +6419,49 @@
         <v>45198.5</v>
       </c>
       <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
         <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>46</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M67">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="N67">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P67">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
         <v>1.975</v>
@@ -6476,19 +6476,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.5</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6597,10 +6597,10 @@
         <v>45199.375</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>45199.5</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -6775,7 +6775,7 @@
         <v>45199.5</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6941333</v>
+        <v>6941332</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45199.625</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N72">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P72">
+        <v>4.5</v>
+      </c>
+      <c r="Q72">
+        <v>-0.75</v>
+      </c>
+      <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
         <v>3</v>
       </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y72">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6941332</v>
+        <v>6941333</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45199.625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -7131,7 +7131,7 @@
         <v>45204.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
@@ -7312,7 +7312,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7398,10 +7398,10 @@
         <v>45205.5</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>45206.625</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7757,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6941342</v>
+        <v>6940743</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45219.5</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N83">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6940743</v>
+        <v>6941342</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45219.5</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8021,10 +8021,10 @@
         <v>45219.625</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6940742</v>
+        <v>6941343</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,59 +8199,59 @@
         <v>45220.5</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.153</v>
+        <v>2.45</v>
       </c>
       <c r="L87">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>2.55</v>
       </c>
       <c r="N87">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="Q87">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
+        <v>1.825</v>
+      </c>
+      <c r="W87">
         <v>2</v>
       </c>
-      <c r="W87">
-        <v>0.1659999999999999</v>
-      </c>
       <c r="X87">
         <v>-1</v>
       </c>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6941343</v>
+        <v>6940742</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,55 +8291,55 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2.45</v>
+        <v>1.153</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M88">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
+        <v>7</v>
+      </c>
+      <c r="P88">
+        <v>15</v>
+      </c>
+      <c r="Q88">
+        <v>-2.25</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
         <v>3.5</v>
       </c>
-      <c r="P88">
-        <v>2.1</v>
-      </c>
-      <c r="Q88">
-        <v>0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6941341</v>
+        <v>6940812</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45220.625</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
         <v>4.2</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>3</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6940812</v>
+        <v>6941341</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,58 +8466,58 @@
         <v>45220.625</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
         <v>4.2</v>
       </c>
       <c r="P90">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>45221.5</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>37</v>
@@ -8825,7 +8825,7 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8911,10 +8911,10 @@
         <v>45226.5</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9181,7 +9181,7 @@
         <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>45227.5</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -9356,7 +9356,7 @@
         <v>45227.625</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9445,7 +9445,7 @@
         <v>45233.5</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9712,7 +9712,7 @@
         <v>45234.5</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7316934</v>
+        <v>7316918</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,40 +9801,40 @@
         <v>45234.625</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>1.65</v>
       </c>
       <c r="L105">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O105">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="Q105">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
         <v>2</v>
@@ -9843,34 +9843,34 @@
         <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7316918</v>
+        <v>7316934</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,40 +9890,40 @@
         <v>45234.625</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.65</v>
+        <v>1.125</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P106">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R106">
         <v>2</v>
@@ -9932,34 +9932,34 @@
         <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X106">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7316919</v>
+        <v>7316920</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45235.5</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107">
+        <v>1.615</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>4.5</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
+        <v>3.8</v>
+      </c>
+      <c r="P107">
+        <v>3.75</v>
+      </c>
+      <c r="Q107">
+        <v>-0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
         <v>2</v>
-      </c>
-      <c r="J107" t="s">
-        <v>49</v>
-      </c>
-      <c r="K107">
-        <v>2.625</v>
-      </c>
-      <c r="L107">
-        <v>3.6</v>
-      </c>
-      <c r="M107">
-        <v>2.3</v>
-      </c>
-      <c r="N107">
-        <v>3.3</v>
-      </c>
-      <c r="O107">
-        <v>3.75</v>
-      </c>
-      <c r="P107">
-        <v>1.85</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.925</v>
-      </c>
-      <c r="S107">
-        <v>1.875</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7316920</v>
+        <v>7316919</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45235.5</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6940814</v>
+        <v>6941357</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,13 +10246,13 @@
         <v>45239.5</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="N110">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,13 +10306,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6941357</v>
+        <v>6940814</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,13 +10335,13 @@
         <v>45239.5</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -10350,43 +10350,43 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
+        <v>1.85</v>
+      </c>
+      <c r="N111">
+        <v>3.25</v>
+      </c>
+      <c r="O111">
         <v>3.3</v>
       </c>
-      <c r="N111">
-        <v>2</v>
-      </c>
-      <c r="O111">
-        <v>3.5</v>
-      </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T111">
         <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,13 +10395,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6941358</v>
+        <v>6941359</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,55 +10424,55 @@
         <v>45239.625</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>48</v>
       </c>
       <c r="K112">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M112">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
         <v>3.75</v>
       </c>
       <c r="P112">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6941359</v>
+        <v>6941358</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,55 +10513,55 @@
         <v>45239.625</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>48</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
         <v>3.75</v>
       </c>
       <c r="P113">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6941355</v>
+        <v>6941356</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,76 +10780,76 @@
         <v>45241.5</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
         <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA116">
         <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6941356</v>
+        <v>6941355</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45241.5</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.825</v>
       </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA117">
         <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10958,10 +10958,10 @@
         <v>45241.625</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6940754</v>
+        <v>6941363</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45254.5</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z119">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6941363</v>
+        <v>6940754</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45254.5</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="N120">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>45254.625</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11317,7 +11317,7 @@
         <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -11403,7 +11403,7 @@
         <v>45255.5</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
         <v>45</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6941364</v>
+        <v>6940815</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,46 +11492,46 @@
         <v>45255.625</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N124">
         <v>1.909</v>
       </c>
       <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
         <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.75</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6941362</v>
+        <v>6941360</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,58 +11581,58 @@
         <v>45255.625</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="N125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,13 +11641,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6941360</v>
+        <v>6941362</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,58 +11670,58 @@
         <v>45255.625</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>4.5</v>
+      </c>
+      <c r="N126">
+        <v>1.85</v>
+      </c>
+      <c r="O126">
         <v>3.6</v>
       </c>
-      <c r="M126">
-        <v>3.9</v>
-      </c>
-      <c r="N126">
-        <v>2</v>
-      </c>
-      <c r="O126">
-        <v>3.4</v>
-      </c>
       <c r="P126">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
         <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
         <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11730,13 +11730,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6940815</v>
+        <v>6941364</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,46 +11759,46 @@
         <v>45255.625</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N127">
         <v>1.909</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.75</v>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6941371</v>
+        <v>6941374</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45260.5</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N128">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6941374</v>
+        <v>6941371</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45260.5</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
         <v>4</v>
       </c>
-      <c r="M129">
-        <v>1.615</v>
-      </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y129">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12207,7 +12207,7 @@
         <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6941365</v>
+        <v>6941366</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,49 +12293,49 @@
         <v>45262.5</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
       </c>
-      <c r="S133">
-        <v>1.85</v>
-      </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
         <v>1.975</v>
@@ -12344,19 +12344,19 @@
         <v>1.825</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6941366</v>
+        <v>6941365</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,49 +12382,49 @@
         <v>45262.5</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
+        <v>1.571</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>4.75</v>
+      </c>
+      <c r="N134">
+        <v>1.6</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>4.5</v>
+      </c>
+      <c r="Q134">
+        <v>-1</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.25</v>
-      </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>2</v>
-      </c>
-      <c r="N134">
-        <v>3</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.2</v>
-      </c>
-      <c r="Q134">
-        <v>0.25</v>
-      </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
       </c>
       <c r="U134">
         <v>1.975</v>
@@ -12433,19 +12433,19 @@
         <v>1.825</v>
       </c>
       <c r="W134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA134">
-        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6941372</v>
+        <v>6940816</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45262.625</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>2</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="N135">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6940816</v>
+        <v>6941372</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45262.625</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136">
+        <v>2.45</v>
+      </c>
+      <c r="L136">
+        <v>3.4</v>
+      </c>
+      <c r="M136">
+        <v>2.55</v>
+      </c>
+      <c r="N136">
+        <v>2.75</v>
+      </c>
+      <c r="O136">
+        <v>3.4</v>
+      </c>
+      <c r="P136">
+        <v>2.3</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
         <v>2</v>
-      </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>2.05</v>
-      </c>
-      <c r="L136">
-        <v>3.3</v>
-      </c>
-      <c r="M136">
-        <v>3.3</v>
-      </c>
-      <c r="N136">
-        <v>2.1</v>
-      </c>
-      <c r="O136">
-        <v>3.3</v>
-      </c>
-      <c r="P136">
-        <v>3.1</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.875</v>
-      </c>
-      <c r="S136">
-        <v>1.925</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12649,10 +12649,10 @@
         <v>45267.5</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6941379</v>
+        <v>6941378</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,13 +13005,13 @@
         <v>45268.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -13020,43 +13020,43 @@
         <v>47</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13065,13 +13065,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6941378</v>
+        <v>6941379</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,13 +13094,13 @@
         <v>45268.5</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13109,43 +13109,43 @@
         <v>47</v>
       </c>
       <c r="K142">
+        <v>2.15</v>
+      </c>
+      <c r="L142">
+        <v>3.5</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
         <v>1.75</v>
       </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
-      <c r="M142">
-        <v>4.2</v>
-      </c>
-      <c r="N142">
-        <v>1.7</v>
-      </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q142">
         <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
       <c r="W142">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13154,13 +13154,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13183,10 +13183,10 @@
         <v>45268.625</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13361,7 +13361,7 @@
         <v>45269.625</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13539,10 +13539,10 @@
         <v>45274.5</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>45275.5</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>36</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6940763</v>
+        <v>6941381</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,76 +13806,76 @@
         <v>45275.5</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150">
+        <v>2.6</v>
+      </c>
+      <c r="L150">
+        <v>3.4</v>
+      </c>
+      <c r="M150">
+        <v>2.4</v>
+      </c>
+      <c r="N150">
+        <v>2.75</v>
+      </c>
+      <c r="O150">
+        <v>3.25</v>
+      </c>
+      <c r="P150">
+        <v>2.375</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>1.2</v>
-      </c>
-      <c r="L150">
-        <v>7</v>
-      </c>
-      <c r="M150">
-        <v>9.5</v>
-      </c>
-      <c r="N150">
-        <v>1.222</v>
-      </c>
-      <c r="O150">
-        <v>7</v>
-      </c>
-      <c r="P150">
-        <v>8.5</v>
-      </c>
-      <c r="Q150">
-        <v>-2</v>
-      </c>
       <c r="R150">
+        <v>2.025</v>
+      </c>
+      <c r="S150">
+        <v>1.775</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3.75</v>
-      </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
-      <c r="V150">
-        <v>1.9</v>
-      </c>
       <c r="W150">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6941381</v>
+        <v>6940763</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45275.5</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M151">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="N151">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P151">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="Q151">
+        <v>-2</v>
+      </c>
+      <c r="R151">
+        <v>1.85</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>3.75</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>0.222</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
         <v>0</v>
       </c>
-      <c r="R151">
-        <v>2.025</v>
-      </c>
-      <c r="S151">
-        <v>1.775</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>1.375</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
       <c r="AA151">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13984,7 +13984,7 @@
         <v>45276.5</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>39</v>
@@ -14343,7 +14343,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>7</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6941388</v>
+        <v>6940819</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45282.5</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N157">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q157">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>2.025</v>
-      </c>
-      <c r="V157">
-        <v>1.775</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6940819</v>
+        <v>6941388</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45282.5</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>4.75</v>
+      </c>
+      <c r="M158">
+        <v>1.444</v>
+      </c>
+      <c r="N158">
+        <v>5.5</v>
+      </c>
+      <c r="O158">
+        <v>5</v>
+      </c>
+      <c r="P158">
+        <v>1.363</v>
+      </c>
+      <c r="Q158">
+        <v>1.5</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
+        <v>1.775</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.363</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>2.5</v>
-      </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>2.6</v>
-      </c>
-      <c r="N158">
-        <v>2.7</v>
-      </c>
-      <c r="O158">
-        <v>3.25</v>
-      </c>
-      <c r="P158">
-        <v>2.5</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.95</v>
-      </c>
-      <c r="S158">
-        <v>1.85</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
-      <c r="W158">
-        <v>1.7</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.95</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45282.5</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
         <v>37</v>
@@ -14699,7 +14699,7 @@
         <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14788,7 +14788,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14874,10 +14874,10 @@
         <v>45284.625</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14966,7 +14966,7 @@
         <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6941395</v>
+        <v>6941393</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45288.5</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
         <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>1</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6941393</v>
+        <v>6941395</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45288.5</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
         <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15230,10 +15230,10 @@
         <v>45289.5</v>
       </c>
       <c r="F166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" t="s">
         <v>35</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15497,7 +15497,7 @@
         <v>45290.5</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6940820</v>
+        <v>6940769</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,49 +15586,49 @@
         <v>45290.625</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O170">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P170">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
         <v>1.85</v>
@@ -15637,25 +15637,25 @@
         <v>1.95</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z170">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6940769</v>
+        <v>6940820</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,7 +15675,7 @@
         <v>45290.625</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>43</v>
@@ -15684,40 +15684,40 @@
         <v>1</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N171">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
         <v>1.85</v>
@@ -15726,25 +15726,25 @@
         <v>1.95</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>45337.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941396</v>
+        <v>6941397</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176">
+        <v>5.5</v>
+      </c>
+      <c r="L176">
+        <v>4.2</v>
+      </c>
+      <c r="M176">
+        <v>1.5</v>
+      </c>
+      <c r="N176">
+        <v>5.25</v>
+      </c>
+      <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176">
+        <v>1.55</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176" t="s">
-        <v>48</v>
-      </c>
-      <c r="K176">
-        <v>1.55</v>
-      </c>
-      <c r="L176">
-        <v>4</v>
-      </c>
-      <c r="M176">
-        <v>5</v>
-      </c>
-      <c r="N176">
+      <c r="R176">
         <v>1.8</v>
       </c>
-      <c r="O176">
-        <v>3.6</v>
-      </c>
-      <c r="P176">
-        <v>3.8</v>
-      </c>
-      <c r="Q176">
-        <v>-0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.825</v>
-      </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
+        <v>1.8</v>
+      </c>
+      <c r="V176">
         <v>2</v>
       </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6941397</v>
+        <v>6941396</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45338.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>48</v>
+      </c>
+      <c r="K177">
+        <v>1.55</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+      <c r="N177">
+        <v>1.8</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
+        <v>3.8</v>
+      </c>
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.825</v>
+      </c>
+      <c r="S177">
+        <v>1.975</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
         <v>2</v>
       </c>
-      <c r="J177" t="s">
-        <v>47</v>
-      </c>
-      <c r="K177">
-        <v>5.5</v>
-      </c>
-      <c r="L177">
-        <v>4.2</v>
-      </c>
-      <c r="M177">
-        <v>1.5</v>
-      </c>
-      <c r="N177">
-        <v>5.25</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>1.55</v>
-      </c>
-      <c r="Q177">
-        <v>1</v>
-      </c>
-      <c r="R177">
+      <c r="V177">
         <v>1.8</v>
       </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.8</v>
-      </c>
-      <c r="V177">
-        <v>2</v>
-      </c>
       <c r="W177">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.8</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>0.8</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16298,7 +16298,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
         <v>31</v>
@@ -16387,10 +16387,10 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6941403</v>
+        <v>6941401</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L182">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X182">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6941401</v>
+        <v>6941403</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45345.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O183">
         <v>3.5</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,7 +16832,7 @@
         <v>45345.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -17010,7 +17010,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17102,7 +17102,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17191,7 +17191,7 @@
         <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17369,7 +17369,7 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17455,7 +17455,7 @@
         <v>45351.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17544,7 +17544,7 @@
         <v>45351.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
         <v>46</v>
@@ -17633,10 +17633,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H193">
         <v>4</v>
@@ -17722,7 +17722,7 @@
         <v>45352.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>30</v>
@@ -17814,7 +17814,7 @@
         <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18170,7 +18170,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6941415</v>
+        <v>6940780</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18253,43 +18253,43 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45358.45833333334</v>
+        <v>45359.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>1.125</v>
       </c>
       <c r="N200">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
         <v>1.85</v>
       </c>
-      <c r="S200">
-        <v>1.95</v>
-      </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U200">
         <v>1.8</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6940823</v>
+        <v>6941416</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,40 +18327,40 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45358.45833333334</v>
+        <v>45359.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L201">
         <v>3.6</v>
       </c>
       <c r="M201">
+        <v>3.3</v>
+      </c>
+      <c r="N201">
+        <v>2.3</v>
+      </c>
+      <c r="O201">
         <v>3.4</v>
       </c>
-      <c r="N201">
-        <v>1.85</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
       <c r="P201">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T201">
         <v>2.5</v>
@@ -18392,7 +18392,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6940778</v>
+        <v>6940779</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18401,49 +18401,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45358.58333333334</v>
+        <v>45359.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K202">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="L202">
+        <v>4.5</v>
+      </c>
+      <c r="M202">
         <v>5.75</v>
       </c>
-      <c r="M202">
-        <v>6.5</v>
-      </c>
       <c r="N202">
-        <v>1.285</v>
+        <v>1.45</v>
       </c>
       <c r="O202">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P202">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Q202">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6941416</v>
+        <v>6941417</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18475,49 +18475,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45359.45833333334</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18540,7 +18540,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6940780</v>
+        <v>6941413</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18549,49 +18549,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45359.45833333334</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F204" t="s">
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K204">
-        <v>13</v>
+        <v>1.95</v>
       </c>
       <c r="L204">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>1.125</v>
+        <v>3.6</v>
       </c>
       <c r="N204">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="O204">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
-        <v>1.125</v>
+        <v>3.25</v>
       </c>
       <c r="Q204">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
+        <v>1.95</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>1.8</v>
+      </c>
+      <c r="V204">
         <v>2</v>
-      </c>
-      <c r="S204">
-        <v>1.8</v>
-      </c>
-      <c r="T204">
-        <v>3.75</v>
-      </c>
-      <c r="U204">
-        <v>1.85</v>
-      </c>
-      <c r="V204">
-        <v>1.95</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18614,7 +18614,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6940779</v>
+        <v>6941414</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18623,49 +18623,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45359.58333333334</v>
+        <v>45360.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K205">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="O205">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
         <v>0</v>

--- a/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
+++ b/Saudi Arabia Pro League/Saudi Arabia Pro League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Al Fayha</t>
   </si>
   <si>
-    <t>Al Riyadh</t>
+    <t>Al Fateh SC</t>
   </si>
   <si>
-    <t>Al Fateh SC</t>
+    <t>Al Riyadh</t>
   </si>
   <si>
     <t>Abha</t>
@@ -124,10 +124,10 @@
     <t>Al Raed</t>
   </si>
   <si>
-    <t>Al Ittifaq Dammam</t>
+    <t>Al Shabab Riyadh</t>
   </si>
   <si>
-    <t>Al Shabab Riyadh</t>
+    <t>Al Ittifaq Dammam</t>
   </si>
   <si>
     <t>Damac FC</t>
@@ -142,16 +142,16 @@
     <t>Al Wehda Mecca</t>
   </si>
   <si>
+    <t>Al Hazm</t>
+  </si>
+  <si>
     <t>AlNassr Riyadh</t>
   </si>
   <si>
-    <t>Al Hazm</t>
+    <t>Al Hilal Riyadh</t>
   </si>
   <si>
     <t>Al Ittihad Jeddah</t>
-  </si>
-  <si>
-    <t>Al Hilal Riyadh</t>
   </si>
   <si>
     <t>Al Taawon Buraidah</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6941295</v>
+        <v>6941294</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
         <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
+        <v>1.85</v>
+      </c>
+      <c r="V5">
+        <v>1.95</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.4</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>-0.5</v>
       </c>
-      <c r="R5">
-        <v>1.925</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
-      <c r="W5">
-        <v>0.909</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.925</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6941294</v>
+        <v>6941295</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
         <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
         <v>1.875</v>
       </c>
-      <c r="S6">
-        <v>1.925</v>
-      </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6932256</v>
+        <v>6933359</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>-0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.775</v>
+      </c>
+      <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>1.875</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6933359</v>
+        <v>6932256</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,73 +1349,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6932257</v>
+        <v>6941299</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1806,40 +1806,40 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>1.7</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1848,19 +1848,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6941299</v>
+        <v>6932257</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1895,40 +1895,40 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1.222</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>-1.75</v>
+      </c>
+      <c r="R16">
+        <v>1.775</v>
+      </c>
+      <c r="S16">
+        <v>2.025</v>
+      </c>
+      <c r="T16">
         <v>3.25</v>
       </c>
-      <c r="M16">
-        <v>2.25</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>1.7</v>
-      </c>
-      <c r="Q16">
-        <v>0.75</v>
-      </c>
-      <c r="R16">
-        <v>1.875</v>
-      </c>
-      <c r="S16">
-        <v>1.925</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1937,19 +1937,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>11</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6932260</v>
+        <v>6932259</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2061,73 +2061,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L18">
         <v>4.333</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6932259</v>
+        <v>6932260</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,73 +2150,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L19">
         <v>4.333</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X19">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6932261</v>
+        <v>6933358</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,7 +2325,7 @@
         <v>45162.625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2340,41 +2340,41 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M21">
         <v>1.2</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>1.142</v>
+        <v>1.222</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U21">
+        <v>1.875</v>
+      </c>
+      <c r="V21">
         <v>1.925</v>
       </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.1419999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6933358</v>
+        <v>6941302</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,49 +2414,49 @@
         <v>45162.625</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>1.571</v>
+      </c>
+      <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>4.75</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <v>6.5</v>
-      </c>
-      <c r="M22">
-        <v>1.2</v>
-      </c>
-      <c r="N22">
-        <v>8.5</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>1.222</v>
-      </c>
       <c r="Q22">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>1.875</v>
@@ -2468,22 +2468,22 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6941302</v>
+        <v>6932261</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45162.625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>2.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
         <v>1.875</v>
       </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2684,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6932262</v>
+        <v>6941305</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>45163.625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
       <c r="M26">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X26">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6941305</v>
+        <v>6932262</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45163.625</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N27">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,10 +2948,10 @@
         <v>45163.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6941307</v>
+        <v>6932265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,49 +3126,49 @@
         <v>45166.625</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>1.9</v>
@@ -3177,25 +3177,25 @@
         <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932264</v>
+        <v>6941307</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,13 +3215,13 @@
         <v>45166.625</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3230,43 +3230,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q31">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3275,16 +3275,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6932265</v>
+        <v>6932264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45166.625</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>1.181</v>
       </c>
       <c r="L32">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P32">
-        <v>1.222</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6941309</v>
+        <v>6941308</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45167.5</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L33">
         <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.925</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
       </c>
-      <c r="V33">
-        <v>1.925</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z33">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.875</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6941308</v>
+        <v>6941309</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,76 +3482,76 @@
         <v>45167.5</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L34">
         <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N34">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
         <v>1.925</v>
       </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
+        <v>-0.5</v>
+      </c>
+      <c r="AB34">
         <v>0.875</v>
       </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6941311</v>
+        <v>6941310</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45167.625</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.975</v>
@@ -3613,34 +3613,34 @@
         <v>1.825</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,10 +3660,10 @@
         <v>45167.625</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6941310</v>
+        <v>6941311</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,40 +3749,40 @@
         <v>45167.625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>1.125</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
         <v>1.975</v>
@@ -3791,34 +3791,34 @@
         <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6932267</v>
+        <v>6941314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,56 +4016,56 @@
         <v>45170.625</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>49</v>
       </c>
       <c r="K40">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
         <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
         <v>1.85</v>
       </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4073,19 +4073,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6941314</v>
+        <v>6932267</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,56 +4105,56 @@
         <v>45170.625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>49</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
         <v>3.4</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U41">
+        <v>1.85</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
@@ -4162,19 +4162,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6941315</v>
+        <v>6941317</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,13 +4194,13 @@
         <v>45171.625</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4218,34 +4218,34 @@
         <v>3.5</v>
       </c>
       <c r="N42">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.775</v>
+      </c>
+      <c r="S42">
         <v>2.025</v>
-      </c>
-      <c r="S42">
-        <v>1.775</v>
       </c>
       <c r="T42">
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
-        <v>0.6000000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4254,13 +4254,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6941317</v>
+        <v>6932269</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,73 +4283,73 @@
         <v>45171.625</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>13</v>
       </c>
       <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>1.166</v>
+      </c>
+      <c r="N43">
+        <v>15</v>
+      </c>
+      <c r="O43">
+        <v>7.5</v>
+      </c>
+      <c r="P43">
+        <v>1.142</v>
+      </c>
+      <c r="Q43">
+        <v>2.25</v>
+      </c>
+      <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
+        <v>1.925</v>
+      </c>
+      <c r="T43">
         <v>3.5</v>
       </c>
-      <c r="M43">
-        <v>3.5</v>
-      </c>
-      <c r="N43">
-        <v>2.375</v>
-      </c>
-      <c r="O43">
-        <v>3.25</v>
-      </c>
-      <c r="P43">
-        <v>2.7</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1.775</v>
-      </c>
-      <c r="S43">
-        <v>2.025</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
       <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
         <v>1.825</v>
       </c>
-      <c r="V43">
-        <v>1.975</v>
-      </c>
       <c r="W43">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6941316</v>
+        <v>6932268</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,73 +4372,73 @@
         <v>45171.625</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="L44">
         <v>4.2</v>
       </c>
       <c r="M44">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
+        <v>1.9</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
         <v>1.8</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-      <c r="T44">
-        <v>3.25</v>
-      </c>
-      <c r="U44">
-        <v>1.925</v>
-      </c>
-      <c r="V44">
-        <v>1.875</v>
-      </c>
       <c r="W44">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6932268</v>
+        <v>6941316</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,73 +4461,73 @@
         <v>45171.625</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="L45">
         <v>4.2</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="N45">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6932269</v>
+        <v>6941315</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,73 +4550,73 @@
         <v>45171.625</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.166</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>1.142</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4642,7 +4642,7 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4995,10 +4995,10 @@
         <v>45184.625</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -5087,7 +5087,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6941319</v>
+        <v>6940731</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,76 +5173,76 @@
         <v>45185.5</v>
       </c>
       <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
         <v>43</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="N53">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P53">
-        <v>3.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6940731</v>
+        <v>6941319</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45185.5</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="N54">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="O54">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>45190.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -5707,10 +5707,10 @@
         <v>45190.625</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -5796,10 +5796,10 @@
         <v>45190.625</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6941326</v>
+        <v>6941323</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,55 +5885,55 @@
         <v>45191.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>49</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="N61">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5942,19 +5942,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.833</v>
+        <v>2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5962,7 +5962,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6941323</v>
+        <v>6941326</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5974,55 +5974,55 @@
         <v>45191.5</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>49</v>
       </c>
       <c r="K62">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
    